--- a/investing spreadsheets/ACN.xlsx
+++ b/investing spreadsheets/ACN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16720" yWindow="-20" windowWidth="16800" windowHeight="12740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16725" yWindow="-15" windowWidth="16800" windowHeight="12735" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -124,9 +124,6 @@
     <t>G&amp;A</t>
   </si>
   <si>
-    <t>Pension settlement charge</t>
-  </si>
-  <si>
     <t>Interest Income</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>Other Expense</t>
   </si>
   <si>
-    <t>Gain on sale of business</t>
-  </si>
-  <si>
     <t>Pretax Income</t>
   </si>
   <si>
@@ -164,13 +158,46 @@
   </si>
   <si>
     <t>Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Net Income Y/Y</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Current</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,16 +230,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,7 +294,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -267,17 +302,29 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -308,7 +355,105 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16472647" y="0"/>
+          <a:ext cx="0" cy="15027088"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>51546</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>51546</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23987311" y="0"/>
+          <a:ext cx="0" cy="15027088"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,18 +781,18 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,7 +815,7 @@
         <v>110.53</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="J3" t="s">
         <v>6</v>
@@ -679,7 +824,7 @@
         <v>644.73</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>7</v>
       </c>
@@ -688,7 +833,7 @@
         <v>71262.006900000008</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>8</v>
       </c>
@@ -697,7 +842,7 @@
         <v>3633.1740000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>9</v>
       </c>
@@ -706,7 +851,7 @@
         <v>28.872999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>10</v>
       </c>
@@ -728,38 +873,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R31"/>
+  <dimension ref="B1:GN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="5" customFormat="1">
-      <c r="K1" s="10">
-        <v>42452</v>
-      </c>
-      <c r="L1" s="6">
+    <row r="1" spans="2:41" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C1" s="8">
+        <v>41243</v>
+      </c>
+      <c r="D1" s="8">
+        <v>41333</v>
+      </c>
+      <c r="E1" s="8">
+        <v>41425</v>
+      </c>
+      <c r="F1" s="12">
+        <v>41517</v>
+      </c>
+      <c r="G1" s="8">
+        <v>41607</v>
+      </c>
+      <c r="H1" s="10">
+        <v>41698</v>
+      </c>
+      <c r="I1" s="10">
+        <v>41790</v>
+      </c>
+      <c r="J1" s="12">
+        <v>41882</v>
+      </c>
+      <c r="K1" s="11">
+        <v>41973</v>
+      </c>
+      <c r="L1" s="11">
+        <v>42086</v>
+      </c>
+      <c r="M1" s="11">
         <v>42155</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="12">
+        <v>42247</v>
+      </c>
+      <c r="O1" s="10">
         <v>42338</v>
       </c>
-      <c r="O1" s="10">
+      <c r="P1" s="10">
         <v>42453</v>
       </c>
-      <c r="P1" s="6">
+      <c r="Q1" s="10">
         <v>42521</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>11</v>
       </c>
@@ -784,16 +961,16 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="O2" t="s">
@@ -808,565 +985,3195 @@
       <c r="R2" t="s">
         <v>26</v>
       </c>
+      <c r="V2">
+        <v>2011</v>
+      </c>
+      <c r="W2">
+        <v>2012</v>
+      </c>
+      <c r="X2">
+        <v>2013</v>
+      </c>
+      <c r="Y2">
+        <v>2014</v>
+      </c>
+      <c r="Z2">
+        <v>2015</v>
+      </c>
+      <c r="AA2">
+        <v>2016</v>
+      </c>
+      <c r="AB2">
+        <v>2017</v>
+      </c>
+      <c r="AC2">
+        <v>2018</v>
+      </c>
+      <c r="AD2">
+        <v>2019</v>
+      </c>
+      <c r="AE2">
+        <v>2020</v>
+      </c>
+      <c r="AF2">
+        <v>2021</v>
+      </c>
+      <c r="AG2">
+        <v>2022</v>
+      </c>
+      <c r="AH2">
+        <v>2023</v>
+      </c>
+      <c r="AI2">
+        <v>2024</v>
+      </c>
+      <c r="AJ2">
+        <v>2025</v>
+      </c>
+      <c r="AK2">
+        <v>2026</v>
+      </c>
+      <c r="AL2">
+        <v>2027</v>
+      </c>
+      <c r="AM2">
+        <v>2028</v>
+      </c>
+      <c r="AN2">
+        <v>2029</v>
+      </c>
+      <c r="AO2">
+        <v>2030</v>
+      </c>
     </row>
-    <row r="3" spans="2:18" s="3" customFormat="1">
+    <row r="3" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="11">
+      <c r="C3" s="3">
+        <v>7219.9610000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7058.0420000000004</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7198.14</v>
+      </c>
+      <c r="F3" s="3">
+        <f>28562.81-C3-D3-E3</f>
+        <v>7086.6670000000004</v>
+      </c>
+      <c r="G3" s="3">
+        <v>7358.7489999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>7130.6670000000004</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7735.6379999999999</v>
+      </c>
+      <c r="J3" s="3">
+        <f>30002.394-G3-H3-I3</f>
+        <v>7777.3399999999992</v>
+      </c>
+      <c r="K3" s="14">
         <v>7895.7150000000001</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="15">
         <v>7493.3289999999997</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="15">
         <v>7770.3819999999996</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="15">
+        <f>31047.931-M3-L3-K3</f>
+        <v>7888.5049999999992</v>
+      </c>
+      <c r="O3" s="3">
         <v>8013.1620000000003</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>7945.5649999999996</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>8434.7569999999996</v>
       </c>
+      <c r="V3" s="3">
+        <v>25507.036</v>
+      </c>
+      <c r="W3" s="3">
+        <v>27862.33</v>
+      </c>
+      <c r="X3" s="3">
+        <f>SUM(C3:F3)</f>
+        <v>28562.81</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>SUM(G3:J3)</f>
+        <v>30002.394</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>SUM(K3:N3)</f>
+        <v>31047.930999999997</v>
+      </c>
     </row>
-    <row r="4" spans="2:18" s="3" customFormat="1">
+    <row r="4" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="11">
+      <c r="C4" s="3">
+        <v>448.07499999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>435.27800000000002</v>
+      </c>
+      <c r="E4" s="3">
+        <v>509.79500000000002</v>
+      </c>
+      <c r="F4" s="3">
+        <f>1831.475-C4-D4-E4</f>
+        <v>438.32699999999983</v>
+      </c>
+      <c r="G4" s="3">
+        <v>440.947</v>
+      </c>
+      <c r="H4" s="3">
+        <v>436.81599999999997</v>
+      </c>
+      <c r="I4" s="3">
+        <v>504.54199999999997</v>
+      </c>
+      <c r="J4" s="3">
+        <f>1872.284-G4-H4-I4</f>
+        <v>489.97899999999998</v>
+      </c>
+      <c r="K4" s="14">
         <v>447.54199999999997</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="15">
         <v>438.26100000000002</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="15">
         <v>504.68400000000003</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="15">
+        <f>1866.493-K4-L4-M4</f>
+        <v>476.00600000000003</v>
+      </c>
+      <c r="O4" s="3">
         <v>452.82100000000003</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>451.488</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>534.28700000000003</v>
       </c>
+      <c r="V4" s="3">
+        <v>1845.8779999999999</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1915.655</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" ref="W4:X19" si="0">SUM(C4:F4)</f>
+        <v>1831.4749999999999</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>SUM(G4:J4)</f>
+        <v>1872.2839999999999</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4:Z19" si="1">SUM(K4:N4)</f>
+        <v>1866.4930000000002</v>
+      </c>
     </row>
-    <row r="5" spans="2:18" s="3" customFormat="1">
-      <c r="B5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="3">
+    <row r="5" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5">
+        <f>+C3+C4</f>
+        <v>7668.0360000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <f>+D3+D4</f>
+        <v>7493.3200000000006</v>
+      </c>
+      <c r="E5" s="5">
+        <f>+E3+E4</f>
+        <v>7707.9350000000004</v>
+      </c>
+      <c r="F5" s="5">
+        <f>+F3+F4</f>
+        <v>7524.9940000000006</v>
+      </c>
+      <c r="G5" s="5">
+        <f>+G3+G4</f>
+        <v>7799.6959999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <f>+H3+H4</f>
+        <v>7567.4830000000002</v>
+      </c>
+      <c r="I5" s="5">
+        <f>+I3+I4</f>
+        <v>8240.18</v>
+      </c>
+      <c r="J5" s="5">
         <f>+J3+J4</f>
+        <v>8267.3189999999995</v>
+      </c>
+      <c r="K5" s="16">
+        <f>+K3+K4</f>
         <v>8343.2569999999996</v>
       </c>
-      <c r="K5" s="3">
-        <f>+K3+K4</f>
+      <c r="L5" s="16">
+        <f>+L3+L4</f>
         <v>7931.59</v>
       </c>
-      <c r="L5" s="3">
-        <f>+L3+L4</f>
+      <c r="M5" s="16">
+        <f>+M3+M4</f>
         <v>8275.0659999999989</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="16">
         <f>+N3+N4</f>
+        <v>8364.5109999999986</v>
+      </c>
+      <c r="O5" s="5">
+        <f>+O3+O4</f>
         <v>8465.9830000000002</v>
       </c>
-      <c r="O5" s="3">
-        <f>+O3+O4</f>
+      <c r="P5" s="5">
+        <f>+P3+P4</f>
         <v>8397.0529999999999</v>
       </c>
-      <c r="P5" s="3">
-        <f>+P3+P4</f>
+      <c r="Q5" s="5">
+        <f>+Q3+Q4</f>
         <v>8969.0439999999999</v>
       </c>
+      <c r="V5" s="5">
+        <f>+V3+V4</f>
+        <v>27352.914000000001</v>
+      </c>
+      <c r="W5" s="5">
+        <f>+W3+W4</f>
+        <v>29777.985000000001</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="0"/>
+        <v>30394.285000000003</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" ref="Y5:Y19" si="2">SUM(G5:J5)</f>
+        <v>31874.678</v>
+      </c>
+      <c r="Z5" s="5">
+        <f>+Z3+Z4</f>
+        <v>32914.423999999999</v>
+      </c>
+      <c r="AA5" s="5">
+        <f>+Z5*1.02</f>
+        <v>33572.712480000002</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" ref="AB5:AO5" si="3">+AA5*1.02</f>
+        <v>34244.166729600001</v>
+      </c>
+      <c r="AC5" s="5">
+        <f t="shared" si="3"/>
+        <v>34929.050064192001</v>
+      </c>
+      <c r="AD5" s="5">
+        <f t="shared" si="3"/>
+        <v>35627.631065475842</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="3"/>
+        <v>36340.183686785356</v>
+      </c>
+      <c r="AF5" s="5">
+        <f t="shared" si="3"/>
+        <v>37066.987360521067</v>
+      </c>
+      <c r="AG5" s="5">
+        <f t="shared" si="3"/>
+        <v>37808.327107731486</v>
+      </c>
+      <c r="AH5" s="5">
+        <f t="shared" si="3"/>
+        <v>38564.493649886113</v>
+      </c>
+      <c r="AI5" s="5">
+        <f t="shared" si="3"/>
+        <v>39335.783522883838</v>
+      </c>
+      <c r="AJ5" s="5">
+        <f t="shared" si="3"/>
+        <v>40122.499193341515</v>
+      </c>
+      <c r="AK5" s="5">
+        <f t="shared" si="3"/>
+        <v>40924.949177208349</v>
+      </c>
+      <c r="AL5" s="5">
+        <f t="shared" si="3"/>
+        <v>41743.448160752516</v>
+      </c>
+      <c r="AM5" s="5">
+        <f t="shared" si="3"/>
+        <v>42578.317123967565</v>
+      </c>
+      <c r="AN5" s="5">
+        <f t="shared" si="3"/>
+        <v>43429.883466446918</v>
+      </c>
+      <c r="AO5" s="5">
+        <f t="shared" si="3"/>
+        <v>44298.481135775859</v>
+      </c>
     </row>
-    <row r="6" spans="2:18" s="3" customFormat="1">
+    <row r="6" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C6" s="3">
+        <v>4853.768</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4827.6790000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4760.1210000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <f>19178.635-C6-D6-E6</f>
+        <v>4737.0669999999982</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4909.402</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4900.5249999999996</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5199.2809999999999</v>
+      </c>
       <c r="J6" s="3">
+        <f>20317.928-G6-H6-I6</f>
+        <v>5308.72</v>
+      </c>
+      <c r="K6" s="15">
         <v>5356.4250000000002</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="15">
         <v>5252.69</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="15">
         <v>5245.4769999999999</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="15">
+        <f>21238.692-K6-L6-M6</f>
+        <v>5384.1000000000013</v>
+      </c>
+      <c r="O6" s="3">
         <v>5450.6440000000002</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>5575.7489999999998</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>5745.2049999999999</v>
       </c>
+      <c r="V6" s="3">
+        <v>17120.316999999999</v>
+      </c>
+      <c r="W6" s="3">
+        <v>18874.629000000001</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="0"/>
+        <v>19178.634999999998</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="2"/>
+        <v>20317.928</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="1"/>
+        <v>21238.692000000003</v>
+      </c>
     </row>
-    <row r="7" spans="2:18" s="3" customFormat="1">
+    <row r="7" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="C7" s="3">
+        <v>448.07499999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>435.27800000000002</v>
+      </c>
+      <c r="E7" s="3">
+        <v>509.79500000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <f>1831.475-C7-D7-E7</f>
+        <v>438.32699999999983</v>
+      </c>
+      <c r="G7" s="3">
+        <v>440.947</v>
+      </c>
+      <c r="H7" s="3">
+        <v>436.81599999999997</v>
+      </c>
+      <c r="I7" s="3">
+        <v>504.54199999999997</v>
+      </c>
       <c r="J7" s="3">
+        <f>1872.284-G7-H7-I7</f>
+        <v>489.97899999999998</v>
+      </c>
+      <c r="K7" s="15">
         <v>447.54199999999997</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="15">
         <v>438.26100000000002</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="15">
         <v>504.68400000000003</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="15">
+        <f>1866.493-K7-L7-M7</f>
+        <v>476.00600000000003</v>
+      </c>
+      <c r="O7" s="3">
         <v>452.82100000000003</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>451.488</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>534.28700000000003</v>
       </c>
+      <c r="V7" s="3">
+        <v>1845.8779999999999</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1915.655</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="0"/>
+        <v>1831.4749999999999</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="2"/>
+        <v>1872.2839999999999</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="1"/>
+        <v>1866.4930000000002</v>
+      </c>
     </row>
-    <row r="8" spans="2:18" s="3" customFormat="1">
+    <row r="8" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C8" s="3">
+        <f>+C6+C7</f>
+        <v>5301.8429999999998</v>
+      </c>
+      <c r="D8" s="3">
+        <f>+D6+D7</f>
+        <v>5262.9570000000003</v>
+      </c>
+      <c r="E8" s="3">
+        <f>+E6+E7</f>
+        <v>5269.9160000000002</v>
+      </c>
+      <c r="F8" s="3">
+        <f>+F6+F7</f>
+        <v>5175.3939999999984</v>
+      </c>
+      <c r="G8" s="3">
+        <f>+G6+G7</f>
+        <v>5350.3490000000002</v>
+      </c>
+      <c r="H8" s="3">
+        <f>+H6+H7</f>
+        <v>5337.3409999999994</v>
+      </c>
+      <c r="I8" s="3">
+        <f>+I6+I7</f>
+        <v>5703.8230000000003</v>
+      </c>
       <c r="J8" s="3">
         <f>+J6+J7</f>
+        <v>5798.6990000000005</v>
+      </c>
+      <c r="K8" s="15">
+        <f>+K6+K7</f>
         <v>5803.9670000000006</v>
       </c>
-      <c r="K8" s="3">
-        <f>+K6+K7</f>
+      <c r="L8" s="15">
+        <f>+L6+L7</f>
         <v>5690.951</v>
       </c>
-      <c r="L8" s="3">
-        <f>+L6+L7</f>
+      <c r="M8" s="15">
+        <f>+M6+M7</f>
         <v>5750.1610000000001</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="15">
         <f>+N6+N7</f>
-        <v>5903.4650000000001</v>
+        <v>5860.1060000000016</v>
       </c>
       <c r="O8" s="3">
         <f>+O6+O7</f>
-        <v>6027.2370000000001</v>
+        <v>5903.4650000000001</v>
       </c>
       <c r="P8" s="3">
         <f>+P6+P7</f>
+        <v>6027.2370000000001</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>+Q6+Q7</f>
         <v>6279.4920000000002</v>
       </c>
+      <c r="V8" s="3">
+        <f>+V6+V7</f>
+        <v>18966.195</v>
+      </c>
+      <c r="W8" s="3">
+        <f>+W6+W7</f>
+        <v>20790.284</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="0"/>
+        <v>21010.11</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="2"/>
+        <v>22190.212</v>
+      </c>
+      <c r="Z8" s="3">
+        <f>+Z6+Z7</f>
+        <v>23105.185000000001</v>
+      </c>
     </row>
-    <row r="9" spans="2:18" s="3" customFormat="1">
+    <row r="9" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C9" s="3">
+        <f>+C5-C8</f>
+        <v>2366.1930000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <f>+D5-D8</f>
+        <v>2230.3630000000003</v>
+      </c>
+      <c r="E9" s="3">
+        <f>+E5-E8</f>
+        <v>2438.0190000000002</v>
+      </c>
+      <c r="F9" s="3">
+        <f>+F5-F8</f>
+        <v>2349.6000000000022</v>
+      </c>
+      <c r="G9" s="3">
+        <f>+G5-G8</f>
+        <v>2449.3469999999998</v>
+      </c>
+      <c r="H9" s="3">
+        <f>+H5-H8</f>
+        <v>2230.1420000000007</v>
+      </c>
+      <c r="I9" s="3">
+        <f>+I5-I8</f>
+        <v>2536.357</v>
       </c>
       <c r="J9" s="3">
         <f>+J5-J8</f>
+        <v>2468.619999999999</v>
+      </c>
+      <c r="K9" s="15">
+        <f>+K5-K8</f>
         <v>2539.2899999999991</v>
       </c>
-      <c r="K9" s="3">
-        <f>+K5-K8</f>
+      <c r="L9" s="15">
+        <f>+L5-L8</f>
         <v>2240.6390000000001</v>
       </c>
-      <c r="L9" s="3">
-        <f>+L5-L8</f>
+      <c r="M9" s="15">
+        <f>+M5-M8</f>
         <v>2524.9049999999988</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="15">
         <f>+N5-N8</f>
-        <v>2562.518</v>
+        <v>2504.404999999997</v>
       </c>
       <c r="O9" s="3">
         <f>+O5-O8</f>
-        <v>2369.8159999999998</v>
+        <v>2562.518</v>
       </c>
       <c r="P9" s="3">
         <f>+P5-P8</f>
+        <v>2369.8159999999998</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>+Q5-Q8</f>
         <v>2689.5519999999997</v>
       </c>
+      <c r="V9" s="3">
+        <f>+V5-V8</f>
+        <v>8386.719000000001</v>
+      </c>
+      <c r="W9" s="3">
+        <f>+W5-W8</f>
+        <v>8987.7010000000009</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="0"/>
+        <v>9384.1750000000029</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="2"/>
+        <v>9684.4660000000003</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>+Z5-Z8</f>
+        <v>9809.2389999999978</v>
+      </c>
+      <c r="AA9" s="3">
+        <f>(AA5*0.295)</f>
+        <v>9903.9501815999993</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" ref="AB9:AO9" si="4">(AB5*0.295)</f>
+        <v>10102.029185232001</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="4"/>
+        <v>10304.069768936639</v>
+      </c>
+      <c r="AD9" s="3">
+        <f t="shared" si="4"/>
+        <v>10510.151164315374</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" si="4"/>
+        <v>10720.354187601679</v>
+      </c>
+      <c r="AF9" s="3">
+        <f t="shared" si="4"/>
+        <v>10934.761271353715</v>
+      </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="4"/>
+        <v>11153.456496780787</v>
+      </c>
+      <c r="AH9" s="3">
+        <f t="shared" si="4"/>
+        <v>11376.525626716402</v>
+      </c>
+      <c r="AI9" s="3">
+        <f t="shared" si="4"/>
+        <v>11604.056139250732</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="4"/>
+        <v>11836.137262035747</v>
+      </c>
+      <c r="AK9" s="3">
+        <f t="shared" si="4"/>
+        <v>12072.860007276462</v>
+      </c>
+      <c r="AL9" s="3">
+        <f t="shared" si="4"/>
+        <v>12314.317207421991</v>
+      </c>
+      <c r="AM9" s="3">
+        <f t="shared" si="4"/>
+        <v>12560.603551570432</v>
+      </c>
+      <c r="AN9" s="3">
+        <f t="shared" si="4"/>
+        <v>12811.81562260184</v>
+      </c>
+      <c r="AO9" s="3">
+        <f t="shared" si="4"/>
+        <v>13068.051935053878</v>
+      </c>
     </row>
-    <row r="10" spans="2:18" s="3" customFormat="1">
+    <row r="10" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="C10" s="3">
+        <v>868.202</v>
+      </c>
+      <c r="D10" s="3">
+        <v>834.04700000000003</v>
+      </c>
+      <c r="E10" s="3">
+        <v>886.64099999999996</v>
+      </c>
+      <c r="F10" s="3">
+        <f>3481.891-C10-D10-E10</f>
+        <v>893.00100000000032</v>
+      </c>
+      <c r="G10" s="3">
+        <v>928.21</v>
+      </c>
+      <c r="H10" s="3">
+        <v>837.255</v>
+      </c>
+      <c r="I10" s="3">
+        <v>899.25</v>
+      </c>
       <c r="J10" s="3">
+        <f>3582.833-G10-H10-I10</f>
+        <v>918.11799999999994</v>
+      </c>
+      <c r="K10" s="15">
         <v>907.57399999999996</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="15">
         <v>798.64400000000001</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="15">
         <v>874.71299999999997</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="15">
+        <f>3505.045-K10-L10-M10</f>
+        <v>924.11400000000003</v>
+      </c>
+      <c r="O10" s="3">
         <v>875.79300000000001</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>830.33199999999999</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>933.77</v>
       </c>
+      <c r="V10" s="3">
+        <v>3094.4650000000001</v>
+      </c>
+      <c r="W10" s="3">
+        <v>3303.4780000000001</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" si="0"/>
+        <v>3481.8910000000001</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="2"/>
+        <v>3582.8330000000001</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="1"/>
+        <v>3505.0449999999996</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>Z10*0.99</f>
+        <v>3469.9945499999994</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" ref="AB10:AO10" si="5">AA10*0.99</f>
+        <v>3435.2946044999994</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" si="5"/>
+        <v>3400.9416584549995</v>
+      </c>
+      <c r="AD10" s="3">
+        <f t="shared" si="5"/>
+        <v>3366.9322418704496</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="5"/>
+        <v>3333.2629194517449</v>
+      </c>
+      <c r="AF10" s="3">
+        <f t="shared" si="5"/>
+        <v>3299.9302902572276</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="5"/>
+        <v>3266.9309873546554</v>
+      </c>
+      <c r="AH10" s="3">
+        <f t="shared" si="5"/>
+        <v>3234.2616774811086</v>
+      </c>
+      <c r="AI10" s="3">
+        <f t="shared" si="5"/>
+        <v>3201.9190607062974</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="5"/>
+        <v>3169.8998700992342</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="5"/>
+        <v>3138.2008713982418</v>
+      </c>
+      <c r="AL10" s="3">
+        <f t="shared" si="5"/>
+        <v>3106.8188626842593</v>
+      </c>
+      <c r="AM10" s="3">
+        <f t="shared" si="5"/>
+        <v>3075.7506740574167</v>
+      </c>
+      <c r="AN10" s="3">
+        <f t="shared" si="5"/>
+        <v>3044.9931673168426</v>
+      </c>
+      <c r="AO10" s="3">
+        <f t="shared" si="5"/>
+        <v>3014.5432356436741</v>
+      </c>
     </row>
-    <row r="11" spans="2:18" s="3" customFormat="1">
+    <row r="11" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="C11" s="3">
+        <v>448.85199999999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>455.55099999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>458.64100000000002</v>
+      </c>
+      <c r="F11" s="3">
+        <f>1835.646-C11-D11-E11</f>
+        <v>472.60199999999992</v>
+      </c>
+      <c r="G11" s="3">
+        <v>448.053</v>
+      </c>
+      <c r="H11" s="3">
+        <v>441.60500000000002</v>
+      </c>
+      <c r="I11" s="3">
+        <v>458.34100000000001</v>
+      </c>
       <c r="J11" s="3">
+        <f>1819.136-G11-H11-I11</f>
+        <v>471.13700000000006</v>
+      </c>
+      <c r="K11" s="15">
         <v>444.00700000000001</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="15">
         <v>420.96199999999999</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="15">
         <v>452.291</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="15">
+        <f>1803.493-K11-L11-M11</f>
+        <v>486.23299999999989</v>
+      </c>
+      <c r="O11" s="3">
         <v>465.46600000000001</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>451.44</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>449.839</v>
       </c>
+      <c r="V11" s="3">
+        <v>1820.277</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1810.9839999999999</v>
+      </c>
+      <c r="X11" s="3">
+        <f t="shared" si="0"/>
+        <v>1835.646</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="2"/>
+        <v>1819.136</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" si="1"/>
+        <v>1803.4929999999999</v>
+      </c>
+      <c r="AA11" s="3">
+        <f>Z11*0.99</f>
+        <v>1785.4580699999999</v>
+      </c>
+      <c r="AB11" s="3">
+        <f t="shared" ref="AB11:AO11" si="6">AA11*0.99</f>
+        <v>1767.6034892999999</v>
+      </c>
+      <c r="AC11" s="3">
+        <f t="shared" si="6"/>
+        <v>1749.9274544069999</v>
+      </c>
+      <c r="AD11" s="3">
+        <f t="shared" si="6"/>
+        <v>1732.4281798629299</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" si="6"/>
+        <v>1715.1038980643007</v>
+      </c>
+      <c r="AF11" s="3">
+        <f t="shared" si="6"/>
+        <v>1697.9528590836576</v>
+      </c>
+      <c r="AG11" s="3">
+        <f t="shared" si="6"/>
+        <v>1680.9733304928211</v>
+      </c>
+      <c r="AH11" s="3">
+        <f t="shared" si="6"/>
+        <v>1664.1635971878929</v>
+      </c>
+      <c r="AI11" s="3">
+        <f t="shared" si="6"/>
+        <v>1647.521961216014</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="6"/>
+        <v>1631.0467416038539</v>
+      </c>
+      <c r="AK11" s="3">
+        <f t="shared" si="6"/>
+        <v>1614.7362741878153</v>
+      </c>
+      <c r="AL11" s="3">
+        <f t="shared" si="6"/>
+        <v>1598.5889114459371</v>
+      </c>
+      <c r="AM11" s="3">
+        <f t="shared" si="6"/>
+        <v>1582.6030223314776</v>
+      </c>
+      <c r="AN11" s="3">
+        <f t="shared" si="6"/>
+        <v>1566.7769921081629</v>
+      </c>
+      <c r="AO11" s="3">
+        <f t="shared" si="6"/>
+        <v>1551.1092221870813</v>
+      </c>
     </row>
-    <row r="12" spans="2:18" s="3" customFormat="1">
+    <row r="12" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3">
+        <f>+C10+C11+0.465</f>
+        <v>1317.519</v>
+      </c>
+      <c r="D12" s="3">
+        <f>+D10+D11-223.767</f>
+        <v>1065.8309999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <f>+E10+E11-49.224</f>
+        <v>1296.058</v>
+      </c>
+      <c r="F12" s="3">
+        <f>+F10+F11</f>
+        <v>1365.6030000000003</v>
+      </c>
+      <c r="G12" s="3">
+        <f>+G10+G11-18.015</f>
+        <v>1358.2479999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <f>+H10+H11</f>
+        <v>1278.8600000000001</v>
+      </c>
+      <c r="I12" s="3">
+        <f>+I10+I11</f>
+        <v>1357.5909999999999</v>
+      </c>
+      <c r="J12" s="3">
+        <f>+J10+J11</f>
+        <v>1389.2550000000001</v>
+      </c>
+      <c r="K12" s="15">
+        <f>+K10+K11</f>
+        <v>1351.5809999999999</v>
+      </c>
+      <c r="L12" s="15">
+        <f>+L10+L11</f>
+        <v>1219.606</v>
+      </c>
+      <c r="M12" s="15">
+        <f>+M10+M11+64.382</f>
+        <v>1391.386</v>
+      </c>
+      <c r="N12" s="15">
+        <f>+N10+N11</f>
+        <v>1410.347</v>
+      </c>
+      <c r="O12" s="3">
+        <f>+O10+O11</f>
+        <v>1341.259</v>
+      </c>
+      <c r="P12" s="3">
+        <f>+P10+P11</f>
+        <v>1281.7719999999999</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>+Q10+Q11</f>
+        <v>1383.6089999999999</v>
+      </c>
+      <c r="V12" s="3">
+        <f>+V10+V11+1.52</f>
+        <v>4916.2620000000006</v>
+      </c>
+      <c r="W12" s="3">
+        <f>+W10+W11+1.691</f>
+        <v>5116.1529999999993</v>
+      </c>
+      <c r="X12" s="3">
+        <f t="shared" si="0"/>
+        <v>5045.0110000000004</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="2"/>
+        <v>5383.9539999999997</v>
+      </c>
+      <c r="Z12" s="3">
+        <f>+Z10+Z11</f>
+        <v>5308.5379999999996</v>
+      </c>
+      <c r="AA12" s="3">
+        <f>+AA10+AA11</f>
+        <v>5255.4526199999991</v>
+      </c>
+      <c r="AB12" s="3">
+        <f t="shared" ref="AB12:AO12" si="7">+AB10+AB11</f>
+        <v>5202.8980937999995</v>
+      </c>
+      <c r="AC12" s="3">
+        <f t="shared" si="7"/>
+        <v>5150.8691128619994</v>
+      </c>
+      <c r="AD12" s="3">
+        <f t="shared" si="7"/>
+        <v>5099.3604217333796</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" si="7"/>
+        <v>5048.3668175160456</v>
+      </c>
+      <c r="AF12" s="3">
+        <f t="shared" si="7"/>
+        <v>4997.8831493408852</v>
+      </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="7"/>
+        <v>4947.9043178474767</v>
+      </c>
+      <c r="AH12" s="3">
+        <f t="shared" si="7"/>
+        <v>4898.4252746690017</v>
+      </c>
+      <c r="AI12" s="3">
+        <f t="shared" si="7"/>
+        <v>4849.4410219223118</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="7"/>
+        <v>4800.9466117030879</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" si="7"/>
+        <v>4752.9371455860573</v>
+      </c>
+      <c r="AL12" s="3">
+        <f t="shared" si="7"/>
+        <v>4705.4077741301962</v>
+      </c>
+      <c r="AM12" s="3">
+        <f t="shared" si="7"/>
+        <v>4658.3536963888946</v>
+      </c>
+      <c r="AN12" s="3">
+        <f t="shared" si="7"/>
+        <v>4611.7701594250057</v>
+      </c>
+      <c r="AO12" s="3">
+        <f t="shared" si="7"/>
+        <v>4565.6524578307553</v>
+      </c>
+    </row>
+    <row r="13" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3">
+        <f>(C9-C12)</f>
+        <v>1048.6740000000002</v>
+      </c>
+      <c r="D13" s="3">
+        <f>(D9-D12)</f>
+        <v>1164.5320000000004</v>
+      </c>
+      <c r="E13" s="3">
+        <f>(E9-E12)</f>
+        <v>1141.9610000000002</v>
+      </c>
+      <c r="F13" s="3">
+        <f>(F9-F12)</f>
+        <v>983.99700000000189</v>
+      </c>
+      <c r="G13" s="3">
+        <f>(G9-G12)</f>
+        <v>1091.0989999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <f>(H9-H12)</f>
+        <v>951.28200000000061</v>
+      </c>
+      <c r="I13" s="3">
+        <f>(I9-I12)</f>
+        <v>1178.7660000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <f>(J9-J12)</f>
+        <v>1079.3649999999989</v>
+      </c>
+      <c r="K13" s="15">
+        <f>(K9-K12)</f>
+        <v>1187.7089999999992</v>
+      </c>
+      <c r="L13" s="15">
+        <f>(L9-L12)</f>
+        <v>1021.0330000000001</v>
+      </c>
+      <c r="M13" s="15">
+        <f>(M9-M12)</f>
+        <v>1133.5189999999989</v>
+      </c>
+      <c r="N13" s="15">
+        <f>(N9-N12)</f>
+        <v>1094.057999999997</v>
+      </c>
+      <c r="O13" s="3">
+        <f>(O9-O12)</f>
+        <v>1221.259</v>
+      </c>
+      <c r="P13" s="3">
+        <f>(P9-P12)</f>
+        <v>1088.0439999999999</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>(Q9-Q12)</f>
+        <v>1305.9429999999998</v>
+      </c>
+      <c r="V13" s="3">
+        <f>(V9-V12)</f>
+        <v>3470.4570000000003</v>
+      </c>
+      <c r="W13" s="3">
+        <f>(W9-W12)</f>
+        <v>3871.5480000000016</v>
+      </c>
+      <c r="X13" s="3">
+        <f t="shared" si="0"/>
+        <v>4339.1640000000025</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" si="2"/>
+        <v>4300.5119999999997</v>
+      </c>
+      <c r="Z13" s="3">
+        <f>(Z9-Z12)</f>
+        <v>4500.7009999999982</v>
+      </c>
+      <c r="AA13" s="3">
+        <f>(AA9-AA12)</f>
+        <v>4648.4975616000002</v>
+      </c>
+      <c r="AB13" s="3">
+        <f t="shared" ref="AB13:AO13" si="8">(AB9-AB12)</f>
+        <v>4899.1310914320011</v>
+      </c>
+      <c r="AC13" s="3">
+        <f t="shared" si="8"/>
+        <v>5153.2006560746395</v>
+      </c>
+      <c r="AD13" s="3">
+        <f t="shared" si="8"/>
+        <v>5410.790742581994</v>
+      </c>
+      <c r="AE13" s="3">
+        <f t="shared" si="8"/>
+        <v>5671.9873700856333</v>
+      </c>
+      <c r="AF13" s="3">
+        <f t="shared" si="8"/>
+        <v>5936.8781220128294</v>
+      </c>
+      <c r="AG13" s="3">
+        <f t="shared" si="8"/>
+        <v>6205.5521789333106</v>
+      </c>
+      <c r="AH13" s="3">
+        <f t="shared" si="8"/>
+        <v>6478.1003520474005</v>
+      </c>
+      <c r="AI13" s="3">
+        <f t="shared" si="8"/>
+        <v>6754.6151173284197</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" si="8"/>
+        <v>7035.1906503326591</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" si="8"/>
+        <v>7319.9228616904047</v>
+      </c>
+      <c r="AL13" s="3">
+        <f t="shared" si="8"/>
+        <v>7608.9094332917948</v>
+      </c>
+      <c r="AM13" s="3">
+        <f t="shared" si="8"/>
+        <v>7902.249855181537</v>
+      </c>
+      <c r="AN13" s="3">
+        <f t="shared" si="8"/>
+        <v>8200.0454631768334</v>
+      </c>
+      <c r="AO13" s="3">
+        <f t="shared" si="8"/>
+        <v>8502.3994772231235</v>
+      </c>
+    </row>
+    <row r="14" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>64.382000000000005</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="C14" s="3">
+        <v>8.7669999999999995</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9.859</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7.2510000000000003</v>
+      </c>
+      <c r="F14" s="3">
+        <f>32.893-C14-D14-E14</f>
+        <v>7.0160000000000009</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6.7560000000000002</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7.96</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7.5129999999999999</v>
+      </c>
+      <c r="J14" s="3">
+        <f>30.37-G14-H14-I14</f>
+        <v>8.141</v>
+      </c>
+      <c r="K14" s="15">
+        <v>10.099</v>
+      </c>
+      <c r="L14" s="15">
+        <v>9.34</v>
+      </c>
+      <c r="M14" s="15">
+        <v>6.4409999999999998</v>
+      </c>
+      <c r="N14" s="15">
+        <f>30.37-K14-L14-M14</f>
+        <v>4.4900000000000011</v>
+      </c>
+      <c r="O14" s="3">
+        <v>7.1260000000000003</v>
+      </c>
+      <c r="P14" s="3">
+        <v>6.7270000000000003</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>7.6970000000000001</v>
+      </c>
+      <c r="V14" s="3">
+        <v>41.082999999999998</v>
+      </c>
+      <c r="W14" s="3">
+        <v>42.55</v>
+      </c>
+      <c r="X14" s="3">
+        <f t="shared" si="0"/>
+        <v>32.893000000000001</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" si="2"/>
+        <v>30.369999999999997</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="1"/>
+        <v>30.37</v>
+      </c>
+      <c r="AA14" s="3">
+        <f>Z14</f>
+        <v>30.37</v>
+      </c>
+      <c r="AB14" s="3">
+        <f t="shared" ref="AB14:AO14" si="9">AA14</f>
+        <v>30.37</v>
+      </c>
+      <c r="AC14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AD14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AF14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AG14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AH14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AI14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AK14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AL14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AM14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AN14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
+      </c>
+      <c r="AO14" s="3">
+        <f t="shared" si="9"/>
+        <v>30.37</v>
       </c>
     </row>
-    <row r="13" spans="2:18" s="3" customFormat="1">
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="3">
-        <f>+J10+J11+J12</f>
-        <v>1351.5809999999999</v>
-      </c>
-      <c r="K13" s="3">
-        <f>+K10+K11+K12</f>
-        <v>1219.606</v>
-      </c>
-      <c r="L13" s="3">
-        <f>+L10+L11+L12</f>
-        <v>1391.386</v>
-      </c>
-      <c r="N13" s="3">
-        <f>+N10+N11+N12</f>
-        <v>1341.259</v>
-      </c>
-      <c r="O13" s="3">
-        <f>+O10+O11+O12</f>
-        <v>1281.7719999999999</v>
-      </c>
-      <c r="P13" s="3">
-        <f>+P10+P11+P12</f>
-        <v>1383.6089999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" s="3" customFormat="1">
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="3">
-        <f>(J9-J13)</f>
-        <v>1187.7089999999992</v>
-      </c>
-      <c r="K14" s="3">
-        <f>(K9-K13)</f>
-        <v>1021.0330000000001</v>
-      </c>
-      <c r="L14" s="3">
-        <f>(L9-L13)</f>
-        <v>1133.5189999999989</v>
-      </c>
-      <c r="N14" s="3">
-        <f>(N9-N13)</f>
-        <v>1221.259</v>
-      </c>
-      <c r="O14" s="3">
-        <f>(O9-O13)</f>
-        <v>1088.0439999999999</v>
-      </c>
-      <c r="P14" s="3">
-        <f>(P9-P13)</f>
-        <v>1305.9429999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" s="3" customFormat="1">
+    <row r="15" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="C15" s="3">
+        <v>-4.5490000000000004</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-3.641</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-3.5880000000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <f>-14.035-C15-D15-E15</f>
+        <v>-2.2570000000000006</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-3.6579999999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-4.3479999999999999</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-4.29</v>
+      </c>
       <c r="J15" s="3">
-        <v>10.099</v>
-      </c>
-      <c r="K15" s="3">
-        <v>9.34</v>
-      </c>
-      <c r="L15" s="3">
-        <v>6.4409999999999998</v>
-      </c>
-      <c r="N15" s="3">
-        <v>7.1260000000000003</v>
+        <f>-17.621-G15-H15-I15</f>
+        <v>-5.3249999999999984</v>
+      </c>
+      <c r="K15" s="15">
+        <v>-2.8109999999999999</v>
+      </c>
+      <c r="L15" s="15">
+        <v>-3.9049999999999998</v>
+      </c>
+      <c r="M15" s="15">
+        <v>-4.03</v>
+      </c>
+      <c r="N15" s="15">
+        <f>-17.621-K15-L15-M15</f>
+        <v>-6.8749999999999991</v>
       </c>
       <c r="O15" s="3">
-        <v>6.7270000000000003</v>
+        <v>-4.0519999999999996</v>
       </c>
       <c r="P15" s="3">
-        <v>7.6970000000000001</v>
+        <v>-4.5430000000000001</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-3.7109999999999999</v>
+      </c>
+      <c r="V15" s="3">
+        <v>-15</v>
+      </c>
+      <c r="W15" s="3">
+        <v>-15.061</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" si="0"/>
+        <v>-14.035000000000004</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="2"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="1"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AA15" s="3">
+        <f>Z15</f>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AB15" s="3">
+        <f t="shared" ref="AB15:AO15" si="10">AA15</f>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AC15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AD15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AF15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AG15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AH15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AI15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AL15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AM15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AN15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
+      </c>
+      <c r="AO15" s="3">
+        <f t="shared" si="10"/>
+        <v>-17.620999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:18" s="3" customFormat="1">
+    <row r="16" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-6.4359999999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10.599</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F16" s="3">
+        <f>-18.244-C16-D16-E16</f>
+        <v>-23.358000000000001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-10.62</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-4.766</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-6.0510000000000002</v>
       </c>
       <c r="J16" s="3">
-        <v>-2.8109999999999999</v>
-      </c>
-      <c r="K16" s="3">
-        <v>-3.9049999999999998</v>
-      </c>
-      <c r="L16" s="3">
-        <v>-4.03</v>
-      </c>
-      <c r="N16" s="3">
-        <v>-4.0519999999999996</v>
+        <f>-15.56-G16-H16-I16</f>
+        <v>5.8769999999999989</v>
+      </c>
+      <c r="K16" s="15">
+        <v>-2.9790000000000001</v>
+      </c>
+      <c r="L16" s="15">
+        <v>-21.597999999999999</v>
+      </c>
+      <c r="M16" s="15">
+        <v>-3.839</v>
+      </c>
+      <c r="N16" s="15">
+        <f>-15.56-K16-L16-M16</f>
+        <v>12.856</v>
       </c>
       <c r="O16" s="3">
-        <v>-4.5430000000000001</v>
+        <v>4.0289999999999999</v>
       </c>
       <c r="P16" s="3">
-        <v>-3.7109999999999999</v>
+        <v>-21.213000000000001</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-16.207000000000001</v>
+      </c>
+      <c r="V16" s="3">
+        <v>15.481999999999999</v>
+      </c>
+      <c r="W16" s="3">
+        <v>5.1369999999999996</v>
+      </c>
+      <c r="X16" s="3">
+        <f t="shared" si="0"/>
+        <v>-18.244</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="2"/>
+        <v>-15.559999999999999</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="1"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AA16" s="3">
+        <f>Z16</f>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AB16" s="3">
+        <f t="shared" ref="AB16:AO16" si="11">AA16</f>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AE16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AF16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AG16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AH16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AI16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AL16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AM16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AN16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
+      </c>
+      <c r="AO16" s="3">
+        <f t="shared" si="11"/>
+        <v>-15.559999999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="3" customFormat="1">
+    <row r="17" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="C17" s="3">
+        <f>(C13+C14+C15+C16)</f>
+        <v>1046.4560000000004</v>
+      </c>
+      <c r="D17" s="3">
+        <f>(D13+D14+D15+D16)</f>
+        <v>1181.3490000000002</v>
+      </c>
+      <c r="E17" s="3">
+        <f>(E13+E14+E15+E16)</f>
+        <v>1146.5750000000003</v>
+      </c>
+      <c r="F17" s="3">
+        <f>(F13+F14+F15+F16)</f>
+        <v>965.39800000000196</v>
+      </c>
+      <c r="G17" s="3">
+        <f>(G13+G14+G15+G16)</f>
+        <v>1083.5770000000002</v>
+      </c>
+      <c r="H17" s="3">
+        <f>(H13+H14+H15+H16)</f>
+        <v>950.12800000000072</v>
+      </c>
+      <c r="I17" s="3">
+        <f>(I13+I14+I15+I16)</f>
+        <v>1175.9380000000001</v>
+      </c>
       <c r="J17" s="3">
-        <v>-2.9790000000000001</v>
-      </c>
-      <c r="K17" s="3">
-        <v>-21.597999999999999</v>
-      </c>
-      <c r="L17" s="3">
-        <v>-3.839</v>
-      </c>
-      <c r="N17" s="3">
-        <v>4.0289999999999999</v>
+        <f>(J13+J14+J15+J16)</f>
+        <v>1088.0579999999989</v>
+      </c>
+      <c r="K17" s="15">
+        <f>(K13+K14+K15+K16)</f>
+        <v>1192.0179999999991</v>
+      </c>
+      <c r="L17" s="15">
+        <f>(L13+L14+L15+L16)</f>
+        <v>1004.8700000000001</v>
+      </c>
+      <c r="M17" s="15">
+        <f>(M13+M14+M15+M16)</f>
+        <v>1132.090999999999</v>
+      </c>
+      <c r="N17" s="15">
+        <f>(N13+N14+N15+N16)</f>
+        <v>1104.528999999997</v>
       </c>
       <c r="O17" s="3">
-        <v>-21.213000000000001</v>
+        <f>(O13+O14+O15+O16)</f>
+        <v>1228.3620000000001</v>
       </c>
       <c r="P17" s="3">
-        <v>-16.207000000000001</v>
+        <f>(P13+P14+P15+P16+553.577)</f>
+        <v>1622.5920000000001</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>(Q13+Q14+Q15+Q16)</f>
+        <v>1293.7219999999995</v>
+      </c>
+      <c r="V17" s="3">
+        <f>(V13+V14+V15+V16)</f>
+        <v>3512.0220000000004</v>
+      </c>
+      <c r="W17" s="3">
+        <f>(W13+W14+W15+W16)</f>
+        <v>3904.1740000000018</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="0"/>
+        <v>4339.7780000000021</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="2"/>
+        <v>4297.701</v>
+      </c>
+      <c r="Z17" s="3">
+        <f>(Z13+Z14+Z15+Z16)</f>
+        <v>4497.8899999999976</v>
+      </c>
+      <c r="AA17" s="3">
+        <f>(AA13+AA14+AA15+AA16)</f>
+        <v>4645.6865615999995</v>
+      </c>
+      <c r="AB17" s="3">
+        <f>(AB13+AB14+AB15+AB16)</f>
+        <v>4896.3200914320005</v>
+      </c>
+      <c r="AC17" s="3">
+        <f>(AC13+AC14+AC15+AC16)</f>
+        <v>5150.3896560746389</v>
+      </c>
+      <c r="AD17" s="3">
+        <f>(AD13+AD14+AD15+AD16)</f>
+        <v>5407.9797425819934</v>
+      </c>
+      <c r="AE17" s="3">
+        <f>(AE13+AE14+AE15+AE16)</f>
+        <v>5669.1763700856327</v>
+      </c>
+      <c r="AF17" s="3">
+        <f>(AF13+AF14+AF15+AF16)</f>
+        <v>5934.0671220128288</v>
+      </c>
+      <c r="AG17" s="3">
+        <f>(AG13+AG14+AG15+AG16)</f>
+        <v>6202.74117893331</v>
+      </c>
+      <c r="AH17" s="3">
+        <f>(AH13+AH14+AH15+AH16)</f>
+        <v>6475.2893520473999</v>
+      </c>
+      <c r="AI17" s="3">
+        <f>(AI13+AI14+AI15+AI16)</f>
+        <v>6751.8041173284191</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f>(AJ13+AJ14+AJ15+AJ16)</f>
+        <v>7032.3796503326585</v>
+      </c>
+      <c r="AK17" s="3">
+        <f>(AK13+AK14+AK15+AK16)</f>
+        <v>7317.1118616904041</v>
+      </c>
+      <c r="AL17" s="3">
+        <f>(AL13+AL14+AL15+AL16)</f>
+        <v>7606.0984332917942</v>
+      </c>
+      <c r="AM17" s="3">
+        <f>(AM13+AM14+AM15+AM16)</f>
+        <v>7899.4388551815364</v>
+      </c>
+      <c r="AN17" s="3">
+        <f>(AN13+AN14+AN15+AN16)</f>
+        <v>8197.2344631768356</v>
+      </c>
+      <c r="AO17" s="3">
+        <f>(AO13+AO14+AO15+AO16)</f>
+        <v>8499.5884772231257</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="3" customFormat="1">
+    <row r="18" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="C18" s="3">
+        <v>280.42500000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-5.7489999999999997</v>
+      </c>
+      <c r="E18" s="3">
+        <v>272.52199999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <f>784.775-C18-D18-E18</f>
+        <v>237.577</v>
+      </c>
+      <c r="G18" s="3">
+        <v>271.93099999999998</v>
+      </c>
+      <c r="H18" s="3">
+        <v>227.797</v>
+      </c>
+      <c r="I18" s="3">
+        <v>294.125</v>
+      </c>
       <c r="J18" s="3">
+        <f>1121.743-G18-H18-I18</f>
+        <v>327.88999999999987</v>
+      </c>
+      <c r="K18" s="15">
+        <v>299.77600000000001</v>
+      </c>
+      <c r="L18" s="15">
+        <v>261.76799999999997</v>
+      </c>
+      <c r="M18" s="15">
+        <v>281.86099999999999</v>
+      </c>
+      <c r="N18" s="15">
+        <f>1136.741-K18-L18-M18</f>
+        <v>293.3359999999999</v>
+      </c>
+      <c r="O18" s="3">
+        <v>359.68200000000002</v>
+      </c>
+      <c r="P18" s="3">
+        <v>222.73400000000001</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>343.42099999999999</v>
+      </c>
+      <c r="V18" s="3">
+        <v>958.78200000000004</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1079.241</v>
+      </c>
+      <c r="X18" s="3">
+        <f t="shared" si="0"/>
+        <v>784.77499999999998</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="2"/>
+        <v>1121.7429999999999</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="1"/>
+        <v>1136.741</v>
+      </c>
+      <c r="AA18" s="3">
+        <f>AA17*0.2</f>
+        <v>929.13731231999998</v>
+      </c>
+      <c r="AB18" s="3">
+        <f t="shared" ref="AB18:AO18" si="12">AB17*0.2</f>
+        <v>979.26401828640019</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" si="12"/>
+        <v>1030.0779312149277</v>
+      </c>
+      <c r="AD18" s="3">
+        <f t="shared" si="12"/>
+        <v>1081.5959485163987</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" si="12"/>
+        <v>1133.8352740171265</v>
+      </c>
+      <c r="AF18" s="3">
+        <f t="shared" si="12"/>
+        <v>1186.8134244025657</v>
+      </c>
+      <c r="AG18" s="3">
+        <f t="shared" si="12"/>
+        <v>1240.5482357866622</v>
+      </c>
+      <c r="AH18" s="3">
+        <f t="shared" si="12"/>
+        <v>1295.0578704094801</v>
+      </c>
+      <c r="AI18" s="3">
+        <f t="shared" si="12"/>
+        <v>1350.360823465684</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f t="shared" si="12"/>
+        <v>1406.4759300665319</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" si="12"/>
+        <v>1463.422372338081</v>
+      </c>
+      <c r="AL18" s="3">
+        <f t="shared" si="12"/>
+        <v>1521.219686658359</v>
+      </c>
+      <c r="AM18" s="3">
+        <f t="shared" si="12"/>
+        <v>1579.8877710363074</v>
+      </c>
+      <c r="AN18" s="3">
+        <f t="shared" si="12"/>
+        <v>1639.4468926353672</v>
+      </c>
+      <c r="AO18" s="3">
+        <f t="shared" si="12"/>
+        <v>1699.9176954446252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:196" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5">
+        <f>(C17-C18)-58.955-8.259</f>
+        <v>698.81700000000035</v>
+      </c>
+      <c r="D19" s="5">
+        <f>(D17-D18)-78.363-6.933</f>
+        <v>1101.8020000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <f>(E17-E18)-53.177-10.628</f>
+        <v>810.24800000000027</v>
+      </c>
+      <c r="F19" s="5">
+        <f>3281.878-C19-D19-E19</f>
+        <v>671.01099999999929</v>
+      </c>
+      <c r="G19" s="5">
+        <f>(G17-G18)-49.098-10.702</f>
+        <v>751.84600000000023</v>
+      </c>
+      <c r="H19" s="5">
+        <f>(H17-H18)-42.849-8.182</f>
+        <v>671.30000000000064</v>
+      </c>
+      <c r="I19" s="5">
+        <f>(I17-I18)-51.523-12.954</f>
+        <v>817.33600000000013</v>
+      </c>
+      <c r="J19" s="5">
+        <f>2941.498-G19-H19-I19</f>
+        <v>701.01599999999928</v>
+      </c>
+      <c r="K19" s="16">
+        <f>(K17-K18)-50.636-10.076</f>
+        <v>831.52999999999906</v>
+      </c>
+      <c r="L19" s="16">
+        <f>(L17-L18)-41.053-11.413</f>
+        <v>690.63600000000008</v>
+      </c>
+      <c r="M19" s="16">
+        <f>(M17-M18)-46.283-10.25</f>
+        <v>793.69699999999898</v>
+      </c>
+      <c r="N19" s="16">
+        <f>3053.581-K19-L19-M19</f>
+        <v>737.71800000000235</v>
+      </c>
+      <c r="O19" s="5">
+        <f>(O17-O18)-39.576-10.206</f>
+        <v>818.89800000000002</v>
+      </c>
+      <c r="P19" s="5">
+        <f>(P17-P18)-63.379-9.959</f>
+        <v>1326.5200000000002</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>(Q17-Q18)-42.574-10.462</f>
+        <v>897.26499999999953</v>
+      </c>
+      <c r="V19" s="5">
+        <f>(V17-V18)-243.575-31.988</f>
+        <v>2277.6770000000006</v>
+      </c>
+      <c r="W19" s="5">
+        <f>(W17-W18)-237.52-33.903</f>
+        <v>2553.510000000002</v>
+      </c>
+      <c r="X19" s="5">
+        <f t="shared" si="0"/>
+        <v>3281.8780000000006</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" si="2"/>
+        <v>2941.498</v>
+      </c>
+      <c r="Z19" s="5">
+        <f t="shared" si="1"/>
+        <v>3053.581000000001</v>
+      </c>
+      <c r="AA19" s="5">
+        <f>AA17-AA18</f>
+        <v>3716.5492492799995</v>
+      </c>
+      <c r="AB19" s="5">
+        <f t="shared" ref="AB19:AO19" si="13">AB17-AB18</f>
+        <v>3917.0560731456003</v>
+      </c>
+      <c r="AC19" s="5">
+        <f t="shared" si="13"/>
+        <v>4120.3117248597109</v>
+      </c>
+      <c r="AD19" s="5">
+        <f t="shared" si="13"/>
+        <v>4326.3837940655949</v>
+      </c>
+      <c r="AE19" s="5">
+        <f t="shared" si="13"/>
+        <v>4535.341096068506</v>
+      </c>
+      <c r="AF19" s="5">
+        <f t="shared" si="13"/>
+        <v>4747.2536976102629</v>
+      </c>
+      <c r="AG19" s="5">
+        <f t="shared" si="13"/>
+        <v>4962.1929431466478</v>
+      </c>
+      <c r="AH19" s="5">
+        <f t="shared" si="13"/>
+        <v>5180.2314816379203</v>
+      </c>
+      <c r="AI19" s="5">
+        <f t="shared" si="13"/>
+        <v>5401.4432938627351</v>
+      </c>
+      <c r="AJ19" s="5">
+        <f t="shared" si="13"/>
+        <v>5625.9037202661266</v>
+      </c>
+      <c r="AK19" s="5">
+        <f t="shared" si="13"/>
+        <v>5853.6894893523231</v>
+      </c>
+      <c r="AL19" s="5">
+        <f t="shared" si="13"/>
+        <v>6084.8787466334352</v>
+      </c>
+      <c r="AM19" s="5">
+        <f t="shared" si="13"/>
+        <v>6319.5510841452287</v>
+      </c>
+      <c r="AN19" s="5">
+        <f t="shared" si="13"/>
+        <v>6557.7875705414681</v>
+      </c>
+      <c r="AO19" s="5">
+        <f t="shared" si="13"/>
+        <v>6799.6707817785009</v>
+      </c>
+      <c r="AP19" s="5">
+        <f>AO19*(1+$AR$24)</f>
+        <v>6595.6806583251455</v>
+      </c>
+      <c r="AQ19" s="5">
+        <f t="shared" ref="AQ19:DB19" si="14">AP19*(1+$AR$24)</f>
+        <v>6397.8102385753909</v>
+      </c>
+      <c r="AR19" s="5">
+        <f t="shared" si="14"/>
+        <v>6205.8759314181289</v>
+      </c>
+      <c r="AS19" s="5">
+        <f t="shared" si="14"/>
+        <v>6019.6996534755845</v>
+      </c>
+      <c r="AT19" s="5">
+        <f t="shared" si="14"/>
+        <v>5839.1086638713168</v>
+      </c>
+      <c r="AU19" s="5">
+        <f t="shared" si="14"/>
+        <v>5663.9354039551772</v>
+      </c>
+      <c r="AV19" s="5">
+        <f t="shared" si="14"/>
+        <v>5494.0173418365221</v>
+      </c>
+      <c r="AW19" s="5">
+        <f t="shared" si="14"/>
+        <v>5329.1968215814259</v>
+      </c>
+      <c r="AX19" s="5">
+        <f t="shared" si="14"/>
+        <v>5169.3209169339825</v>
+      </c>
+      <c r="AY19" s="5">
+        <f t="shared" si="14"/>
+        <v>5014.2412894259633</v>
+      </c>
+      <c r="AZ19" s="5">
+        <f t="shared" si="14"/>
+        <v>4863.8140507431845</v>
+      </c>
+      <c r="BA19" s="5">
+        <f t="shared" si="14"/>
+        <v>4717.8996292208885</v>
+      </c>
+      <c r="BB19" s="5">
+        <f t="shared" si="14"/>
+        <v>4576.3626403442613</v>
+      </c>
+      <c r="BC19" s="5">
+        <f t="shared" si="14"/>
+        <v>4439.0717611339333</v>
+      </c>
+      <c r="BD19" s="5">
+        <f t="shared" si="14"/>
+        <v>4305.8996082999147</v>
+      </c>
+      <c r="BE19" s="5">
+        <f t="shared" si="14"/>
+        <v>4176.7226200509167</v>
+      </c>
+      <c r="BF19" s="5">
+        <f t="shared" si="14"/>
+        <v>4051.4209414493889</v>
+      </c>
+      <c r="BG19" s="5">
+        <f t="shared" si="14"/>
+        <v>3929.878313205907</v>
+      </c>
+      <c r="BH19" s="5">
+        <f t="shared" si="14"/>
+        <v>3811.9819638097297</v>
+      </c>
+      <c r="BI19" s="5">
+        <f t="shared" si="14"/>
+        <v>3697.6225048954375</v>
+      </c>
+      <c r="BJ19" s="5">
+        <f t="shared" si="14"/>
+        <v>3586.6938297485744</v>
+      </c>
+      <c r="BK19" s="5">
+        <f t="shared" si="14"/>
+        <v>3479.093014856117</v>
+      </c>
+      <c r="BL19" s="5">
+        <f t="shared" si="14"/>
+        <v>3374.7202244104333</v>
+      </c>
+      <c r="BM19" s="5">
+        <f t="shared" si="14"/>
+        <v>3273.4786176781204</v>
+      </c>
+      <c r="BN19" s="5">
+        <f t="shared" si="14"/>
+        <v>3175.2742591477768</v>
+      </c>
+      <c r="BO19" s="5">
+        <f t="shared" si="14"/>
+        <v>3080.0160313733436</v>
+      </c>
+      <c r="BP19" s="5">
+        <f t="shared" si="14"/>
+        <v>2987.6155504321432</v>
+      </c>
+      <c r="BQ19" s="5">
+        <f t="shared" si="14"/>
+        <v>2897.987083919179</v>
+      </c>
+      <c r="BR19" s="5">
+        <f t="shared" si="14"/>
+        <v>2811.0474714016036</v>
+      </c>
+      <c r="BS19" s="5">
+        <f t="shared" si="14"/>
+        <v>2726.7160472595556</v>
+      </c>
+      <c r="BT19" s="5">
+        <f t="shared" si="14"/>
+        <v>2644.9145658417688</v>
+      </c>
+      <c r="BU19" s="5">
+        <f t="shared" si="14"/>
+        <v>2565.5671288665158</v>
+      </c>
+      <c r="BV19" s="5">
+        <f t="shared" si="14"/>
+        <v>2488.6001150005204</v>
+      </c>
+      <c r="BW19" s="5">
+        <f t="shared" si="14"/>
+        <v>2413.9421115505047</v>
+      </c>
+      <c r="BX19" s="5">
+        <f t="shared" si="14"/>
+        <v>2341.5238482039895</v>
+      </c>
+      <c r="BY19" s="5">
+        <f t="shared" si="14"/>
+        <v>2271.2781327578696</v>
+      </c>
+      <c r="BZ19" s="5">
+        <f t="shared" si="14"/>
+        <v>2203.1397887751336</v>
+      </c>
+      <c r="CA19" s="5">
+        <f t="shared" si="14"/>
+        <v>2137.0455951118797</v>
+      </c>
+      <c r="CB19" s="5">
+        <f t="shared" si="14"/>
+        <v>2072.9342272585232</v>
+      </c>
+      <c r="CC19" s="5">
+        <f t="shared" si="14"/>
+        <v>2010.7462004407673</v>
+      </c>
+      <c r="CD19" s="5">
+        <f t="shared" si="14"/>
+        <v>1950.4238144275444</v>
+      </c>
+      <c r="CE19" s="5">
+        <f t="shared" si="14"/>
+        <v>1891.9110999947179</v>
+      </c>
+      <c r="CF19" s="5">
+        <f t="shared" si="14"/>
+        <v>1835.1537669948764</v>
+      </c>
+      <c r="CG19" s="5">
+        <f t="shared" si="14"/>
+        <v>1780.0991539850299</v>
+      </c>
+      <c r="CH19" s="5">
+        <f t="shared" si="14"/>
+        <v>1726.6961793654791</v>
+      </c>
+      <c r="CI19" s="5">
+        <f t="shared" si="14"/>
+        <v>1674.8952939845146</v>
+      </c>
+      <c r="CJ19" s="5">
+        <f t="shared" si="14"/>
+        <v>1624.6484351649792</v>
+      </c>
+      <c r="CK19" s="5">
+        <f t="shared" si="14"/>
+        <v>1575.9089821100299</v>
+      </c>
+      <c r="CL19" s="5">
+        <f t="shared" si="14"/>
+        <v>1528.6317126467291</v>
+      </c>
+      <c r="CM19" s="5">
+        <f t="shared" si="14"/>
+        <v>1482.772761267327</v>
+      </c>
+      <c r="CN19" s="5">
+        <f t="shared" si="14"/>
+        <v>1438.2895784293071</v>
+      </c>
+      <c r="CO19" s="5">
+        <f t="shared" si="14"/>
+        <v>1395.1408910764278</v>
+      </c>
+      <c r="CP19" s="5">
+        <f t="shared" si="14"/>
+        <v>1353.286664344135</v>
+      </c>
+      <c r="CQ19" s="5">
+        <f t="shared" si="14"/>
+        <v>1312.6880644138109</v>
+      </c>
+      <c r="CR19" s="5">
+        <f t="shared" si="14"/>
+        <v>1273.3074224813965</v>
+      </c>
+      <c r="CS19" s="5">
+        <f t="shared" si="14"/>
+        <v>1235.1081998069546</v>
+      </c>
+      <c r="CT19" s="5">
+        <f t="shared" si="14"/>
+        <v>1198.0549538127459</v>
+      </c>
+      <c r="CU19" s="5">
+        <f t="shared" si="14"/>
+        <v>1162.1133051983636</v>
+      </c>
+      <c r="CV19" s="5">
+        <f t="shared" si="14"/>
+        <v>1127.2499060424127</v>
+      </c>
+      <c r="CW19" s="5">
+        <f t="shared" si="14"/>
+        <v>1093.4324088611404</v>
+      </c>
+      <c r="CX19" s="5">
+        <f t="shared" si="14"/>
+        <v>1060.6294365953061</v>
+      </c>
+      <c r="CY19" s="5">
+        <f>CX19*(1+$AR$24)</f>
+        <v>1028.8105534974468</v>
+      </c>
+      <c r="CZ19" s="5">
+        <f t="shared" si="14"/>
+        <v>997.9462368925233</v>
+      </c>
+      <c r="DA19" s="5">
+        <f t="shared" si="14"/>
+        <v>968.00784978574757</v>
+      </c>
+      <c r="DB19" s="5">
+        <f t="shared" si="14"/>
+        <v>938.96761429217509</v>
+      </c>
+      <c r="DC19" s="5">
+        <f t="shared" ref="DC19:FN19" si="15">DB19*(1+$AR$24)</f>
+        <v>910.79858586340981</v>
+      </c>
+      <c r="DD19" s="5">
+        <f t="shared" si="15"/>
+        <v>883.47462828750747</v>
+      </c>
+      <c r="DE19" s="5">
+        <f t="shared" si="15"/>
+        <v>856.97038943888219</v>
+      </c>
+      <c r="DF19" s="5">
+        <f t="shared" si="15"/>
+        <v>831.2612777557157</v>
+      </c>
+      <c r="DG19" s="5">
+        <f t="shared" si="15"/>
+        <v>806.32343942304419</v>
+      </c>
+      <c r="DH19" s="5">
+        <f t="shared" si="15"/>
+        <v>782.13373624035285</v>
+      </c>
+      <c r="DI19" s="5">
+        <f t="shared" si="15"/>
+        <v>758.66972415314228</v>
+      </c>
+      <c r="DJ19" s="5">
+        <f t="shared" si="15"/>
+        <v>735.90963242854798</v>
+      </c>
+      <c r="DK19" s="5">
+        <f t="shared" si="15"/>
+        <v>713.83234345569156</v>
+      </c>
+      <c r="DL19" s="5">
+        <f t="shared" si="15"/>
+        <v>692.41737315202079</v>
+      </c>
+      <c r="DM19" s="5">
+        <f t="shared" si="15"/>
+        <v>671.64485195746011</v>
+      </c>
+      <c r="DN19" s="5">
+        <f t="shared" si="15"/>
+        <v>651.49550639873632</v>
+      </c>
+      <c r="DO19" s="5">
+        <f t="shared" si="15"/>
+        <v>631.95064120677421</v>
+      </c>
+      <c r="DP19" s="5">
+        <f t="shared" si="15"/>
+        <v>612.99212197057102</v>
+      </c>
+      <c r="DQ19" s="5">
+        <f t="shared" si="15"/>
+        <v>594.60235831145383</v>
+      </c>
+      <c r="DR19" s="5">
+        <f t="shared" si="15"/>
+        <v>576.76428756211021</v>
+      </c>
+      <c r="DS19" s="5">
+        <f t="shared" si="15"/>
+        <v>559.46135893524684</v>
+      </c>
+      <c r="DT19" s="5">
+        <f t="shared" si="15"/>
+        <v>542.67751816718942</v>
+      </c>
+      <c r="DU19" s="5">
+        <f t="shared" si="15"/>
+        <v>526.39719262217375</v>
+      </c>
+      <c r="DV19" s="5">
+        <f t="shared" si="15"/>
+        <v>510.60527684350853</v>
+      </c>
+      <c r="DW19" s="5">
+        <f t="shared" si="15"/>
+        <v>495.28711853820329</v>
+      </c>
+      <c r="DX19" s="5">
+        <f t="shared" si="15"/>
+        <v>480.42850498205718</v>
+      </c>
+      <c r="DY19" s="5">
+        <f t="shared" si="15"/>
+        <v>466.01564983259544</v>
+      </c>
+      <c r="DZ19" s="5">
+        <f t="shared" si="15"/>
+        <v>452.03518033761759</v>
+      </c>
+      <c r="EA19" s="5">
+        <f t="shared" si="15"/>
+        <v>438.47412492748907</v>
+      </c>
+      <c r="EB19" s="5">
+        <f t="shared" si="15"/>
+        <v>425.31990117966438</v>
+      </c>
+      <c r="EC19" s="5">
+        <f t="shared" si="15"/>
+        <v>412.56030414427443</v>
+      </c>
+      <c r="ED19" s="5">
+        <f t="shared" si="15"/>
+        <v>400.18349501994618</v>
+      </c>
+      <c r="EE19" s="5">
+        <f t="shared" si="15"/>
+        <v>388.17799016934777</v>
+      </c>
+      <c r="EF19" s="5">
+        <f t="shared" si="15"/>
+        <v>376.53265046426731</v>
+      </c>
+      <c r="EG19" s="5">
+        <f t="shared" si="15"/>
+        <v>365.23667095033926</v>
+      </c>
+      <c r="EH19" s="5">
+        <f t="shared" si="15"/>
+        <v>354.27957082182905</v>
+      </c>
+      <c r="EI19" s="5">
+        <f t="shared" si="15"/>
+        <v>343.65118369717419</v>
+      </c>
+      <c r="EJ19" s="5">
+        <f t="shared" si="15"/>
+        <v>333.34164818625896</v>
+      </c>
+      <c r="EK19" s="5">
+        <f t="shared" si="15"/>
+        <v>323.3413987406712</v>
+      </c>
+      <c r="EL19" s="5">
+        <f t="shared" si="15"/>
+        <v>313.64115677845103</v>
+      </c>
+      <c r="EM19" s="5">
+        <f t="shared" si="15"/>
+        <v>304.23192207509749</v>
+      </c>
+      <c r="EN19" s="5">
+        <f t="shared" si="15"/>
+        <v>295.10496441284454</v>
+      </c>
+      <c r="EO19" s="5">
+        <f t="shared" si="15"/>
+        <v>286.25181548045919</v>
+      </c>
+      <c r="EP19" s="5">
+        <f t="shared" si="15"/>
+        <v>277.66426101604543</v>
+      </c>
+      <c r="EQ19" s="5">
+        <f t="shared" si="15"/>
+        <v>269.33433318556405</v>
+      </c>
+      <c r="ER19" s="5">
+        <f t="shared" si="15"/>
+        <v>261.25430318999713</v>
+      </c>
+      <c r="ES19" s="5">
+        <f t="shared" si="15"/>
+        <v>253.41667409429721</v>
+      </c>
+      <c r="ET19" s="5">
+        <f t="shared" si="15"/>
+        <v>245.81417387146828</v>
+      </c>
+      <c r="EU19" s="5">
+        <f t="shared" si="15"/>
+        <v>238.43974865532422</v>
+      </c>
+      <c r="EV19" s="5">
+        <f t="shared" si="15"/>
+        <v>231.2865561956645</v>
+      </c>
+      <c r="EW19" s="5">
+        <f t="shared" si="15"/>
+        <v>224.34795950979455</v>
+      </c>
+      <c r="EX19" s="5">
+        <f t="shared" si="15"/>
+        <v>217.61752072450071</v>
+      </c>
+      <c r="EY19" s="5">
+        <f t="shared" si="15"/>
+        <v>211.08899510276569</v>
+      </c>
+      <c r="EZ19" s="5">
+        <f t="shared" si="15"/>
+        <v>204.7563252496827</v>
+      </c>
+      <c r="FA19" s="5">
+        <f t="shared" si="15"/>
+        <v>198.61363549219223</v>
+      </c>
+      <c r="FB19" s="5">
+        <f t="shared" si="15"/>
+        <v>192.65522642742647</v>
+      </c>
+      <c r="FC19" s="5">
+        <f t="shared" si="15"/>
+        <v>186.87556963460366</v>
+      </c>
+      <c r="FD19" s="5">
+        <f t="shared" si="15"/>
+        <v>181.26930254556555</v>
+      </c>
+      <c r="FE19" s="5">
+        <f t="shared" si="15"/>
+        <v>175.83122346919859</v>
+      </c>
+      <c r="FF19" s="5">
+        <f t="shared" si="15"/>
+        <v>170.55628676512262</v>
+      </c>
+      <c r="FG19" s="5">
+        <f t="shared" si="15"/>
+        <v>165.43959816216895</v>
+      </c>
+      <c r="FH19" s="5">
+        <f t="shared" si="15"/>
+        <v>160.47641021730388</v>
+      </c>
+      <c r="FI19" s="5">
+        <f t="shared" si="15"/>
+        <v>155.66211791078476</v>
+      </c>
+      <c r="FJ19" s="5">
+        <f t="shared" si="15"/>
+        <v>150.99225437346121</v>
+      </c>
+      <c r="FK19" s="5">
+        <f t="shared" si="15"/>
+        <v>146.46248674225737</v>
+      </c>
+      <c r="FL19" s="5">
+        <f t="shared" si="15"/>
+        <v>142.06861213998965</v>
+      </c>
+      <c r="FM19" s="5">
+        <f t="shared" si="15"/>
+        <v>137.80655377578995</v>
+      </c>
+      <c r="FN19" s="5">
+        <f t="shared" si="15"/>
+        <v>133.67235716251625</v>
+      </c>
+      <c r="FO19" s="5">
+        <f t="shared" ref="FO19:GN19" si="16">FN19*(1+$AR$24)</f>
+        <v>129.66218644764075</v>
+      </c>
+      <c r="FP19" s="5">
+        <f t="shared" si="16"/>
+        <v>125.77232085421153</v>
+      </c>
+      <c r="FQ19" s="5">
+        <f t="shared" si="16"/>
+        <v>121.99915122858518</v>
+      </c>
+      <c r="FR19" s="5">
+        <f t="shared" si="16"/>
+        <v>118.33917669172762</v>
+      </c>
+      <c r="FS19" s="5">
+        <f t="shared" si="16"/>
+        <v>114.78900139097578</v>
+      </c>
+      <c r="FT19" s="5">
+        <f t="shared" si="16"/>
+        <v>111.34533134924651</v>
+      </c>
+      <c r="FU19" s="5">
+        <f t="shared" si="16"/>
+        <v>108.00497140876911</v>
+      </c>
+      <c r="FV19" s="5">
+        <f t="shared" si="16"/>
+        <v>104.76482226650603</v>
+      </c>
+      <c r="FW19" s="5">
+        <f t="shared" si="16"/>
+        <v>101.62187759851085</v>
+      </c>
+      <c r="FX19" s="5">
+        <f t="shared" si="16"/>
+        <v>98.573221270555521</v>
+      </c>
+      <c r="FY19" s="5">
+        <f t="shared" si="16"/>
+        <v>95.616024632438851</v>
+      </c>
+      <c r="FZ19" s="5">
+        <f t="shared" si="16"/>
+        <v>92.747543893465689</v>
+      </c>
+      <c r="GA19" s="5">
+        <f t="shared" si="16"/>
+        <v>89.965117576661711</v>
+      </c>
+      <c r="GB19" s="5">
+        <f t="shared" si="16"/>
+        <v>87.266164049361862</v>
+      </c>
+      <c r="GC19" s="5">
+        <f t="shared" si="16"/>
+        <v>84.648179127881008</v>
+      </c>
+      <c r="GD19" s="5">
+        <f t="shared" si="16"/>
+        <v>82.108733754044579</v>
+      </c>
+      <c r="GE19" s="5">
+        <f t="shared" si="16"/>
+        <v>79.645471741423236</v>
+      </c>
+      <c r="GF19" s="5">
+        <f t="shared" si="16"/>
+        <v>77.25610758918053</v>
+      </c>
+      <c r="GG19" s="5">
+        <f t="shared" si="16"/>
+        <v>74.938424361505113</v>
+      </c>
+      <c r="GH19" s="5">
+        <f t="shared" si="16"/>
+        <v>72.690271630659964</v>
+      </c>
+      <c r="GI19" s="5">
+        <f t="shared" si="16"/>
+        <v>70.509563481740159</v>
+      </c>
+      <c r="GJ19" s="5">
+        <f t="shared" si="16"/>
+        <v>68.394276577287954</v>
+      </c>
+      <c r="GK19" s="5">
+        <f t="shared" si="16"/>
+        <v>66.342448279969318</v>
+      </c>
+      <c r="GL19" s="5">
+        <f t="shared" si="16"/>
+        <v>64.352174831570238</v>
+      </c>
+      <c r="GM19" s="5">
+        <f t="shared" si="16"/>
+        <v>62.421609586623127</v>
+      </c>
+      <c r="GN19" s="5">
+        <f t="shared" si="16"/>
+        <v>60.548961299024434</v>
+      </c>
+    </row>
+    <row r="20" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6">
+        <f>(C19/C21)</f>
+        <v>1.0924832449617501</v>
+      </c>
+      <c r="D20" s="6">
+        <f>(D19/D21)</f>
+        <v>1.696331796305248</v>
+      </c>
+      <c r="E20" s="6">
+        <f>(E19/E21)</f>
+        <v>1.2453361622932306</v>
+      </c>
+      <c r="F20" s="6">
+        <f>(F19/F21)</f>
+        <v>1.0394617275188067</v>
+      </c>
+      <c r="G20" s="6">
+        <f>(G19/G21)</f>
+        <v>1.1808563856057768</v>
+      </c>
+      <c r="H20" s="6">
+        <f>(H19/H21)</f>
+        <v>1.0556204064875765</v>
+      </c>
+      <c r="I20" s="6">
+        <f>(I19/I21)</f>
+        <v>1.2909482153286449</v>
+      </c>
+      <c r="J20" s="6">
+        <f>(J19/J21)</f>
+        <v>1.1053264560786631</v>
+      </c>
+      <c r="K20" s="17">
+        <f>(K19/K21)</f>
+        <v>1.3231669446829448</v>
+      </c>
+      <c r="L20" s="17">
+        <f>(L19/L21)</f>
+        <v>1.099292906430654</v>
+      </c>
+      <c r="M20" s="17">
+        <f>(M19/M21)</f>
+        <v>1.2679485246034798</v>
+      </c>
+      <c r="N20" s="17">
+        <f>(N19/N21)</f>
+        <v>1.1769599350054492</v>
+      </c>
+      <c r="O20" s="6">
+        <f>(O19/O21)</f>
+        <v>1.3071787880347576</v>
+      </c>
+      <c r="P20" s="6">
+        <f>(P19/P21)</f>
+        <v>2.1172699501932568</v>
+      </c>
+      <c r="Q20" s="6">
+        <f>(Q19/Q21)</f>
+        <v>1.4385565539265956</v>
+      </c>
+      <c r="V20" s="6">
+        <f>(V19/V21)</f>
+        <v>3.5278299837970968</v>
+      </c>
+      <c r="W20" s="6">
+        <f>(W19/W21)</f>
+        <v>3.970425377332103</v>
+      </c>
+      <c r="X20" s="6">
+        <f t="shared" ref="W20:Y20" si="17">(X19/X21)</f>
+        <v>5.0839503009428615</v>
+      </c>
+      <c r="Y20" s="6">
+        <f t="shared" si="17"/>
+        <v>4.6380047814921177</v>
+      </c>
+      <c r="Z20" s="6">
+        <f>(Z19/Z21)</f>
+        <v>4.8717023243215749</v>
+      </c>
+    </row>
+    <row r="21" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>639.65923799999996</v>
+      </c>
+      <c r="D21" s="3">
+        <v>649.52033700000004</v>
+      </c>
+      <c r="E21" s="3">
+        <v>650.62593100000004</v>
+      </c>
+      <c r="F21" s="3">
+        <v>645.53699500000005</v>
+      </c>
+      <c r="G21" s="3">
+        <v>636.69554500000004</v>
+      </c>
+      <c r="H21" s="3">
+        <v>635.929351</v>
+      </c>
+      <c r="I21" s="3">
+        <v>633.12841700000001</v>
+      </c>
+      <c r="J21" s="3">
+        <v>634.21624999999995</v>
+      </c>
+      <c r="K21" s="15">
+        <v>628.43921799999998</v>
+      </c>
+      <c r="L21" s="15">
+        <v>628.25475900000004</v>
+      </c>
+      <c r="M21" s="15">
+        <v>625.96941800000002</v>
+      </c>
+      <c r="N21" s="15">
+        <v>626.79958599999998</v>
+      </c>
+      <c r="O21" s="3">
+        <v>626.46212400000002</v>
+      </c>
+      <c r="P21" s="3">
+        <v>626.52379299999996</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>623.72591299999999</v>
+      </c>
+      <c r="V21" s="3">
+        <v>645.63117</v>
+      </c>
+      <c r="W21" s="3">
+        <v>643.13260100000002</v>
+      </c>
+      <c r="X21" s="3">
+        <v>645.53699500000005</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>634.21624999999995</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>626.79958599999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:196" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7">
+        <f>G5/C5-1</f>
+        <v>1.7169976771105322E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <f>H5/D5-1</f>
+        <v>9.8972151195997338E-3</v>
+      </c>
+      <c r="I23" s="7">
+        <f>I5/E5-1</f>
+        <v>6.9051568286447651E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <f>J5/F5-1</f>
+        <v>9.8647919187709432E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <f>K5/G5-1</f>
+        <v>6.9690023816312729E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <f>L5/H5-1</f>
+        <v>4.8114676967229375E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <f>M5/I5-1</f>
+        <v>4.2336453815328134E-3</v>
+      </c>
+      <c r="N23" s="7">
+        <f>N5/J5-1</f>
+        <v>1.1756169079722101E-2</v>
+      </c>
+      <c r="O23" s="7">
+        <f>O5/K5-1</f>
+        <v>1.470960321610626E-2</v>
+      </c>
+      <c r="P23" s="7">
+        <f>P5/L5-1</f>
+        <v>5.8684702562790125E-2</v>
+      </c>
+      <c r="Q23" s="7">
+        <f>Q5/M5-1</f>
+        <v>8.3863741993115415E-2</v>
+      </c>
+      <c r="W23" s="7">
+        <f>W5/V5-1</f>
+        <v>8.8658597764026181E-2</v>
+      </c>
+      <c r="X23" s="7">
+        <f>X5/W5-1</f>
+        <v>2.0696497765043675E-2</v>
+      </c>
+      <c r="Y23" s="7">
+        <f>Y5/X5-1</f>
+        <v>4.870629462084719E-2</v>
+      </c>
+      <c r="Z23" s="7">
+        <f>Z5/Y5-1</f>
+        <v>3.2619811877001581E-2</v>
+      </c>
+      <c r="AA23" s="7">
+        <f>AA5/Z5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AB23" s="7">
+        <f>AB5/AA5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AC23" s="7">
+        <f>AC5/AB5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AD23" s="7">
+        <f>AD5/AC5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AE23" s="7">
+        <f>AE5/AD5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AF23" s="7">
+        <f>AF5/AE5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AG23" s="7">
+        <f>AG5/AF5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AH23" s="7">
+        <f>AH5/AG5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AI23" s="7">
+        <f>AI5/AH5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AJ23" s="7">
+        <f>AJ5/AI5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AK23" s="7">
+        <f>AK5/AJ5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AL23" s="7">
+        <f>AL5/AK5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AM23" s="7">
+        <f>AM5/AL5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AN23" s="7">
+        <f>AN5/AM5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AO23" s="7">
+        <f>AO5/AN5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AQ23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR23" s="7">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>553.577</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="2:16" s="3" customFormat="1">
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="3">
-        <f>(J14+J15+J16+J17+J18)</f>
-        <v>1192.0179999999991</v>
-      </c>
-      <c r="K19" s="3">
-        <f>(K14+K15+K16+K17+K18)</f>
-        <v>1004.8700000000001</v>
-      </c>
-      <c r="L19" s="3">
-        <f>(L14+L15+L16+L17+L18)</f>
-        <v>1132.090999999999</v>
-      </c>
-      <c r="N19" s="3">
-        <f>(N14+N15+N16+N17+N18)</f>
-        <v>1228.3620000000001</v>
-      </c>
-      <c r="O19" s="3">
-        <f>(O14+O15+O16+O17+O18)</f>
-        <v>1622.5920000000001</v>
-      </c>
-      <c r="P19" s="3">
-        <f>(P14+P15+P16+P17+P18)</f>
-        <v>1293.7219999999995</v>
+    <row r="24" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR24" s="18">
+        <v>-0.03</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="3" customFormat="1">
-      <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="3">
-        <v>299.77600000000001</v>
-      </c>
-      <c r="K20" s="3">
-        <v>261.76799999999997</v>
-      </c>
-      <c r="L20" s="3">
-        <v>281.86099999999999</v>
-      </c>
-      <c r="N20" s="3">
-        <v>359.68200000000002</v>
-      </c>
-      <c r="O20" s="3">
-        <v>222.73400000000001</v>
-      </c>
-      <c r="P20" s="3">
-        <v>343.42099999999999</v>
+    <row r="25" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR25" s="20">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:16" s="3" customFormat="1">
-      <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="3">
-        <f>(J19-J20)-50.636-10.076</f>
-        <v>831.52999999999906</v>
-      </c>
-      <c r="K21" s="3">
-        <f>(K19-K20)-41.053-11.413</f>
-        <v>690.63600000000008</v>
-      </c>
-      <c r="L21" s="3">
-        <f>(L19-L20)-46.283-10.25</f>
-        <v>793.69699999999898</v>
-      </c>
-      <c r="N21" s="3">
-        <f>(N19-N20)-39.576-10.206</f>
-        <v>818.89800000000002</v>
-      </c>
-      <c r="O21" s="3">
-        <f>(O19-O20)-63.379-9.959</f>
-        <v>1326.5200000000002</v>
-      </c>
-      <c r="P21" s="3">
-        <f>(P19-P20)-42.574-10.462</f>
-        <v>897.26499999999953</v>
+    <row r="26" spans="2:196" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="18">
+        <f>(C9/C5)</f>
+        <v>0.30857875471633156</v>
+      </c>
+      <c r="D26" s="18">
+        <f>(D9/D5)</f>
+        <v>0.29764683744988873</v>
+      </c>
+      <c r="E26" s="18">
+        <f>(E9/E5)</f>
+        <v>0.31629989095652727</v>
+      </c>
+      <c r="F26" s="18">
+        <f>(F9/F5)</f>
+        <v>0.31223945161949657</v>
+      </c>
+      <c r="G26" s="18">
+        <f>(G9/G5)</f>
+        <v>0.31403108531409424</v>
+      </c>
+      <c r="H26" s="18">
+        <f>(H9/H5)</f>
+        <v>0.29470062899381483</v>
+      </c>
+      <c r="I26" s="18">
+        <f>(I9/I5)</f>
+        <v>0.30780359166911403</v>
+      </c>
+      <c r="J26" s="18">
+        <f>(J9/J5)</f>
+        <v>0.29859982419935643</v>
+      </c>
+      <c r="K26" s="18">
+        <f>(K9/K5)</f>
+        <v>0.30435236502962804</v>
+      </c>
+      <c r="L26" s="18">
+        <f>(L9/L5)</f>
+        <v>0.28249556520193303</v>
+      </c>
+      <c r="M26" s="18">
+        <f>(M9/M5)</f>
+        <v>0.30512203769734275</v>
+      </c>
+      <c r="N26" s="18">
+        <f>(N9/N5)</f>
+        <v>0.29940841730018614</v>
+      </c>
+      <c r="O26" s="18">
+        <f>(O9/O5)</f>
+        <v>0.30268404744020866</v>
+      </c>
+      <c r="P26" s="18">
+        <f>(P9/P5)</f>
+        <v>0.28221996455184928</v>
+      </c>
+      <c r="Q26" s="18">
+        <f>(Q9/Q5)</f>
+        <v>0.29987053246700535</v>
+      </c>
+      <c r="AQ26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR26" s="21">
+        <f>NPV(AR25,X19:GN19)</f>
+        <v>95675.17694796274</v>
       </c>
     </row>
-    <row r="22" spans="2:16" s="3" customFormat="1">
-      <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="8">
-        <f>(J21/J23)</f>
-        <v>1.3231669446829448</v>
-      </c>
-      <c r="K22" s="8">
-        <f>(K21/K23)</f>
-        <v>1.099292906430654</v>
-      </c>
-      <c r="L22" s="8">
-        <f>(L21/L23)</f>
-        <v>1.2679485246034798</v>
-      </c>
-      <c r="N22" s="8">
-        <f>(N21/N23)</f>
-        <v>1.3071787880347576</v>
-      </c>
-      <c r="O22" s="8">
-        <f>(O21/O23)</f>
-        <v>2.1172699501932568</v>
-      </c>
-      <c r="P22" s="8">
-        <f>(P21/P23)</f>
-        <v>1.4385565539265956</v>
+    <row r="27" spans="2:196" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="18">
+        <f>(C18/C17)</f>
+        <v>0.26797591107509527</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" ref="D27:Q27" si="18">(D18/D17)</f>
+        <v>-4.8664704503072328E-3</v>
+      </c>
+      <c r="E27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.23768353574777046</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.24609228525437127</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.25095678479701944</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.23975401209100228</v>
+      </c>
+      <c r="I27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.25011947908818322</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.30135342049780456</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.25148613527648089</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.26049936807746271</v>
+      </c>
+      <c r="M27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.24897380157602192</v>
+      </c>
+      <c r="N27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.26557564355485525</v>
+      </c>
+      <c r="O27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.29281433323401407</v>
+      </c>
+      <c r="P27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.13727049067171537</v>
+      </c>
+      <c r="Q27" s="18">
+        <f t="shared" si="18"/>
+        <v>0.26545192862145045</v>
+      </c>
+      <c r="AQ27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR27" s="3">
+        <f>Main!K5-Main!K6</f>
+        <v>3604.3010000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:16" s="3" customFormat="1">
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="3">
-        <v>628.43921799999998</v>
-      </c>
-      <c r="K23" s="3">
-        <v>628.25475900000004</v>
-      </c>
-      <c r="L23" s="3">
-        <v>625.96941800000002</v>
-      </c>
-      <c r="N23" s="3">
-        <v>626.46212400000002</v>
-      </c>
-      <c r="O23" s="3">
-        <v>626.52379299999996</v>
-      </c>
-      <c r="P23" s="3">
-        <v>623.72591299999999</v>
+    <row r="28" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR28" s="3">
+        <f>AR26+AR27</f>
+        <v>99279.477947962747</v>
       </c>
     </row>
-    <row r="24" spans="2:16" s="3" customFormat="1"/>
-    <row r="25" spans="2:16" s="9" customFormat="1">
-      <c r="B25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="9">
-        <f>N5/J5-1</f>
-        <v>1.470960321610626E-2</v>
-      </c>
-      <c r="O25" s="9">
-        <f>O5/K5-1</f>
-        <v>5.8684702562790125E-2</v>
-      </c>
-      <c r="P25" s="9">
-        <f>P5/L5-1</f>
-        <v>8.3863741993115415E-2</v>
+    <row r="29" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:196" x14ac:dyDescent="0.25">
+      <c r="AQ30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR30" s="19">
+        <f>AR28/Main!K3</f>
+        <v>153.98613054761333</v>
       </c>
     </row>
-    <row r="26" spans="2:16" s="3" customFormat="1"/>
-    <row r="27" spans="2:16" s="3" customFormat="1"/>
-    <row r="28" spans="2:16" s="3" customFormat="1"/>
-    <row r="29" spans="2:16" s="3" customFormat="1"/>
-    <row r="30" spans="2:16" s="3" customFormat="1"/>
-    <row r="31" spans="2:16" s="3" customFormat="1"/>
+    <row r="31" spans="2:196" x14ac:dyDescent="0.25">
+      <c r="AQ31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR31">
+        <f>Main!K2</f>
+        <v>110.53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:196" x14ac:dyDescent="0.25">
+      <c r="AR32" s="18">
+        <f>AR30/AR31-1</f>
+        <v>0.39316140909810304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/investing spreadsheets/ACN.xlsx
+++ b/investing spreadsheets/ACN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16725" yWindow="-15" windowWidth="16800" windowHeight="12735" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="-20" windowWidth="16800" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -195,7 +195,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -267,7 +267,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -293,8 +293,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -322,11 +328,15 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -339,6 +349,9 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -351,6 +364,9 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -781,18 +797,18 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,7 +831,7 @@
         <v>110.53</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="D3" s="1"/>
       <c r="J3" t="s">
         <v>6</v>
@@ -824,7 +840,7 @@
         <v>644.73</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="J4" t="s">
         <v>7</v>
       </c>
@@ -833,7 +849,7 @@
         <v>71262.006900000008</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="J5" t="s">
         <v>8</v>
       </c>
@@ -842,7 +858,7 @@
         <v>3633.1740000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="J6" t="s">
         <v>9</v>
       </c>
@@ -851,7 +867,7 @@
         <v>28.872999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="J7" t="s">
         <v>10</v>
       </c>
@@ -873,23 +889,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:GN32"/>
+  <dimension ref="B1:GN35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AO5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="AR35" sqref="AR35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
     <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:41" s="9" customFormat="1" ht="12.75">
       <c r="C1" s="8">
         <v>41243</v>
       </c>
@@ -936,7 +952,7 @@
         <v>42521</v>
       </c>
     </row>
-    <row r="2" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:41">
       <c r="C2" t="s">
         <v>11</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:41" s="3" customFormat="1">
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1133,7 @@
         <v>31047.930999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:41" s="3" customFormat="1">
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1176,7 +1192,7 @@
         <v>1915.655</v>
       </c>
       <c r="X4" s="3">
-        <f t="shared" ref="W4:X19" si="0">SUM(C4:F4)</f>
+        <f t="shared" ref="X4:X19" si="0">SUM(C4:F4)</f>
         <v>1831.4749999999999</v>
       </c>
       <c r="Y4" s="3">
@@ -1188,68 +1204,68 @@
         <v>1866.4930000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:41" s="5" customFormat="1">
       <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="5">
-        <f>+C3+C4</f>
+        <f t="shared" ref="C5:Q5" si="2">+C3+C4</f>
         <v>7668.0360000000001</v>
       </c>
       <c r="D5" s="5">
-        <f>+D3+D4</f>
+        <f t="shared" si="2"/>
         <v>7493.3200000000006</v>
       </c>
       <c r="E5" s="5">
-        <f>+E3+E4</f>
+        <f t="shared" si="2"/>
         <v>7707.9350000000004</v>
       </c>
       <c r="F5" s="5">
-        <f>+F3+F4</f>
+        <f t="shared" si="2"/>
         <v>7524.9940000000006</v>
       </c>
       <c r="G5" s="5">
-        <f>+G3+G4</f>
+        <f t="shared" si="2"/>
         <v>7799.6959999999999</v>
       </c>
       <c r="H5" s="5">
-        <f>+H3+H4</f>
+        <f t="shared" si="2"/>
         <v>7567.4830000000002</v>
       </c>
       <c r="I5" s="5">
-        <f>+I3+I4</f>
+        <f t="shared" si="2"/>
         <v>8240.18</v>
       </c>
       <c r="J5" s="5">
-        <f>+J3+J4</f>
+        <f t="shared" si="2"/>
         <v>8267.3189999999995</v>
       </c>
       <c r="K5" s="16">
-        <f>+K3+K4</f>
+        <f t="shared" si="2"/>
         <v>8343.2569999999996</v>
       </c>
       <c r="L5" s="16">
-        <f>+L3+L4</f>
+        <f t="shared" si="2"/>
         <v>7931.59</v>
       </c>
       <c r="M5" s="16">
-        <f>+M3+M4</f>
+        <f t="shared" si="2"/>
         <v>8275.0659999999989</v>
       </c>
       <c r="N5" s="16">
-        <f>+N3+N4</f>
+        <f t="shared" si="2"/>
         <v>8364.5109999999986</v>
       </c>
       <c r="O5" s="5">
-        <f>+O3+O4</f>
+        <f t="shared" si="2"/>
         <v>8465.9830000000002</v>
       </c>
       <c r="P5" s="5">
-        <f>+P3+P4</f>
+        <f t="shared" si="2"/>
         <v>8397.0529999999999</v>
       </c>
       <c r="Q5" s="5">
-        <f>+Q3+Q4</f>
+        <f t="shared" si="2"/>
         <v>8969.0439999999999</v>
       </c>
       <c r="V5" s="5">
@@ -1265,7 +1281,7 @@
         <v>30394.285000000003</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" ref="Y5:Y19" si="2">SUM(G5:J5)</f>
+        <f t="shared" ref="Y5:Y19" si="3">SUM(G5:J5)</f>
         <v>31874.678</v>
       </c>
       <c r="Z5" s="5">
@@ -1277,63 +1293,63 @@
         <v>33572.712480000002</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" ref="AB5:AO5" si="3">+AA5*1.02</f>
+        <f t="shared" ref="AB5:AO5" si="4">+AA5*1.02</f>
         <v>34244.166729600001</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34929.050064192001</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35627.631065475842</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36340.183686785356</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37066.987360521067</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37808.327107731486</v>
       </c>
       <c r="AH5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38564.493649886113</v>
       </c>
       <c r="AI5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39335.783522883838</v>
       </c>
       <c r="AJ5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40122.499193341515</v>
       </c>
       <c r="AK5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40924.949177208349</v>
       </c>
       <c r="AL5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41743.448160752516</v>
       </c>
       <c r="AM5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42578.317123967565</v>
       </c>
       <c r="AN5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43429.883466446918</v>
       </c>
       <c r="AO5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44298.481135775859</v>
       </c>
     </row>
-    <row r="6" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:41" s="3" customFormat="1">
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1396,7 +1412,7 @@
         <v>19178.634999999998</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20317.928</v>
       </c>
       <c r="Z6" s="3">
@@ -1404,7 +1420,7 @@
         <v>21238.692000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:41" s="3" customFormat="1">
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1467,7 +1483,7 @@
         <v>1831.4749999999999</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1872.2839999999999</v>
       </c>
       <c r="Z7" s="3">
@@ -1475,68 +1491,68 @@
         <v>1866.4930000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:41" s="3" customFormat="1">
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3">
-        <f>+C6+C7</f>
+        <f t="shared" ref="C8:Q8" si="5">+C6+C7</f>
         <v>5301.8429999999998</v>
       </c>
       <c r="D8" s="3">
-        <f>+D6+D7</f>
+        <f t="shared" si="5"/>
         <v>5262.9570000000003</v>
       </c>
       <c r="E8" s="3">
-        <f>+E6+E7</f>
+        <f t="shared" si="5"/>
         <v>5269.9160000000002</v>
       </c>
       <c r="F8" s="3">
-        <f>+F6+F7</f>
+        <f t="shared" si="5"/>
         <v>5175.3939999999984</v>
       </c>
       <c r="G8" s="3">
-        <f>+G6+G7</f>
+        <f t="shared" si="5"/>
         <v>5350.3490000000002</v>
       </c>
       <c r="H8" s="3">
-        <f>+H6+H7</f>
+        <f t="shared" si="5"/>
         <v>5337.3409999999994</v>
       </c>
       <c r="I8" s="3">
-        <f>+I6+I7</f>
+        <f t="shared" si="5"/>
         <v>5703.8230000000003</v>
       </c>
       <c r="J8" s="3">
-        <f>+J6+J7</f>
+        <f t="shared" si="5"/>
         <v>5798.6990000000005</v>
       </c>
       <c r="K8" s="15">
-        <f>+K6+K7</f>
+        <f t="shared" si="5"/>
         <v>5803.9670000000006</v>
       </c>
       <c r="L8" s="15">
-        <f>+L6+L7</f>
+        <f t="shared" si="5"/>
         <v>5690.951</v>
       </c>
       <c r="M8" s="15">
-        <f>+M6+M7</f>
+        <f t="shared" si="5"/>
         <v>5750.1610000000001</v>
       </c>
       <c r="N8" s="15">
-        <f>+N6+N7</f>
+        <f t="shared" si="5"/>
         <v>5860.1060000000016</v>
       </c>
       <c r="O8" s="3">
-        <f>+O6+O7</f>
+        <f t="shared" si="5"/>
         <v>5903.4650000000001</v>
       </c>
       <c r="P8" s="3">
-        <f>+P6+P7</f>
+        <f t="shared" si="5"/>
         <v>6027.2370000000001</v>
       </c>
       <c r="Q8" s="3">
-        <f>+Q6+Q7</f>
+        <f t="shared" si="5"/>
         <v>6279.4920000000002</v>
       </c>
       <c r="V8" s="3">
@@ -1552,7 +1568,7 @@
         <v>21010.11</v>
       </c>
       <c r="Y8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22190.212</v>
       </c>
       <c r="Z8" s="3">
@@ -1560,68 +1576,68 @@
         <v>23105.185000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:41" s="3" customFormat="1">
       <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="3">
-        <f>+C5-C8</f>
+        <f t="shared" ref="C9:Q9" si="6">+C5-C8</f>
         <v>2366.1930000000002</v>
       </c>
       <c r="D9" s="3">
-        <f>+D5-D8</f>
+        <f t="shared" si="6"/>
         <v>2230.3630000000003</v>
       </c>
       <c r="E9" s="3">
-        <f>+E5-E8</f>
+        <f t="shared" si="6"/>
         <v>2438.0190000000002</v>
       </c>
       <c r="F9" s="3">
-        <f>+F5-F8</f>
+        <f t="shared" si="6"/>
         <v>2349.6000000000022</v>
       </c>
       <c r="G9" s="3">
-        <f>+G5-G8</f>
+        <f t="shared" si="6"/>
         <v>2449.3469999999998</v>
       </c>
       <c r="H9" s="3">
-        <f>+H5-H8</f>
+        <f t="shared" si="6"/>
         <v>2230.1420000000007</v>
       </c>
       <c r="I9" s="3">
-        <f>+I5-I8</f>
+        <f t="shared" si="6"/>
         <v>2536.357</v>
       </c>
       <c r="J9" s="3">
-        <f>+J5-J8</f>
+        <f t="shared" si="6"/>
         <v>2468.619999999999</v>
       </c>
       <c r="K9" s="15">
-        <f>+K5-K8</f>
+        <f t="shared" si="6"/>
         <v>2539.2899999999991</v>
       </c>
       <c r="L9" s="15">
-        <f>+L5-L8</f>
+        <f t="shared" si="6"/>
         <v>2240.6390000000001</v>
       </c>
       <c r="M9" s="15">
-        <f>+M5-M8</f>
+        <f t="shared" si="6"/>
         <v>2524.9049999999988</v>
       </c>
       <c r="N9" s="15">
-        <f>+N5-N8</f>
+        <f t="shared" si="6"/>
         <v>2504.404999999997</v>
       </c>
       <c r="O9" s="3">
-        <f>+O5-O8</f>
+        <f t="shared" si="6"/>
         <v>2562.518</v>
       </c>
       <c r="P9" s="3">
-        <f>+P5-P8</f>
+        <f t="shared" si="6"/>
         <v>2369.8159999999998</v>
       </c>
       <c r="Q9" s="3">
-        <f>+Q5-Q8</f>
+        <f t="shared" si="6"/>
         <v>2689.5519999999997</v>
       </c>
       <c r="V9" s="3">
@@ -1637,7 +1653,7 @@
         <v>9384.1750000000029</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9684.4660000000003</v>
       </c>
       <c r="Z9" s="3">
@@ -1649,63 +1665,63 @@
         <v>9903.9501815999993</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" ref="AB9:AO9" si="4">(AB5*0.295)</f>
+        <f t="shared" ref="AB9:AO9" si="7">(AB5*0.295)</f>
         <v>10102.029185232001</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10304.069768936639</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10510.151164315374</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10720.354187601679</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10934.761271353715</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11153.456496780787</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11376.525626716402</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11604.056139250732</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11836.137262035747</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12072.860007276462</v>
       </c>
       <c r="AL9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12314.317207421991</v>
       </c>
       <c r="AM9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12560.603551570432</v>
       </c>
       <c r="AN9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12811.81562260184</v>
       </c>
       <c r="AO9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>13068.051935053878</v>
       </c>
     </row>
-    <row r="10" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:41" s="3" customFormat="1">
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1768,7 +1784,7 @@
         <v>3481.8910000000001</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3582.8330000000001</v>
       </c>
       <c r="Z10" s="3">
@@ -1780,63 +1796,63 @@
         <v>3469.9945499999994</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" ref="AB10:AO10" si="5">AA10*0.99</f>
+        <f t="shared" ref="AB10:AO10" si="8">AA10*0.99</f>
         <v>3435.2946044999994</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3400.9416584549995</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3366.9322418704496</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3333.2629194517449</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3299.9302902572276</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3266.9309873546554</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3234.2616774811086</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3201.9190607062974</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3169.8998700992342</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3138.2008713982418</v>
       </c>
       <c r="AL10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3106.8188626842593</v>
       </c>
       <c r="AM10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3075.7506740574167</v>
       </c>
       <c r="AN10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3044.9931673168426</v>
       </c>
       <c r="AO10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3014.5432356436741</v>
       </c>
     </row>
-    <row r="11" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:41" s="3" customFormat="1">
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
@@ -1899,7 +1915,7 @@
         <v>1835.646</v>
       </c>
       <c r="Y11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1819.136</v>
       </c>
       <c r="Z11" s="3">
@@ -1911,63 +1927,63 @@
         <v>1785.4580699999999</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" ref="AB11:AO11" si="6">AA11*0.99</f>
+        <f t="shared" ref="AB11:AO11" si="9">AA11*0.99</f>
         <v>1767.6034892999999</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1749.9274544069999</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1732.4281798629299</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1715.1038980643007</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1697.9528590836576</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1680.9733304928211</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1664.1635971878929</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1647.521961216014</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1631.0467416038539</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1614.7362741878153</v>
       </c>
       <c r="AL11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1598.5889114459371</v>
       </c>
       <c r="AM11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1582.6030223314776</v>
       </c>
       <c r="AN11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1566.7769921081629</v>
       </c>
       <c r="AO11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1551.1092221870813</v>
       </c>
     </row>
-    <row r="12" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:41" s="3" customFormat="1">
       <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
@@ -2044,7 +2060,7 @@
         <v>5045.0110000000004</v>
       </c>
       <c r="Y12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5383.9539999999997</v>
       </c>
       <c r="Z12" s="3">
@@ -2056,124 +2072,124 @@
         <v>5255.4526199999991</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" ref="AB12:AO12" si="7">+AB10+AB11</f>
+        <f t="shared" ref="AB12:AO12" si="10">+AB10+AB11</f>
         <v>5202.8980937999995</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5150.8691128619994</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5099.3604217333796</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5048.3668175160456</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4997.8831493408852</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4947.9043178474767</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4898.4252746690017</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4849.4410219223118</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4800.9466117030879</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4752.9371455860573</v>
       </c>
       <c r="AL12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4705.4077741301962</v>
       </c>
       <c r="AM12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4658.3536963888946</v>
       </c>
       <c r="AN12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4611.7701594250057</v>
       </c>
       <c r="AO12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4565.6524578307553</v>
       </c>
     </row>
-    <row r="13" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:41" s="3" customFormat="1">
       <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="3">
-        <f>(C9-C12)</f>
+        <f t="shared" ref="C13:Q13" si="11">(C9-C12)</f>
         <v>1048.6740000000002</v>
       </c>
       <c r="D13" s="3">
-        <f>(D9-D12)</f>
+        <f t="shared" si="11"/>
         <v>1164.5320000000004</v>
       </c>
       <c r="E13" s="3">
-        <f>(E9-E12)</f>
+        <f t="shared" si="11"/>
         <v>1141.9610000000002</v>
       </c>
       <c r="F13" s="3">
-        <f>(F9-F12)</f>
+        <f t="shared" si="11"/>
         <v>983.99700000000189</v>
       </c>
       <c r="G13" s="3">
-        <f>(G9-G12)</f>
+        <f t="shared" si="11"/>
         <v>1091.0989999999999</v>
       </c>
       <c r="H13" s="3">
-        <f>(H9-H12)</f>
+        <f t="shared" si="11"/>
         <v>951.28200000000061</v>
       </c>
       <c r="I13" s="3">
-        <f>(I9-I12)</f>
+        <f t="shared" si="11"/>
         <v>1178.7660000000001</v>
       </c>
       <c r="J13" s="3">
-        <f>(J9-J12)</f>
+        <f t="shared" si="11"/>
         <v>1079.3649999999989</v>
       </c>
       <c r="K13" s="15">
-        <f>(K9-K12)</f>
+        <f t="shared" si="11"/>
         <v>1187.7089999999992</v>
       </c>
       <c r="L13" s="15">
-        <f>(L9-L12)</f>
+        <f t="shared" si="11"/>
         <v>1021.0330000000001</v>
       </c>
       <c r="M13" s="15">
-        <f>(M9-M12)</f>
+        <f t="shared" si="11"/>
         <v>1133.5189999999989</v>
       </c>
       <c r="N13" s="15">
-        <f>(N9-N12)</f>
+        <f t="shared" si="11"/>
         <v>1094.057999999997</v>
       </c>
       <c r="O13" s="3">
-        <f>(O9-O12)</f>
+        <f t="shared" si="11"/>
         <v>1221.259</v>
       </c>
       <c r="P13" s="3">
-        <f>(P9-P12)</f>
+        <f t="shared" si="11"/>
         <v>1088.0439999999999</v>
       </c>
       <c r="Q13" s="3">
-        <f>(Q9-Q12)</f>
+        <f t="shared" si="11"/>
         <v>1305.9429999999998</v>
       </c>
       <c r="V13" s="3">
@@ -2189,7 +2205,7 @@
         <v>4339.1640000000025</v>
       </c>
       <c r="Y13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4300.5119999999997</v>
       </c>
       <c r="Z13" s="3">
@@ -2201,63 +2217,63 @@
         <v>4648.4975616000002</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" ref="AB13:AO13" si="8">(AB9-AB12)</f>
+        <f t="shared" ref="AB13:AO13" si="12">(AB9-AB12)</f>
         <v>4899.1310914320011</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5153.2006560746395</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5410.790742581994</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5671.9873700856333</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5936.8781220128294</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6205.5521789333106</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6478.1003520474005</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6754.6151173284197</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7035.1906503326591</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7319.9228616904047</v>
       </c>
       <c r="AL13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7608.9094332917948</v>
       </c>
       <c r="AM13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7902.249855181537</v>
       </c>
       <c r="AN13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8200.0454631768334</v>
       </c>
       <c r="AO13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8502.3994772231235</v>
       </c>
     </row>
-    <row r="14" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:41" s="3" customFormat="1">
       <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
@@ -2320,7 +2336,7 @@
         <v>32.893000000000001</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.369999999999997</v>
       </c>
       <c r="Z14" s="3">
@@ -2332,63 +2348,63 @@
         <v>30.37</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" ref="AB14:AO14" si="9">AA14</f>
+        <f t="shared" ref="AB14:AO14" si="13">AA14</f>
         <v>30.37</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
       <c r="AO14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.37</v>
       </c>
     </row>
-    <row r="15" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:41" s="3" customFormat="1">
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
@@ -2451,7 +2467,7 @@
         <v>-14.035000000000004</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="Z15" s="3">
@@ -2463,63 +2479,63 @@
         <v>-17.620999999999999</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" ref="AB15:AO15" si="10">AA15</f>
+        <f t="shared" ref="AB15:AO15" si="14">AA15</f>
         <v>-17.620999999999999</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AL15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AM15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AO15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-17.620999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:41" s="3" customFormat="1">
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
@@ -2582,7 +2598,7 @@
         <v>-18.244</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-15.559999999999999</v>
       </c>
       <c r="Z16" s="3">
@@ -2594,116 +2610,116 @@
         <v>-15.559999999999997</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" ref="AB16:AO16" si="11">AA16</f>
+        <f t="shared" ref="AB16:AO16" si="15">AA16</f>
         <v>-15.559999999999997</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AO16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-15.559999999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:196" s="3" customFormat="1">
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="3">
-        <f>(C13+C14+C15+C16)</f>
+        <f t="shared" ref="C17:O17" si="16">(C13+C14+C15+C16)</f>
         <v>1046.4560000000004</v>
       </c>
       <c r="D17" s="3">
-        <f>(D13+D14+D15+D16)</f>
+        <f t="shared" si="16"/>
         <v>1181.3490000000002</v>
       </c>
       <c r="E17" s="3">
-        <f>(E13+E14+E15+E16)</f>
+        <f t="shared" si="16"/>
         <v>1146.5750000000003</v>
       </c>
       <c r="F17" s="3">
-        <f>(F13+F14+F15+F16)</f>
+        <f t="shared" si="16"/>
         <v>965.39800000000196</v>
       </c>
       <c r="G17" s="3">
-        <f>(G13+G14+G15+G16)</f>
+        <f t="shared" si="16"/>
         <v>1083.5770000000002</v>
       </c>
       <c r="H17" s="3">
-        <f>(H13+H14+H15+H16)</f>
+        <f t="shared" si="16"/>
         <v>950.12800000000072</v>
       </c>
       <c r="I17" s="3">
-        <f>(I13+I14+I15+I16)</f>
+        <f t="shared" si="16"/>
         <v>1175.9380000000001</v>
       </c>
       <c r="J17" s="3">
-        <f>(J13+J14+J15+J16)</f>
+        <f t="shared" si="16"/>
         <v>1088.0579999999989</v>
       </c>
       <c r="K17" s="15">
-        <f>(K13+K14+K15+K16)</f>
+        <f t="shared" si="16"/>
         <v>1192.0179999999991</v>
       </c>
       <c r="L17" s="15">
-        <f>(L13+L14+L15+L16)</f>
+        <f t="shared" si="16"/>
         <v>1004.8700000000001</v>
       </c>
       <c r="M17" s="15">
-        <f>(M13+M14+M15+M16)</f>
+        <f t="shared" si="16"/>
         <v>1132.090999999999</v>
       </c>
       <c r="N17" s="15">
-        <f>(N13+N14+N15+N16)</f>
+        <f t="shared" si="16"/>
         <v>1104.528999999997</v>
       </c>
       <c r="O17" s="3">
-        <f>(O13+O14+O15+O16)</f>
+        <f t="shared" si="16"/>
         <v>1228.3620000000001</v>
       </c>
       <c r="P17" s="3">
@@ -2727,75 +2743,75 @@
         <v>4339.7780000000021</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4297.701</v>
       </c>
       <c r="Z17" s="3">
-        <f>(Z13+Z14+Z15+Z16)</f>
+        <f t="shared" ref="Z17:AO17" si="17">(Z13+Z14+Z15+Z16)</f>
         <v>4497.8899999999976</v>
       </c>
       <c r="AA17" s="3">
-        <f>(AA13+AA14+AA15+AA16)</f>
+        <f t="shared" si="17"/>
         <v>4645.6865615999995</v>
       </c>
       <c r="AB17" s="3">
-        <f>(AB13+AB14+AB15+AB16)</f>
+        <f t="shared" si="17"/>
         <v>4896.3200914320005</v>
       </c>
       <c r="AC17" s="3">
-        <f>(AC13+AC14+AC15+AC16)</f>
+        <f t="shared" si="17"/>
         <v>5150.3896560746389</v>
       </c>
       <c r="AD17" s="3">
-        <f>(AD13+AD14+AD15+AD16)</f>
+        <f t="shared" si="17"/>
         <v>5407.9797425819934</v>
       </c>
       <c r="AE17" s="3">
-        <f>(AE13+AE14+AE15+AE16)</f>
+        <f t="shared" si="17"/>
         <v>5669.1763700856327</v>
       </c>
       <c r="AF17" s="3">
-        <f>(AF13+AF14+AF15+AF16)</f>
+        <f t="shared" si="17"/>
         <v>5934.0671220128288</v>
       </c>
       <c r="AG17" s="3">
-        <f>(AG13+AG14+AG15+AG16)</f>
+        <f t="shared" si="17"/>
         <v>6202.74117893331</v>
       </c>
       <c r="AH17" s="3">
-        <f>(AH13+AH14+AH15+AH16)</f>
+        <f t="shared" si="17"/>
         <v>6475.2893520473999</v>
       </c>
       <c r="AI17" s="3">
-        <f>(AI13+AI14+AI15+AI16)</f>
+        <f t="shared" si="17"/>
         <v>6751.8041173284191</v>
       </c>
       <c r="AJ17" s="3">
-        <f>(AJ13+AJ14+AJ15+AJ16)</f>
+        <f t="shared" si="17"/>
         <v>7032.3796503326585</v>
       </c>
       <c r="AK17" s="3">
-        <f>(AK13+AK14+AK15+AK16)</f>
+        <f t="shared" si="17"/>
         <v>7317.1118616904041</v>
       </c>
       <c r="AL17" s="3">
-        <f>(AL13+AL14+AL15+AL16)</f>
+        <f t="shared" si="17"/>
         <v>7606.0984332917942</v>
       </c>
       <c r="AM17" s="3">
-        <f>(AM13+AM14+AM15+AM16)</f>
+        <f t="shared" si="17"/>
         <v>7899.4388551815364</v>
       </c>
       <c r="AN17" s="3">
-        <f>(AN13+AN14+AN15+AN16)</f>
+        <f t="shared" si="17"/>
         <v>8197.2344631768356</v>
       </c>
       <c r="AO17" s="3">
-        <f>(AO13+AO14+AO15+AO16)</f>
+        <f t="shared" si="17"/>
         <v>8499.5884772231257</v>
       </c>
     </row>
-    <row r="18" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:196" s="3" customFormat="1">
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
@@ -2858,7 +2874,7 @@
         <v>784.77499999999998</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1121.7429999999999</v>
       </c>
       <c r="Z18" s="3">
@@ -2870,63 +2886,63 @@
         <v>929.13731231999998</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" ref="AB18:AO18" si="12">AB17*0.2</f>
+        <f t="shared" ref="AB18:AO18" si="18">AB17*0.2</f>
         <v>979.26401828640019</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1030.0779312149277</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1081.5959485163987</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1133.8352740171265</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1186.8134244025657</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1240.5482357866622</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1295.0578704094801</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1350.360823465684</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1406.4759300665319</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1463.422372338081</v>
       </c>
       <c r="AL18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1521.219686658359</v>
       </c>
       <c r="AM18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1579.8877710363074</v>
       </c>
       <c r="AN18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1639.4468926353672</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1699.9176954446252</v>
       </c>
     </row>
-    <row r="19" spans="2:196" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:196" s="5" customFormat="1">
       <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
@@ -3003,7 +3019,7 @@
         <v>3281.8780000000006</v>
       </c>
       <c r="Y19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2941.498</v>
       </c>
       <c r="Z19" s="5">
@@ -3015,59 +3031,59 @@
         <v>3716.5492492799995</v>
       </c>
       <c r="AB19" s="5">
-        <f t="shared" ref="AB19:AO19" si="13">AB17-AB18</f>
+        <f t="shared" ref="AB19:AO19" si="19">AB17-AB18</f>
         <v>3917.0560731456003</v>
       </c>
       <c r="AC19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4120.3117248597109</v>
       </c>
       <c r="AD19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4326.3837940655949</v>
       </c>
       <c r="AE19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4535.341096068506</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4747.2536976102629</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4962.1929431466478</v>
       </c>
       <c r="AH19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5180.2314816379203</v>
       </c>
       <c r="AI19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5401.4432938627351</v>
       </c>
       <c r="AJ19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5625.9037202661266</v>
       </c>
       <c r="AK19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5853.6894893523231</v>
       </c>
       <c r="AL19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6084.8787466334352</v>
       </c>
       <c r="AM19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6319.5510841452287</v>
       </c>
       <c r="AN19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6557.7875705414681</v>
       </c>
       <c r="AO19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6799.6707817785009</v>
       </c>
       <c r="AP19" s="5">
@@ -3075,243 +3091,243 @@
         <v>6595.6806583251455</v>
       </c>
       <c r="AQ19" s="5">
-        <f t="shared" ref="AQ19:DB19" si="14">AP19*(1+$AR$24)</f>
+        <f t="shared" ref="AQ19:DB19" si="20">AP19*(1+$AR$24)</f>
         <v>6397.8102385753909</v>
       </c>
       <c r="AR19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6205.8759314181289</v>
       </c>
       <c r="AS19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6019.6996534755845</v>
       </c>
       <c r="AT19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5839.1086638713168</v>
       </c>
       <c r="AU19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5663.9354039551772</v>
       </c>
       <c r="AV19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5494.0173418365221</v>
       </c>
       <c r="AW19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5329.1968215814259</v>
       </c>
       <c r="AX19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5169.3209169339825</v>
       </c>
       <c r="AY19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5014.2412894259633</v>
       </c>
       <c r="AZ19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4863.8140507431845</v>
       </c>
       <c r="BA19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4717.8996292208885</v>
       </c>
       <c r="BB19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4576.3626403442613</v>
       </c>
       <c r="BC19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4439.0717611339333</v>
       </c>
       <c r="BD19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4305.8996082999147</v>
       </c>
       <c r="BE19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4176.7226200509167</v>
       </c>
       <c r="BF19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4051.4209414493889</v>
       </c>
       <c r="BG19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3929.878313205907</v>
       </c>
       <c r="BH19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3811.9819638097297</v>
       </c>
       <c r="BI19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3697.6225048954375</v>
       </c>
       <c r="BJ19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3586.6938297485744</v>
       </c>
       <c r="BK19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3479.093014856117</v>
       </c>
       <c r="BL19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3374.7202244104333</v>
       </c>
       <c r="BM19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3273.4786176781204</v>
       </c>
       <c r="BN19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3175.2742591477768</v>
       </c>
       <c r="BO19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3080.0160313733436</v>
       </c>
       <c r="BP19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2987.6155504321432</v>
       </c>
       <c r="BQ19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2897.987083919179</v>
       </c>
       <c r="BR19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2811.0474714016036</v>
       </c>
       <c r="BS19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2726.7160472595556</v>
       </c>
       <c r="BT19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2644.9145658417688</v>
       </c>
       <c r="BU19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2565.5671288665158</v>
       </c>
       <c r="BV19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2488.6001150005204</v>
       </c>
       <c r="BW19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2413.9421115505047</v>
       </c>
       <c r="BX19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2341.5238482039895</v>
       </c>
       <c r="BY19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2271.2781327578696</v>
       </c>
       <c r="BZ19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2203.1397887751336</v>
       </c>
       <c r="CA19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2137.0455951118797</v>
       </c>
       <c r="CB19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2072.9342272585232</v>
       </c>
       <c r="CC19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2010.7462004407673</v>
       </c>
       <c r="CD19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1950.4238144275444</v>
       </c>
       <c r="CE19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1891.9110999947179</v>
       </c>
       <c r="CF19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1835.1537669948764</v>
       </c>
       <c r="CG19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1780.0991539850299</v>
       </c>
       <c r="CH19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1726.6961793654791</v>
       </c>
       <c r="CI19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1674.8952939845146</v>
       </c>
       <c r="CJ19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1624.6484351649792</v>
       </c>
       <c r="CK19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1575.9089821100299</v>
       </c>
       <c r="CL19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1528.6317126467291</v>
       </c>
       <c r="CM19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1482.772761267327</v>
       </c>
       <c r="CN19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1438.2895784293071</v>
       </c>
       <c r="CO19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1395.1408910764278</v>
       </c>
       <c r="CP19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1353.286664344135</v>
       </c>
       <c r="CQ19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1312.6880644138109</v>
       </c>
       <c r="CR19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1273.3074224813965</v>
       </c>
       <c r="CS19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1235.1081998069546</v>
       </c>
       <c r="CT19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1198.0549538127459</v>
       </c>
       <c r="CU19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1162.1133051983636</v>
       </c>
       <c r="CV19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1127.2499060424127</v>
       </c>
       <c r="CW19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1093.4324088611404</v>
       </c>
       <c r="CX19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1060.6294365953061</v>
       </c>
       <c r="CY19" s="5">
@@ -3319,440 +3335,440 @@
         <v>1028.8105534974468</v>
       </c>
       <c r="CZ19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>997.9462368925233</v>
       </c>
       <c r="DA19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>968.00784978574757</v>
       </c>
       <c r="DB19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>938.96761429217509</v>
       </c>
       <c r="DC19" s="5">
-        <f t="shared" ref="DC19:FN19" si="15">DB19*(1+$AR$24)</f>
+        <f t="shared" ref="DC19:FN19" si="21">DB19*(1+$AR$24)</f>
         <v>910.79858586340981</v>
       </c>
       <c r="DD19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>883.47462828750747</v>
       </c>
       <c r="DE19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>856.97038943888219</v>
       </c>
       <c r="DF19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>831.2612777557157</v>
       </c>
       <c r="DG19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>806.32343942304419</v>
       </c>
       <c r="DH19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>782.13373624035285</v>
       </c>
       <c r="DI19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>758.66972415314228</v>
       </c>
       <c r="DJ19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>735.90963242854798</v>
       </c>
       <c r="DK19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>713.83234345569156</v>
       </c>
       <c r="DL19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>692.41737315202079</v>
       </c>
       <c r="DM19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>671.64485195746011</v>
       </c>
       <c r="DN19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>651.49550639873632</v>
       </c>
       <c r="DO19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>631.95064120677421</v>
       </c>
       <c r="DP19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>612.99212197057102</v>
       </c>
       <c r="DQ19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>594.60235831145383</v>
       </c>
       <c r="DR19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>576.76428756211021</v>
       </c>
       <c r="DS19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>559.46135893524684</v>
       </c>
       <c r="DT19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>542.67751816718942</v>
       </c>
       <c r="DU19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>526.39719262217375</v>
       </c>
       <c r="DV19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>510.60527684350853</v>
       </c>
       <c r="DW19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>495.28711853820329</v>
       </c>
       <c r="DX19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>480.42850498205718</v>
       </c>
       <c r="DY19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>466.01564983259544</v>
       </c>
       <c r="DZ19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>452.03518033761759</v>
       </c>
       <c r="EA19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>438.47412492748907</v>
       </c>
       <c r="EB19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>425.31990117966438</v>
       </c>
       <c r="EC19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>412.56030414427443</v>
       </c>
       <c r="ED19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>400.18349501994618</v>
       </c>
       <c r="EE19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>388.17799016934777</v>
       </c>
       <c r="EF19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>376.53265046426731</v>
       </c>
       <c r="EG19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>365.23667095033926</v>
       </c>
       <c r="EH19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>354.27957082182905</v>
       </c>
       <c r="EI19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>343.65118369717419</v>
       </c>
       <c r="EJ19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>333.34164818625896</v>
       </c>
       <c r="EK19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>323.3413987406712</v>
       </c>
       <c r="EL19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>313.64115677845103</v>
       </c>
       <c r="EM19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>304.23192207509749</v>
       </c>
       <c r="EN19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>295.10496441284454</v>
       </c>
       <c r="EO19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>286.25181548045919</v>
       </c>
       <c r="EP19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>277.66426101604543</v>
       </c>
       <c r="EQ19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>269.33433318556405</v>
       </c>
       <c r="ER19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>261.25430318999713</v>
       </c>
       <c r="ES19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>253.41667409429721</v>
       </c>
       <c r="ET19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>245.81417387146828</v>
       </c>
       <c r="EU19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>238.43974865532422</v>
       </c>
       <c r="EV19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>231.2865561956645</v>
       </c>
       <c r="EW19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>224.34795950979455</v>
       </c>
       <c r="EX19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>217.61752072450071</v>
       </c>
       <c r="EY19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>211.08899510276569</v>
       </c>
       <c r="EZ19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>204.7563252496827</v>
       </c>
       <c r="FA19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>198.61363549219223</v>
       </c>
       <c r="FB19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>192.65522642742647</v>
       </c>
       <c r="FC19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>186.87556963460366</v>
       </c>
       <c r="FD19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>181.26930254556555</v>
       </c>
       <c r="FE19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>175.83122346919859</v>
       </c>
       <c r="FF19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>170.55628676512262</v>
       </c>
       <c r="FG19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>165.43959816216895</v>
       </c>
       <c r="FH19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>160.47641021730388</v>
       </c>
       <c r="FI19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>155.66211791078476</v>
       </c>
       <c r="FJ19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>150.99225437346121</v>
       </c>
       <c r="FK19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>146.46248674225737</v>
       </c>
       <c r="FL19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>142.06861213998965</v>
       </c>
       <c r="FM19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>137.80655377578995</v>
       </c>
       <c r="FN19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>133.67235716251625</v>
       </c>
       <c r="FO19" s="5">
-        <f t="shared" ref="FO19:GN19" si="16">FN19*(1+$AR$24)</f>
+        <f t="shared" ref="FO19:GN19" si="22">FN19*(1+$AR$24)</f>
         <v>129.66218644764075</v>
       </c>
       <c r="FP19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>125.77232085421153</v>
       </c>
       <c r="FQ19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>121.99915122858518</v>
       </c>
       <c r="FR19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>118.33917669172762</v>
       </c>
       <c r="FS19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>114.78900139097578</v>
       </c>
       <c r="FT19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>111.34533134924651</v>
       </c>
       <c r="FU19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>108.00497140876911</v>
       </c>
       <c r="FV19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>104.76482226650603</v>
       </c>
       <c r="FW19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>101.62187759851085</v>
       </c>
       <c r="FX19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>98.573221270555521</v>
       </c>
       <c r="FY19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>95.616024632438851</v>
       </c>
       <c r="FZ19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>92.747543893465689</v>
       </c>
       <c r="GA19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>89.965117576661711</v>
       </c>
       <c r="GB19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>87.266164049361862</v>
       </c>
       <c r="GC19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>84.648179127881008</v>
       </c>
       <c r="GD19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>82.108733754044579</v>
       </c>
       <c r="GE19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>79.645471741423236</v>
       </c>
       <c r="GF19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>77.25610758918053</v>
       </c>
       <c r="GG19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>74.938424361505113</v>
       </c>
       <c r="GH19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>72.690271630659964</v>
       </c>
       <c r="GI19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>70.509563481740159</v>
       </c>
       <c r="GJ19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>68.394276577287954</v>
       </c>
       <c r="GK19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>66.342448279969318</v>
       </c>
       <c r="GL19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>64.352174831570238</v>
       </c>
       <c r="GM19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>62.421609586623127</v>
       </c>
       <c r="GN19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>60.548961299024434</v>
       </c>
     </row>
-    <row r="20" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:196" s="3" customFormat="1">
       <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="6">
-        <f>(C19/C21)</f>
+        <f t="shared" ref="C20:Q20" si="23">(C19/C21)</f>
         <v>1.0924832449617501</v>
       </c>
       <c r="D20" s="6">
-        <f>(D19/D21)</f>
+        <f t="shared" si="23"/>
         <v>1.696331796305248</v>
       </c>
       <c r="E20" s="6">
-        <f>(E19/E21)</f>
+        <f t="shared" si="23"/>
         <v>1.2453361622932306</v>
       </c>
       <c r="F20" s="6">
-        <f>(F19/F21)</f>
+        <f t="shared" si="23"/>
         <v>1.0394617275188067</v>
       </c>
       <c r="G20" s="6">
-        <f>(G19/G21)</f>
+        <f t="shared" si="23"/>
         <v>1.1808563856057768</v>
       </c>
       <c r="H20" s="6">
-        <f>(H19/H21)</f>
+        <f t="shared" si="23"/>
         <v>1.0556204064875765</v>
       </c>
       <c r="I20" s="6">
-        <f>(I19/I21)</f>
+        <f t="shared" si="23"/>
         <v>1.2909482153286449</v>
       </c>
       <c r="J20" s="6">
-        <f>(J19/J21)</f>
+        <f t="shared" si="23"/>
         <v>1.1053264560786631</v>
       </c>
       <c r="K20" s="17">
-        <f>(K19/K21)</f>
+        <f t="shared" si="23"/>
         <v>1.3231669446829448</v>
       </c>
       <c r="L20" s="17">
-        <f>(L19/L21)</f>
+        <f t="shared" si="23"/>
         <v>1.099292906430654</v>
       </c>
       <c r="M20" s="17">
-        <f>(M19/M21)</f>
+        <f t="shared" si="23"/>
         <v>1.2679485246034798</v>
       </c>
       <c r="N20" s="17">
-        <f>(N19/N21)</f>
+        <f t="shared" si="23"/>
         <v>1.1769599350054492</v>
       </c>
       <c r="O20" s="6">
-        <f>(O19/O21)</f>
+        <f t="shared" si="23"/>
         <v>1.3071787880347576</v>
       </c>
       <c r="P20" s="6">
-        <f>(P19/P21)</f>
+        <f t="shared" si="23"/>
         <v>2.1172699501932568</v>
       </c>
       <c r="Q20" s="6">
-        <f>(Q19/Q21)</f>
+        <f t="shared" si="23"/>
         <v>1.4385565539265956</v>
       </c>
       <c r="V20" s="6">
@@ -3764,11 +3780,11 @@
         <v>3.970425377332103</v>
       </c>
       <c r="X20" s="6">
-        <f t="shared" ref="W20:Y20" si="17">(X19/X21)</f>
+        <f t="shared" ref="X20:Y20" si="24">(X19/X21)</f>
         <v>5.0839503009428615</v>
       </c>
       <c r="Y20" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>4.6380047814921177</v>
       </c>
       <c r="Z20" s="6">
@@ -3776,7 +3792,7 @@
         <v>4.8717023243215749</v>
       </c>
     </row>
-    <row r="21" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:196" s="3" customFormat="1">
       <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3841,142 +3857,262 @@
         <v>626.79958599999998</v>
       </c>
     </row>
-    <row r="22" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:196" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:196" s="3" customFormat="1"/>
+    <row r="23" spans="2:196" s="7" customFormat="1">
       <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="7">
-        <f>G5/C5-1</f>
+        <f t="shared" ref="G23:Q23" si="25">G5/C5-1</f>
         <v>1.7169976771105322E-2</v>
       </c>
       <c r="H23" s="7">
-        <f>H5/D5-1</f>
+        <f t="shared" si="25"/>
         <v>9.8972151195997338E-3</v>
       </c>
       <c r="I23" s="7">
-        <f>I5/E5-1</f>
+        <f t="shared" si="25"/>
         <v>6.9051568286447651E-2</v>
       </c>
       <c r="J23" s="7">
-        <f>J5/F5-1</f>
+        <f t="shared" si="25"/>
         <v>9.8647919187709432E-2</v>
       </c>
       <c r="K23" s="7">
-        <f>K5/G5-1</f>
+        <f t="shared" si="25"/>
         <v>6.9690023816312729E-2</v>
       </c>
       <c r="L23" s="7">
-        <f>L5/H5-1</f>
+        <f t="shared" si="25"/>
         <v>4.8114676967229375E-2</v>
       </c>
       <c r="M23" s="7">
-        <f>M5/I5-1</f>
+        <f t="shared" si="25"/>
         <v>4.2336453815328134E-3</v>
       </c>
       <c r="N23" s="7">
-        <f>N5/J5-1</f>
+        <f t="shared" si="25"/>
         <v>1.1756169079722101E-2</v>
       </c>
       <c r="O23" s="7">
-        <f>O5/K5-1</f>
+        <f t="shared" si="25"/>
         <v>1.470960321610626E-2</v>
       </c>
       <c r="P23" s="7">
-        <f>P5/L5-1</f>
+        <f t="shared" si="25"/>
         <v>5.8684702562790125E-2</v>
       </c>
       <c r="Q23" s="7">
-        <f>Q5/M5-1</f>
+        <f t="shared" si="25"/>
         <v>8.3863741993115415E-2</v>
       </c>
       <c r="W23" s="7">
-        <f>W5/V5-1</f>
+        <f t="shared" ref="W23:AO23" si="26">W5/V5-1</f>
         <v>8.8658597764026181E-2</v>
       </c>
       <c r="X23" s="7">
-        <f>X5/W5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0696497765043675E-2</v>
       </c>
       <c r="Y23" s="7">
-        <f>Y5/X5-1</f>
+        <f t="shared" si="26"/>
         <v>4.870629462084719E-2</v>
       </c>
       <c r="Z23" s="7">
-        <f>Z5/Y5-1</f>
+        <f t="shared" si="26"/>
         <v>3.2619811877001581E-2</v>
       </c>
       <c r="AA23" s="7">
-        <f>AA5/Z5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB23" s="7">
-        <f>AB5/AA5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AC23" s="7">
-        <f>AC5/AB5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD23" s="7">
-        <f>AD5/AC5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AE23" s="7">
-        <f>AE5/AD5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AF23" s="7">
-        <f>AF5/AE5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AG23" s="7">
-        <f>AG5/AF5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AH23" s="7">
-        <f>AH5/AG5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AI23" s="7">
-        <f>AI5/AH5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AJ23" s="7">
-        <f>AJ5/AI5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AK23" s="7">
-        <f>AK5/AJ5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AL23" s="7">
-        <f>AL5/AK5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM23" s="7">
-        <f>AM5/AL5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AN23" s="7">
-        <f>AN5/AM5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AO23" s="7">
-        <f>AO5/AN5-1</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AQ23" s="7" t="s">
+      <c r="AQ23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AR23" s="7">
+      <c r="AR23" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:196" s="3" customFormat="1">
       <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="G24" s="20">
+        <f>G19/C19-1</f>
+        <v>7.5883958175029909E-2</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" ref="H24:Q24" si="27">H19/D19-1</f>
+        <v>-0.39072537533967033</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" si="27"/>
+        <v>8.7479389026567933E-3</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="27"/>
+        <v>4.4716107485570422E-2</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="27"/>
+        <v>0.10598447022395385</v>
+      </c>
+      <c r="L24" s="20">
+        <f t="shared" si="27"/>
+        <v>2.8803813496200537E-2</v>
+      </c>
+      <c r="M24" s="20">
+        <f t="shared" si="27"/>
+        <v>-2.892201004238304E-2</v>
+      </c>
+      <c r="N24" s="20">
+        <f t="shared" si="27"/>
+        <v>5.2355438392280851E-2</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="27"/>
+        <v>-1.5191273916754677E-2</v>
+      </c>
+      <c r="P24" s="20">
+        <f t="shared" si="27"/>
+        <v>0.92072234867571345</v>
+      </c>
+      <c r="Q24" s="20">
+        <f t="shared" si="27"/>
+        <v>0.13048808298380954</v>
+      </c>
+      <c r="W24" s="18">
+        <f>W19/V19-1</f>
+        <v>0.12110277269340708</v>
+      </c>
+      <c r="X24" s="18">
+        <f t="shared" ref="X24:AO24" si="28">X19/W19-1</f>
+        <v>0.28524188274179374</v>
+      </c>
+      <c r="Y24" s="18">
+        <f t="shared" si="28"/>
+        <v>-0.10371500707826453</v>
+      </c>
+      <c r="Z24" s="18">
+        <f t="shared" si="28"/>
+        <v>3.8104054464766168E-2</v>
+      </c>
+      <c r="AA24" s="18">
+        <f t="shared" si="28"/>
+        <v>0.21711172858358707</v>
+      </c>
+      <c r="AB24" s="18">
+        <f t="shared" si="28"/>
+        <v>5.3949728744868475E-2</v>
+      </c>
+      <c r="AC24" s="18">
+        <f t="shared" si="28"/>
+        <v>5.1889900966080926E-2</v>
+      </c>
+      <c r="AD24" s="18">
+        <f t="shared" si="28"/>
+        <v>5.0013708419816227E-2</v>
+      </c>
+      <c r="AE24" s="18">
+        <f t="shared" si="28"/>
+        <v>4.8298373872778688E-2</v>
+      </c>
+      <c r="AF24" s="18">
+        <f t="shared" si="28"/>
+        <v>4.6724732947970526E-2</v>
+      </c>
+      <c r="AG24" s="18">
+        <f t="shared" si="28"/>
+        <v>4.5276544972640442E-2</v>
+      </c>
+      <c r="AH24" s="18">
+        <f t="shared" si="28"/>
+        <v>4.3939955779512374E-2</v>
+      </c>
+      <c r="AI24" s="18">
+        <f t="shared" si="28"/>
+        <v>4.2703074758132287E-2</v>
+      </c>
+      <c r="AJ24" s="18">
+        <f t="shared" si="28"/>
+        <v>4.1555638778699944E-2</v>
+      </c>
+      <c r="AK24" s="18">
+        <f t="shared" si="28"/>
+        <v>4.0488742860217641E-2</v>
+      </c>
+      <c r="AL24" s="18">
+        <f t="shared" si="28"/>
+        <v>3.9494622613932329E-2</v>
+      </c>
+      <c r="AM24" s="18">
+        <f t="shared" si="28"/>
+        <v>3.8566477210680628E-2</v>
+      </c>
+      <c r="AN24" s="18">
+        <f t="shared" si="28"/>
+        <v>3.7698324330969868E-2</v>
+      </c>
+      <c r="AO24" s="18">
+        <f t="shared" si="28"/>
+        <v>3.6884880553863519E-2</v>
+      </c>
       <c r="AQ24" s="3" t="s">
         <v>50</v>
       </c>
@@ -3984,79 +4120,79 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="25" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:196" s="3" customFormat="1">
       <c r="AQ25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AR25" s="20">
+      <c r="AR25" s="19">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:196" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:196" s="18" customFormat="1">
       <c r="B26" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="18">
-        <f>(C9/C5)</f>
+        <f t="shared" ref="C26:Q26" si="29">(C9/C5)</f>
         <v>0.30857875471633156</v>
       </c>
       <c r="D26" s="18">
-        <f>(D9/D5)</f>
+        <f t="shared" si="29"/>
         <v>0.29764683744988873</v>
       </c>
       <c r="E26" s="18">
-        <f>(E9/E5)</f>
+        <f t="shared" si="29"/>
         <v>0.31629989095652727</v>
       </c>
       <c r="F26" s="18">
-        <f>(F9/F5)</f>
+        <f t="shared" si="29"/>
         <v>0.31223945161949657</v>
       </c>
       <c r="G26" s="18">
-        <f>(G9/G5)</f>
+        <f t="shared" si="29"/>
         <v>0.31403108531409424</v>
       </c>
       <c r="H26" s="18">
-        <f>(H9/H5)</f>
+        <f t="shared" si="29"/>
         <v>0.29470062899381483</v>
       </c>
       <c r="I26" s="18">
-        <f>(I9/I5)</f>
+        <f t="shared" si="29"/>
         <v>0.30780359166911403</v>
       </c>
       <c r="J26" s="18">
-        <f>(J9/J5)</f>
+        <f t="shared" si="29"/>
         <v>0.29859982419935643</v>
       </c>
       <c r="K26" s="18">
-        <f>(K9/K5)</f>
+        <f t="shared" si="29"/>
         <v>0.30435236502962804</v>
       </c>
       <c r="L26" s="18">
-        <f>(L9/L5)</f>
+        <f t="shared" si="29"/>
         <v>0.28249556520193303</v>
       </c>
       <c r="M26" s="18">
-        <f>(M9/M5)</f>
+        <f t="shared" si="29"/>
         <v>0.30512203769734275</v>
       </c>
       <c r="N26" s="18">
-        <f>(N9/N5)</f>
+        <f t="shared" si="29"/>
         <v>0.29940841730018614</v>
       </c>
       <c r="O26" s="18">
-        <f>(O9/O5)</f>
+        <f t="shared" si="29"/>
         <v>0.30268404744020866</v>
       </c>
       <c r="P26" s="18">
-        <f>(P9/P5)</f>
+        <f t="shared" si="29"/>
         <v>0.28221996455184928</v>
       </c>
       <c r="Q26" s="18">
-        <f>(Q9/Q5)</f>
+        <f t="shared" si="29"/>
         <v>0.29987053246700535</v>
       </c>
-      <c r="AQ26" s="18" t="s">
+      <c r="AQ26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AR26" s="21">
@@ -4064,7 +4200,7 @@
         <v>95675.17694796274</v>
       </c>
     </row>
-    <row r="27" spans="2:196" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:196" s="18" customFormat="1">
       <c r="B27" s="18" t="s">
         <v>48</v>
       </c>
@@ -4073,59 +4209,59 @@
         <v>0.26797591107509527</v>
       </c>
       <c r="D27" s="18">
-        <f t="shared" ref="D27:Q27" si="18">(D18/D17)</f>
+        <f t="shared" ref="D27:Q27" si="30">(D18/D17)</f>
         <v>-4.8664704503072328E-3</v>
       </c>
       <c r="E27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.23768353574777046</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.24609228525437127</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.25095678479701944</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.23975401209100228</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.25011947908818322</v>
       </c>
       <c r="J27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.30135342049780456</v>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.25148613527648089</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.26049936807746271</v>
       </c>
       <c r="M27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.24897380157602192</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.26557564355485525</v>
       </c>
       <c r="O27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.29281433323401407</v>
       </c>
       <c r="P27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.13727049067171537</v>
       </c>
       <c r="Q27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.26545192862145045</v>
       </c>
       <c r="AQ27" s="18" t="s">
@@ -4136,44 +4272,47 @@
         <v>3604.3010000000004</v>
       </c>
     </row>
-    <row r="28" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AQ28" s="3" t="s">
+    <row r="28" spans="2:196" s="3" customFormat="1">
+      <c r="AQ28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AR28" s="3">
+      <c r="AR28" s="5">
         <f>AR26+AR27</f>
         <v>99279.477947962747</v>
       </c>
     </row>
-    <row r="29" spans="2:196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:196" x14ac:dyDescent="0.25">
-      <c r="AQ30" s="3" t="s">
+    <row r="29" spans="2:196" s="3" customFormat="1"/>
+    <row r="30" spans="2:196">
+      <c r="AQ30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AR30" s="19">
+      <c r="AR30" s="22">
         <f>AR28/Main!K3</f>
         <v>153.98613054761333</v>
       </c>
     </row>
-    <row r="31" spans="2:196" x14ac:dyDescent="0.25">
-      <c r="AQ31" s="3" t="s">
+    <row r="31" spans="2:196">
+      <c r="AQ31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AR31">
+      <c r="AR31" s="23">
         <f>Main!K2</f>
         <v>110.53</v>
       </c>
     </row>
-    <row r="32" spans="2:196" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:196">
       <c r="AR32" s="18">
         <f>AR30/AR31-1</f>
         <v>0.39316140909810304</v>
       </c>
     </row>
+    <row r="35" spans="44:44">
+      <c r="AR35" s="25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/investing spreadsheets/ACN.xlsx
+++ b/investing spreadsheets/ACN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-20" windowWidth="16800" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3400" yWindow="-20" windowWidth="30120" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -267,8 +267,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -336,7 +354,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -352,6 +370,15 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -367,6 +394,15 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -796,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -891,11 +927,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:GN35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AO5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR35" sqref="AR35"/>
+      <selection pane="bottomRight" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -905,7 +941,7 @@
     <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" s="9" customFormat="1" ht="12.75">
+    <row r="1" spans="2:41" s="9" customFormat="1" ht="14">
       <c r="C1" s="8">
         <v>41243</v>
       </c>
@@ -1001,6 +1037,9 @@
       <c r="R2" t="s">
         <v>26</v>
       </c>
+      <c r="U2">
+        <v>2010</v>
+      </c>
       <c r="V2">
         <v>2011</v>
       </c>
@@ -1114,6 +1153,9 @@
       <c r="Q3" s="3">
         <v>8434.7569999999996</v>
       </c>
+      <c r="U3" s="3">
+        <v>21550.567999999999</v>
+      </c>
       <c r="V3" s="3">
         <v>25507.036</v>
       </c>
@@ -1185,6 +1227,9 @@
       <c r="Q4" s="3">
         <v>534.28700000000003</v>
       </c>
+      <c r="U4" s="4">
+        <v>1543.51</v>
+      </c>
       <c r="V4" s="3">
         <v>1845.8779999999999</v>
       </c>
@@ -1192,7 +1237,7 @@
         <v>1915.655</v>
       </c>
       <c r="X4" s="3">
-        <f t="shared" ref="X4:X19" si="0">SUM(C4:F4)</f>
+        <f>SUM(C4:F4)</f>
         <v>1831.4749999999999</v>
       </c>
       <c r="Y4" s="3">
@@ -1200,7 +1245,7 @@
         <v>1872.2839999999999</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" ref="Z4:Z19" si="1">SUM(K4:N4)</f>
+        <f>SUM(K4:N4)</f>
         <v>1866.4930000000002</v>
       </c>
     </row>
@@ -1209,64 +1254,68 @@
         <v>41</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:Q5" si="2">+C3+C4</f>
+        <f t="shared" ref="C5:Q5" si="0">+C3+C4</f>
         <v>7668.0360000000001</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7493.3200000000006</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7707.9350000000004</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7524.9940000000006</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7799.6959999999999</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7567.4830000000002</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8240.18</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8267.3189999999995</v>
       </c>
       <c r="K5" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8343.2569999999996</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7931.59</v>
       </c>
       <c r="M5" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8275.0659999999989</v>
       </c>
       <c r="N5" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8364.5109999999986</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8465.9830000000002</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8397.0529999999999</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8969.0439999999999</v>
+      </c>
+      <c r="U5" s="5">
+        <f>+U3+U4</f>
+        <v>23094.077999999998</v>
       </c>
       <c r="V5" s="5">
         <f>+V3+V4</f>
@@ -1277,11 +1326,11 @@
         <v>29777.985000000001</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:F5)</f>
         <v>30394.285000000003</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" ref="Y5:Y19" si="3">SUM(G5:J5)</f>
+        <f>SUM(G5:J5)</f>
         <v>31874.678</v>
       </c>
       <c r="Z5" s="5">
@@ -1293,59 +1342,59 @@
         <v>33572.712480000002</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" ref="AB5:AO5" si="4">+AA5*1.02</f>
+        <f t="shared" ref="AB5:AO5" si="1">+AA5*1.02</f>
         <v>34244.166729600001</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>34929.050064192001</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>35627.631065475842</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>36340.183686785356</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>37066.987360521067</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>37808.327107731486</v>
       </c>
       <c r="AH5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>38564.493649886113</v>
       </c>
       <c r="AI5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>39335.783522883838</v>
       </c>
       <c r="AJ5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>40122.499193341515</v>
       </c>
       <c r="AK5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>40924.949177208349</v>
       </c>
       <c r="AL5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>41743.448160752516</v>
       </c>
       <c r="AM5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>42578.317123967565</v>
       </c>
       <c r="AN5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>43429.883466446918</v>
       </c>
       <c r="AO5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>44298.481135775859</v>
       </c>
     </row>
@@ -1401,6 +1450,9 @@
       <c r="Q6" s="3">
         <v>5745.2049999999999</v>
       </c>
+      <c r="U6" s="3">
+        <v>14299.821</v>
+      </c>
       <c r="V6" s="3">
         <v>17120.316999999999</v>
       </c>
@@ -1408,15 +1460,15 @@
         <v>18874.629000000001</v>
       </c>
       <c r="X6" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:F6)</f>
         <v>19178.634999999998</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G6:J6)</f>
         <v>20317.928</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(K6:N6)</f>
         <v>21238.692000000003</v>
       </c>
     </row>
@@ -1472,6 +1524,9 @@
       <c r="Q7" s="3">
         <v>534.28700000000003</v>
       </c>
+      <c r="U7" s="3">
+        <v>1543.51</v>
+      </c>
       <c r="V7" s="3">
         <v>1845.8779999999999</v>
       </c>
@@ -1479,15 +1534,15 @@
         <v>1915.655</v>
       </c>
       <c r="X7" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:F7)</f>
         <v>1831.4749999999999</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G7:J7)</f>
         <v>1872.2839999999999</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(K7:N7)</f>
         <v>1866.4930000000002</v>
       </c>
     </row>
@@ -1496,64 +1551,68 @@
         <v>29</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:Q8" si="5">+C6+C7</f>
+        <f t="shared" ref="C8:Q8" si="2">+C6+C7</f>
         <v>5301.8429999999998</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5262.9570000000003</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5269.9160000000002</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5175.3939999999984</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5350.3490000000002</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5337.3409999999994</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5703.8230000000003</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5798.6990000000005</v>
       </c>
       <c r="K8" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5803.9670000000006</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5690.951</v>
       </c>
       <c r="M8" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5750.1610000000001</v>
       </c>
       <c r="N8" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5860.1060000000016</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5903.4650000000001</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6027.2370000000001</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6279.4920000000002</v>
+      </c>
+      <c r="U8" s="3">
+        <f>+U6+U7</f>
+        <v>15843.331</v>
       </c>
       <c r="V8" s="3">
         <f>+V6+V7</f>
@@ -1564,11 +1623,11 @@
         <v>20790.284</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:F8)</f>
         <v>21010.11</v>
       </c>
       <c r="Y8" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G8:J8)</f>
         <v>22190.212</v>
       </c>
       <c r="Z8" s="3">
@@ -1581,64 +1640,68 @@
         <v>44</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ref="C9:Q9" si="6">+C5-C8</f>
+        <f t="shared" ref="C9:Q9" si="3">+C5-C8</f>
         <v>2366.1930000000002</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2230.3630000000003</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2438.0190000000002</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2349.6000000000022</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2449.3469999999998</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2230.1420000000007</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2536.357</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2468.619999999999</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2539.2899999999991</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2240.6390000000001</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2524.9049999999988</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2504.404999999997</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2562.518</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2369.8159999999998</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2689.5519999999997</v>
+      </c>
+      <c r="U9" s="3">
+        <f>+U5-U8</f>
+        <v>7250.7469999999976</v>
       </c>
       <c r="V9" s="3">
         <f>+V5-V8</f>
@@ -1649,11 +1712,11 @@
         <v>8987.7010000000009</v>
       </c>
       <c r="X9" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:F9)</f>
         <v>9384.1750000000029</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G9:J9)</f>
         <v>9684.4660000000003</v>
       </c>
       <c r="Z9" s="3">
@@ -1665,59 +1728,59 @@
         <v>9903.9501815999993</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" ref="AB9:AO9" si="7">(AB5*0.295)</f>
+        <f t="shared" ref="AB9:AO9" si="4">(AB5*0.295)</f>
         <v>10102.029185232001</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>10304.069768936639</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>10510.151164315374</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>10720.354187601679</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>10934.761271353715</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>11153.456496780787</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>11376.525626716402</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>11604.056139250732</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>11836.137262035747</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12072.860007276462</v>
       </c>
       <c r="AL9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12314.317207421991</v>
       </c>
       <c r="AM9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12560.603551570432</v>
       </c>
       <c r="AN9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12811.81562260184</v>
       </c>
       <c r="AO9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>13068.051935053878</v>
       </c>
     </row>
@@ -1773,6 +1836,9 @@
       <c r="Q10" s="3">
         <v>933.77</v>
       </c>
+      <c r="U10" s="3">
+        <v>2658.058</v>
+      </c>
       <c r="V10" s="3">
         <v>3094.4650000000001</v>
       </c>
@@ -1780,15 +1846,15 @@
         <v>3303.4780000000001</v>
       </c>
       <c r="X10" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:F10)</f>
         <v>3481.8910000000001</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G10:J10)</f>
         <v>3582.8330000000001</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(K10:N10)</f>
         <v>3505.0449999999996</v>
       </c>
       <c r="AA10" s="3">
@@ -1796,59 +1862,59 @@
         <v>3469.9945499999994</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" ref="AB10:AO10" si="8">AA10*0.99</f>
+        <f t="shared" ref="AB10:AO10" si="5">AA10*0.99</f>
         <v>3435.2946044999994</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3400.9416584549995</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3366.9322418704496</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3333.2629194517449</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3299.9302902572276</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3266.9309873546554</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3234.2616774811086</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3201.9190607062974</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3169.8998700992342</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3138.2008713982418</v>
       </c>
       <c r="AL10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3106.8188626842593</v>
       </c>
       <c r="AM10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3075.7506740574167</v>
       </c>
       <c r="AN10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3044.9931673168426</v>
       </c>
       <c r="AO10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3014.5432356436741</v>
       </c>
     </row>
@@ -1904,6 +1970,9 @@
       <c r="Q11" s="3">
         <v>449.839</v>
       </c>
+      <c r="U11" s="3">
+        <v>1668.306</v>
+      </c>
       <c r="V11" s="3">
         <v>1820.277</v>
       </c>
@@ -1911,15 +1980,15 @@
         <v>1810.9839999999999</v>
       </c>
       <c r="X11" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:F11)</f>
         <v>1835.646</v>
       </c>
       <c r="Y11" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G11:J11)</f>
         <v>1819.136</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(K11:N11)</f>
         <v>1803.4929999999999</v>
       </c>
       <c r="AA11" s="3">
@@ -1927,59 +1996,59 @@
         <v>1785.4580699999999</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" ref="AB11:AO11" si="9">AA11*0.99</f>
+        <f t="shared" ref="AB11:AO11" si="6">AA11*0.99</f>
         <v>1767.6034892999999</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1749.9274544069999</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1732.4281798629299</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1715.1038980643007</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1697.9528590836576</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1680.9733304928211</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1664.1635971878929</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1647.521961216014</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1631.0467416038539</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1614.7362741878153</v>
       </c>
       <c r="AL11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1598.5889114459371</v>
       </c>
       <c r="AM11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1582.6030223314776</v>
       </c>
       <c r="AN11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1566.7769921081629</v>
       </c>
       <c r="AO11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1551.1092221870813</v>
       </c>
     </row>
@@ -2047,6 +2116,10 @@
         <f>+Q10+Q11</f>
         <v>1383.6089999999999</v>
       </c>
+      <c r="U12" s="3">
+        <f>+U10+U11+9.538</f>
+        <v>4335.9019999999991</v>
+      </c>
       <c r="V12" s="3">
         <f>+V10+V11+1.52</f>
         <v>4916.2620000000006</v>
@@ -2056,11 +2129,11 @@
         <v>5116.1529999999993</v>
       </c>
       <c r="X12" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:F12)</f>
         <v>5045.0110000000004</v>
       </c>
       <c r="Y12" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G12:J12)</f>
         <v>5383.9539999999997</v>
       </c>
       <c r="Z12" s="3">
@@ -2072,59 +2145,59 @@
         <v>5255.4526199999991</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" ref="AB12:AO12" si="10">+AB10+AB11</f>
+        <f t="shared" ref="AB12:AO12" si="7">+AB10+AB11</f>
         <v>5202.8980937999995</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5150.8691128619994</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5099.3604217333796</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5048.3668175160456</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4997.8831493408852</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4947.9043178474767</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4898.4252746690017</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4849.4410219223118</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4800.9466117030879</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4752.9371455860573</v>
       </c>
       <c r="AL12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4705.4077741301962</v>
       </c>
       <c r="AM12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4658.3536963888946</v>
       </c>
       <c r="AN12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4611.7701594250057</v>
       </c>
       <c r="AO12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4565.6524578307553</v>
       </c>
     </row>
@@ -2133,64 +2206,68 @@
         <v>36</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:Q13" si="11">(C9-C12)</f>
+        <f t="shared" ref="C13:Q13" si="8">(C9-C12)</f>
         <v>1048.6740000000002</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1164.5320000000004</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1141.9610000000002</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>983.99700000000189</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1091.0989999999999</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>951.28200000000061</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1178.7660000000001</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1079.3649999999989</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1187.7089999999992</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1021.0330000000001</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1133.5189999999989</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1094.057999999997</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1221.259</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1088.0439999999999</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1305.9429999999998</v>
+      </c>
+      <c r="U13" s="3">
+        <f>(U9-U12)</f>
+        <v>2914.8449999999984</v>
       </c>
       <c r="V13" s="3">
         <f>(V9-V12)</f>
@@ -2201,11 +2278,11 @@
         <v>3871.5480000000016</v>
       </c>
       <c r="X13" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:F13)</f>
         <v>4339.1640000000025</v>
       </c>
       <c r="Y13" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G13:J13)</f>
         <v>4300.5119999999997</v>
       </c>
       <c r="Z13" s="3">
@@ -2217,59 +2294,59 @@
         <v>4648.4975616000002</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" ref="AB13:AO13" si="12">(AB9-AB12)</f>
+        <f t="shared" ref="AB13:AO13" si="9">(AB9-AB12)</f>
         <v>4899.1310914320011</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5153.2006560746395</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5410.790742581994</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5671.9873700856333</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5936.8781220128294</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>6205.5521789333106</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>6478.1003520474005</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>6754.6151173284197</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>7035.1906503326591</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>7319.9228616904047</v>
       </c>
       <c r="AL13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>7608.9094332917948</v>
       </c>
       <c r="AM13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>7902.249855181537</v>
       </c>
       <c r="AN13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>8200.0454631768334</v>
       </c>
       <c r="AO13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>8502.3994772231235</v>
       </c>
     </row>
@@ -2325,6 +2402,9 @@
       <c r="Q14" s="3">
         <v>7.6970000000000001</v>
       </c>
+      <c r="U14" s="3">
+        <v>29.931000000000001</v>
+      </c>
       <c r="V14" s="3">
         <v>41.082999999999998</v>
       </c>
@@ -2332,15 +2412,15 @@
         <v>42.55</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C14:F14)</f>
         <v>32.893000000000001</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G14:J14)</f>
         <v>30.369999999999997</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(K14:N14)</f>
         <v>30.37</v>
       </c>
       <c r="AA14" s="3">
@@ -2348,59 +2428,59 @@
         <v>30.37</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" ref="AB14:AO14" si="13">AA14</f>
+        <f t="shared" ref="AB14:AO14" si="10">AA14</f>
         <v>30.37</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
       <c r="AO14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>30.37</v>
       </c>
     </row>
@@ -2456,6 +2536,9 @@
       <c r="Q15" s="3">
         <v>-3.7109999999999999</v>
       </c>
+      <c r="U15" s="3">
+        <v>-14.677</v>
+      </c>
       <c r="V15" s="3">
         <v>-15</v>
       </c>
@@ -2463,15 +2546,15 @@
         <v>-15.061</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C15:F15)</f>
         <v>-14.035000000000004</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G15:J15)</f>
         <v>-17.620999999999999</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(K15:N15)</f>
         <v>-17.620999999999999</v>
       </c>
       <c r="AA15" s="3">
@@ -2479,59 +2562,59 @@
         <v>-17.620999999999999</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" ref="AB15:AO15" si="14">AA15</f>
+        <f t="shared" ref="AB15:AO15" si="11">AA15</f>
         <v>-17.620999999999999</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AL15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AM15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
       <c r="AO15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-17.620999999999999</v>
       </c>
     </row>
@@ -2587,6 +2670,9 @@
       <c r="Q16" s="3">
         <v>-16.207000000000001</v>
       </c>
+      <c r="U16" s="3">
+        <v>-15.724</v>
+      </c>
       <c r="V16" s="3">
         <v>15.481999999999999</v>
       </c>
@@ -2594,15 +2680,15 @@
         <v>5.1369999999999996</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:F16)</f>
         <v>-18.244</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G16:J16)</f>
         <v>-15.559999999999999</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(K16:N16)</f>
         <v>-15.559999999999997</v>
       </c>
       <c r="AA16" s="3">
@@ -2610,59 +2696,59 @@
         <v>-15.559999999999997</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" ref="AB16:AO16" si="15">AA16</f>
+        <f t="shared" ref="AB16:AO16" si="12">AA16</f>
         <v>-15.559999999999997</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
       <c r="AO16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
     </row>
@@ -2671,55 +2757,55 @@
         <v>38</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:O17" si="16">(C13+C14+C15+C16)</f>
+        <f t="shared" ref="C17:O17" si="13">(C13+C14+C15+C16)</f>
         <v>1046.4560000000004</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1181.3490000000002</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1146.5750000000003</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>965.39800000000196</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1083.5770000000002</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>950.12800000000072</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1175.9380000000001</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1088.0579999999989</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1192.0179999999991</v>
       </c>
       <c r="L17" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1004.8700000000001</v>
       </c>
       <c r="M17" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1132.090999999999</v>
       </c>
       <c r="N17" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1104.528999999997</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1228.3620000000001</v>
       </c>
       <c r="P17" s="3">
@@ -2730,6 +2816,10 @@
         <f>(Q13+Q14+Q15+Q16)</f>
         <v>1293.7219999999995</v>
       </c>
+      <c r="U17" s="3">
+        <f>(U13+U14+U15+U16)</f>
+        <v>2914.3749999999982</v>
+      </c>
       <c r="V17" s="3">
         <f>(V13+V14+V15+V16)</f>
         <v>3512.0220000000004</v>
@@ -2739,75 +2829,75 @@
         <v>3904.1740000000018</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C17:F17)</f>
         <v>4339.7780000000021</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G17:J17)</f>
         <v>4297.701</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" ref="Z17:AO17" si="17">(Z13+Z14+Z15+Z16)</f>
+        <f t="shared" ref="Z17:AO17" si="14">(Z13+Z14+Z15+Z16)</f>
         <v>4497.8899999999976</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>4645.6865615999995</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>4896.3200914320005</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>5150.3896560746389</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>5407.9797425819934</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>5669.1763700856327</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>5934.0671220128288</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>6202.74117893331</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>6475.2893520473999</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>6751.8041173284191</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>7032.3796503326585</v>
       </c>
       <c r="AK17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>7317.1118616904041</v>
       </c>
       <c r="AL17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>7606.0984332917942</v>
       </c>
       <c r="AM17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>7899.4388551815364</v>
       </c>
       <c r="AN17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>8197.2344631768356</v>
       </c>
       <c r="AO17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>8499.5884772231257</v>
       </c>
     </row>
@@ -2863,6 +2953,9 @@
       <c r="Q18" s="3">
         <v>343.42099999999999</v>
       </c>
+      <c r="U18" s="3">
+        <v>853.91</v>
+      </c>
       <c r="V18" s="3">
         <v>958.78200000000004</v>
       </c>
@@ -2870,15 +2963,15 @@
         <v>1079.241</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C18:F18)</f>
         <v>784.77499999999998</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(G18:J18)</f>
         <v>1121.7429999999999</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(K18:N18)</f>
         <v>1136.741</v>
       </c>
       <c r="AA18" s="3">
@@ -2886,59 +2979,59 @@
         <v>929.13731231999998</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" ref="AB18:AO18" si="18">AB17*0.2</f>
+        <f t="shared" ref="AB18:AO18" si="15">AB17*0.2</f>
         <v>979.26401828640019</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1030.0779312149277</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1081.5959485163987</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1133.8352740171265</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1186.8134244025657</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1240.5482357866622</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1295.0578704094801</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1350.360823465684</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1406.4759300665319</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1463.422372338081</v>
       </c>
       <c r="AL18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1521.219686658359</v>
       </c>
       <c r="AM18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1579.8877710363074</v>
       </c>
       <c r="AN18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1639.4468926353672</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1699.9176954446252</v>
       </c>
     </row>
@@ -3006,6 +3099,10 @@
         <f>(Q17-Q18)-42.574-10.462</f>
         <v>897.26499999999953</v>
       </c>
+      <c r="U19" s="5">
+        <f>(U17-U18)-257.636-22.167</f>
+        <v>1780.6619999999984</v>
+      </c>
       <c r="V19" s="5">
         <f>(V17-V18)-243.575-31.988</f>
         <v>2277.6770000000006</v>
@@ -3015,15 +3112,15 @@
         <v>2553.510000000002</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C19:F19)</f>
         <v>3281.8780000000006</v>
       </c>
       <c r="Y19" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(G19:J19)</f>
         <v>2941.498</v>
       </c>
       <c r="Z19" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(K19:N19)</f>
         <v>3053.581000000001</v>
       </c>
       <c r="AA19" s="5">
@@ -3031,59 +3128,59 @@
         <v>3716.5492492799995</v>
       </c>
       <c r="AB19" s="5">
-        <f t="shared" ref="AB19:AO19" si="19">AB17-AB18</f>
+        <f t="shared" ref="AB19:AO19" si="16">AB17-AB18</f>
         <v>3917.0560731456003</v>
       </c>
       <c r="AC19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>4120.3117248597109</v>
       </c>
       <c r="AD19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>4326.3837940655949</v>
       </c>
       <c r="AE19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>4535.341096068506</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>4747.2536976102629</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>4962.1929431466478</v>
       </c>
       <c r="AH19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>5180.2314816379203</v>
       </c>
       <c r="AI19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>5401.4432938627351</v>
       </c>
       <c r="AJ19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>5625.9037202661266</v>
       </c>
       <c r="AK19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>5853.6894893523231</v>
       </c>
       <c r="AL19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>6084.8787466334352</v>
       </c>
       <c r="AM19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>6319.5510841452287</v>
       </c>
       <c r="AN19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>6557.7875705414681</v>
       </c>
       <c r="AO19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>6799.6707817785009</v>
       </c>
       <c r="AP19" s="5">
@@ -3091,243 +3188,243 @@
         <v>6595.6806583251455</v>
       </c>
       <c r="AQ19" s="5">
-        <f t="shared" ref="AQ19:DB19" si="20">AP19*(1+$AR$24)</f>
+        <f t="shared" ref="AQ19:DB19" si="17">AP19*(1+$AR$24)</f>
         <v>6397.8102385753909</v>
       </c>
       <c r="AR19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>6205.8759314181289</v>
       </c>
       <c r="AS19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>6019.6996534755845</v>
       </c>
       <c r="AT19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>5839.1086638713168</v>
       </c>
       <c r="AU19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>5663.9354039551772</v>
       </c>
       <c r="AV19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>5494.0173418365221</v>
       </c>
       <c r="AW19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>5329.1968215814259</v>
       </c>
       <c r="AX19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>5169.3209169339825</v>
       </c>
       <c r="AY19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>5014.2412894259633</v>
       </c>
       <c r="AZ19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>4863.8140507431845</v>
       </c>
       <c r="BA19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>4717.8996292208885</v>
       </c>
       <c r="BB19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>4576.3626403442613</v>
       </c>
       <c r="BC19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>4439.0717611339333</v>
       </c>
       <c r="BD19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>4305.8996082999147</v>
       </c>
       <c r="BE19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>4176.7226200509167</v>
       </c>
       <c r="BF19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>4051.4209414493889</v>
       </c>
       <c r="BG19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3929.878313205907</v>
       </c>
       <c r="BH19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3811.9819638097297</v>
       </c>
       <c r="BI19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3697.6225048954375</v>
       </c>
       <c r="BJ19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3586.6938297485744</v>
       </c>
       <c r="BK19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3479.093014856117</v>
       </c>
       <c r="BL19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3374.7202244104333</v>
       </c>
       <c r="BM19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3273.4786176781204</v>
       </c>
       <c r="BN19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3175.2742591477768</v>
       </c>
       <c r="BO19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3080.0160313733436</v>
       </c>
       <c r="BP19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2987.6155504321432</v>
       </c>
       <c r="BQ19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2897.987083919179</v>
       </c>
       <c r="BR19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2811.0474714016036</v>
       </c>
       <c r="BS19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2726.7160472595556</v>
       </c>
       <c r="BT19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2644.9145658417688</v>
       </c>
       <c r="BU19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2565.5671288665158</v>
       </c>
       <c r="BV19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2488.6001150005204</v>
       </c>
       <c r="BW19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2413.9421115505047</v>
       </c>
       <c r="BX19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2341.5238482039895</v>
       </c>
       <c r="BY19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2271.2781327578696</v>
       </c>
       <c r="BZ19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2203.1397887751336</v>
       </c>
       <c r="CA19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2137.0455951118797</v>
       </c>
       <c r="CB19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2072.9342272585232</v>
       </c>
       <c r="CC19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2010.7462004407673</v>
       </c>
       <c r="CD19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1950.4238144275444</v>
       </c>
       <c r="CE19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1891.9110999947179</v>
       </c>
       <c r="CF19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1835.1537669948764</v>
       </c>
       <c r="CG19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1780.0991539850299</v>
       </c>
       <c r="CH19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1726.6961793654791</v>
       </c>
       <c r="CI19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1674.8952939845146</v>
       </c>
       <c r="CJ19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1624.6484351649792</v>
       </c>
       <c r="CK19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1575.9089821100299</v>
       </c>
       <c r="CL19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1528.6317126467291</v>
       </c>
       <c r="CM19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1482.772761267327</v>
       </c>
       <c r="CN19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1438.2895784293071</v>
       </c>
       <c r="CO19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1395.1408910764278</v>
       </c>
       <c r="CP19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1353.286664344135</v>
       </c>
       <c r="CQ19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1312.6880644138109</v>
       </c>
       <c r="CR19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1273.3074224813965</v>
       </c>
       <c r="CS19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1235.1081998069546</v>
       </c>
       <c r="CT19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1198.0549538127459</v>
       </c>
       <c r="CU19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1162.1133051983636</v>
       </c>
       <c r="CV19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1127.2499060424127</v>
       </c>
       <c r="CW19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1093.4324088611404</v>
       </c>
       <c r="CX19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1060.6294365953061</v>
       </c>
       <c r="CY19" s="5">
@@ -3335,375 +3432,375 @@
         <v>1028.8105534974468</v>
       </c>
       <c r="CZ19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>997.9462368925233</v>
       </c>
       <c r="DA19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>968.00784978574757</v>
       </c>
       <c r="DB19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>938.96761429217509</v>
       </c>
       <c r="DC19" s="5">
-        <f t="shared" ref="DC19:FN19" si="21">DB19*(1+$AR$24)</f>
+        <f t="shared" ref="DC19:FN19" si="18">DB19*(1+$AR$24)</f>
         <v>910.79858586340981</v>
       </c>
       <c r="DD19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>883.47462828750747</v>
       </c>
       <c r="DE19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>856.97038943888219</v>
       </c>
       <c r="DF19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>831.2612777557157</v>
       </c>
       <c r="DG19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>806.32343942304419</v>
       </c>
       <c r="DH19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>782.13373624035285</v>
       </c>
       <c r="DI19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>758.66972415314228</v>
       </c>
       <c r="DJ19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>735.90963242854798</v>
       </c>
       <c r="DK19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>713.83234345569156</v>
       </c>
       <c r="DL19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>692.41737315202079</v>
       </c>
       <c r="DM19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>671.64485195746011</v>
       </c>
       <c r="DN19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>651.49550639873632</v>
       </c>
       <c r="DO19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>631.95064120677421</v>
       </c>
       <c r="DP19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>612.99212197057102</v>
       </c>
       <c r="DQ19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>594.60235831145383</v>
       </c>
       <c r="DR19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>576.76428756211021</v>
       </c>
       <c r="DS19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>559.46135893524684</v>
       </c>
       <c r="DT19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>542.67751816718942</v>
       </c>
       <c r="DU19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>526.39719262217375</v>
       </c>
       <c r="DV19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>510.60527684350853</v>
       </c>
       <c r="DW19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>495.28711853820329</v>
       </c>
       <c r="DX19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>480.42850498205718</v>
       </c>
       <c r="DY19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>466.01564983259544</v>
       </c>
       <c r="DZ19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>452.03518033761759</v>
       </c>
       <c r="EA19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>438.47412492748907</v>
       </c>
       <c r="EB19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>425.31990117966438</v>
       </c>
       <c r="EC19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>412.56030414427443</v>
       </c>
       <c r="ED19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>400.18349501994618</v>
       </c>
       <c r="EE19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>388.17799016934777</v>
       </c>
       <c r="EF19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>376.53265046426731</v>
       </c>
       <c r="EG19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>365.23667095033926</v>
       </c>
       <c r="EH19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>354.27957082182905</v>
       </c>
       <c r="EI19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>343.65118369717419</v>
       </c>
       <c r="EJ19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>333.34164818625896</v>
       </c>
       <c r="EK19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>323.3413987406712</v>
       </c>
       <c r="EL19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>313.64115677845103</v>
       </c>
       <c r="EM19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>304.23192207509749</v>
       </c>
       <c r="EN19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>295.10496441284454</v>
       </c>
       <c r="EO19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>286.25181548045919</v>
       </c>
       <c r="EP19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>277.66426101604543</v>
       </c>
       <c r="EQ19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>269.33433318556405</v>
       </c>
       <c r="ER19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>261.25430318999713</v>
       </c>
       <c r="ES19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>253.41667409429721</v>
       </c>
       <c r="ET19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>245.81417387146828</v>
       </c>
       <c r="EU19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>238.43974865532422</v>
       </c>
       <c r="EV19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>231.2865561956645</v>
       </c>
       <c r="EW19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>224.34795950979455</v>
       </c>
       <c r="EX19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>217.61752072450071</v>
       </c>
       <c r="EY19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>211.08899510276569</v>
       </c>
       <c r="EZ19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>204.7563252496827</v>
       </c>
       <c r="FA19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>198.61363549219223</v>
       </c>
       <c r="FB19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>192.65522642742647</v>
       </c>
       <c r="FC19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>186.87556963460366</v>
       </c>
       <c r="FD19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>181.26930254556555</v>
       </c>
       <c r="FE19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>175.83122346919859</v>
       </c>
       <c r="FF19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>170.55628676512262</v>
       </c>
       <c r="FG19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>165.43959816216895</v>
       </c>
       <c r="FH19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>160.47641021730388</v>
       </c>
       <c r="FI19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>155.66211791078476</v>
       </c>
       <c r="FJ19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>150.99225437346121</v>
       </c>
       <c r="FK19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>146.46248674225737</v>
       </c>
       <c r="FL19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>142.06861213998965</v>
       </c>
       <c r="FM19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>137.80655377578995</v>
       </c>
       <c r="FN19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>133.67235716251625</v>
       </c>
       <c r="FO19" s="5">
-        <f t="shared" ref="FO19:GN19" si="22">FN19*(1+$AR$24)</f>
+        <f t="shared" ref="FO19:GN19" si="19">FN19*(1+$AR$24)</f>
         <v>129.66218644764075</v>
       </c>
       <c r="FP19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>125.77232085421153</v>
       </c>
       <c r="FQ19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>121.99915122858518</v>
       </c>
       <c r="FR19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>118.33917669172762</v>
       </c>
       <c r="FS19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>114.78900139097578</v>
       </c>
       <c r="FT19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>111.34533134924651</v>
       </c>
       <c r="FU19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>108.00497140876911</v>
       </c>
       <c r="FV19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>104.76482226650603</v>
       </c>
       <c r="FW19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>101.62187759851085</v>
       </c>
       <c r="FX19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>98.573221270555521</v>
       </c>
       <c r="FY19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>95.616024632438851</v>
       </c>
       <c r="FZ19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>92.747543893465689</v>
       </c>
       <c r="GA19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>89.965117576661711</v>
       </c>
       <c r="GB19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>87.266164049361862</v>
       </c>
       <c r="GC19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>84.648179127881008</v>
       </c>
       <c r="GD19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>82.108733754044579</v>
       </c>
       <c r="GE19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>79.645471741423236</v>
       </c>
       <c r="GF19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>77.25610758918053</v>
       </c>
       <c r="GG19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>74.938424361505113</v>
       </c>
       <c r="GH19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>72.690271630659964</v>
       </c>
       <c r="GI19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>70.509563481740159</v>
       </c>
       <c r="GJ19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>68.394276577287954</v>
       </c>
       <c r="GK19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>66.342448279969318</v>
       </c>
       <c r="GL19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>64.352174831570238</v>
       </c>
       <c r="GM19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>62.421609586623127</v>
       </c>
       <c r="GN19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>60.548961299024434</v>
       </c>
     </row>
@@ -3712,64 +3809,68 @@
         <v>42</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" ref="C20:Q20" si="23">(C19/C21)</f>
+        <f t="shared" ref="C20:Q20" si="20">(C19/C21)</f>
         <v>1.0924832449617501</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.696331796305248</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.2453361622932306</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.0394617275188067</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.1808563856057768</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.0556204064875765</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.2909482153286449</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.1053264560786631</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.3231669446829448</v>
       </c>
       <c r="L20" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.099292906430654</v>
       </c>
       <c r="M20" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.2679485246034798</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.1769599350054492</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.3071787880347576</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>2.1172699501932568</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.4385565539265956</v>
+      </c>
+      <c r="U20" s="6">
+        <f>(U19/U21)</f>
+        <v>2.7946409059654824</v>
       </c>
       <c r="V20" s="6">
         <f>(V19/V21)</f>
@@ -3780,11 +3881,11 @@
         <v>3.970425377332103</v>
       </c>
       <c r="X20" s="6">
-        <f t="shared" ref="X20:Y20" si="24">(X19/X21)</f>
+        <f t="shared" ref="X20:Y20" si="21">(X19/X21)</f>
         <v>5.0839503009428615</v>
       </c>
       <c r="Y20" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>4.6380047814921177</v>
       </c>
       <c r="Z20" s="6">
@@ -3840,6 +3941,9 @@
       </c>
       <c r="Q21" s="3">
         <v>623.72591299999999</v>
+      </c>
+      <c r="U21" s="3">
+        <v>637.17023400000005</v>
       </c>
       <c r="V21" s="3">
         <v>645.63117</v>
@@ -3863,123 +3967,127 @@
         <v>45</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ref="G23:Q23" si="25">G5/C5-1</f>
+        <f t="shared" ref="G23:Q23" si="22">G5/C5-1</f>
         <v>1.7169976771105322E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>9.8972151195997338E-3</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>6.9051568286447651E-2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>9.8647919187709432E-2</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>6.9690023816312729E-2</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>4.8114676967229375E-2</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>4.2336453815328134E-3</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1.1756169079722101E-2</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1.470960321610626E-2</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>5.8684702562790125E-2</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>8.3863741993115415E-2</v>
       </c>
+      <c r="V23" s="7">
+        <f t="shared" ref="V23:AO23" si="23">V5/U5-1</f>
+        <v>0.18441247145696837</v>
+      </c>
       <c r="W23" s="7">
-        <f t="shared" ref="W23:AO23" si="26">W5/V5-1</f>
+        <f t="shared" si="23"/>
         <v>8.8658597764026181E-2</v>
       </c>
       <c r="X23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0696497765043675E-2</v>
       </c>
       <c r="Y23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>4.870629462084719E-2</v>
       </c>
       <c r="Z23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>3.2619811877001581E-2</v>
       </c>
       <c r="AA23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AC23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AE23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AF23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AG23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AH23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AI23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AJ23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AK23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AL23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AN23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AO23" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AQ23" s="24" t="s">
@@ -3998,119 +4106,123 @@
         <v>7.5883958175029909E-2</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" ref="H24:Q24" si="27">H19/D19-1</f>
+        <f t="shared" ref="H24:Q24" si="24">H19/D19-1</f>
         <v>-0.39072537533967033</v>
       </c>
       <c r="I24" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>8.7479389026567933E-3</v>
       </c>
       <c r="J24" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>4.4716107485570422E-2</v>
       </c>
       <c r="K24" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0.10598447022395385</v>
       </c>
       <c r="L24" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>2.8803813496200537E-2</v>
       </c>
       <c r="M24" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>-2.892201004238304E-2</v>
       </c>
       <c r="N24" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>5.2355438392280851E-2</v>
       </c>
       <c r="O24" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>-1.5191273916754677E-2</v>
       </c>
       <c r="P24" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0.92072234867571345</v>
       </c>
       <c r="Q24" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0.13048808298380954</v>
+      </c>
+      <c r="V24" s="18">
+        <f>V19/U19-1</f>
+        <v>0.2791181032672132</v>
       </c>
       <c r="W24" s="18">
         <f>W19/V19-1</f>
         <v>0.12110277269340708</v>
       </c>
       <c r="X24" s="18">
-        <f t="shared" ref="X24:AO24" si="28">X19/W19-1</f>
+        <f t="shared" ref="X24:AO24" si="25">X19/W19-1</f>
         <v>0.28524188274179374</v>
       </c>
       <c r="Y24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>-0.10371500707826453</v>
       </c>
       <c r="Z24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>3.8104054464766168E-2</v>
       </c>
       <c r="AA24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0.21711172858358707</v>
       </c>
       <c r="AB24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>5.3949728744868475E-2</v>
       </c>
       <c r="AC24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>5.1889900966080926E-2</v>
       </c>
       <c r="AD24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>5.0013708419816227E-2</v>
       </c>
       <c r="AE24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>4.8298373872778688E-2</v>
       </c>
       <c r="AF24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>4.6724732947970526E-2</v>
       </c>
       <c r="AG24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>4.5276544972640442E-2</v>
       </c>
       <c r="AH24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>4.3939955779512374E-2</v>
       </c>
       <c r="AI24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>4.2703074758132287E-2</v>
       </c>
       <c r="AJ24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>4.1555638778699944E-2</v>
       </c>
       <c r="AK24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>4.0488742860217641E-2</v>
       </c>
       <c r="AL24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>3.9494622613932329E-2</v>
       </c>
       <c r="AM24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>3.8566477210680628E-2</v>
       </c>
       <c r="AN24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>3.7698324330969868E-2</v>
       </c>
       <c r="AO24" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>3.6884880553863519E-2</v>
       </c>
       <c r="AQ24" s="3" t="s">
@@ -4133,64 +4245,144 @@
         <v>47</v>
       </c>
       <c r="C26" s="18">
-        <f t="shared" ref="C26:Q26" si="29">(C9/C5)</f>
+        <f t="shared" ref="C26:Q26" si="26">(C9/C5)</f>
         <v>0.30857875471633156</v>
       </c>
       <c r="D26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.29764683744988873</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.31629989095652727</v>
+      </c>
+      <c r="F26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.31223945161949657</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.31403108531409424</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.29470062899381483</v>
+      </c>
+      <c r="I26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.30780359166911403</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.29859982419935643</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.30435236502962804</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.28249556520193303</v>
+      </c>
+      <c r="M26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.30512203769734275</v>
+      </c>
+      <c r="N26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.29940841730018614</v>
+      </c>
+      <c r="O26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.30268404744020866</v>
+      </c>
+      <c r="P26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.28221996455184928</v>
+      </c>
+      <c r="Q26" s="18">
+        <f t="shared" si="26"/>
+        <v>0.29987053246700535</v>
+      </c>
+      <c r="V26" s="18">
+        <f t="shared" ref="V26:Z26" si="27">(V9/V5)</f>
+        <v>0.30661153689146248</v>
+      </c>
+      <c r="W26" s="18">
+        <f t="shared" si="27"/>
+        <v>0.30182367947327532</v>
+      </c>
+      <c r="X26" s="18">
+        <f t="shared" si="27"/>
+        <v>0.30874800969984989</v>
+      </c>
+      <c r="Y26" s="18">
+        <f t="shared" si="27"/>
+        <v>0.30382945358695074</v>
+      </c>
+      <c r="Z26" s="18">
+        <f t="shared" si="27"/>
+        <v>0.29802250223184823</v>
+      </c>
+      <c r="AA26" s="18">
+        <f t="shared" ref="AA26:AI26" si="28">(AA9/AA5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AB26" s="18">
+        <f t="shared" si="28"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AC26" s="18">
+        <f t="shared" si="28"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AD26" s="18">
+        <f t="shared" si="28"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AE26" s="18">
+        <f t="shared" si="28"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AF26" s="18">
+        <f t="shared" si="28"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AG26" s="18">
+        <f t="shared" si="28"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AH26" s="18">
+        <f t="shared" si="28"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AI26" s="18">
+        <f t="shared" si="28"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AJ26" s="18">
+        <f t="shared" ref="AJ26:AO26" si="29">(AJ9/AJ5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AK26" s="18">
         <f t="shared" si="29"/>
-        <v>0.29764683744988873</v>
-      </c>
-      <c r="E26" s="18">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AL26" s="18">
         <f t="shared" si="29"/>
-        <v>0.31629989095652727</v>
-      </c>
-      <c r="F26" s="18">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AM26" s="18">
         <f t="shared" si="29"/>
-        <v>0.31223945161949657</v>
-      </c>
-      <c r="G26" s="18">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AN26" s="18">
         <f t="shared" si="29"/>
-        <v>0.31403108531409424</v>
-      </c>
-      <c r="H26" s="18">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AO26" s="18">
         <f t="shared" si="29"/>
-        <v>0.29470062899381483</v>
-      </c>
-      <c r="I26" s="18">
-        <f t="shared" si="29"/>
-        <v>0.30780359166911403</v>
-      </c>
-      <c r="J26" s="18">
-        <f t="shared" si="29"/>
-        <v>0.29859982419935643</v>
-      </c>
-      <c r="K26" s="18">
-        <f t="shared" si="29"/>
-        <v>0.30435236502962804</v>
-      </c>
-      <c r="L26" s="18">
-        <f t="shared" si="29"/>
-        <v>0.28249556520193303</v>
-      </c>
-      <c r="M26" s="18">
-        <f t="shared" si="29"/>
-        <v>0.30512203769734275</v>
-      </c>
-      <c r="N26" s="18">
-        <f t="shared" si="29"/>
-        <v>0.29940841730018614</v>
-      </c>
-      <c r="O26" s="18">
-        <f t="shared" si="29"/>
-        <v>0.30268404744020866</v>
-      </c>
-      <c r="P26" s="18">
-        <f t="shared" si="29"/>
-        <v>0.28221996455184928</v>
-      </c>
-      <c r="Q26" s="18">
-        <f t="shared" si="29"/>
-        <v>0.29987053246700535</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="AQ26" s="7" t="s">
         <v>52</v>
@@ -4264,6 +4456,86 @@
         <f t="shared" si="30"/>
         <v>0.26545192862145045</v>
       </c>
+      <c r="V27" s="18">
+        <f t="shared" ref="V27:Z27" si="31">(V18/V17)</f>
+        <v>0.27299999829158245</v>
+      </c>
+      <c r="W27" s="18">
+        <f t="shared" si="31"/>
+        <v>0.27643260776799383</v>
+      </c>
+      <c r="X27" s="18">
+        <f t="shared" si="31"/>
+        <v>0.18083298270095835</v>
+      </c>
+      <c r="Y27" s="18">
+        <f t="shared" si="31"/>
+        <v>0.26101001442399085</v>
+      </c>
+      <c r="Z27" s="18">
+        <f t="shared" si="31"/>
+        <v>0.25272761228042495</v>
+      </c>
+      <c r="AA27" s="18">
+        <f t="shared" ref="AA27:AI27" si="32">(AA18/AA17)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AB27" s="18">
+        <f t="shared" si="32"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC27" s="18">
+        <f t="shared" si="32"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AD27" s="18">
+        <f t="shared" si="32"/>
+        <v>0.2</v>
+      </c>
+      <c r="AE27" s="18">
+        <f t="shared" si="32"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AF27" s="18">
+        <f t="shared" si="32"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AG27" s="18">
+        <f t="shared" si="32"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AH27" s="18">
+        <f t="shared" si="32"/>
+        <v>0.2</v>
+      </c>
+      <c r="AI27" s="18">
+        <f t="shared" si="32"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AJ27" s="18">
+        <f t="shared" ref="AJ27:AO27" si="33">(AJ18/AJ17)</f>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AK27" s="18">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL27" s="18">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+      <c r="AM27" s="18">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+      <c r="AN27" s="18">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+      <c r="AO27" s="18">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
       <c r="AQ27" s="18" t="s">
         <v>8</v>
       </c>
@@ -4273,6 +4545,7 @@
       </c>
     </row>
     <row r="28" spans="2:196" s="3" customFormat="1">
+      <c r="Z28" s="18"/>
       <c r="AQ28" s="5" t="s">
         <v>53</v>
       </c>

--- a/investing spreadsheets/ACN.xlsx
+++ b/investing spreadsheets/ACN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="-20" windowWidth="30120" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3405" yWindow="-15" windowWidth="30120" windowHeight="20535" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -188,6 +188,90 @@
   </si>
   <si>
     <t>Current</t>
+  </si>
+  <si>
+    <t>A/R</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>A/P</t>
+  </si>
+  <si>
+    <t>D/R</t>
+  </si>
+  <si>
+    <t>Retirement</t>
+  </si>
+  <si>
+    <t>Income Taxes Payable</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>L+S/E</t>
+  </si>
+  <si>
+    <t>Deferred Contract Costs</t>
+  </si>
+  <si>
+    <t>Accrued payroll</t>
+  </si>
+  <si>
+    <t>Accrued consumption taxes</t>
+  </si>
+  <si>
+    <t>Other accrued liabilities</t>
+  </si>
+  <si>
+    <t>TTM Cash Flow</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROTB</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Gain on sale of business</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -197,16 +281,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -230,22 +306,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -269,56 +344,56 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -326,33 +401,32 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -420,15 +494,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>138953</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:colOff>138953</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>155201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -437,8 +511,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16472647" y="0"/>
-          <a:ext cx="0" cy="15027088"/>
+          <a:off x="16464803" y="171450"/>
+          <a:ext cx="0" cy="11804276"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -471,7 +545,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>51546</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -833,18 +907,18 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -867,7 +941,7 @@
         <v>110.53</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="J3" t="s">
         <v>6</v>
@@ -876,7 +950,7 @@
         <v>644.73</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>7</v>
       </c>
@@ -885,7 +959,7 @@
         <v>71262.006900000008</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>8</v>
       </c>
@@ -894,7 +968,7 @@
         <v>3633.1740000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>9</v>
       </c>
@@ -903,7 +977,7 @@
         <v>28.872999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>10</v>
       </c>
@@ -925,2149 +999,2152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:GN35"/>
+  <dimension ref="B1:GN63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W16" sqref="W16"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="10"/>
+    <col min="2" max="2" width="39.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="10" customWidth="1"/>
+    <col min="4" max="43" width="11" style="10"/>
+    <col min="44" max="44" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" s="9" customFormat="1" ht="14">
-      <c r="C1" s="8">
+    <row r="1" spans="2:41" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="5">
         <v>41243</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="5">
         <v>41333</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="5">
         <v>41425</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="8">
         <v>41517</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="5">
         <v>41607</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="6">
         <v>41698</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="6">
         <v>41790</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="8">
         <v>41882</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="7">
         <v>41973</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="7">
         <v>42086</v>
       </c>
-      <c r="M1" s="11">
+      <c r="M1" s="7">
         <v>42155</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="8">
         <v>42247</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="6">
         <v>42338</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="6">
         <v>42453</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="6">
         <v>42521</v>
       </c>
     </row>
-    <row r="2" spans="2:41">
-      <c r="C2" t="s">
+    <row r="2" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="10">
         <v>2010</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="10">
         <v>2011</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="10">
         <v>2012</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="10">
         <v>2013</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="10">
         <v>2014</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="10">
         <v>2015</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="10">
         <v>2016</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="10">
         <v>2017</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="10">
         <v>2018</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="10">
         <v>2019</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="10">
         <v>2020</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="10">
         <v>2021</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="10">
         <v>2022</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="10">
         <v>2023</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="10">
         <v>2024</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="10">
         <v>2025</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="10">
         <v>2026</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="10">
         <v>2027</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="10">
         <v>2028</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="10">
         <v>2029</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="10">
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="2:41" s="3" customFormat="1">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>7219.9610000000002</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="12">
         <v>7058.0420000000004</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="12">
         <v>7198.14</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="12">
         <f>28562.81-C3-D3-E3</f>
         <v>7086.6670000000004</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="12">
         <v>7358.7489999999998</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="12">
         <v>7130.6670000000004</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="12">
         <v>7735.6379999999999</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="12">
         <f>30002.394-G3-H3-I3</f>
         <v>7777.3399999999992</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>7895.7150000000001</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>7493.3289999999997</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>7770.3819999999996</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <f>31047.931-M3-L3-K3</f>
         <v>7888.5049999999992</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="12">
         <v>8013.1620000000003</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="12">
         <v>7945.5649999999996</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="12">
         <v>8434.7569999999996</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="12">
         <v>21550.567999999999</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="12">
         <v>25507.036</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="12">
         <v>27862.33</v>
       </c>
-      <c r="X3" s="3">
-        <f>SUM(C3:F3)</f>
+      <c r="X3" s="12">
+        <f t="shared" ref="X3:X19" si="0">SUM(C3:F3)</f>
         <v>28562.81</v>
       </c>
-      <c r="Y3" s="3">
-        <f>SUM(G3:J3)</f>
+      <c r="Y3" s="12">
+        <f t="shared" ref="Y3:Y19" si="1">SUM(G3:J3)</f>
         <v>30002.394</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="12">
         <f>SUM(K3:N3)</f>
         <v>31047.930999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:41" s="3" customFormat="1">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>448.07499999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="12">
         <v>435.27800000000002</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
         <v>509.79500000000002</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="12">
         <f>1831.475-C4-D4-E4</f>
         <v>438.32699999999983</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="12">
         <v>440.947</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="12">
         <v>436.81599999999997</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="12">
         <v>504.54199999999997</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="12">
         <f>1872.284-G4-H4-I4</f>
         <v>489.97899999999998</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>447.54199999999997</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>438.26100000000002</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>504.68400000000003</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <f>1866.493-K4-L4-M4</f>
         <v>476.00600000000003</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="12">
         <v>452.82100000000003</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="12">
         <v>451.488</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="12">
         <v>534.28700000000003</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="12">
         <v>1543.51</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="12">
         <v>1845.8779999999999</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="12">
         <v>1915.655</v>
       </c>
-      <c r="X4" s="3">
-        <f>SUM(C4:F4)</f>
+      <c r="X4" s="12">
+        <f t="shared" si="0"/>
         <v>1831.4749999999999</v>
       </c>
-      <c r="Y4" s="3">
-        <f>SUM(G4:J4)</f>
+      <c r="Y4" s="12">
+        <f t="shared" si="1"/>
         <v>1872.2839999999999</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="12">
         <f>SUM(K4:N4)</f>
         <v>1866.4930000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:41" s="5" customFormat="1">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:41" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="5">
-        <f t="shared" ref="C5:Q5" si="0">+C3+C4</f>
+      <c r="C5" s="15">
+        <f t="shared" ref="C5:Q5" si="2">+C3+C4</f>
         <v>7668.0360000000001</v>
       </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
+      <c r="D5" s="15">
+        <f t="shared" si="2"/>
         <v>7493.3200000000006</v>
       </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
+      <c r="E5" s="15">
+        <f t="shared" si="2"/>
         <v>7707.9350000000004</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
+      <c r="F5" s="15">
+        <f t="shared" si="2"/>
         <v>7524.9940000000006</v>
       </c>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
+      <c r="G5" s="15">
+        <f t="shared" si="2"/>
         <v>7799.6959999999999</v>
       </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
+      <c r="H5" s="15">
+        <f t="shared" si="2"/>
         <v>7567.4830000000002</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
+      <c r="I5" s="15">
+        <f t="shared" si="2"/>
         <v>8240.18</v>
       </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
+      <c r="J5" s="15">
+        <f t="shared" si="2"/>
         <v>8267.3189999999995</v>
       </c>
       <c r="K5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8343.2569999999996</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7931.59</v>
       </c>
       <c r="M5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8275.0659999999989</v>
       </c>
       <c r="N5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8364.5109999999986</v>
       </c>
-      <c r="O5" s="5">
-        <f t="shared" si="0"/>
+      <c r="O5" s="15">
+        <f t="shared" si="2"/>
         <v>8465.9830000000002</v>
       </c>
-      <c r="P5" s="5">
-        <f t="shared" si="0"/>
+      <c r="P5" s="15">
+        <f t="shared" si="2"/>
         <v>8397.0529999999999</v>
       </c>
-      <c r="Q5" s="5">
-        <f t="shared" si="0"/>
+      <c r="Q5" s="15">
+        <f t="shared" si="2"/>
         <v>8969.0439999999999</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="15">
         <f>+U3+U4</f>
         <v>23094.077999999998</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="15">
         <f>+V3+V4</f>
         <v>27352.914000000001</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="15">
         <f>+W3+W4</f>
         <v>29777.985000000001</v>
       </c>
-      <c r="X5" s="5">
-        <f>SUM(C5:F5)</f>
+      <c r="X5" s="15">
+        <f t="shared" si="0"/>
         <v>30394.285000000003</v>
       </c>
-      <c r="Y5" s="5">
-        <f>SUM(G5:J5)</f>
+      <c r="Y5" s="15">
+        <f t="shared" si="1"/>
         <v>31874.678</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="15">
         <f>+Z3+Z4</f>
         <v>32914.423999999999</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="15">
         <f>+Z5*1.02</f>
         <v>33572.712480000002</v>
       </c>
-      <c r="AB5" s="5">
-        <f t="shared" ref="AB5:AO5" si="1">+AA5*1.02</f>
+      <c r="AB5" s="15">
+        <f t="shared" ref="AB5:AO5" si="3">+AA5*1.02</f>
         <v>34244.166729600001</v>
       </c>
-      <c r="AC5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AC5" s="15">
+        <f t="shared" si="3"/>
         <v>34929.050064192001</v>
       </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AD5" s="15">
+        <f t="shared" si="3"/>
         <v>35627.631065475842</v>
       </c>
-      <c r="AE5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AE5" s="15">
+        <f t="shared" si="3"/>
         <v>36340.183686785356</v>
       </c>
-      <c r="AF5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AF5" s="15">
+        <f t="shared" si="3"/>
         <v>37066.987360521067</v>
       </c>
-      <c r="AG5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AG5" s="15">
+        <f t="shared" si="3"/>
         <v>37808.327107731486</v>
       </c>
-      <c r="AH5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AH5" s="15">
+        <f t="shared" si="3"/>
         <v>38564.493649886113</v>
       </c>
-      <c r="AI5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AI5" s="15">
+        <f t="shared" si="3"/>
         <v>39335.783522883838</v>
       </c>
-      <c r="AJ5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AJ5" s="15">
+        <f t="shared" si="3"/>
         <v>40122.499193341515</v>
       </c>
-      <c r="AK5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AK5" s="15">
+        <f t="shared" si="3"/>
         <v>40924.949177208349</v>
       </c>
-      <c r="AL5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AL5" s="15">
+        <f t="shared" si="3"/>
         <v>41743.448160752516</v>
       </c>
-      <c r="AM5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AM5" s="15">
+        <f t="shared" si="3"/>
         <v>42578.317123967565</v>
       </c>
-      <c r="AN5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AN5" s="15">
+        <f t="shared" si="3"/>
         <v>43429.883466446918</v>
       </c>
-      <c r="AO5" s="5">
-        <f t="shared" si="1"/>
+      <c r="AO5" s="15">
+        <f t="shared" si="3"/>
         <v>44298.481135775859</v>
       </c>
     </row>
-    <row r="6" spans="2:41" s="3" customFormat="1">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="12">
         <v>4853.768</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="12">
         <v>4827.6790000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
         <v>4760.1210000000001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="12">
         <f>19178.635-C6-D6-E6</f>
         <v>4737.0669999999982</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="12">
         <v>4909.402</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="12">
         <v>4900.5249999999996</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="12">
         <v>5199.2809999999999</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="12">
         <f>20317.928-G6-H6-I6</f>
         <v>5308.72</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>5356.4250000000002</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>5252.69</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>5245.4769999999999</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <f>21238.692-K6-L6-M6</f>
         <v>5384.1000000000013</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="12">
         <v>5450.6440000000002</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="12">
         <v>5575.7489999999998</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="12">
         <v>5745.2049999999999</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="12">
         <v>14299.821</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="12">
         <v>17120.316999999999</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="12">
         <v>18874.629000000001</v>
       </c>
-      <c r="X6" s="3">
-        <f>SUM(C6:F6)</f>
+      <c r="X6" s="12">
+        <f t="shared" si="0"/>
         <v>19178.634999999998</v>
       </c>
-      <c r="Y6" s="3">
-        <f>SUM(G6:J6)</f>
+      <c r="Y6" s="12">
+        <f t="shared" si="1"/>
         <v>20317.928</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="12">
         <f>SUM(K6:N6)</f>
         <v>21238.692000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:41" s="3" customFormat="1">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="12">
         <v>448.07499999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="12">
         <v>435.27800000000002</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
         <v>509.79500000000002</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="12">
         <f>1831.475-C7-D7-E7</f>
         <v>438.32699999999983</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="12">
         <v>440.947</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="12">
         <v>436.81599999999997</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="12">
         <v>504.54199999999997</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="12">
         <f>1872.284-G7-H7-I7</f>
         <v>489.97899999999998</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>447.54199999999997</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <v>438.26100000000002</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <v>504.68400000000003</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <f>1866.493-K7-L7-M7</f>
         <v>476.00600000000003</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="12">
         <v>452.82100000000003</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="12">
         <v>451.488</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="12">
         <v>534.28700000000003</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="12">
         <v>1543.51</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="12">
         <v>1845.8779999999999</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="12">
         <v>1915.655</v>
       </c>
-      <c r="X7" s="3">
-        <f>SUM(C7:F7)</f>
+      <c r="X7" s="12">
+        <f t="shared" si="0"/>
         <v>1831.4749999999999</v>
       </c>
-      <c r="Y7" s="3">
-        <f>SUM(G7:J7)</f>
+      <c r="Y7" s="12">
+        <f t="shared" si="1"/>
         <v>1872.2839999999999</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="12">
         <f>SUM(K7:N7)</f>
         <v>1866.4930000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:41" s="3" customFormat="1">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" ref="C8:Q8" si="2">+C6+C7</f>
+      <c r="C8" s="12">
+        <f t="shared" ref="C8:Q8" si="4">+C6+C7</f>
         <v>5301.8429999999998</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="2"/>
+      <c r="D8" s="12">
+        <f t="shared" si="4"/>
         <v>5262.9570000000003</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="2"/>
+      <c r="E8" s="12">
+        <f t="shared" si="4"/>
         <v>5269.9160000000002</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="2"/>
+      <c r="F8" s="12">
+        <f t="shared" si="4"/>
         <v>5175.3939999999984</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" si="2"/>
+      <c r="G8" s="12">
+        <f t="shared" si="4"/>
         <v>5350.3490000000002</v>
       </c>
-      <c r="H8" s="3">
-        <f t="shared" si="2"/>
+      <c r="H8" s="12">
+        <f t="shared" si="4"/>
         <v>5337.3409999999994</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="2"/>
+      <c r="I8" s="12">
+        <f t="shared" si="4"/>
         <v>5703.8230000000003</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
+      <c r="J8" s="12">
+        <f t="shared" si="4"/>
         <v>5798.6990000000005</v>
       </c>
-      <c r="K8" s="15">
-        <f t="shared" si="2"/>
+      <c r="K8" s="14">
+        <f t="shared" si="4"/>
         <v>5803.9670000000006</v>
       </c>
-      <c r="L8" s="15">
-        <f t="shared" si="2"/>
+      <c r="L8" s="14">
+        <f t="shared" si="4"/>
         <v>5690.951</v>
       </c>
-      <c r="M8" s="15">
-        <f t="shared" si="2"/>
+      <c r="M8" s="14">
+        <f t="shared" si="4"/>
         <v>5750.1610000000001</v>
       </c>
-      <c r="N8" s="15">
-        <f t="shared" si="2"/>
+      <c r="N8" s="14">
+        <f t="shared" si="4"/>
         <v>5860.1060000000016</v>
       </c>
-      <c r="O8" s="3">
-        <f t="shared" si="2"/>
+      <c r="O8" s="12">
+        <f t="shared" si="4"/>
         <v>5903.4650000000001</v>
       </c>
-      <c r="P8" s="3">
-        <f t="shared" si="2"/>
+      <c r="P8" s="12">
+        <f t="shared" si="4"/>
         <v>6027.2370000000001</v>
       </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q8" s="12">
+        <f t="shared" si="4"/>
         <v>6279.4920000000002</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="12">
         <f>+U6+U7</f>
         <v>15843.331</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="12">
         <f>+V6+V7</f>
         <v>18966.195</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="12">
         <f>+W6+W7</f>
         <v>20790.284</v>
       </c>
-      <c r="X8" s="3">
-        <f>SUM(C8:F8)</f>
+      <c r="X8" s="12">
+        <f t="shared" si="0"/>
         <v>21010.11</v>
       </c>
-      <c r="Y8" s="3">
-        <f>SUM(G8:J8)</f>
+      <c r="Y8" s="12">
+        <f t="shared" si="1"/>
         <v>22190.212</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="12">
         <f>+Z6+Z7</f>
         <v>23105.185000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:41" s="3" customFormat="1">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" ref="C9:Q9" si="3">+C5-C8</f>
+      <c r="C9" s="12">
+        <f t="shared" ref="C9:Q9" si="5">+C5-C8</f>
         <v>2366.1930000000002</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="3"/>
+      <c r="D9" s="12">
+        <f t="shared" si="5"/>
         <v>2230.3630000000003</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" si="3"/>
+      <c r="E9" s="12">
+        <f t="shared" si="5"/>
         <v>2438.0190000000002</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="3"/>
+      <c r="F9" s="12">
+        <f t="shared" si="5"/>
         <v>2349.6000000000022</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="3"/>
+      <c r="G9" s="12">
+        <f t="shared" si="5"/>
         <v>2449.3469999999998</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" si="3"/>
+      <c r="H9" s="12">
+        <f t="shared" si="5"/>
         <v>2230.1420000000007</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="3"/>
+      <c r="I9" s="12">
+        <f t="shared" si="5"/>
         <v>2536.357</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" si="3"/>
+      <c r="J9" s="12">
+        <f t="shared" si="5"/>
         <v>2468.619999999999</v>
       </c>
-      <c r="K9" s="15">
-        <f t="shared" si="3"/>
+      <c r="K9" s="14">
+        <f t="shared" si="5"/>
         <v>2539.2899999999991</v>
       </c>
-      <c r="L9" s="15">
-        <f t="shared" si="3"/>
+      <c r="L9" s="14">
+        <f t="shared" si="5"/>
         <v>2240.6390000000001</v>
       </c>
-      <c r="M9" s="15">
-        <f t="shared" si="3"/>
+      <c r="M9" s="14">
+        <f t="shared" si="5"/>
         <v>2524.9049999999988</v>
       </c>
-      <c r="N9" s="15">
-        <f t="shared" si="3"/>
+      <c r="N9" s="14">
+        <f t="shared" si="5"/>
         <v>2504.404999999997</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" si="3"/>
+      <c r="O9" s="12">
+        <f t="shared" si="5"/>
         <v>2562.518</v>
       </c>
-      <c r="P9" s="3">
-        <f t="shared" si="3"/>
+      <c r="P9" s="12">
+        <f t="shared" si="5"/>
         <v>2369.8159999999998</v>
       </c>
-      <c r="Q9" s="3">
-        <f t="shared" si="3"/>
+      <c r="Q9" s="12">
+        <f t="shared" si="5"/>
         <v>2689.5519999999997</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="12">
         <f>+U5-U8</f>
         <v>7250.7469999999976</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="12">
         <f>+V5-V8</f>
         <v>8386.719000000001</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="12">
         <f>+W5-W8</f>
         <v>8987.7010000000009</v>
       </c>
-      <c r="X9" s="3">
-        <f>SUM(C9:F9)</f>
+      <c r="X9" s="12">
+        <f t="shared" si="0"/>
         <v>9384.1750000000029</v>
       </c>
-      <c r="Y9" s="3">
-        <f>SUM(G9:J9)</f>
+      <c r="Y9" s="12">
+        <f t="shared" si="1"/>
         <v>9684.4660000000003</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="12">
         <f>+Z5-Z8</f>
         <v>9809.2389999999978</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="12">
         <f>(AA5*0.295)</f>
         <v>9903.9501815999993</v>
       </c>
-      <c r="AB9" s="3">
-        <f t="shared" ref="AB9:AO9" si="4">(AB5*0.295)</f>
+      <c r="AB9" s="12">
+        <f t="shared" ref="AB9:AO9" si="6">(AB5*0.295)</f>
         <v>10102.029185232001</v>
       </c>
-      <c r="AC9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AC9" s="12">
+        <f t="shared" si="6"/>
         <v>10304.069768936639</v>
       </c>
-      <c r="AD9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AD9" s="12">
+        <f t="shared" si="6"/>
         <v>10510.151164315374</v>
       </c>
-      <c r="AE9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AE9" s="12">
+        <f t="shared" si="6"/>
         <v>10720.354187601679</v>
       </c>
-      <c r="AF9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AF9" s="12">
+        <f t="shared" si="6"/>
         <v>10934.761271353715</v>
       </c>
-      <c r="AG9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AG9" s="12">
+        <f t="shared" si="6"/>
         <v>11153.456496780787</v>
       </c>
-      <c r="AH9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AH9" s="12">
+        <f t="shared" si="6"/>
         <v>11376.525626716402</v>
       </c>
-      <c r="AI9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AI9" s="12">
+        <f t="shared" si="6"/>
         <v>11604.056139250732</v>
       </c>
-      <c r="AJ9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AJ9" s="12">
+        <f t="shared" si="6"/>
         <v>11836.137262035747</v>
       </c>
-      <c r="AK9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AK9" s="12">
+        <f t="shared" si="6"/>
         <v>12072.860007276462</v>
       </c>
-      <c r="AL9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AL9" s="12">
+        <f t="shared" si="6"/>
         <v>12314.317207421991</v>
       </c>
-      <c r="AM9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AM9" s="12">
+        <f t="shared" si="6"/>
         <v>12560.603551570432</v>
       </c>
-      <c r="AN9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AN9" s="12">
+        <f t="shared" si="6"/>
         <v>12811.81562260184</v>
       </c>
-      <c r="AO9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AO9" s="12">
+        <f t="shared" si="6"/>
         <v>13068.051935053878</v>
       </c>
     </row>
-    <row r="10" spans="2:41" s="3" customFormat="1">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="12">
         <v>868.202</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="12">
         <v>834.04700000000003</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <v>886.64099999999996</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="12">
         <f>3481.891-C10-D10-E10</f>
         <v>893.00100000000032</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="12">
         <v>928.21</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="12">
         <v>837.255</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="12">
         <v>899.25</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="12">
         <f>3582.833-G10-H10-I10</f>
         <v>918.11799999999994</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <v>907.57399999999996</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <v>798.64400000000001</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <v>874.71299999999997</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <f>3505.045-K10-L10-M10</f>
         <v>924.11400000000003</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="12">
         <v>875.79300000000001</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="12">
         <v>830.33199999999999</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="12">
         <v>933.77</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="12">
         <v>2658.058</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="12">
         <v>3094.4650000000001</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="12">
         <v>3303.4780000000001</v>
       </c>
-      <c r="X10" s="3">
-        <f>SUM(C10:F10)</f>
+      <c r="X10" s="12">
+        <f t="shared" si="0"/>
         <v>3481.8910000000001</v>
       </c>
-      <c r="Y10" s="3">
-        <f>SUM(G10:J10)</f>
+      <c r="Y10" s="12">
+        <f t="shared" si="1"/>
         <v>3582.8330000000001</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="12">
         <f>SUM(K10:N10)</f>
         <v>3505.0449999999996</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="12">
         <f>Z10*0.99</f>
         <v>3469.9945499999994</v>
       </c>
-      <c r="AB10" s="3">
-        <f t="shared" ref="AB10:AO10" si="5">AA10*0.99</f>
+      <c r="AB10" s="12">
+        <f t="shared" ref="AB10:AO10" si="7">AA10*0.99</f>
         <v>3435.2946044999994</v>
       </c>
-      <c r="AC10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AC10" s="12">
+        <f t="shared" si="7"/>
         <v>3400.9416584549995</v>
       </c>
-      <c r="AD10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AD10" s="12">
+        <f t="shared" si="7"/>
         <v>3366.9322418704496</v>
       </c>
-      <c r="AE10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AE10" s="12">
+        <f t="shared" si="7"/>
         <v>3333.2629194517449</v>
       </c>
-      <c r="AF10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AF10" s="12">
+        <f t="shared" si="7"/>
         <v>3299.9302902572276</v>
       </c>
-      <c r="AG10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AG10" s="12">
+        <f t="shared" si="7"/>
         <v>3266.9309873546554</v>
       </c>
-      <c r="AH10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AH10" s="12">
+        <f t="shared" si="7"/>
         <v>3234.2616774811086</v>
       </c>
-      <c r="AI10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AI10" s="12">
+        <f t="shared" si="7"/>
         <v>3201.9190607062974</v>
       </c>
-      <c r="AJ10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AJ10" s="12">
+        <f t="shared" si="7"/>
         <v>3169.8998700992342</v>
       </c>
-      <c r="AK10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AK10" s="12">
+        <f t="shared" si="7"/>
         <v>3138.2008713982418</v>
       </c>
-      <c r="AL10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AL10" s="12">
+        <f t="shared" si="7"/>
         <v>3106.8188626842593</v>
       </c>
-      <c r="AM10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AM10" s="12">
+        <f t="shared" si="7"/>
         <v>3075.7506740574167</v>
       </c>
-      <c r="AN10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AN10" s="12">
+        <f t="shared" si="7"/>
         <v>3044.9931673168426</v>
       </c>
-      <c r="AO10" s="3">
-        <f t="shared" si="5"/>
+      <c r="AO10" s="12">
+        <f t="shared" si="7"/>
         <v>3014.5432356436741</v>
       </c>
     </row>
-    <row r="11" spans="2:41" s="3" customFormat="1">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="12">
         <v>448.85199999999998</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="12">
         <v>455.55099999999999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="12">
         <v>458.64100000000002</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="12">
         <f>1835.646-C11-D11-E11</f>
         <v>472.60199999999992</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="12">
         <v>448.053</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="12">
         <v>441.60500000000002</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="12">
         <v>458.34100000000001</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="12">
         <f>1819.136-G11-H11-I11</f>
         <v>471.13700000000006</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>444.00700000000001</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <v>420.96199999999999</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
         <v>452.291</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <f>1803.493-K11-L11-M11</f>
         <v>486.23299999999989</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="12">
         <v>465.46600000000001</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="12">
         <v>451.44</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="12">
         <v>449.839</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="12">
         <v>1668.306</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="12">
         <v>1820.277</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="12">
         <v>1810.9839999999999</v>
       </c>
-      <c r="X11" s="3">
-        <f>SUM(C11:F11)</f>
+      <c r="X11" s="12">
+        <f t="shared" si="0"/>
         <v>1835.646</v>
       </c>
-      <c r="Y11" s="3">
-        <f>SUM(G11:J11)</f>
+      <c r="Y11" s="12">
+        <f t="shared" si="1"/>
         <v>1819.136</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="12">
         <f>SUM(K11:N11)</f>
         <v>1803.4929999999999</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="12">
         <f>Z11*0.99</f>
         <v>1785.4580699999999</v>
       </c>
-      <c r="AB11" s="3">
-        <f t="shared" ref="AB11:AO11" si="6">AA11*0.99</f>
+      <c r="AB11" s="12">
+        <f t="shared" ref="AB11:AO11" si="8">AA11*0.99</f>
         <v>1767.6034892999999</v>
       </c>
-      <c r="AC11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AC11" s="12">
+        <f t="shared" si="8"/>
         <v>1749.9274544069999</v>
       </c>
-      <c r="AD11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AD11" s="12">
+        <f t="shared" si="8"/>
         <v>1732.4281798629299</v>
       </c>
-      <c r="AE11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AE11" s="12">
+        <f t="shared" si="8"/>
         <v>1715.1038980643007</v>
       </c>
-      <c r="AF11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AF11" s="12">
+        <f t="shared" si="8"/>
         <v>1697.9528590836576</v>
       </c>
-      <c r="AG11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AG11" s="12">
+        <f t="shared" si="8"/>
         <v>1680.9733304928211</v>
       </c>
-      <c r="AH11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AH11" s="12">
+        <f t="shared" si="8"/>
         <v>1664.1635971878929</v>
       </c>
-      <c r="AI11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AI11" s="12">
+        <f t="shared" si="8"/>
         <v>1647.521961216014</v>
       </c>
-      <c r="AJ11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AJ11" s="12">
+        <f t="shared" si="8"/>
         <v>1631.0467416038539</v>
       </c>
-      <c r="AK11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AK11" s="12">
+        <f t="shared" si="8"/>
         <v>1614.7362741878153</v>
       </c>
-      <c r="AL11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AL11" s="12">
+        <f t="shared" si="8"/>
         <v>1598.5889114459371</v>
       </c>
-      <c r="AM11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AM11" s="12">
+        <f t="shared" si="8"/>
         <v>1582.6030223314776</v>
       </c>
-      <c r="AN11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AN11" s="12">
+        <f t="shared" si="8"/>
         <v>1566.7769921081629</v>
       </c>
-      <c r="AO11" s="3">
-        <f t="shared" si="6"/>
+      <c r="AO11" s="12">
+        <f t="shared" si="8"/>
         <v>1551.1092221870813</v>
       </c>
     </row>
-    <row r="12" spans="2:41" s="3" customFormat="1">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="12">
         <f>+C10+C11+0.465</f>
         <v>1317.519</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="12">
         <f>+D10+D11-223.767</f>
         <v>1065.8309999999999</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="12">
         <f>+E10+E11-49.224</f>
         <v>1296.058</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="12">
         <f>+F10+F11</f>
         <v>1365.6030000000003</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="12">
         <f>+G10+G11-18.015</f>
         <v>1358.2479999999998</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="12">
         <f>+H10+H11</f>
         <v>1278.8600000000001</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="12">
         <f>+I10+I11</f>
         <v>1357.5909999999999</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="12">
         <f>+J10+J11</f>
         <v>1389.2550000000001</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <f>+K10+K11</f>
         <v>1351.5809999999999</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <f>+L10+L11</f>
         <v>1219.606</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="14">
         <f>+M10+M11+64.382</f>
         <v>1391.386</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="14">
         <f>+N10+N11</f>
         <v>1410.347</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="12">
         <f>+O10+O11</f>
         <v>1341.259</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="12">
         <f>+P10+P11</f>
         <v>1281.7719999999999</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="12">
         <f>+Q10+Q11</f>
         <v>1383.6089999999999</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="12">
         <f>+U10+U11+9.538</f>
         <v>4335.9019999999991</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="12">
         <f>+V10+V11+1.52</f>
         <v>4916.2620000000006</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="12">
         <f>+W10+W11+1.691</f>
         <v>5116.1529999999993</v>
       </c>
-      <c r="X12" s="3">
-        <f>SUM(C12:F12)</f>
+      <c r="X12" s="12">
+        <f t="shared" si="0"/>
         <v>5045.0110000000004</v>
       </c>
-      <c r="Y12" s="3">
-        <f>SUM(G12:J12)</f>
+      <c r="Y12" s="12">
+        <f t="shared" si="1"/>
         <v>5383.9539999999997</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="12">
         <f>+Z10+Z11</f>
         <v>5308.5379999999996</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="12">
         <f>+AA10+AA11</f>
         <v>5255.4526199999991</v>
       </c>
-      <c r="AB12" s="3">
-        <f t="shared" ref="AB12:AO12" si="7">+AB10+AB11</f>
+      <c r="AB12" s="12">
+        <f t="shared" ref="AB12:AO12" si="9">+AB10+AB11</f>
         <v>5202.8980937999995</v>
       </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AC12" s="12">
+        <f t="shared" si="9"/>
         <v>5150.8691128619994</v>
       </c>
-      <c r="AD12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AD12" s="12">
+        <f t="shared" si="9"/>
         <v>5099.3604217333796</v>
       </c>
-      <c r="AE12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AE12" s="12">
+        <f t="shared" si="9"/>
         <v>5048.3668175160456</v>
       </c>
-      <c r="AF12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AF12" s="12">
+        <f t="shared" si="9"/>
         <v>4997.8831493408852</v>
       </c>
-      <c r="AG12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AG12" s="12">
+        <f t="shared" si="9"/>
         <v>4947.9043178474767</v>
       </c>
-      <c r="AH12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AH12" s="12">
+        <f t="shared" si="9"/>
         <v>4898.4252746690017</v>
       </c>
-      <c r="AI12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AI12" s="12">
+        <f t="shared" si="9"/>
         <v>4849.4410219223118</v>
       </c>
-      <c r="AJ12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AJ12" s="12">
+        <f t="shared" si="9"/>
         <v>4800.9466117030879</v>
       </c>
-      <c r="AK12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AK12" s="12">
+        <f t="shared" si="9"/>
         <v>4752.9371455860573</v>
       </c>
-      <c r="AL12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AL12" s="12">
+        <f t="shared" si="9"/>
         <v>4705.4077741301962</v>
       </c>
-      <c r="AM12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AM12" s="12">
+        <f t="shared" si="9"/>
         <v>4658.3536963888946</v>
       </c>
-      <c r="AN12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AN12" s="12">
+        <f t="shared" si="9"/>
         <v>4611.7701594250057</v>
       </c>
-      <c r="AO12" s="3">
-        <f t="shared" si="7"/>
+      <c r="AO12" s="12">
+        <f t="shared" si="9"/>
         <v>4565.6524578307553</v>
       </c>
     </row>
-    <row r="13" spans="2:41" s="3" customFormat="1">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" ref="C13:Q13" si="8">(C9-C12)</f>
+      <c r="C13" s="12">
+        <f t="shared" ref="C13:Q13" si="10">(C9-C12)</f>
         <v>1048.6740000000002</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="8"/>
+      <c r="D13" s="12">
+        <f t="shared" si="10"/>
         <v>1164.5320000000004</v>
       </c>
-      <c r="E13" s="3">
-        <f t="shared" si="8"/>
+      <c r="E13" s="12">
+        <f t="shared" si="10"/>
         <v>1141.9610000000002</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" si="8"/>
+      <c r="F13" s="12">
+        <f t="shared" si="10"/>
         <v>983.99700000000189</v>
       </c>
-      <c r="G13" s="3">
-        <f t="shared" si="8"/>
+      <c r="G13" s="12">
+        <f t="shared" si="10"/>
         <v>1091.0989999999999</v>
       </c>
-      <c r="H13" s="3">
-        <f t="shared" si="8"/>
+      <c r="H13" s="12">
+        <f t="shared" si="10"/>
         <v>951.28200000000061</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" si="8"/>
+      <c r="I13" s="12">
+        <f t="shared" si="10"/>
         <v>1178.7660000000001</v>
       </c>
-      <c r="J13" s="3">
-        <f t="shared" si="8"/>
+      <c r="J13" s="12">
+        <f t="shared" si="10"/>
         <v>1079.3649999999989</v>
       </c>
-      <c r="K13" s="15">
-        <f t="shared" si="8"/>
+      <c r="K13" s="14">
+        <f t="shared" si="10"/>
         <v>1187.7089999999992</v>
       </c>
-      <c r="L13" s="15">
-        <f t="shared" si="8"/>
+      <c r="L13" s="14">
+        <f t="shared" si="10"/>
         <v>1021.0330000000001</v>
       </c>
-      <c r="M13" s="15">
-        <f t="shared" si="8"/>
+      <c r="M13" s="14">
+        <f t="shared" si="10"/>
         <v>1133.5189999999989</v>
       </c>
-      <c r="N13" s="15">
-        <f t="shared" si="8"/>
+      <c r="N13" s="14">
+        <f t="shared" si="10"/>
         <v>1094.057999999997</v>
       </c>
-      <c r="O13" s="3">
-        <f t="shared" si="8"/>
+      <c r="O13" s="12">
+        <f t="shared" si="10"/>
         <v>1221.259</v>
       </c>
-      <c r="P13" s="3">
-        <f t="shared" si="8"/>
+      <c r="P13" s="12">
+        <f t="shared" si="10"/>
         <v>1088.0439999999999</v>
       </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="8"/>
+      <c r="Q13" s="12">
+        <f t="shared" si="10"/>
         <v>1305.9429999999998</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="12">
         <f>(U9-U12)</f>
         <v>2914.8449999999984</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="12">
         <f>(V9-V12)</f>
         <v>3470.4570000000003</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="12">
         <f>(W9-W12)</f>
         <v>3871.5480000000016</v>
       </c>
-      <c r="X13" s="3">
-        <f>SUM(C13:F13)</f>
+      <c r="X13" s="12">
+        <f t="shared" si="0"/>
         <v>4339.1640000000025</v>
       </c>
-      <c r="Y13" s="3">
-        <f>SUM(G13:J13)</f>
+      <c r="Y13" s="12">
+        <f t="shared" si="1"/>
         <v>4300.5119999999997</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="12">
         <f>(Z9-Z12)</f>
         <v>4500.7009999999982</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="12">
         <f>(AA9-AA12)</f>
         <v>4648.4975616000002</v>
       </c>
-      <c r="AB13" s="3">
-        <f t="shared" ref="AB13:AO13" si="9">(AB9-AB12)</f>
+      <c r="AB13" s="12">
+        <f t="shared" ref="AB13:AO13" si="11">(AB9-AB12)</f>
         <v>4899.1310914320011</v>
       </c>
-      <c r="AC13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AC13" s="12">
+        <f t="shared" si="11"/>
         <v>5153.2006560746395</v>
       </c>
-      <c r="AD13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AD13" s="12">
+        <f t="shared" si="11"/>
         <v>5410.790742581994</v>
       </c>
-      <c r="AE13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AE13" s="12">
+        <f t="shared" si="11"/>
         <v>5671.9873700856333</v>
       </c>
-      <c r="AF13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AF13" s="12">
+        <f t="shared" si="11"/>
         <v>5936.8781220128294</v>
       </c>
-      <c r="AG13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AG13" s="12">
+        <f t="shared" si="11"/>
         <v>6205.5521789333106</v>
       </c>
-      <c r="AH13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AH13" s="12">
+        <f t="shared" si="11"/>
         <v>6478.1003520474005</v>
       </c>
-      <c r="AI13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AI13" s="12">
+        <f t="shared" si="11"/>
         <v>6754.6151173284197</v>
       </c>
-      <c r="AJ13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AJ13" s="12">
+        <f t="shared" si="11"/>
         <v>7035.1906503326591</v>
       </c>
-      <c r="AK13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AK13" s="12">
+        <f t="shared" si="11"/>
         <v>7319.9228616904047</v>
       </c>
-      <c r="AL13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AL13" s="12">
+        <f t="shared" si="11"/>
         <v>7608.9094332917948</v>
       </c>
-      <c r="AM13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AM13" s="12">
+        <f t="shared" si="11"/>
         <v>7902.249855181537</v>
       </c>
-      <c r="AN13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AN13" s="12">
+        <f t="shared" si="11"/>
         <v>8200.0454631768334</v>
       </c>
-      <c r="AO13" s="3">
-        <f t="shared" si="9"/>
+      <c r="AO13" s="12">
+        <f t="shared" si="11"/>
         <v>8502.3994772231235</v>
       </c>
     </row>
-    <row r="14" spans="2:41" s="3" customFormat="1">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="12">
         <v>8.7669999999999995</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="12">
         <v>9.859</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="12">
         <v>7.2510000000000003</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="12">
         <f>32.893-C14-D14-E14</f>
         <v>7.0160000000000009</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="12">
         <v>6.7560000000000002</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="12">
         <v>7.96</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="12">
         <v>7.5129999999999999</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="12">
         <f>30.37-G14-H14-I14</f>
         <v>8.141</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <v>10.099</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <v>9.34</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="14">
         <v>6.4409999999999998</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <f>30.37-K14-L14-M14</f>
         <v>4.4900000000000011</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="12">
         <v>7.1260000000000003</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="12">
         <v>6.7270000000000003</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="12">
         <v>7.6970000000000001</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="12">
         <v>29.931000000000001</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="12">
         <v>41.082999999999998</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="12">
         <v>42.55</v>
       </c>
-      <c r="X14" s="3">
-        <f>SUM(C14:F14)</f>
+      <c r="X14" s="12">
+        <f t="shared" si="0"/>
         <v>32.893000000000001</v>
       </c>
-      <c r="Y14" s="3">
-        <f>SUM(G14:J14)</f>
+      <c r="Y14" s="12">
+        <f t="shared" si="1"/>
         <v>30.369999999999997</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="12">
         <f>SUM(K14:N14)</f>
         <v>30.37</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="12">
         <f>Z14</f>
         <v>30.37</v>
       </c>
-      <c r="AB14" s="3">
-        <f t="shared" ref="AB14:AO14" si="10">AA14</f>
+      <c r="AB14" s="12">
+        <f t="shared" ref="AB14:AO14" si="12">AA14</f>
         <v>30.37</v>
       </c>
-      <c r="AC14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AC14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AD14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AD14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AE14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AE14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AF14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AF14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AG14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AG14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AH14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AH14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AI14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AI14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AJ14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AJ14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AK14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AK14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AL14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AL14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AM14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AM14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AN14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AN14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
-      <c r="AO14" s="3">
-        <f t="shared" si="10"/>
+      <c r="AO14" s="12">
+        <f t="shared" si="12"/>
         <v>30.37</v>
       </c>
     </row>
-    <row r="15" spans="2:41" s="3" customFormat="1">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="12">
         <v>-4.5490000000000004</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="12">
         <v>-3.641</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="12">
         <v>-3.5880000000000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="12">
         <f>-14.035-C15-D15-E15</f>
         <v>-2.2570000000000006</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="12">
         <v>-3.6579999999999999</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="12">
         <v>-4.3479999999999999</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="12">
         <v>-4.29</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="12">
         <f>-17.621-G15-H15-I15</f>
         <v>-5.3249999999999984</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <v>-2.8109999999999999</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <v>-3.9049999999999998</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="14">
         <v>-4.03</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="14">
         <f>-17.621-K15-L15-M15</f>
         <v>-6.8749999999999991</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="12">
         <v>-4.0519999999999996</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="12">
         <v>-4.5430000000000001</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="12">
         <v>-3.7109999999999999</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="12">
         <v>-14.677</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="12">
         <v>-15</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="12">
         <v>-15.061</v>
       </c>
-      <c r="X15" s="3">
-        <f>SUM(C15:F15)</f>
+      <c r="X15" s="12">
+        <f t="shared" si="0"/>
         <v>-14.035000000000004</v>
       </c>
-      <c r="Y15" s="3">
-        <f>SUM(G15:J15)</f>
+      <c r="Y15" s="12">
+        <f t="shared" si="1"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="12">
         <f>SUM(K15:N15)</f>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="12">
         <f>Z15</f>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AB15" s="3">
-        <f t="shared" ref="AB15:AO15" si="11">AA15</f>
+      <c r="AB15" s="12">
+        <f t="shared" ref="AB15:AO15" si="13">AA15</f>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AC15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AC15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AD15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AD15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AE15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AE15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AF15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AF15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AG15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AG15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AH15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AH15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AI15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AI15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AJ15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AJ15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AK15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AK15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AL15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AL15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AM15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AM15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AN15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AN15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
-      <c r="AO15" s="3">
-        <f t="shared" si="11"/>
+      <c r="AO15" s="12">
+        <f t="shared" si="13"/>
         <v>-17.620999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:41" s="3" customFormat="1">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="12">
         <v>-6.4359999999999999</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="12">
         <v>10.599</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="12">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="12">
         <f>-18.244-C16-D16-E16</f>
         <v>-23.358000000000001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="12">
         <v>-10.62</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="12">
         <v>-4.766</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="12">
         <v>-6.0510000000000002</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="12">
         <f>-15.56-G16-H16-I16</f>
         <v>5.8769999999999989</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <v>-2.9790000000000001</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="14">
         <v>-21.597999999999999</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="14">
         <v>-3.839</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="14">
         <f>-15.56-K16-L16-M16</f>
         <v>12.856</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="12">
         <v>4.0289999999999999</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="12">
         <v>-21.213000000000001</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="12">
         <v>-16.207000000000001</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="12">
         <v>-15.724</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="12">
         <v>15.481999999999999</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="12">
         <v>5.1369999999999996</v>
       </c>
-      <c r="X16" s="3">
-        <f>SUM(C16:F16)</f>
+      <c r="X16" s="12">
+        <f t="shared" si="0"/>
         <v>-18.244</v>
       </c>
-      <c r="Y16" s="3">
-        <f>SUM(G16:J16)</f>
+      <c r="Y16" s="12">
+        <f t="shared" si="1"/>
         <v>-15.559999999999999</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="12">
         <f>SUM(K16:N16)</f>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="12">
         <f>Z16</f>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AB16" s="3">
-        <f t="shared" ref="AB16:AO16" si="12">AA16</f>
+      <c r="AB16" s="12">
+        <f t="shared" ref="AB16:AO16" si="14">AA16</f>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AC16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AD16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AD16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AE16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AE16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AF16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AF16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AG16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AG16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AH16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AH16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AI16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AI16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AJ16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AJ16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AK16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AK16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AL16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AL16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AM16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AM16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AN16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AN16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AO16" s="3">
-        <f t="shared" si="12"/>
+      <c r="AO16" s="12">
+        <f t="shared" si="14"/>
         <v>-15.559999999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:196" s="3" customFormat="1">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:O17" si="13">(C13+C14+C15+C16)</f>
+      <c r="C17" s="12">
+        <f t="shared" ref="C17:O17" si="15">(C13+C14+C15+C16)</f>
         <v>1046.4560000000004</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="13"/>
+      <c r="D17" s="12">
+        <f t="shared" si="15"/>
         <v>1181.3490000000002</v>
       </c>
-      <c r="E17" s="3">
-        <f t="shared" si="13"/>
+      <c r="E17" s="12">
+        <f t="shared" si="15"/>
         <v>1146.5750000000003</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" si="13"/>
+      <c r="F17" s="12">
+        <f t="shared" si="15"/>
         <v>965.39800000000196</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" si="13"/>
+      <c r="G17" s="12">
+        <f t="shared" si="15"/>
         <v>1083.5770000000002</v>
       </c>
-      <c r="H17" s="3">
-        <f t="shared" si="13"/>
+      <c r="H17" s="12">
+        <f t="shared" si="15"/>
         <v>950.12800000000072</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="13"/>
+      <c r="I17" s="12">
+        <f t="shared" si="15"/>
         <v>1175.9380000000001</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" si="13"/>
+      <c r="J17" s="12">
+        <f t="shared" si="15"/>
         <v>1088.0579999999989</v>
       </c>
-      <c r="K17" s="15">
-        <f t="shared" si="13"/>
+      <c r="K17" s="14">
+        <f t="shared" si="15"/>
         <v>1192.0179999999991</v>
       </c>
-      <c r="L17" s="15">
-        <f t="shared" si="13"/>
+      <c r="L17" s="14">
+        <f t="shared" si="15"/>
         <v>1004.8700000000001</v>
       </c>
-      <c r="M17" s="15">
-        <f t="shared" si="13"/>
+      <c r="M17" s="14">
+        <f t="shared" si="15"/>
         <v>1132.090999999999</v>
       </c>
-      <c r="N17" s="15">
-        <f t="shared" si="13"/>
+      <c r="N17" s="14">
+        <f t="shared" si="15"/>
         <v>1104.528999999997</v>
       </c>
-      <c r="O17" s="3">
-        <f t="shared" si="13"/>
+      <c r="O17" s="12">
+        <f t="shared" si="15"/>
         <v>1228.3620000000001</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="12">
         <f>(P13+P14+P15+P16+553.577)</f>
         <v>1622.5920000000001</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="12">
         <f>(Q13+Q14+Q15+Q16)</f>
         <v>1293.7219999999995</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="12">
         <f>(U13+U14+U15+U16)</f>
         <v>2914.3749999999982</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="12">
         <f>(V13+V14+V15+V16)</f>
         <v>3512.0220000000004</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="12">
         <f>(W13+W14+W15+W16)</f>
         <v>3904.1740000000018</v>
       </c>
-      <c r="X17" s="3">
-        <f>SUM(C17:F17)</f>
+      <c r="X17" s="12">
+        <f t="shared" si="0"/>
         <v>4339.7780000000021</v>
       </c>
-      <c r="Y17" s="3">
-        <f>SUM(G17:J17)</f>
+      <c r="Y17" s="12">
+        <f t="shared" si="1"/>
         <v>4297.701</v>
       </c>
-      <c r="Z17" s="3">
-        <f t="shared" ref="Z17:AO17" si="14">(Z13+Z14+Z15+Z16)</f>
+      <c r="Z17" s="12">
+        <f t="shared" ref="Z17:AO17" si="16">(Z13+Z14+Z15+Z16)</f>
         <v>4497.8899999999976</v>
       </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AA17" s="12">
+        <f t="shared" si="16"/>
         <v>4645.6865615999995</v>
       </c>
-      <c r="AB17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AB17" s="12">
+        <f t="shared" si="16"/>
         <v>4896.3200914320005</v>
       </c>
-      <c r="AC17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AC17" s="12">
+        <f t="shared" si="16"/>
         <v>5150.3896560746389</v>
       </c>
-      <c r="AD17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AD17" s="12">
+        <f t="shared" si="16"/>
         <v>5407.9797425819934</v>
       </c>
-      <c r="AE17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AE17" s="12">
+        <f t="shared" si="16"/>
         <v>5669.1763700856327</v>
       </c>
-      <c r="AF17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AF17" s="12">
+        <f t="shared" si="16"/>
         <v>5934.0671220128288</v>
       </c>
-      <c r="AG17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AG17" s="12">
+        <f t="shared" si="16"/>
         <v>6202.74117893331</v>
       </c>
-      <c r="AH17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AH17" s="12">
+        <f t="shared" si="16"/>
         <v>6475.2893520473999</v>
       </c>
-      <c r="AI17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AI17" s="12">
+        <f t="shared" si="16"/>
         <v>6751.8041173284191</v>
       </c>
-      <c r="AJ17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AJ17" s="12">
+        <f t="shared" si="16"/>
         <v>7032.3796503326585</v>
       </c>
-      <c r="AK17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AK17" s="12">
+        <f t="shared" si="16"/>
         <v>7317.1118616904041</v>
       </c>
-      <c r="AL17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AL17" s="12">
+        <f t="shared" si="16"/>
         <v>7606.0984332917942</v>
       </c>
-      <c r="AM17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AM17" s="12">
+        <f t="shared" si="16"/>
         <v>7899.4388551815364</v>
       </c>
-      <c r="AN17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AN17" s="12">
+        <f t="shared" si="16"/>
         <v>8197.2344631768356</v>
       </c>
-      <c r="AO17" s="3">
-        <f t="shared" si="14"/>
+      <c r="AO17" s="12">
+        <f t="shared" si="16"/>
         <v>8499.5884772231257</v>
       </c>
     </row>
-    <row r="18" spans="2:196" s="3" customFormat="1">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="12">
         <v>280.42500000000001</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="12">
         <v>-5.7489999999999997</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="12">
         <v>272.52199999999999</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="12">
         <f>784.775-C18-D18-E18</f>
         <v>237.577</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="12">
         <v>271.93099999999998</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="12">
         <v>227.797</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="12">
         <v>294.125</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="12">
         <f>1121.743-G18-H18-I18</f>
         <v>327.88999999999987</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <v>299.77600000000001</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="14">
         <v>261.76799999999997</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="14">
         <v>281.86099999999999</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="14">
         <f>1136.741-K18-L18-M18</f>
         <v>293.3359999999999</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="12">
         <v>359.68200000000002</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="12">
         <v>222.73400000000001</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="12">
         <v>343.42099999999999</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="12">
         <v>853.91</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="12">
         <v>958.78200000000004</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="12">
         <v>1079.241</v>
       </c>
-      <c r="X18" s="3">
-        <f>SUM(C18:F18)</f>
+      <c r="X18" s="12">
+        <f t="shared" si="0"/>
         <v>784.77499999999998</v>
       </c>
-      <c r="Y18" s="3">
-        <f>SUM(G18:J18)</f>
+      <c r="Y18" s="12">
+        <f t="shared" si="1"/>
         <v>1121.7429999999999</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="12">
         <f>SUM(K18:N18)</f>
         <v>1136.741</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="12">
         <f>AA17*0.2</f>
         <v>929.13731231999998</v>
       </c>
-      <c r="AB18" s="3">
-        <f t="shared" ref="AB18:AO18" si="15">AB17*0.2</f>
+      <c r="AB18" s="12">
+        <f t="shared" ref="AB18:AO18" si="17">AB17*0.2</f>
         <v>979.26401828640019</v>
       </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AC18" s="12">
+        <f t="shared" si="17"/>
         <v>1030.0779312149277</v>
       </c>
-      <c r="AD18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AD18" s="12">
+        <f t="shared" si="17"/>
         <v>1081.5959485163987</v>
       </c>
-      <c r="AE18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AE18" s="12">
+        <f t="shared" si="17"/>
         <v>1133.8352740171265</v>
       </c>
-      <c r="AF18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AF18" s="12">
+        <f t="shared" si="17"/>
         <v>1186.8134244025657</v>
       </c>
-      <c r="AG18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AG18" s="12">
+        <f t="shared" si="17"/>
         <v>1240.5482357866622</v>
       </c>
-      <c r="AH18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AH18" s="12">
+        <f t="shared" si="17"/>
         <v>1295.0578704094801</v>
       </c>
-      <c r="AI18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AI18" s="12">
+        <f t="shared" si="17"/>
         <v>1350.360823465684</v>
       </c>
-      <c r="AJ18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AJ18" s="12">
+        <f t="shared" si="17"/>
         <v>1406.4759300665319</v>
       </c>
-      <c r="AK18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AK18" s="12">
+        <f t="shared" si="17"/>
         <v>1463.422372338081</v>
       </c>
-      <c r="AL18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AL18" s="12">
+        <f t="shared" si="17"/>
         <v>1521.219686658359</v>
       </c>
-      <c r="AM18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AM18" s="12">
+        <f t="shared" si="17"/>
         <v>1579.8877710363074</v>
       </c>
-      <c r="AN18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AN18" s="12">
+        <f t="shared" si="17"/>
         <v>1639.4468926353672</v>
       </c>
-      <c r="AO18" s="3">
-        <f t="shared" si="15"/>
+      <c r="AO18" s="12">
+        <f t="shared" si="17"/>
         <v>1699.9176954446252</v>
       </c>
     </row>
-    <row r="19" spans="2:196" s="5" customFormat="1">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:196" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="15">
         <f>(C17-C18)-58.955-8.259</f>
         <v>698.81700000000035</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="15">
         <f>(D17-D18)-78.363-6.933</f>
         <v>1101.8020000000001</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="15">
         <f>(E17-E18)-53.177-10.628</f>
         <v>810.24800000000027</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="15">
         <f>3281.878-C19-D19-E19</f>
         <v>671.01099999999929</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="15">
         <f>(G17-G18)-49.098-10.702</f>
         <v>751.84600000000023</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="15">
         <f>(H17-H18)-42.849-8.182</f>
         <v>671.30000000000064</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="15">
         <f>(I17-I18)-51.523-12.954</f>
         <v>817.33600000000013</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="15">
         <f>2941.498-G19-H19-I19</f>
         <v>701.01599999999928</v>
       </c>
@@ -3087,1505 +3164,1788 @@
         <f>3053.581-K19-L19-M19</f>
         <v>737.71800000000235</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="15">
         <f>(O17-O18)-39.576-10.206</f>
         <v>818.89800000000002</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="15">
         <f>(P17-P18)-63.379-9.959</f>
         <v>1326.5200000000002</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="15">
         <f>(Q17-Q18)-42.574-10.462</f>
         <v>897.26499999999953</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="15">
         <f>(U17-U18)-257.636-22.167</f>
         <v>1780.6619999999984</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="15">
         <f>(V17-V18)-243.575-31.988</f>
         <v>2277.6770000000006</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="15">
         <f>(W17-W18)-237.52-33.903</f>
         <v>2553.510000000002</v>
       </c>
-      <c r="X19" s="5">
-        <f>SUM(C19:F19)</f>
+      <c r="X19" s="15">
+        <f t="shared" si="0"/>
         <v>3281.8780000000006</v>
       </c>
-      <c r="Y19" s="5">
-        <f>SUM(G19:J19)</f>
+      <c r="Y19" s="15">
+        <f t="shared" si="1"/>
         <v>2941.498</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="Z19" s="15">
         <f>SUM(K19:N19)</f>
         <v>3053.581000000001</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="15">
         <f>AA17-AA18</f>
         <v>3716.5492492799995</v>
       </c>
-      <c r="AB19" s="5">
-        <f t="shared" ref="AB19:AO19" si="16">AB17-AB18</f>
+      <c r="AB19" s="15">
+        <f t="shared" ref="AB19:AO19" si="18">AB17-AB18</f>
         <v>3917.0560731456003</v>
       </c>
-      <c r="AC19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AC19" s="15">
+        <f t="shared" si="18"/>
         <v>4120.3117248597109</v>
       </c>
-      <c r="AD19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AD19" s="15">
+        <f t="shared" si="18"/>
         <v>4326.3837940655949</v>
       </c>
-      <c r="AE19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AE19" s="15">
+        <f t="shared" si="18"/>
         <v>4535.341096068506</v>
       </c>
-      <c r="AF19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AF19" s="15">
+        <f t="shared" si="18"/>
         <v>4747.2536976102629</v>
       </c>
-      <c r="AG19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AG19" s="15">
+        <f t="shared" si="18"/>
         <v>4962.1929431466478</v>
       </c>
-      <c r="AH19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AH19" s="15">
+        <f t="shared" si="18"/>
         <v>5180.2314816379203</v>
       </c>
-      <c r="AI19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AI19" s="15">
+        <f t="shared" si="18"/>
         <v>5401.4432938627351</v>
       </c>
-      <c r="AJ19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AJ19" s="15">
+        <f t="shared" si="18"/>
         <v>5625.9037202661266</v>
       </c>
-      <c r="AK19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AK19" s="15">
+        <f t="shared" si="18"/>
         <v>5853.6894893523231</v>
       </c>
-      <c r="AL19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AL19" s="15">
+        <f t="shared" si="18"/>
         <v>6084.8787466334352</v>
       </c>
-      <c r="AM19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AM19" s="15">
+        <f t="shared" si="18"/>
         <v>6319.5510841452287</v>
       </c>
-      <c r="AN19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AN19" s="15">
+        <f t="shared" si="18"/>
         <v>6557.7875705414681</v>
       </c>
-      <c r="AO19" s="5">
-        <f t="shared" si="16"/>
+      <c r="AO19" s="15">
+        <f t="shared" si="18"/>
         <v>6799.6707817785009</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="AP19" s="15">
         <f>AO19*(1+$AR$24)</f>
         <v>6595.6806583251455</v>
       </c>
-      <c r="AQ19" s="5">
-        <f t="shared" ref="AQ19:DB19" si="17">AP19*(1+$AR$24)</f>
+      <c r="AQ19" s="15">
+        <f t="shared" ref="AQ19:DB19" si="19">AP19*(1+$AR$24)</f>
         <v>6397.8102385753909</v>
       </c>
-      <c r="AR19" s="5">
-        <f t="shared" si="17"/>
+      <c r="AR19" s="15">
+        <f t="shared" si="19"/>
         <v>6205.8759314181289</v>
       </c>
-      <c r="AS19" s="5">
-        <f t="shared" si="17"/>
+      <c r="AS19" s="15">
+        <f t="shared" si="19"/>
         <v>6019.6996534755845</v>
       </c>
-      <c r="AT19" s="5">
-        <f t="shared" si="17"/>
+      <c r="AT19" s="15">
+        <f t="shared" si="19"/>
         <v>5839.1086638713168</v>
       </c>
-      <c r="AU19" s="5">
-        <f t="shared" si="17"/>
+      <c r="AU19" s="15">
+        <f t="shared" si="19"/>
         <v>5663.9354039551772</v>
       </c>
-      <c r="AV19" s="5">
-        <f t="shared" si="17"/>
+      <c r="AV19" s="15">
+        <f t="shared" si="19"/>
         <v>5494.0173418365221</v>
       </c>
-      <c r="AW19" s="5">
-        <f t="shared" si="17"/>
+      <c r="AW19" s="15">
+        <f t="shared" si="19"/>
         <v>5329.1968215814259</v>
       </c>
-      <c r="AX19" s="5">
-        <f t="shared" si="17"/>
+      <c r="AX19" s="15">
+        <f t="shared" si="19"/>
         <v>5169.3209169339825</v>
       </c>
-      <c r="AY19" s="5">
-        <f t="shared" si="17"/>
+      <c r="AY19" s="15">
+        <f t="shared" si="19"/>
         <v>5014.2412894259633</v>
       </c>
-      <c r="AZ19" s="5">
-        <f t="shared" si="17"/>
+      <c r="AZ19" s="15">
+        <f t="shared" si="19"/>
         <v>4863.8140507431845</v>
       </c>
-      <c r="BA19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BA19" s="15">
+        <f t="shared" si="19"/>
         <v>4717.8996292208885</v>
       </c>
-      <c r="BB19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BB19" s="15">
+        <f t="shared" si="19"/>
         <v>4576.3626403442613</v>
       </c>
-      <c r="BC19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BC19" s="15">
+        <f t="shared" si="19"/>
         <v>4439.0717611339333</v>
       </c>
-      <c r="BD19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BD19" s="15">
+        <f t="shared" si="19"/>
         <v>4305.8996082999147</v>
       </c>
-      <c r="BE19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BE19" s="15">
+        <f t="shared" si="19"/>
         <v>4176.7226200509167</v>
       </c>
-      <c r="BF19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BF19" s="15">
+        <f t="shared" si="19"/>
         <v>4051.4209414493889</v>
       </c>
-      <c r="BG19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BG19" s="15">
+        <f t="shared" si="19"/>
         <v>3929.878313205907</v>
       </c>
-      <c r="BH19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BH19" s="15">
+        <f t="shared" si="19"/>
         <v>3811.9819638097297</v>
       </c>
-      <c r="BI19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BI19" s="15">
+        <f t="shared" si="19"/>
         <v>3697.6225048954375</v>
       </c>
-      <c r="BJ19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BJ19" s="15">
+        <f t="shared" si="19"/>
         <v>3586.6938297485744</v>
       </c>
-      <c r="BK19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BK19" s="15">
+        <f t="shared" si="19"/>
         <v>3479.093014856117</v>
       </c>
-      <c r="BL19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BL19" s="15">
+        <f t="shared" si="19"/>
         <v>3374.7202244104333</v>
       </c>
-      <c r="BM19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BM19" s="15">
+        <f t="shared" si="19"/>
         <v>3273.4786176781204</v>
       </c>
-      <c r="BN19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BN19" s="15">
+        <f t="shared" si="19"/>
         <v>3175.2742591477768</v>
       </c>
-      <c r="BO19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BO19" s="15">
+        <f t="shared" si="19"/>
         <v>3080.0160313733436</v>
       </c>
-      <c r="BP19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BP19" s="15">
+        <f t="shared" si="19"/>
         <v>2987.6155504321432</v>
       </c>
-      <c r="BQ19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BQ19" s="15">
+        <f t="shared" si="19"/>
         <v>2897.987083919179</v>
       </c>
-      <c r="BR19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BR19" s="15">
+        <f t="shared" si="19"/>
         <v>2811.0474714016036</v>
       </c>
-      <c r="BS19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BS19" s="15">
+        <f t="shared" si="19"/>
         <v>2726.7160472595556</v>
       </c>
-      <c r="BT19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BT19" s="15">
+        <f t="shared" si="19"/>
         <v>2644.9145658417688</v>
       </c>
-      <c r="BU19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BU19" s="15">
+        <f t="shared" si="19"/>
         <v>2565.5671288665158</v>
       </c>
-      <c r="BV19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BV19" s="15">
+        <f t="shared" si="19"/>
         <v>2488.6001150005204</v>
       </c>
-      <c r="BW19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BW19" s="15">
+        <f t="shared" si="19"/>
         <v>2413.9421115505047</v>
       </c>
-      <c r="BX19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BX19" s="15">
+        <f t="shared" si="19"/>
         <v>2341.5238482039895</v>
       </c>
-      <c r="BY19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BY19" s="15">
+        <f t="shared" si="19"/>
         <v>2271.2781327578696</v>
       </c>
-      <c r="BZ19" s="5">
-        <f t="shared" si="17"/>
+      <c r="BZ19" s="15">
+        <f t="shared" si="19"/>
         <v>2203.1397887751336</v>
       </c>
-      <c r="CA19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CA19" s="15">
+        <f t="shared" si="19"/>
         <v>2137.0455951118797</v>
       </c>
-      <c r="CB19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CB19" s="15">
+        <f t="shared" si="19"/>
         <v>2072.9342272585232</v>
       </c>
-      <c r="CC19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CC19" s="15">
+        <f t="shared" si="19"/>
         <v>2010.7462004407673</v>
       </c>
-      <c r="CD19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CD19" s="15">
+        <f t="shared" si="19"/>
         <v>1950.4238144275444</v>
       </c>
-      <c r="CE19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CE19" s="15">
+        <f t="shared" si="19"/>
         <v>1891.9110999947179</v>
       </c>
-      <c r="CF19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CF19" s="15">
+        <f t="shared" si="19"/>
         <v>1835.1537669948764</v>
       </c>
-      <c r="CG19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CG19" s="15">
+        <f t="shared" si="19"/>
         <v>1780.0991539850299</v>
       </c>
-      <c r="CH19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CH19" s="15">
+        <f t="shared" si="19"/>
         <v>1726.6961793654791</v>
       </c>
-      <c r="CI19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CI19" s="15">
+        <f t="shared" si="19"/>
         <v>1674.8952939845146</v>
       </c>
-      <c r="CJ19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CJ19" s="15">
+        <f t="shared" si="19"/>
         <v>1624.6484351649792</v>
       </c>
-      <c r="CK19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CK19" s="15">
+        <f t="shared" si="19"/>
         <v>1575.9089821100299</v>
       </c>
-      <c r="CL19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CL19" s="15">
+        <f t="shared" si="19"/>
         <v>1528.6317126467291</v>
       </c>
-      <c r="CM19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CM19" s="15">
+        <f t="shared" si="19"/>
         <v>1482.772761267327</v>
       </c>
-      <c r="CN19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CN19" s="15">
+        <f t="shared" si="19"/>
         <v>1438.2895784293071</v>
       </c>
-      <c r="CO19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CO19" s="15">
+        <f t="shared" si="19"/>
         <v>1395.1408910764278</v>
       </c>
-      <c r="CP19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CP19" s="15">
+        <f t="shared" si="19"/>
         <v>1353.286664344135</v>
       </c>
-      <c r="CQ19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CQ19" s="15">
+        <f t="shared" si="19"/>
         <v>1312.6880644138109</v>
       </c>
-      <c r="CR19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CR19" s="15">
+        <f t="shared" si="19"/>
         <v>1273.3074224813965</v>
       </c>
-      <c r="CS19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CS19" s="15">
+        <f t="shared" si="19"/>
         <v>1235.1081998069546</v>
       </c>
-      <c r="CT19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CT19" s="15">
+        <f t="shared" si="19"/>
         <v>1198.0549538127459</v>
       </c>
-      <c r="CU19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CU19" s="15">
+        <f t="shared" si="19"/>
         <v>1162.1133051983636</v>
       </c>
-      <c r="CV19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CV19" s="15">
+        <f t="shared" si="19"/>
         <v>1127.2499060424127</v>
       </c>
-      <c r="CW19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CW19" s="15">
+        <f t="shared" si="19"/>
         <v>1093.4324088611404</v>
       </c>
-      <c r="CX19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CX19" s="15">
+        <f t="shared" si="19"/>
         <v>1060.6294365953061</v>
       </c>
-      <c r="CY19" s="5">
+      <c r="CY19" s="15">
         <f>CX19*(1+$AR$24)</f>
         <v>1028.8105534974468</v>
       </c>
-      <c r="CZ19" s="5">
-        <f t="shared" si="17"/>
+      <c r="CZ19" s="15">
+        <f t="shared" si="19"/>
         <v>997.9462368925233</v>
       </c>
-      <c r="DA19" s="5">
-        <f t="shared" si="17"/>
+      <c r="DA19" s="15">
+        <f t="shared" si="19"/>
         <v>968.00784978574757</v>
       </c>
-      <c r="DB19" s="5">
-        <f t="shared" si="17"/>
+      <c r="DB19" s="15">
+        <f t="shared" si="19"/>
         <v>938.96761429217509</v>
       </c>
-      <c r="DC19" s="5">
-        <f t="shared" ref="DC19:FN19" si="18">DB19*(1+$AR$24)</f>
+      <c r="DC19" s="15">
+        <f t="shared" ref="DC19:FN19" si="20">DB19*(1+$AR$24)</f>
         <v>910.79858586340981</v>
       </c>
-      <c r="DD19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DD19" s="15">
+        <f t="shared" si="20"/>
         <v>883.47462828750747</v>
       </c>
-      <c r="DE19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DE19" s="15">
+        <f t="shared" si="20"/>
         <v>856.97038943888219</v>
       </c>
-      <c r="DF19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DF19" s="15">
+        <f t="shared" si="20"/>
         <v>831.2612777557157</v>
       </c>
-      <c r="DG19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DG19" s="15">
+        <f t="shared" si="20"/>
         <v>806.32343942304419</v>
       </c>
-      <c r="DH19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DH19" s="15">
+        <f t="shared" si="20"/>
         <v>782.13373624035285</v>
       </c>
-      <c r="DI19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DI19" s="15">
+        <f t="shared" si="20"/>
         <v>758.66972415314228</v>
       </c>
-      <c r="DJ19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DJ19" s="15">
+        <f t="shared" si="20"/>
         <v>735.90963242854798</v>
       </c>
-      <c r="DK19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DK19" s="15">
+        <f t="shared" si="20"/>
         <v>713.83234345569156</v>
       </c>
-      <c r="DL19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DL19" s="15">
+        <f t="shared" si="20"/>
         <v>692.41737315202079</v>
       </c>
-      <c r="DM19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DM19" s="15">
+        <f t="shared" si="20"/>
         <v>671.64485195746011</v>
       </c>
-      <c r="DN19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DN19" s="15">
+        <f t="shared" si="20"/>
         <v>651.49550639873632</v>
       </c>
-      <c r="DO19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DO19" s="15">
+        <f t="shared" si="20"/>
         <v>631.95064120677421</v>
       </c>
-      <c r="DP19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DP19" s="15">
+        <f t="shared" si="20"/>
         <v>612.99212197057102</v>
       </c>
-      <c r="DQ19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DQ19" s="15">
+        <f t="shared" si="20"/>
         <v>594.60235831145383</v>
       </c>
-      <c r="DR19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DR19" s="15">
+        <f t="shared" si="20"/>
         <v>576.76428756211021</v>
       </c>
-      <c r="DS19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DS19" s="15">
+        <f t="shared" si="20"/>
         <v>559.46135893524684</v>
       </c>
-      <c r="DT19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DT19" s="15">
+        <f t="shared" si="20"/>
         <v>542.67751816718942</v>
       </c>
-      <c r="DU19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DU19" s="15">
+        <f t="shared" si="20"/>
         <v>526.39719262217375</v>
       </c>
-      <c r="DV19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DV19" s="15">
+        <f t="shared" si="20"/>
         <v>510.60527684350853</v>
       </c>
-      <c r="DW19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DW19" s="15">
+        <f t="shared" si="20"/>
         <v>495.28711853820329</v>
       </c>
-      <c r="DX19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DX19" s="15">
+        <f t="shared" si="20"/>
         <v>480.42850498205718</v>
       </c>
-      <c r="DY19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DY19" s="15">
+        <f t="shared" si="20"/>
         <v>466.01564983259544</v>
       </c>
-      <c r="DZ19" s="5">
-        <f t="shared" si="18"/>
+      <c r="DZ19" s="15">
+        <f t="shared" si="20"/>
         <v>452.03518033761759</v>
       </c>
-      <c r="EA19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EA19" s="15">
+        <f t="shared" si="20"/>
         <v>438.47412492748907</v>
       </c>
-      <c r="EB19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EB19" s="15">
+        <f t="shared" si="20"/>
         <v>425.31990117966438</v>
       </c>
-      <c r="EC19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EC19" s="15">
+        <f t="shared" si="20"/>
         <v>412.56030414427443</v>
       </c>
-      <c r="ED19" s="5">
-        <f t="shared" si="18"/>
+      <c r="ED19" s="15">
+        <f t="shared" si="20"/>
         <v>400.18349501994618</v>
       </c>
-      <c r="EE19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EE19" s="15">
+        <f t="shared" si="20"/>
         <v>388.17799016934777</v>
       </c>
-      <c r="EF19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EF19" s="15">
+        <f t="shared" si="20"/>
         <v>376.53265046426731</v>
       </c>
-      <c r="EG19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EG19" s="15">
+        <f t="shared" si="20"/>
         <v>365.23667095033926</v>
       </c>
-      <c r="EH19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EH19" s="15">
+        <f t="shared" si="20"/>
         <v>354.27957082182905</v>
       </c>
-      <c r="EI19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EI19" s="15">
+        <f t="shared" si="20"/>
         <v>343.65118369717419</v>
       </c>
-      <c r="EJ19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EJ19" s="15">
+        <f t="shared" si="20"/>
         <v>333.34164818625896</v>
       </c>
-      <c r="EK19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EK19" s="15">
+        <f t="shared" si="20"/>
         <v>323.3413987406712</v>
       </c>
-      <c r="EL19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EL19" s="15">
+        <f t="shared" si="20"/>
         <v>313.64115677845103</v>
       </c>
-      <c r="EM19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EM19" s="15">
+        <f t="shared" si="20"/>
         <v>304.23192207509749</v>
       </c>
-      <c r="EN19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EN19" s="15">
+        <f t="shared" si="20"/>
         <v>295.10496441284454</v>
       </c>
-      <c r="EO19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EO19" s="15">
+        <f t="shared" si="20"/>
         <v>286.25181548045919</v>
       </c>
-      <c r="EP19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EP19" s="15">
+        <f t="shared" si="20"/>
         <v>277.66426101604543</v>
       </c>
-      <c r="EQ19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EQ19" s="15">
+        <f t="shared" si="20"/>
         <v>269.33433318556405</v>
       </c>
-      <c r="ER19" s="5">
-        <f t="shared" si="18"/>
+      <c r="ER19" s="15">
+        <f t="shared" si="20"/>
         <v>261.25430318999713</v>
       </c>
-      <c r="ES19" s="5">
-        <f t="shared" si="18"/>
+      <c r="ES19" s="15">
+        <f t="shared" si="20"/>
         <v>253.41667409429721</v>
       </c>
-      <c r="ET19" s="5">
-        <f t="shared" si="18"/>
+      <c r="ET19" s="15">
+        <f t="shared" si="20"/>
         <v>245.81417387146828</v>
       </c>
-      <c r="EU19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EU19" s="15">
+        <f t="shared" si="20"/>
         <v>238.43974865532422</v>
       </c>
-      <c r="EV19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EV19" s="15">
+        <f t="shared" si="20"/>
         <v>231.2865561956645</v>
       </c>
-      <c r="EW19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EW19" s="15">
+        <f t="shared" si="20"/>
         <v>224.34795950979455</v>
       </c>
-      <c r="EX19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EX19" s="15">
+        <f t="shared" si="20"/>
         <v>217.61752072450071</v>
       </c>
-      <c r="EY19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EY19" s="15">
+        <f t="shared" si="20"/>
         <v>211.08899510276569</v>
       </c>
-      <c r="EZ19" s="5">
-        <f t="shared" si="18"/>
+      <c r="EZ19" s="15">
+        <f t="shared" si="20"/>
         <v>204.7563252496827</v>
       </c>
-      <c r="FA19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FA19" s="15">
+        <f t="shared" si="20"/>
         <v>198.61363549219223</v>
       </c>
-      <c r="FB19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FB19" s="15">
+        <f t="shared" si="20"/>
         <v>192.65522642742647</v>
       </c>
-      <c r="FC19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FC19" s="15">
+        <f t="shared" si="20"/>
         <v>186.87556963460366</v>
       </c>
-      <c r="FD19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FD19" s="15">
+        <f t="shared" si="20"/>
         <v>181.26930254556555</v>
       </c>
-      <c r="FE19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FE19" s="15">
+        <f t="shared" si="20"/>
         <v>175.83122346919859</v>
       </c>
-      <c r="FF19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FF19" s="15">
+        <f t="shared" si="20"/>
         <v>170.55628676512262</v>
       </c>
-      <c r="FG19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FG19" s="15">
+        <f t="shared" si="20"/>
         <v>165.43959816216895</v>
       </c>
-      <c r="FH19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FH19" s="15">
+        <f t="shared" si="20"/>
         <v>160.47641021730388</v>
       </c>
-      <c r="FI19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FI19" s="15">
+        <f t="shared" si="20"/>
         <v>155.66211791078476</v>
       </c>
-      <c r="FJ19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FJ19" s="15">
+        <f t="shared" si="20"/>
         <v>150.99225437346121</v>
       </c>
-      <c r="FK19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FK19" s="15">
+        <f t="shared" si="20"/>
         <v>146.46248674225737</v>
       </c>
-      <c r="FL19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FL19" s="15">
+        <f t="shared" si="20"/>
         <v>142.06861213998965</v>
       </c>
-      <c r="FM19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FM19" s="15">
+        <f t="shared" si="20"/>
         <v>137.80655377578995</v>
       </c>
-      <c r="FN19" s="5">
-        <f t="shared" si="18"/>
+      <c r="FN19" s="15">
+        <f t="shared" si="20"/>
         <v>133.67235716251625</v>
       </c>
-      <c r="FO19" s="5">
-        <f t="shared" ref="FO19:GN19" si="19">FN19*(1+$AR$24)</f>
+      <c r="FO19" s="15">
+        <f t="shared" ref="FO19:GN19" si="21">FN19*(1+$AR$24)</f>
         <v>129.66218644764075</v>
       </c>
-      <c r="FP19" s="5">
-        <f t="shared" si="19"/>
+      <c r="FP19" s="15">
+        <f t="shared" si="21"/>
         <v>125.77232085421153</v>
       </c>
-      <c r="FQ19" s="5">
-        <f t="shared" si="19"/>
+      <c r="FQ19" s="15">
+        <f t="shared" si="21"/>
         <v>121.99915122858518</v>
       </c>
-      <c r="FR19" s="5">
-        <f t="shared" si="19"/>
+      <c r="FR19" s="15">
+        <f t="shared" si="21"/>
         <v>118.33917669172762</v>
       </c>
-      <c r="FS19" s="5">
-        <f t="shared" si="19"/>
+      <c r="FS19" s="15">
+        <f t="shared" si="21"/>
         <v>114.78900139097578</v>
       </c>
-      <c r="FT19" s="5">
-        <f t="shared" si="19"/>
+      <c r="FT19" s="15">
+        <f t="shared" si="21"/>
         <v>111.34533134924651</v>
       </c>
-      <c r="FU19" s="5">
-        <f t="shared" si="19"/>
+      <c r="FU19" s="15">
+        <f t="shared" si="21"/>
         <v>108.00497140876911</v>
       </c>
-      <c r="FV19" s="5">
-        <f t="shared" si="19"/>
+      <c r="FV19" s="15">
+        <f t="shared" si="21"/>
         <v>104.76482226650603</v>
       </c>
-      <c r="FW19" s="5">
-        <f t="shared" si="19"/>
+      <c r="FW19" s="15">
+        <f t="shared" si="21"/>
         <v>101.62187759851085</v>
       </c>
-      <c r="FX19" s="5">
-        <f t="shared" si="19"/>
+      <c r="FX19" s="15">
+        <f t="shared" si="21"/>
         <v>98.573221270555521</v>
       </c>
-      <c r="FY19" s="5">
-        <f t="shared" si="19"/>
+      <c r="FY19" s="15">
+        <f t="shared" si="21"/>
         <v>95.616024632438851</v>
       </c>
-      <c r="FZ19" s="5">
-        <f t="shared" si="19"/>
+      <c r="FZ19" s="15">
+        <f t="shared" si="21"/>
         <v>92.747543893465689</v>
       </c>
-      <c r="GA19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GA19" s="15">
+        <f t="shared" si="21"/>
         <v>89.965117576661711</v>
       </c>
-      <c r="GB19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GB19" s="15">
+        <f t="shared" si="21"/>
         <v>87.266164049361862</v>
       </c>
-      <c r="GC19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GC19" s="15">
+        <f t="shared" si="21"/>
         <v>84.648179127881008</v>
       </c>
-      <c r="GD19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GD19" s="15">
+        <f t="shared" si="21"/>
         <v>82.108733754044579</v>
       </c>
-      <c r="GE19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GE19" s="15">
+        <f t="shared" si="21"/>
         <v>79.645471741423236</v>
       </c>
-      <c r="GF19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GF19" s="15">
+        <f t="shared" si="21"/>
         <v>77.25610758918053</v>
       </c>
-      <c r="GG19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GG19" s="15">
+        <f t="shared" si="21"/>
         <v>74.938424361505113</v>
       </c>
-      <c r="GH19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GH19" s="15">
+        <f t="shared" si="21"/>
         <v>72.690271630659964</v>
       </c>
-      <c r="GI19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GI19" s="15">
+        <f t="shared" si="21"/>
         <v>70.509563481740159</v>
       </c>
-      <c r="GJ19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GJ19" s="15">
+        <f t="shared" si="21"/>
         <v>68.394276577287954</v>
       </c>
-      <c r="GK19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GK19" s="15">
+        <f t="shared" si="21"/>
         <v>66.342448279969318</v>
       </c>
-      <c r="GL19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GL19" s="15">
+        <f t="shared" si="21"/>
         <v>64.352174831570238</v>
       </c>
-      <c r="GM19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GM19" s="15">
+        <f t="shared" si="21"/>
         <v>62.421609586623127</v>
       </c>
-      <c r="GN19" s="5">
-        <f t="shared" si="19"/>
+      <c r="GN19" s="15">
+        <f t="shared" si="21"/>
         <v>60.548961299024434</v>
       </c>
     </row>
-    <row r="20" spans="2:196" s="3" customFormat="1">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="6">
-        <f t="shared" ref="C20:Q20" si="20">(C19/C21)</f>
+      <c r="C20" s="17">
+        <f t="shared" ref="C20:Q20" si="22">(C19/C21)</f>
         <v>1.0924832449617501</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="20"/>
+      <c r="D20" s="17">
+        <f t="shared" si="22"/>
         <v>1.696331796305248</v>
       </c>
-      <c r="E20" s="6">
-        <f t="shared" si="20"/>
+      <c r="E20" s="17">
+        <f t="shared" si="22"/>
         <v>1.2453361622932306</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="20"/>
+      <c r="F20" s="17">
+        <f t="shared" si="22"/>
         <v>1.0394617275188067</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="20"/>
+      <c r="G20" s="17">
+        <f t="shared" si="22"/>
         <v>1.1808563856057768</v>
       </c>
-      <c r="H20" s="6">
-        <f t="shared" si="20"/>
+      <c r="H20" s="17">
+        <f t="shared" si="22"/>
         <v>1.0556204064875765</v>
       </c>
-      <c r="I20" s="6">
-        <f t="shared" si="20"/>
+      <c r="I20" s="17">
+        <f t="shared" si="22"/>
         <v>1.2909482153286449</v>
       </c>
-      <c r="J20" s="6">
-        <f t="shared" si="20"/>
+      <c r="J20" s="17">
+        <f t="shared" si="22"/>
         <v>1.1053264560786631</v>
       </c>
-      <c r="K20" s="17">
-        <f t="shared" si="20"/>
+      <c r="K20" s="18">
+        <f t="shared" si="22"/>
         <v>1.3231669446829448</v>
       </c>
-      <c r="L20" s="17">
-        <f t="shared" si="20"/>
+      <c r="L20" s="18">
+        <f t="shared" si="22"/>
         <v>1.099292906430654</v>
       </c>
-      <c r="M20" s="17">
-        <f t="shared" si="20"/>
+      <c r="M20" s="18">
+        <f t="shared" si="22"/>
         <v>1.2679485246034798</v>
       </c>
-      <c r="N20" s="17">
-        <f t="shared" si="20"/>
+      <c r="N20" s="18">
+        <f t="shared" si="22"/>
         <v>1.1769599350054492</v>
       </c>
-      <c r="O20" s="6">
-        <f t="shared" si="20"/>
+      <c r="O20" s="17">
+        <f t="shared" si="22"/>
         <v>1.3071787880347576</v>
       </c>
-      <c r="P20" s="6">
-        <f t="shared" si="20"/>
+      <c r="P20" s="17">
+        <f t="shared" si="22"/>
         <v>2.1172699501932568</v>
       </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="20"/>
+      <c r="Q20" s="17">
+        <f t="shared" si="22"/>
         <v>1.4385565539265956</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="17">
         <f>(U19/U21)</f>
         <v>2.7946409059654824</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="17">
         <f>(V19/V21)</f>
         <v>3.5278299837970968</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="17">
         <f>(W19/W21)</f>
         <v>3.970425377332103</v>
       </c>
-      <c r="X20" s="6">
-        <f t="shared" ref="X20:Y20" si="21">(X19/X21)</f>
+      <c r="X20" s="17">
+        <f t="shared" ref="X20:Y20" si="23">(X19/X21)</f>
         <v>5.0839503009428615</v>
       </c>
-      <c r="Y20" s="6">
-        <f t="shared" si="21"/>
+      <c r="Y20" s="17">
+        <f t="shared" si="23"/>
         <v>4.6380047814921177</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="17">
         <f>(Z19/Z21)</f>
         <v>4.8717023243215749</v>
       </c>
     </row>
-    <row r="21" spans="2:196" s="3" customFormat="1">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="12">
         <v>639.65923799999996</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="12">
         <v>649.52033700000004</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="12">
         <v>650.62593100000004</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="12">
         <v>645.53699500000005</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="12">
         <v>636.69554500000004</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="12">
         <v>635.929351</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="12">
         <v>633.12841700000001</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="12">
         <v>634.21624999999995</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>628.43921799999998</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="14">
         <v>628.25475900000004</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="14">
         <v>625.96941800000002</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="14">
         <v>626.79958599999998</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="12">
         <v>626.46212400000002</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="12">
         <v>626.52379299999996</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="12">
         <v>623.72591299999999</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="12">
         <v>637.17023400000005</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="12">
         <v>645.63117</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="12">
         <v>643.13260100000002</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="12">
         <v>645.53699500000005</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="12">
         <v>634.21624999999995</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="12">
         <v>626.79958599999998</v>
       </c>
     </row>
-    <row r="22" spans="2:196" s="3" customFormat="1"/>
-    <row r="23" spans="2:196" s="7" customFormat="1">
-      <c r="B23" s="7" t="s">
+    <row r="22" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:196" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="7">
-        <f t="shared" ref="G23:Q23" si="22">G5/C5-1</f>
+      <c r="G23" s="19">
+        <f t="shared" ref="G23:Q23" si="24">G5/C5-1</f>
         <v>1.7169976771105322E-2</v>
       </c>
-      <c r="H23" s="7">
-        <f t="shared" si="22"/>
+      <c r="H23" s="19">
+        <f t="shared" si="24"/>
         <v>9.8972151195997338E-3</v>
       </c>
-      <c r="I23" s="7">
-        <f t="shared" si="22"/>
+      <c r="I23" s="19">
+        <f t="shared" si="24"/>
         <v>6.9051568286447651E-2</v>
       </c>
-      <c r="J23" s="7">
-        <f t="shared" si="22"/>
+      <c r="J23" s="19">
+        <f t="shared" si="24"/>
         <v>9.8647919187709432E-2</v>
       </c>
-      <c r="K23" s="7">
-        <f t="shared" si="22"/>
+      <c r="K23" s="19">
+        <f t="shared" si="24"/>
         <v>6.9690023816312729E-2</v>
       </c>
-      <c r="L23" s="7">
-        <f t="shared" si="22"/>
+      <c r="L23" s="19">
+        <f t="shared" si="24"/>
         <v>4.8114676967229375E-2</v>
       </c>
-      <c r="M23" s="7">
-        <f t="shared" si="22"/>
+      <c r="M23" s="19">
+        <f t="shared" si="24"/>
         <v>4.2336453815328134E-3</v>
       </c>
-      <c r="N23" s="7">
-        <f t="shared" si="22"/>
+      <c r="N23" s="19">
+        <f t="shared" si="24"/>
         <v>1.1756169079722101E-2</v>
       </c>
-      <c r="O23" s="7">
-        <f t="shared" si="22"/>
+      <c r="O23" s="19">
+        <f t="shared" si="24"/>
         <v>1.470960321610626E-2</v>
       </c>
-      <c r="P23" s="7">
-        <f t="shared" si="22"/>
+      <c r="P23" s="19">
+        <f t="shared" si="24"/>
         <v>5.8684702562790125E-2</v>
       </c>
-      <c r="Q23" s="7">
-        <f t="shared" si="22"/>
+      <c r="Q23" s="19">
+        <f t="shared" si="24"/>
         <v>8.3863741993115415E-2</v>
       </c>
-      <c r="V23" s="7">
-        <f t="shared" ref="V23:AO23" si="23">V5/U5-1</f>
+      <c r="V23" s="19">
+        <f t="shared" ref="V23:AO23" si="25">V5/U5-1</f>
         <v>0.18441247145696837</v>
       </c>
-      <c r="W23" s="7">
-        <f t="shared" si="23"/>
+      <c r="W23" s="19">
+        <f t="shared" si="25"/>
         <v>8.8658597764026181E-2</v>
       </c>
-      <c r="X23" s="7">
-        <f t="shared" si="23"/>
+      <c r="X23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0696497765043675E-2</v>
       </c>
-      <c r="Y23" s="7">
-        <f t="shared" si="23"/>
+      <c r="Y23" s="19">
+        <f t="shared" si="25"/>
         <v>4.870629462084719E-2</v>
       </c>
-      <c r="Z23" s="7">
-        <f t="shared" si="23"/>
+      <c r="Z23" s="19">
+        <f t="shared" si="25"/>
         <v>3.2619811877001581E-2</v>
       </c>
-      <c r="AA23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AA23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AB23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AB23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AC23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AC23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AD23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AD23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AE23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AE23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AF23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AF23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AG23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AG23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AH23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AH23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AI23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AI23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AJ23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AJ23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AK23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AK23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AL23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AL23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AM23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AM23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AN23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AN23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AO23" s="7">
-        <f t="shared" si="23"/>
+      <c r="AO23" s="19">
+        <f t="shared" si="25"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AQ23" s="24" t="s">
+      <c r="AQ23" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AR23" s="24">
+      <c r="AR23" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:196" s="3" customFormat="1">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="21">
         <f>G19/C19-1</f>
         <v>7.5883958175029909E-2</v>
       </c>
-      <c r="H24" s="20">
-        <f t="shared" ref="H24:Q24" si="24">H19/D19-1</f>
+      <c r="H24" s="21">
+        <f t="shared" ref="H24:Q24" si="26">H19/D19-1</f>
         <v>-0.39072537533967033</v>
       </c>
-      <c r="I24" s="20">
-        <f t="shared" si="24"/>
+      <c r="I24" s="21">
+        <f t="shared" si="26"/>
         <v>8.7479389026567933E-3</v>
       </c>
-      <c r="J24" s="20">
-        <f t="shared" si="24"/>
+      <c r="J24" s="21">
+        <f t="shared" si="26"/>
         <v>4.4716107485570422E-2</v>
       </c>
-      <c r="K24" s="20">
-        <f t="shared" si="24"/>
+      <c r="K24" s="21">
+        <f t="shared" si="26"/>
         <v>0.10598447022395385</v>
       </c>
-      <c r="L24" s="20">
-        <f t="shared" si="24"/>
+      <c r="L24" s="21">
+        <f t="shared" si="26"/>
         <v>2.8803813496200537E-2</v>
       </c>
-      <c r="M24" s="20">
-        <f t="shared" si="24"/>
+      <c r="M24" s="21">
+        <f t="shared" si="26"/>
         <v>-2.892201004238304E-2</v>
       </c>
-      <c r="N24" s="20">
-        <f t="shared" si="24"/>
+      <c r="N24" s="21">
+        <f t="shared" si="26"/>
         <v>5.2355438392280851E-2</v>
       </c>
-      <c r="O24" s="20">
-        <f t="shared" si="24"/>
+      <c r="O24" s="21">
+        <f t="shared" si="26"/>
         <v>-1.5191273916754677E-2</v>
       </c>
-      <c r="P24" s="20">
-        <f t="shared" si="24"/>
+      <c r="P24" s="21">
+        <f t="shared" si="26"/>
         <v>0.92072234867571345</v>
       </c>
-      <c r="Q24" s="20">
-        <f t="shared" si="24"/>
+      <c r="Q24" s="21">
+        <f t="shared" si="26"/>
         <v>0.13048808298380954</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="20">
         <f>V19/U19-1</f>
         <v>0.2791181032672132</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="20">
         <f>W19/V19-1</f>
         <v>0.12110277269340708</v>
       </c>
-      <c r="X24" s="18">
-        <f t="shared" ref="X24:AO24" si="25">X19/W19-1</f>
+      <c r="X24" s="20">
+        <f t="shared" ref="X24:AO24" si="27">X19/W19-1</f>
         <v>0.28524188274179374</v>
       </c>
-      <c r="Y24" s="18">
-        <f t="shared" si="25"/>
+      <c r="Y24" s="20">
+        <f t="shared" si="27"/>
         <v>-0.10371500707826453</v>
       </c>
-      <c r="Z24" s="18">
-        <f t="shared" si="25"/>
+      <c r="Z24" s="20">
+        <f t="shared" si="27"/>
         <v>3.8104054464766168E-2</v>
       </c>
-      <c r="AA24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AA24" s="20">
+        <f t="shared" si="27"/>
         <v>0.21711172858358707</v>
       </c>
-      <c r="AB24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AB24" s="20">
+        <f t="shared" si="27"/>
         <v>5.3949728744868475E-2</v>
       </c>
-      <c r="AC24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AC24" s="20">
+        <f t="shared" si="27"/>
         <v>5.1889900966080926E-2</v>
       </c>
-      <c r="AD24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AD24" s="20">
+        <f t="shared" si="27"/>
         <v>5.0013708419816227E-2</v>
       </c>
-      <c r="AE24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AE24" s="20">
+        <f t="shared" si="27"/>
         <v>4.8298373872778688E-2</v>
       </c>
-      <c r="AF24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AF24" s="20">
+        <f t="shared" si="27"/>
         <v>4.6724732947970526E-2</v>
       </c>
-      <c r="AG24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AG24" s="20">
+        <f t="shared" si="27"/>
         <v>4.5276544972640442E-2</v>
       </c>
-      <c r="AH24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AH24" s="20">
+        <f t="shared" si="27"/>
         <v>4.3939955779512374E-2</v>
       </c>
-      <c r="AI24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AI24" s="20">
+        <f t="shared" si="27"/>
         <v>4.2703074758132287E-2</v>
       </c>
-      <c r="AJ24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AJ24" s="20">
+        <f t="shared" si="27"/>
         <v>4.1555638778699944E-2</v>
       </c>
-      <c r="AK24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AK24" s="20">
+        <f t="shared" si="27"/>
         <v>4.0488742860217641E-2</v>
       </c>
-      <c r="AL24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AL24" s="20">
+        <f t="shared" si="27"/>
         <v>3.9494622613932329E-2</v>
       </c>
-      <c r="AM24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AM24" s="20">
+        <f t="shared" si="27"/>
         <v>3.8566477210680628E-2</v>
       </c>
-      <c r="AN24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AN24" s="20">
+        <f t="shared" si="27"/>
         <v>3.7698324330969868E-2</v>
       </c>
-      <c r="AO24" s="18">
-        <f t="shared" si="25"/>
+      <c r="AO24" s="20">
+        <f t="shared" si="27"/>
         <v>3.6884880553863519E-2</v>
       </c>
-      <c r="AQ24" s="3" t="s">
+      <c r="AQ24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AR24" s="18">
+      <c r="AR24" s="20">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="25" spans="2:196" s="3" customFormat="1">
-      <c r="AQ25" s="3" t="s">
+    <row r="25" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AR25" s="19">
+      <c r="AR25" s="22">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:196" s="18" customFormat="1">
-      <c r="B26" s="18" t="s">
+    <row r="26" spans="2:196" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="18">
-        <f t="shared" ref="C26:Q26" si="26">(C9/C5)</f>
+      <c r="C26" s="20">
+        <f t="shared" ref="C26:Q26" si="28">(C9/C5)</f>
         <v>0.30857875471633156</v>
       </c>
-      <c r="D26" s="18">
-        <f t="shared" si="26"/>
+      <c r="D26" s="20">
+        <f t="shared" si="28"/>
         <v>0.29764683744988873</v>
       </c>
-      <c r="E26" s="18">
-        <f t="shared" si="26"/>
+      <c r="E26" s="20">
+        <f t="shared" si="28"/>
         <v>0.31629989095652727</v>
       </c>
-      <c r="F26" s="18">
-        <f t="shared" si="26"/>
+      <c r="F26" s="20">
+        <f t="shared" si="28"/>
         <v>0.31223945161949657</v>
       </c>
-      <c r="G26" s="18">
-        <f t="shared" si="26"/>
+      <c r="G26" s="20">
+        <f t="shared" si="28"/>
         <v>0.31403108531409424</v>
       </c>
-      <c r="H26" s="18">
-        <f t="shared" si="26"/>
+      <c r="H26" s="20">
+        <f t="shared" si="28"/>
         <v>0.29470062899381483</v>
       </c>
-      <c r="I26" s="18">
-        <f t="shared" si="26"/>
+      <c r="I26" s="20">
+        <f t="shared" si="28"/>
         <v>0.30780359166911403</v>
       </c>
-      <c r="J26" s="18">
-        <f t="shared" si="26"/>
+      <c r="J26" s="20">
+        <f t="shared" si="28"/>
         <v>0.29859982419935643</v>
       </c>
-      <c r="K26" s="18">
-        <f t="shared" si="26"/>
+      <c r="K26" s="20">
+        <f t="shared" si="28"/>
         <v>0.30435236502962804</v>
       </c>
-      <c r="L26" s="18">
-        <f t="shared" si="26"/>
+      <c r="L26" s="20">
+        <f t="shared" si="28"/>
         <v>0.28249556520193303</v>
       </c>
-      <c r="M26" s="18">
-        <f t="shared" si="26"/>
+      <c r="M26" s="20">
+        <f t="shared" si="28"/>
         <v>0.30512203769734275</v>
       </c>
-      <c r="N26" s="18">
-        <f t="shared" si="26"/>
+      <c r="N26" s="20">
+        <f t="shared" si="28"/>
         <v>0.29940841730018614</v>
       </c>
-      <c r="O26" s="18">
-        <f t="shared" si="26"/>
+      <c r="O26" s="20">
+        <f t="shared" si="28"/>
         <v>0.30268404744020866</v>
       </c>
-      <c r="P26" s="18">
-        <f t="shared" si="26"/>
+      <c r="P26" s="20">
+        <f t="shared" si="28"/>
         <v>0.28221996455184928</v>
       </c>
-      <c r="Q26" s="18">
-        <f t="shared" si="26"/>
+      <c r="Q26" s="20">
+        <f t="shared" si="28"/>
         <v>0.29987053246700535</v>
       </c>
-      <c r="V26" s="18">
-        <f t="shared" ref="V26:Z26" si="27">(V9/V5)</f>
+      <c r="V26" s="20">
+        <f t="shared" ref="V26:Z26" si="29">(V9/V5)</f>
         <v>0.30661153689146248</v>
       </c>
-      <c r="W26" s="18">
-        <f t="shared" si="27"/>
+      <c r="W26" s="20">
+        <f t="shared" si="29"/>
         <v>0.30182367947327532</v>
       </c>
-      <c r="X26" s="18">
-        <f t="shared" si="27"/>
+      <c r="X26" s="20">
+        <f t="shared" si="29"/>
         <v>0.30874800969984989</v>
       </c>
-      <c r="Y26" s="18">
-        <f t="shared" si="27"/>
+      <c r="Y26" s="20">
+        <f t="shared" si="29"/>
         <v>0.30382945358695074</v>
       </c>
-      <c r="Z26" s="18">
-        <f t="shared" si="27"/>
+      <c r="Z26" s="20">
+        <f t="shared" si="29"/>
         <v>0.29802250223184823</v>
       </c>
-      <c r="AA26" s="18">
-        <f t="shared" ref="AA26:AI26" si="28">(AA9/AA5)</f>
+      <c r="AA26" s="20">
+        <f t="shared" ref="AA26:AI26" si="30">(AA9/AA5)</f>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AB26" s="18">
-        <f t="shared" si="28"/>
+      <c r="AB26" s="20">
+        <f t="shared" si="30"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AC26" s="18">
-        <f t="shared" si="28"/>
+      <c r="AC26" s="20">
+        <f t="shared" si="30"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AD26" s="18">
-        <f t="shared" si="28"/>
+      <c r="AD26" s="20">
+        <f t="shared" si="30"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AE26" s="18">
-        <f t="shared" si="28"/>
+      <c r="AE26" s="20">
+        <f t="shared" si="30"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AF26" s="18">
-        <f t="shared" si="28"/>
+      <c r="AF26" s="20">
+        <f t="shared" si="30"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AG26" s="18">
-        <f t="shared" si="28"/>
+      <c r="AG26" s="20">
+        <f t="shared" si="30"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AH26" s="18">
-        <f t="shared" si="28"/>
+      <c r="AH26" s="20">
+        <f t="shared" si="30"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AI26" s="18">
-        <f t="shared" si="28"/>
+      <c r="AI26" s="20">
+        <f t="shared" si="30"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AJ26" s="18">
-        <f t="shared" ref="AJ26:AO26" si="29">(AJ9/AJ5)</f>
+      <c r="AJ26" s="20">
+        <f t="shared" ref="AJ26:AO26" si="31">(AJ9/AJ5)</f>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AK26" s="18">
-        <f t="shared" si="29"/>
+      <c r="AK26" s="20">
+        <f t="shared" si="31"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AL26" s="18">
-        <f t="shared" si="29"/>
+      <c r="AL26" s="20">
+        <f t="shared" si="31"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AM26" s="18">
-        <f t="shared" si="29"/>
+      <c r="AM26" s="20">
+        <f t="shared" si="31"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AN26" s="18">
-        <f t="shared" si="29"/>
+      <c r="AN26" s="20">
+        <f t="shared" si="31"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AO26" s="18">
-        <f t="shared" si="29"/>
+      <c r="AO26" s="20">
+        <f t="shared" si="31"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AQ26" s="7" t="s">
+      <c r="AQ26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AR26" s="21">
+      <c r="AR26" s="23">
         <f>NPV(AR25,X19:GN19)</f>
         <v>95675.17694796274</v>
       </c>
     </row>
-    <row r="27" spans="2:196" s="18" customFormat="1">
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="2:196" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="20">
         <f>(C18/C17)</f>
         <v>0.26797591107509527</v>
       </c>
-      <c r="D27" s="18">
-        <f t="shared" ref="D27:Q27" si="30">(D18/D17)</f>
+      <c r="D27" s="20">
+        <f t="shared" ref="D27:Q27" si="32">(D18/D17)</f>
         <v>-4.8664704503072328E-3</v>
       </c>
-      <c r="E27" s="18">
-        <f t="shared" si="30"/>
+      <c r="E27" s="20">
+        <f t="shared" si="32"/>
         <v>0.23768353574777046</v>
       </c>
-      <c r="F27" s="18">
-        <f t="shared" si="30"/>
+      <c r="F27" s="20">
+        <f t="shared" si="32"/>
         <v>0.24609228525437127</v>
       </c>
-      <c r="G27" s="18">
-        <f t="shared" si="30"/>
+      <c r="G27" s="20">
+        <f t="shared" si="32"/>
         <v>0.25095678479701944</v>
       </c>
-      <c r="H27" s="18">
-        <f t="shared" si="30"/>
+      <c r="H27" s="20">
+        <f t="shared" si="32"/>
         <v>0.23975401209100228</v>
       </c>
-      <c r="I27" s="18">
-        <f t="shared" si="30"/>
+      <c r="I27" s="20">
+        <f t="shared" si="32"/>
         <v>0.25011947908818322</v>
       </c>
-      <c r="J27" s="18">
-        <f t="shared" si="30"/>
+      <c r="J27" s="20">
+        <f t="shared" si="32"/>
         <v>0.30135342049780456</v>
       </c>
-      <c r="K27" s="18">
-        <f t="shared" si="30"/>
+      <c r="K27" s="20">
+        <f t="shared" si="32"/>
         <v>0.25148613527648089</v>
       </c>
-      <c r="L27" s="18">
-        <f t="shared" si="30"/>
+      <c r="L27" s="20">
+        <f t="shared" si="32"/>
         <v>0.26049936807746271</v>
       </c>
-      <c r="M27" s="18">
-        <f t="shared" si="30"/>
+      <c r="M27" s="20">
+        <f t="shared" si="32"/>
         <v>0.24897380157602192</v>
       </c>
-      <c r="N27" s="18">
-        <f t="shared" si="30"/>
+      <c r="N27" s="20">
+        <f t="shared" si="32"/>
         <v>0.26557564355485525</v>
       </c>
-      <c r="O27" s="18">
-        <f t="shared" si="30"/>
+      <c r="O27" s="20">
+        <f t="shared" si="32"/>
         <v>0.29281433323401407</v>
       </c>
-      <c r="P27" s="18">
-        <f t="shared" si="30"/>
+      <c r="P27" s="20">
+        <f t="shared" si="32"/>
         <v>0.13727049067171537</v>
       </c>
-      <c r="Q27" s="18">
-        <f t="shared" si="30"/>
+      <c r="Q27" s="20">
+        <f t="shared" si="32"/>
         <v>0.26545192862145045</v>
       </c>
-      <c r="V27" s="18">
-        <f t="shared" ref="V27:Z27" si="31">(V18/V17)</f>
+      <c r="V27" s="20">
+        <f t="shared" ref="V27:Z27" si="33">(V18/V17)</f>
         <v>0.27299999829158245</v>
       </c>
-      <c r="W27" s="18">
-        <f t="shared" si="31"/>
+      <c r="W27" s="20">
+        <f t="shared" si="33"/>
         <v>0.27643260776799383</v>
       </c>
-      <c r="X27" s="18">
-        <f t="shared" si="31"/>
+      <c r="X27" s="20">
+        <f t="shared" si="33"/>
         <v>0.18083298270095835</v>
       </c>
-      <c r="Y27" s="18">
-        <f t="shared" si="31"/>
+      <c r="Y27" s="20">
+        <f t="shared" si="33"/>
         <v>0.26101001442399085</v>
       </c>
-      <c r="Z27" s="18">
-        <f t="shared" si="31"/>
+      <c r="Z27" s="20">
+        <f t="shared" si="33"/>
         <v>0.25272761228042495</v>
       </c>
-      <c r="AA27" s="18">
-        <f t="shared" ref="AA27:AI27" si="32">(AA18/AA17)</f>
+      <c r="AA27" s="20">
+        <f t="shared" ref="AA27:AI27" si="34">(AA18/AA17)</f>
         <v>0.2</v>
       </c>
-      <c r="AB27" s="18">
-        <f t="shared" si="32"/>
+      <c r="AB27" s="20">
+        <f t="shared" si="34"/>
         <v>0.2</v>
       </c>
-      <c r="AC27" s="18">
-        <f t="shared" si="32"/>
+      <c r="AC27" s="20">
+        <f t="shared" si="34"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AD27" s="18">
-        <f t="shared" si="32"/>
+      <c r="AD27" s="20">
+        <f t="shared" si="34"/>
         <v>0.2</v>
       </c>
-      <c r="AE27" s="18">
-        <f t="shared" si="32"/>
+      <c r="AE27" s="20">
+        <f t="shared" si="34"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AF27" s="18">
-        <f t="shared" si="32"/>
+      <c r="AF27" s="20">
+        <f t="shared" si="34"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AG27" s="18">
-        <f t="shared" si="32"/>
+      <c r="AG27" s="20">
+        <f t="shared" si="34"/>
         <v>0.20000000000000004</v>
       </c>
-      <c r="AH27" s="18">
-        <f t="shared" si="32"/>
+      <c r="AH27" s="20">
+        <f t="shared" si="34"/>
         <v>0.2</v>
       </c>
-      <c r="AI27" s="18">
-        <f t="shared" si="32"/>
+      <c r="AI27" s="20">
+        <f t="shared" si="34"/>
         <v>0.20000000000000004</v>
       </c>
-      <c r="AJ27" s="18">
-        <f t="shared" ref="AJ27:AO27" si="33">(AJ18/AJ17)</f>
+      <c r="AJ27" s="20">
+        <f t="shared" ref="AJ27:AO27" si="35">(AJ18/AJ17)</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="AK27" s="18">
-        <f t="shared" si="33"/>
+      <c r="AK27" s="20">
+        <f t="shared" si="35"/>
         <v>0.2</v>
       </c>
-      <c r="AL27" s="18">
-        <f t="shared" si="33"/>
+      <c r="AL27" s="20">
+        <f t="shared" si="35"/>
         <v>0.2</v>
       </c>
-      <c r="AM27" s="18">
-        <f t="shared" si="33"/>
+      <c r="AM27" s="20">
+        <f t="shared" si="35"/>
         <v>0.2</v>
       </c>
-      <c r="AN27" s="18">
-        <f t="shared" si="33"/>
+      <c r="AN27" s="20">
+        <f t="shared" si="35"/>
         <v>0.2</v>
       </c>
-      <c r="AO27" s="18">
-        <f t="shared" si="33"/>
+      <c r="AO27" s="20">
+        <f t="shared" si="35"/>
         <v>0.2</v>
       </c>
-      <c r="AQ27" s="18" t="s">
+      <c r="AQ27" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AR27" s="3">
+      <c r="AR27" s="12">
         <f>Main!K5-Main!K6</f>
         <v>3604.3010000000004</v>
       </c>
     </row>
-    <row r="28" spans="2:196" s="3" customFormat="1">
-      <c r="Z28" s="18"/>
-      <c r="AQ28" s="5" t="s">
+    <row r="28" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z28" s="20"/>
+      <c r="AQ28" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AR28" s="5">
+      <c r="AR28" s="15">
         <f>AR26+AR27</f>
         <v>99279.477947962747</v>
       </c>
     </row>
-    <row r="29" spans="2:196" s="3" customFormat="1"/>
-    <row r="30" spans="2:196">
-      <c r="AQ30" s="5" t="s">
+    <row r="29" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="12">
+        <f>3497.878+2.869+132.427</f>
+        <v>3633.1740000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="12">
+        <f>4303.642+2136.836+51.179</f>
+        <v>6491.6569999999992</v>
+      </c>
+      <c r="AQ30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AR30" s="22">
+      <c r="AR30" s="15">
         <f>AR28/Main!K3</f>
         <v>153.98613054761333</v>
       </c>
     </row>
-    <row r="31" spans="2:196">
-      <c r="AQ31" s="5" t="s">
+    <row r="31" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="12">
+        <f>891.39+1229.695</f>
+        <v>2121.085</v>
+      </c>
+      <c r="AQ31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AR31" s="23">
+      <c r="AR31" s="15">
         <f>Main!K2</f>
         <v>110.53</v>
       </c>
     </row>
-    <row r="32" spans="2:196">
-      <c r="AR32" s="18">
+    <row r="32" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>725.46600000000001</v>
+      </c>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+    </row>
+    <row r="33" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>743.39599999999996</v>
+      </c>
+      <c r="AR33" s="12">
         <f>AR30/AR31-1</f>
         <v>0.39316140909810304</v>
       </c>
     </row>
-    <row r="35" spans="44:44">
-      <c r="AR35" s="25"/>
+    <row r="34" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>883.60900000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>3538.1469999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>1054.5129999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q37" s="12">
+        <f>SUM(Q29:Q36)</f>
+        <v>19191.047000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="12">
+        <f>2.072+26.801</f>
+        <v>28.872999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>1133.43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q41" s="12">
+        <f>2349.05+771.973</f>
+        <v>3121.0230000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>3410.777</v>
+      </c>
+    </row>
+    <row r="43" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>364.32400000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q44" s="12">
+        <f>50.825+152.882</f>
+        <v>203.70699999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>472.07100000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>1139.634</v>
+      </c>
+    </row>
+    <row r="47" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q47" s="12">
+        <f>927.952+378.584</f>
+        <v>1306.5360000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>304.11399999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>7706.558</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q50" s="12">
+        <f>SUM(Q39:Q49)</f>
+        <v>19191.046999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P52" s="15">
+        <f>SUM(M19:P19)</f>
+        <v>3676.8330000000014</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20">
+        <f>SUM(N19:Q19)/Q49</f>
+        <v>0.49054337876909532</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20">
+        <f>($P$52/Q37)</f>
+        <v>0.19159105805952126</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20">
+        <f>P52/(Q49-Q35)</f>
+        <v>0.88207064994310813</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B58" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B59" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B60" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B61" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B62" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B63" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/investing spreadsheets/ACN.xlsx
+++ b/investing spreadsheets/ACN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Interest Income</t>
-  </si>
-  <si>
-    <t>Interest Expense</t>
   </si>
   <si>
     <t>Operating Income</t>
@@ -501,7 +498,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>138953</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>155201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -545,7 +542,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>51546</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -999,13 +996,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:GN63"/>
+  <dimension ref="B1:GN62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1240,11 +1237,11 @@
         <v>27862.33</v>
       </c>
       <c r="X3" s="12">
-        <f t="shared" ref="X3:X19" si="0">SUM(C3:F3)</f>
+        <f t="shared" ref="X3:X18" si="0">SUM(C3:F3)</f>
         <v>28562.81</v>
       </c>
       <c r="Y3" s="12">
-        <f t="shared" ref="Y3:Y19" si="1">SUM(G3:J3)</f>
+        <f t="shared" ref="Y3:Y18" si="1">SUM(G3:J3)</f>
         <v>30002.394</v>
       </c>
       <c r="Z3" s="12">
@@ -1328,7 +1325,7 @@
     </row>
     <row r="5" spans="2:41" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="15">
         <f t="shared" ref="C5:Q5" si="2">+C3+C4</f>
@@ -1714,7 +1711,7 @@
     </row>
     <row r="9" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" ref="C9:Q9" si="5">+C5-C8</f>
@@ -2131,7 +2128,7 @@
     </row>
     <row r="12" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="12">
         <f>+C10+C11+0.465</f>
@@ -2280,7 +2277,7 @@
     </row>
     <row r="13" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" ref="C13:Q13" si="10">(C9-C12)</f>
@@ -2432,267 +2429,246 @@
         <v>34</v>
       </c>
       <c r="C14" s="12">
-        <v>8.7669999999999995</v>
+        <v>4</v>
       </c>
       <c r="D14" s="12">
-        <v>9.859</v>
+        <v>6</v>
       </c>
       <c r="E14" s="12">
-        <v>7.2510000000000003</v>
+        <v>3</v>
       </c>
       <c r="F14" s="12">
-        <f>32.893-C14-D14-E14</f>
-        <v>7.0160000000000009</v>
+        <v>5</v>
       </c>
       <c r="G14" s="12">
-        <v>6.7560000000000002</v>
+        <v>3</v>
       </c>
       <c r="H14" s="12">
-        <v>7.96</v>
+        <v>4</v>
       </c>
       <c r="I14" s="12">
-        <v>7.5129999999999999</v>
+        <v>4</v>
       </c>
       <c r="J14" s="12">
-        <f>30.37-G14-H14-I14</f>
-        <v>8.141</v>
-      </c>
-      <c r="K14" s="14">
-        <v>10.099</v>
-      </c>
-      <c r="L14" s="14">
-        <v>9.34</v>
-      </c>
-      <c r="M14" s="14">
-        <v>6.4409999999999998</v>
-      </c>
-      <c r="N14" s="14">
-        <f>30.37-K14-L14-M14</f>
-        <v>4.4900000000000011</v>
+        <v>3</v>
+      </c>
+      <c r="K14" s="12">
+        <v>7</v>
+      </c>
+      <c r="L14" s="12">
+        <v>2</v>
+      </c>
+      <c r="M14" s="12">
+        <v>2</v>
+      </c>
+      <c r="N14" s="12">
+        <v>-2</v>
       </c>
       <c r="O14" s="12">
-        <v>7.1260000000000003</v>
+        <v>3</v>
       </c>
       <c r="P14" s="12">
-        <v>6.7270000000000003</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="12">
-        <v>7.6970000000000001</v>
+        <v>4</v>
       </c>
       <c r="U14" s="12">
-        <v>29.931000000000001</v>
+        <v>15</v>
       </c>
       <c r="V14" s="12">
-        <v>41.082999999999998</v>
+        <v>26</v>
       </c>
       <c r="W14" s="12">
-        <v>42.55</v>
+        <v>27</v>
       </c>
       <c r="X14" s="12">
-        <f t="shared" si="0"/>
-        <v>32.893000000000001</v>
+        <v>19</v>
       </c>
       <c r="Y14" s="12">
-        <f t="shared" si="1"/>
-        <v>30.369999999999997</v>
+        <v>13</v>
       </c>
       <c r="Z14" s="12">
-        <f>SUM(K14:N14)</f>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AA14" s="12">
-        <f>Z14</f>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AB14" s="12">
-        <f t="shared" ref="AB14:AO14" si="12">AA14</f>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AC14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AD14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AE14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AF14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AG14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AH14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AI14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AJ14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AK14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AL14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AM14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AN14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
       <c r="AO14" s="12">
-        <f t="shared" si="12"/>
-        <v>30.37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12">
-        <v>-4.5490000000000004</v>
+        <v>-6.4359999999999999</v>
       </c>
       <c r="D15" s="12">
-        <v>-3.641</v>
+        <v>10.599</v>
       </c>
       <c r="E15" s="12">
-        <v>-3.5880000000000001</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="F15" s="12">
-        <f>-14.035-C15-D15-E15</f>
-        <v>-2.2570000000000006</v>
+        <f>-18.244-C15-D15-E15</f>
+        <v>-23.358000000000001</v>
       </c>
       <c r="G15" s="12">
-        <v>-3.6579999999999999</v>
+        <v>-10.62</v>
       </c>
       <c r="H15" s="12">
-        <v>-4.3479999999999999</v>
+        <v>-4.766</v>
       </c>
       <c r="I15" s="12">
-        <v>-4.29</v>
+        <v>-6.0510000000000002</v>
       </c>
       <c r="J15" s="12">
-        <f>-17.621-G15-H15-I15</f>
-        <v>-5.3249999999999984</v>
+        <f>-15.56-G15-H15-I15</f>
+        <v>5.8769999999999989</v>
       </c>
       <c r="K15" s="14">
-        <v>-2.8109999999999999</v>
+        <v>-2.9790000000000001</v>
       </c>
       <c r="L15" s="14">
-        <v>-3.9049999999999998</v>
+        <v>-21.597999999999999</v>
       </c>
       <c r="M15" s="14">
-        <v>-4.03</v>
+        <v>-3.839</v>
       </c>
       <c r="N15" s="14">
-        <f>-17.621-K15-L15-M15</f>
-        <v>-6.8749999999999991</v>
+        <f>-15.56-K15-L15-M15</f>
+        <v>12.856</v>
       </c>
       <c r="O15" s="12">
-        <v>-4.0519999999999996</v>
+        <v>4.0289999999999999</v>
       </c>
       <c r="P15" s="12">
-        <v>-4.5430000000000001</v>
+        <v>-21.213000000000001</v>
       </c>
       <c r="Q15" s="12">
-        <v>-3.7109999999999999</v>
+        <v>-16.207000000000001</v>
       </c>
       <c r="U15" s="12">
-        <v>-14.677</v>
+        <v>-15.724</v>
       </c>
       <c r="V15" s="12">
-        <v>-15</v>
+        <v>15.481999999999999</v>
       </c>
       <c r="W15" s="12">
-        <v>-15.061</v>
+        <v>5.1369999999999996</v>
       </c>
       <c r="X15" s="12">
         <f t="shared" si="0"/>
-        <v>-14.035000000000004</v>
+        <v>-18.244</v>
       </c>
       <c r="Y15" s="12">
         <f t="shared" si="1"/>
-        <v>-17.620999999999999</v>
+        <v>-15.559999999999999</v>
       </c>
       <c r="Z15" s="12">
         <f>SUM(K15:N15)</f>
-        <v>-17.620999999999999</v>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AA15" s="12">
         <f>Z15</f>
-        <v>-17.620999999999999</v>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AB15" s="12">
-        <f t="shared" ref="AB15:AO15" si="13">AA15</f>
-        <v>-17.620999999999999</v>
+        <f t="shared" ref="AB15:AO15" si="12">AA15</f>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AC15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AD15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AE15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AF15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AG15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AH15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AI15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AJ15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AK15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AL15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AM15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AN15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
       <c r="AO15" s="12">
-        <f t="shared" si="13"/>
-        <v>-17.620999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-15.559999999999997</v>
       </c>
     </row>
     <row r="16" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2700,133 +2676,148 @@
         <v>37</v>
       </c>
       <c r="C16" s="12">
-        <v>-6.4359999999999999</v>
+        <f>(C13+C14+C15)</f>
+        <v>1046.2380000000003</v>
       </c>
       <c r="D16" s="12">
-        <v>10.599</v>
+        <f>(D13+D14+D15)</f>
+        <v>1181.1310000000003</v>
       </c>
       <c r="E16" s="12">
-        <v>0.95099999999999996</v>
+        <f>(E13+E14+E15)</f>
+        <v>1145.9120000000003</v>
       </c>
       <c r="F16" s="12">
-        <f>-18.244-C16-D16-E16</f>
-        <v>-23.358000000000001</v>
+        <f>(F13+F14+F15)</f>
+        <v>965.63900000000194</v>
       </c>
       <c r="G16" s="12">
-        <v>-10.62</v>
+        <f>(G13+G14+G15)</f>
+        <v>1083.479</v>
       </c>
       <c r="H16" s="12">
-        <v>-4.766</v>
+        <f>(H13+H14+H15)</f>
+        <v>950.51600000000064</v>
       </c>
       <c r="I16" s="12">
-        <v>-6.0510000000000002</v>
+        <f>(I13+I14+I15)</f>
+        <v>1176.7150000000001</v>
       </c>
       <c r="J16" s="12">
-        <f>-15.56-G16-H16-I16</f>
-        <v>5.8769999999999989</v>
-      </c>
-      <c r="K16" s="14">
-        <v>-2.9790000000000001</v>
-      </c>
-      <c r="L16" s="14">
-        <v>-21.597999999999999</v>
-      </c>
-      <c r="M16" s="14">
-        <v>-3.839</v>
-      </c>
-      <c r="N16" s="14">
-        <f>-15.56-K16-L16-M16</f>
-        <v>12.856</v>
+        <f>(J13+J14+J15)</f>
+        <v>1088.2419999999988</v>
+      </c>
+      <c r="K16" s="12">
+        <f>(K13+K14+K15)</f>
+        <v>1191.7299999999991</v>
+      </c>
+      <c r="L16" s="12">
+        <f>(L13+L14+L15)</f>
+        <v>1001.4350000000002</v>
+      </c>
+      <c r="M16" s="12">
+        <f>(M13+M14+M15)</f>
+        <v>1131.6799999999989</v>
+      </c>
+      <c r="N16" s="12">
+        <f>(N13+N14+N15)</f>
+        <v>1104.913999999997</v>
       </c>
       <c r="O16" s="12">
-        <v>4.0289999999999999</v>
+        <f>(O13+O14+O15)</f>
+        <v>1228.288</v>
       </c>
       <c r="P16" s="12">
-        <v>-21.213000000000001</v>
+        <f>(P13+P14+P15)+553.577</f>
+        <v>1622.4079999999999</v>
       </c>
       <c r="Q16" s="12">
-        <v>-16.207000000000001</v>
+        <f>(Q13+Q14+Q15)</f>
+        <v>1293.7359999999996</v>
       </c>
       <c r="U16" s="12">
-        <v>-15.724</v>
+        <f>(U13+U14+U15)</f>
+        <v>2914.1209999999983</v>
       </c>
       <c r="V16" s="12">
-        <v>15.481999999999999</v>
+        <f>(V13+V14+V15)</f>
+        <v>3511.9390000000003</v>
       </c>
       <c r="W16" s="12">
-        <v>5.1369999999999996</v>
+        <f>(W13+W14+W15)</f>
+        <v>3903.6850000000018</v>
       </c>
       <c r="X16" s="12">
-        <f t="shared" si="0"/>
-        <v>-18.244</v>
+        <f>(X13+X14+X15)</f>
+        <v>4339.9200000000028</v>
       </c>
       <c r="Y16" s="12">
-        <f t="shared" si="1"/>
-        <v>-15.559999999999999</v>
+        <f>(Y13+Y14+Y15)</f>
+        <v>4297.9519999999993</v>
       </c>
       <c r="Z16" s="12">
-        <f>SUM(K16:N16)</f>
-        <v>-15.559999999999997</v>
+        <f>(Z13+Z14+Z15)</f>
+        <v>4498.1409999999978</v>
       </c>
       <c r="AA16" s="12">
-        <f>Z16</f>
-        <v>-15.559999999999997</v>
+        <f>(AA13+AA14+AA15)</f>
+        <v>4645.9375615999998</v>
       </c>
       <c r="AB16" s="12">
-        <f t="shared" ref="AB16:AO16" si="14">AA16</f>
-        <v>-15.559999999999997</v>
+        <f>(AB13+AB14+AB15)</f>
+        <v>4896.5710914320007</v>
       </c>
       <c r="AC16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AC13+AC14+AC15)</f>
+        <v>5150.6406560746391</v>
       </c>
       <c r="AD16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AD13+AD14+AD15)</f>
+        <v>5408.2307425819936</v>
       </c>
       <c r="AE16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AE13+AE14+AE15)</f>
+        <v>5669.4273700856329</v>
       </c>
       <c r="AF16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AF13+AF14+AF15)</f>
+        <v>5934.318122012829</v>
       </c>
       <c r="AG16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AG13+AG14+AG15)</f>
+        <v>6202.9921789333102</v>
       </c>
       <c r="AH16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AH13+AH14+AH15)</f>
+        <v>6475.5403520474001</v>
       </c>
       <c r="AI16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AI13+AI14+AI15)</f>
+        <v>6752.0551173284193</v>
       </c>
       <c r="AJ16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AJ13+AJ14+AJ15)</f>
+        <v>7032.6306503326587</v>
       </c>
       <c r="AK16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AK13+AK14+AK15)</f>
+        <v>7317.3628616904043</v>
       </c>
       <c r="AL16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AL13+AL14+AL15)</f>
+        <v>7606.3494332917944</v>
       </c>
       <c r="AM16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AM13+AM14+AM15)</f>
+        <v>7899.6898551815366</v>
       </c>
       <c r="AN16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AN13+AN14+AN15)</f>
+        <v>8197.4854631768339</v>
       </c>
       <c r="AO16" s="12">
-        <f t="shared" si="14"/>
-        <v>-15.559999999999997</v>
+        <f>(AO13+AO14+AO15)</f>
+        <v>8499.839477223124</v>
       </c>
     </row>
     <row r="17" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2834,1487 +2825,1490 @@
         <v>38</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" ref="C17:O17" si="15">(C13+C14+C15+C16)</f>
-        <v>1046.4560000000004</v>
+        <v>280.42500000000001</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="15"/>
-        <v>1181.3490000000002</v>
+        <v>-5.7489999999999997</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" si="15"/>
-        <v>1146.5750000000003</v>
+        <v>272.52199999999999</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="15"/>
-        <v>965.39800000000196</v>
+        <f>784.775-C17-D17-E17</f>
+        <v>237.577</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" si="15"/>
-        <v>1083.5770000000002</v>
+        <v>271.93099999999998</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="15"/>
-        <v>950.12800000000072</v>
+        <v>227.797</v>
       </c>
       <c r="I17" s="12">
-        <f t="shared" si="15"/>
-        <v>1175.9380000000001</v>
+        <v>294.125</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="15"/>
-        <v>1088.0579999999989</v>
+        <f>1121.743-G17-H17-I17</f>
+        <v>327.88999999999987</v>
       </c>
       <c r="K17" s="14">
-        <f t="shared" si="15"/>
-        <v>1192.0179999999991</v>
+        <v>299.77600000000001</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" si="15"/>
-        <v>1004.8700000000001</v>
+        <v>261.76799999999997</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" si="15"/>
-        <v>1132.090999999999</v>
+        <v>281.86099999999999</v>
       </c>
       <c r="N17" s="14">
-        <f t="shared" si="15"/>
-        <v>1104.528999999997</v>
+        <f>1136.741-K17-L17-M17</f>
+        <v>293.3359999999999</v>
       </c>
       <c r="O17" s="12">
-        <f t="shared" si="15"/>
-        <v>1228.3620000000001</v>
+        <v>359.68200000000002</v>
       </c>
       <c r="P17" s="12">
-        <f>(P13+P14+P15+P16+553.577)</f>
-        <v>1622.5920000000001</v>
+        <v>222.73400000000001</v>
       </c>
       <c r="Q17" s="12">
-        <f>(Q13+Q14+Q15+Q16)</f>
-        <v>1293.7219999999995</v>
+        <v>343.42099999999999</v>
       </c>
       <c r="U17" s="12">
-        <f>(U13+U14+U15+U16)</f>
-        <v>2914.3749999999982</v>
+        <v>853.91</v>
       </c>
       <c r="V17" s="12">
-        <f>(V13+V14+V15+V16)</f>
-        <v>3512.0220000000004</v>
+        <v>958.78200000000004</v>
       </c>
       <c r="W17" s="12">
-        <f>(W13+W14+W15+W16)</f>
-        <v>3904.1740000000018</v>
+        <v>1079.241</v>
       </c>
       <c r="X17" s="12">
         <f t="shared" si="0"/>
-        <v>4339.7780000000021</v>
+        <v>784.77499999999998</v>
       </c>
       <c r="Y17" s="12">
         <f t="shared" si="1"/>
-        <v>4297.701</v>
+        <v>1121.7429999999999</v>
       </c>
       <c r="Z17" s="12">
-        <f t="shared" ref="Z17:AO17" si="16">(Z13+Z14+Z15+Z16)</f>
-        <v>4497.8899999999976</v>
+        <f>SUM(K17:N17)</f>
+        <v>1136.741</v>
       </c>
       <c r="AA17" s="12">
-        <f t="shared" si="16"/>
-        <v>4645.6865615999995</v>
+        <f>AA16*0.2</f>
+        <v>929.18751232</v>
       </c>
       <c r="AB17" s="12">
-        <f t="shared" si="16"/>
-        <v>4896.3200914320005</v>
+        <f t="shared" ref="AB17:AO17" si="13">AB16*0.2</f>
+        <v>979.31421828640021</v>
       </c>
       <c r="AC17" s="12">
-        <f t="shared" si="16"/>
-        <v>5150.3896560746389</v>
+        <f t="shared" si="13"/>
+        <v>1030.1281312149279</v>
       </c>
       <c r="AD17" s="12">
-        <f t="shared" si="16"/>
-        <v>5407.9797425819934</v>
+        <f t="shared" si="13"/>
+        <v>1081.6461485163989</v>
       </c>
       <c r="AE17" s="12">
-        <f t="shared" si="16"/>
-        <v>5669.1763700856327</v>
+        <f t="shared" si="13"/>
+        <v>1133.8854740171266</v>
       </c>
       <c r="AF17" s="12">
-        <f t="shared" si="16"/>
-        <v>5934.0671220128288</v>
+        <f t="shared" si="13"/>
+        <v>1186.8636244025658</v>
       </c>
       <c r="AG17" s="12">
-        <f t="shared" si="16"/>
-        <v>6202.74117893331</v>
+        <f t="shared" si="13"/>
+        <v>1240.5984357866621</v>
       </c>
       <c r="AH17" s="12">
-        <f t="shared" si="16"/>
-        <v>6475.2893520473999</v>
+        <f t="shared" si="13"/>
+        <v>1295.1080704094802</v>
       </c>
       <c r="AI17" s="12">
-        <f t="shared" si="16"/>
-        <v>6751.8041173284191</v>
+        <f t="shared" si="13"/>
+        <v>1350.4110234656839</v>
       </c>
       <c r="AJ17" s="12">
-        <f t="shared" si="16"/>
-        <v>7032.3796503326585</v>
+        <f t="shared" si="13"/>
+        <v>1406.5261300665318</v>
       </c>
       <c r="AK17" s="12">
-        <f t="shared" si="16"/>
-        <v>7317.1118616904041</v>
+        <f t="shared" si="13"/>
+        <v>1463.4725723380809</v>
       </c>
       <c r="AL17" s="12">
-        <f t="shared" si="16"/>
-        <v>7606.0984332917942</v>
+        <f t="shared" si="13"/>
+        <v>1521.2698866583589</v>
       </c>
       <c r="AM17" s="12">
-        <f t="shared" si="16"/>
-        <v>7899.4388551815364</v>
+        <f t="shared" si="13"/>
+        <v>1579.9379710363073</v>
       </c>
       <c r="AN17" s="12">
-        <f t="shared" si="16"/>
-        <v>8197.2344631768356</v>
+        <f t="shared" si="13"/>
+        <v>1639.4970926353669</v>
       </c>
       <c r="AO17" s="12">
-        <f t="shared" si="16"/>
-        <v>8499.5884772231257</v>
-      </c>
-    </row>
-    <row r="18" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
+        <f t="shared" si="13"/>
+        <v>1699.9678954446249</v>
+      </c>
+    </row>
+    <row r="18" spans="2:196" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="12">
-        <v>280.42500000000001</v>
-      </c>
-      <c r="D18" s="12">
-        <v>-5.7489999999999997</v>
-      </c>
-      <c r="E18" s="12">
-        <v>272.52199999999999</v>
-      </c>
-      <c r="F18" s="12">
-        <f>784.775-C18-D18-E18</f>
-        <v>237.577</v>
-      </c>
-      <c r="G18" s="12">
-        <v>271.93099999999998</v>
-      </c>
-      <c r="H18" s="12">
-        <v>227.797</v>
-      </c>
-      <c r="I18" s="12">
-        <v>294.125</v>
-      </c>
-      <c r="J18" s="12">
-        <f>1121.743-G18-H18-I18</f>
-        <v>327.88999999999987</v>
-      </c>
-      <c r="K18" s="14">
-        <v>299.77600000000001</v>
-      </c>
-      <c r="L18" s="14">
-        <v>261.76799999999997</v>
-      </c>
-      <c r="M18" s="14">
-        <v>281.86099999999999</v>
-      </c>
-      <c r="N18" s="14">
-        <f>1136.741-K18-L18-M18</f>
-        <v>293.3359999999999</v>
-      </c>
-      <c r="O18" s="12">
-        <v>359.68200000000002</v>
-      </c>
-      <c r="P18" s="12">
-        <v>222.73400000000001</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>343.42099999999999</v>
-      </c>
-      <c r="U18" s="12">
-        <v>853.91</v>
-      </c>
-      <c r="V18" s="12">
-        <v>958.78200000000004</v>
-      </c>
-      <c r="W18" s="12">
-        <v>1079.241</v>
-      </c>
-      <c r="X18" s="12">
-        <f t="shared" si="0"/>
-        <v>784.77499999999998</v>
-      </c>
-      <c r="Y18" s="12">
-        <f t="shared" si="1"/>
-        <v>1121.7429999999999</v>
-      </c>
-      <c r="Z18" s="12">
-        <f>SUM(K18:N18)</f>
-        <v>1136.741</v>
-      </c>
-      <c r="AA18" s="12">
-        <f>AA17*0.2</f>
-        <v>929.13731231999998</v>
-      </c>
-      <c r="AB18" s="12">
-        <f t="shared" ref="AB18:AO18" si="17">AB17*0.2</f>
-        <v>979.26401828640019</v>
-      </c>
-      <c r="AC18" s="12">
-        <f t="shared" si="17"/>
-        <v>1030.0779312149277</v>
-      </c>
-      <c r="AD18" s="12">
-        <f t="shared" si="17"/>
-        <v>1081.5959485163987</v>
-      </c>
-      <c r="AE18" s="12">
-        <f t="shared" si="17"/>
-        <v>1133.8352740171265</v>
-      </c>
-      <c r="AF18" s="12">
-        <f t="shared" si="17"/>
-        <v>1186.8134244025657</v>
-      </c>
-      <c r="AG18" s="12">
-        <f t="shared" si="17"/>
-        <v>1240.5482357866622</v>
-      </c>
-      <c r="AH18" s="12">
-        <f t="shared" si="17"/>
-        <v>1295.0578704094801</v>
-      </c>
-      <c r="AI18" s="12">
-        <f t="shared" si="17"/>
-        <v>1350.360823465684</v>
-      </c>
-      <c r="AJ18" s="12">
-        <f t="shared" si="17"/>
-        <v>1406.4759300665319</v>
-      </c>
-      <c r="AK18" s="12">
-        <f t="shared" si="17"/>
-        <v>1463.422372338081</v>
-      </c>
-      <c r="AL18" s="12">
-        <f t="shared" si="17"/>
-        <v>1521.219686658359</v>
-      </c>
-      <c r="AM18" s="12">
-        <f t="shared" si="17"/>
-        <v>1579.8877710363074</v>
-      </c>
-      <c r="AN18" s="12">
-        <f t="shared" si="17"/>
-        <v>1639.4468926353672</v>
-      </c>
-      <c r="AO18" s="12">
-        <f t="shared" si="17"/>
-        <v>1699.9176954446252</v>
-      </c>
-    </row>
-    <row r="19" spans="2:196" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="15">
-        <f>(C17-C18)-58.955-8.259</f>
-        <v>698.81700000000035</v>
-      </c>
-      <c r="D19" s="15">
-        <f>(D17-D18)-78.363-6.933</f>
-        <v>1101.8020000000001</v>
-      </c>
-      <c r="E19" s="15">
-        <f>(E17-E18)-53.177-10.628</f>
-        <v>810.24800000000027</v>
-      </c>
-      <c r="F19" s="15">
-        <f>3281.878-C19-D19-E19</f>
-        <v>671.01099999999929</v>
-      </c>
-      <c r="G19" s="15">
-        <f>(G17-G18)-49.098-10.702</f>
-        <v>751.84600000000023</v>
-      </c>
-      <c r="H19" s="15">
-        <f>(H17-H18)-42.849-8.182</f>
-        <v>671.30000000000064</v>
-      </c>
-      <c r="I19" s="15">
-        <f>(I17-I18)-51.523-12.954</f>
-        <v>817.33600000000013</v>
-      </c>
-      <c r="J19" s="15">
-        <f>2941.498-G19-H19-I19</f>
-        <v>701.01599999999928</v>
-      </c>
-      <c r="K19" s="16">
-        <f>(K17-K18)-50.636-10.076</f>
-        <v>831.52999999999906</v>
-      </c>
-      <c r="L19" s="16">
-        <f>(L17-L18)-41.053-11.413</f>
-        <v>690.63600000000008</v>
-      </c>
-      <c r="M19" s="16">
-        <f>(M17-M18)-46.283-10.25</f>
-        <v>793.69699999999898</v>
-      </c>
-      <c r="N19" s="16">
-        <f>3053.581-K19-L19-M19</f>
-        <v>737.71800000000235</v>
-      </c>
-      <c r="O19" s="15">
-        <f>(O17-O18)-39.576-10.206</f>
-        <v>818.89800000000002</v>
-      </c>
-      <c r="P19" s="15">
-        <f>(P17-P18)-63.379-9.959</f>
-        <v>1326.5200000000002</v>
-      </c>
-      <c r="Q19" s="15">
-        <f>(Q17-Q18)-42.574-10.462</f>
-        <v>897.26499999999953</v>
-      </c>
-      <c r="U19" s="15">
-        <f>(U17-U18)-257.636-22.167</f>
-        <v>1780.6619999999984</v>
-      </c>
-      <c r="V19" s="15">
-        <f>(V17-V18)-243.575-31.988</f>
-        <v>2277.6770000000006</v>
-      </c>
-      <c r="W19" s="15">
-        <f>(W17-W18)-237.52-33.903</f>
-        <v>2553.510000000002</v>
-      </c>
-      <c r="X19" s="15">
+      <c r="C18" s="15">
+        <f>(C16-C17)-58.955-8.259</f>
+        <v>698.59900000000027</v>
+      </c>
+      <c r="D18" s="15">
+        <f>(D16-D17)-78.363-6.933</f>
+        <v>1101.5840000000003</v>
+      </c>
+      <c r="E18" s="15">
+        <f>(E16-E17)-53.177-10.628</f>
+        <v>809.58500000000026</v>
+      </c>
+      <c r="F18" s="15">
+        <f>3281.878-C18-D18-E18</f>
+        <v>672.10999999999945</v>
+      </c>
+      <c r="G18" s="15">
+        <f>(G16-G17)-49.098-10.702</f>
+        <v>751.74800000000005</v>
+      </c>
+      <c r="H18" s="15">
+        <f>(H16-H17)-42.849-8.182</f>
+        <v>671.68800000000056</v>
+      </c>
+      <c r="I18" s="15">
+        <f>(I16-I17)-51.523-12.954</f>
+        <v>818.11300000000017</v>
+      </c>
+      <c r="J18" s="15">
+        <f>2941.498-G18-H18-I18</f>
+        <v>699.94899999999927</v>
+      </c>
+      <c r="K18" s="16">
+        <f>(K16-K17)-50.636-10.076</f>
+        <v>831.24199999999905</v>
+      </c>
+      <c r="L18" s="16">
+        <f>(L16-L17)-41.053-11.413</f>
+        <v>687.20100000000014</v>
+      </c>
+      <c r="M18" s="16">
+        <f>(M16-M17)-46.283-10.25</f>
+        <v>793.28599999999892</v>
+      </c>
+      <c r="N18" s="16">
+        <f>3053.581-K18-L18-M18</f>
+        <v>741.85200000000191</v>
+      </c>
+      <c r="O18" s="15">
+        <f>(O16-O17)-39.576-10.206</f>
+        <v>818.82399999999996</v>
+      </c>
+      <c r="P18" s="15">
+        <f>(P16-P17)-63.379-9.959</f>
+        <v>1326.336</v>
+      </c>
+      <c r="Q18" s="15">
+        <f>(Q16-Q17)-42.574-10.462</f>
+        <v>897.27899999999966</v>
+      </c>
+      <c r="U18" s="15">
+        <f>(U16-U17)-257.636-22.167</f>
+        <v>1780.4079999999985</v>
+      </c>
+      <c r="V18" s="15">
+        <f>(V16-V17)-243.575-31.988</f>
+        <v>2277.5940000000005</v>
+      </c>
+      <c r="W18" s="15">
+        <f>(W16-W17)-237.52-33.903</f>
+        <v>2553.021000000002</v>
+      </c>
+      <c r="X18" s="15">
         <f t="shared" si="0"/>
         <v>3281.8780000000006</v>
       </c>
-      <c r="Y19" s="15">
+      <c r="Y18" s="15">
         <f t="shared" si="1"/>
         <v>2941.498</v>
       </c>
-      <c r="Z19" s="15">
-        <f>SUM(K19:N19)</f>
-        <v>3053.581000000001</v>
-      </c>
-      <c r="AA19" s="15">
-        <f>AA17-AA18</f>
-        <v>3716.5492492799995</v>
-      </c>
-      <c r="AB19" s="15">
-        <f t="shared" ref="AB19:AO19" si="18">AB17-AB18</f>
-        <v>3917.0560731456003</v>
-      </c>
-      <c r="AC19" s="15">
+      <c r="Z18" s="15">
+        <f>SUM(K18:N18)</f>
+        <v>3053.5810000000001</v>
+      </c>
+      <c r="AA18" s="15">
+        <f>AA16-AA17</f>
+        <v>3716.75004928</v>
+      </c>
+      <c r="AB18" s="15">
+        <f t="shared" ref="AB18:AO18" si="14">AB16-AB17</f>
+        <v>3917.2568731456004</v>
+      </c>
+      <c r="AC18" s="15">
+        <f t="shared" si="14"/>
+        <v>4120.5125248597114</v>
+      </c>
+      <c r="AD18" s="15">
+        <f t="shared" si="14"/>
+        <v>4326.5845940655945</v>
+      </c>
+      <c r="AE18" s="15">
+        <f t="shared" si="14"/>
+        <v>4535.5418960685065</v>
+      </c>
+      <c r="AF18" s="15">
+        <f t="shared" si="14"/>
+        <v>4747.4544976102634</v>
+      </c>
+      <c r="AG18" s="15">
+        <f t="shared" si="14"/>
+        <v>4962.3937431466484</v>
+      </c>
+      <c r="AH18" s="15">
+        <f t="shared" si="14"/>
+        <v>5180.4322816379199</v>
+      </c>
+      <c r="AI18" s="15">
+        <f t="shared" si="14"/>
+        <v>5401.6440938627356</v>
+      </c>
+      <c r="AJ18" s="15">
+        <f t="shared" si="14"/>
+        <v>5626.1045202661271</v>
+      </c>
+      <c r="AK18" s="15">
+        <f t="shared" si="14"/>
+        <v>5853.8902893523236</v>
+      </c>
+      <c r="AL18" s="15">
+        <f t="shared" si="14"/>
+        <v>6085.0795466334357</v>
+      </c>
+      <c r="AM18" s="15">
+        <f t="shared" si="14"/>
+        <v>6319.7518841452293</v>
+      </c>
+      <c r="AN18" s="15">
+        <f t="shared" si="14"/>
+        <v>6557.9883705414668</v>
+      </c>
+      <c r="AO18" s="15">
+        <f t="shared" si="14"/>
+        <v>6799.8715817784996</v>
+      </c>
+      <c r="AP18" s="15">
+        <f>AO18*(1+$AR$23)</f>
+        <v>6595.8754343251449</v>
+      </c>
+      <c r="AQ18" s="15">
+        <f t="shared" ref="AQ18:DB18" si="15">AP18*(1+$AR$23)</f>
+        <v>6397.9991712953906</v>
+      </c>
+      <c r="AR18" s="15">
+        <f t="shared" si="15"/>
+        <v>6206.0591961565287</v>
+      </c>
+      <c r="AS18" s="15">
+        <f t="shared" si="15"/>
+        <v>6019.8774202718323</v>
+      </c>
+      <c r="AT18" s="15">
+        <f t="shared" si="15"/>
+        <v>5839.2810976636774</v>
+      </c>
+      <c r="AU18" s="15">
+        <f t="shared" si="15"/>
+        <v>5664.1026647337667</v>
+      </c>
+      <c r="AV18" s="15">
+        <f t="shared" si="15"/>
+        <v>5494.1795847917538</v>
+      </c>
+      <c r="AW18" s="15">
+        <f t="shared" si="15"/>
+        <v>5329.3541972480007</v>
+      </c>
+      <c r="AX18" s="15">
+        <f t="shared" si="15"/>
+        <v>5169.4735713305608</v>
+      </c>
+      <c r="AY18" s="15">
+        <f t="shared" si="15"/>
+        <v>5014.3893641906443</v>
+      </c>
+      <c r="AZ18" s="15">
+        <f t="shared" si="15"/>
+        <v>4863.9576832649245</v>
+      </c>
+      <c r="BA18" s="15">
+        <f t="shared" si="15"/>
+        <v>4718.0389527669768</v>
+      </c>
+      <c r="BB18" s="15">
+        <f t="shared" si="15"/>
+        <v>4576.4977841839673</v>
+      </c>
+      <c r="BC18" s="15">
+        <f t="shared" si="15"/>
+        <v>4439.2028506584484</v>
+      </c>
+      <c r="BD18" s="15">
+        <f t="shared" si="15"/>
+        <v>4306.0267651386948</v>
+      </c>
+      <c r="BE18" s="15">
+        <f t="shared" si="15"/>
+        <v>4176.8459621845341</v>
+      </c>
+      <c r="BF18" s="15">
+        <f t="shared" si="15"/>
+        <v>4051.540583318998</v>
+      </c>
+      <c r="BG18" s="15">
+        <f t="shared" si="15"/>
+        <v>3929.9943658194279</v>
+      </c>
+      <c r="BH18" s="15">
+        <f t="shared" si="15"/>
+        <v>3812.0945348448449</v>
+      </c>
+      <c r="BI18" s="15">
+        <f t="shared" si="15"/>
+        <v>3697.7316987994996</v>
+      </c>
+      <c r="BJ18" s="15">
+        <f t="shared" si="15"/>
+        <v>3586.7997478355146</v>
+      </c>
+      <c r="BK18" s="15">
+        <f t="shared" si="15"/>
+        <v>3479.1957554004489</v>
+      </c>
+      <c r="BL18" s="15">
+        <f t="shared" si="15"/>
+        <v>3374.8198827384354</v>
+      </c>
+      <c r="BM18" s="15">
+        <f t="shared" si="15"/>
+        <v>3273.5752862562822</v>
+      </c>
+      <c r="BN18" s="15">
+        <f t="shared" si="15"/>
+        <v>3175.3680276685936</v>
+      </c>
+      <c r="BO18" s="15">
+        <f t="shared" si="15"/>
+        <v>3080.1069868385357</v>
+      </c>
+      <c r="BP18" s="15">
+        <f t="shared" si="15"/>
+        <v>2987.7037772333797</v>
+      </c>
+      <c r="BQ18" s="15">
+        <f t="shared" si="15"/>
+        <v>2898.0726639163781</v>
+      </c>
+      <c r="BR18" s="15">
+        <f t="shared" si="15"/>
+        <v>2811.1304839988866</v>
+      </c>
+      <c r="BS18" s="15">
+        <f t="shared" si="15"/>
+        <v>2726.79656947892</v>
+      </c>
+      <c r="BT18" s="15">
+        <f t="shared" si="15"/>
+        <v>2644.9926723945523</v>
+      </c>
+      <c r="BU18" s="15">
+        <f t="shared" si="15"/>
+        <v>2565.6428922227155</v>
+      </c>
+      <c r="BV18" s="15">
+        <f t="shared" si="15"/>
+        <v>2488.6736054560338</v>
+      </c>
+      <c r="BW18" s="15">
+        <f t="shared" si="15"/>
+        <v>2414.0133972923527</v>
+      </c>
+      <c r="BX18" s="15">
+        <f t="shared" si="15"/>
+        <v>2341.5929953735822</v>
+      </c>
+      <c r="BY18" s="15">
+        <f t="shared" si="15"/>
+        <v>2271.3452055123748</v>
+      </c>
+      <c r="BZ18" s="15">
+        <f t="shared" si="15"/>
+        <v>2203.2048493470033</v>
+      </c>
+      <c r="CA18" s="15">
+        <f t="shared" si="15"/>
+        <v>2137.1087038665933</v>
+      </c>
+      <c r="CB18" s="15">
+        <f t="shared" si="15"/>
+        <v>2072.9954427505954</v>
+      </c>
+      <c r="CC18" s="15">
+        <f t="shared" si="15"/>
+        <v>2010.8055794680774</v>
+      </c>
+      <c r="CD18" s="15">
+        <f t="shared" si="15"/>
+        <v>1950.4814120840351</v>
+      </c>
+      <c r="CE18" s="15">
+        <f t="shared" si="15"/>
+        <v>1891.966969721514</v>
+      </c>
+      <c r="CF18" s="15">
+        <f t="shared" si="15"/>
+        <v>1835.2079606298685</v>
+      </c>
+      <c r="CG18" s="15">
+        <f t="shared" si="15"/>
+        <v>1780.1517218109723</v>
+      </c>
+      <c r="CH18" s="15">
+        <f t="shared" si="15"/>
+        <v>1726.7471701566431</v>
+      </c>
+      <c r="CI18" s="15">
+        <f t="shared" si="15"/>
+        <v>1674.9447550519437</v>
+      </c>
+      <c r="CJ18" s="15">
+        <f t="shared" si="15"/>
+        <v>1624.6964124003853</v>
+      </c>
+      <c r="CK18" s="15">
+        <f t="shared" si="15"/>
+        <v>1575.9555200283737</v>
+      </c>
+      <c r="CL18" s="15">
+        <f t="shared" si="15"/>
+        <v>1528.6768544275224</v>
+      </c>
+      <c r="CM18" s="15">
+        <f t="shared" si="15"/>
+        <v>1482.8165487946967</v>
+      </c>
+      <c r="CN18" s="15">
+        <f t="shared" si="15"/>
+        <v>1438.3320523308557</v>
+      </c>
+      <c r="CO18" s="15">
+        <f t="shared" si="15"/>
+        <v>1395.1820907609301</v>
+      </c>
+      <c r="CP18" s="15">
+        <f t="shared" si="15"/>
+        <v>1353.3266280381022</v>
+      </c>
+      <c r="CQ18" s="15">
+        <f t="shared" si="15"/>
+        <v>1312.726829196959</v>
+      </c>
+      <c r="CR18" s="15">
+        <f t="shared" si="15"/>
+        <v>1273.3450243210502</v>
+      </c>
+      <c r="CS18" s="15">
+        <f t="shared" si="15"/>
+        <v>1235.1446735914187</v>
+      </c>
+      <c r="CT18" s="15">
+        <f t="shared" si="15"/>
+        <v>1198.0903333836761</v>
+      </c>
+      <c r="CU18" s="15">
+        <f t="shared" si="15"/>
+        <v>1162.1476233821659</v>
+      </c>
+      <c r="CV18" s="15">
+        <f t="shared" si="15"/>
+        <v>1127.2831946807009</v>
+      </c>
+      <c r="CW18" s="15">
+        <f t="shared" si="15"/>
+        <v>1093.4646988402799</v>
+      </c>
+      <c r="CX18" s="15">
+        <f t="shared" si="15"/>
+        <v>1060.6607578750716</v>
+      </c>
+      <c r="CY18" s="15">
+        <f>CX18*(1+$AR$23)</f>
+        <v>1028.8409351388193</v>
+      </c>
+      <c r="CZ18" s="15">
+        <f t="shared" si="15"/>
+        <v>997.97570708465469</v>
+      </c>
+      <c r="DA18" s="15">
+        <f t="shared" si="15"/>
+        <v>968.03643587211502</v>
+      </c>
+      <c r="DB18" s="15">
+        <f t="shared" si="15"/>
+        <v>938.9953427959515</v>
+      </c>
+      <c r="DC18" s="15">
+        <f t="shared" ref="DC18:FN18" si="16">DB18*(1+$AR$23)</f>
+        <v>910.82548251207288</v>
+      </c>
+      <c r="DD18" s="15">
+        <f t="shared" si="16"/>
+        <v>883.50071803671062</v>
+      </c>
+      <c r="DE18" s="15">
+        <f t="shared" si="16"/>
+        <v>856.99569649560931</v>
+      </c>
+      <c r="DF18" s="15">
+        <f t="shared" si="16"/>
+        <v>831.28582560074096</v>
+      </c>
+      <c r="DG18" s="15">
+        <f t="shared" si="16"/>
+        <v>806.34725083271871</v>
+      </c>
+      <c r="DH18" s="15">
+        <f t="shared" si="16"/>
+        <v>782.15683330773709</v>
+      </c>
+      <c r="DI18" s="15">
+        <f t="shared" si="16"/>
+        <v>758.69212830850495</v>
+      </c>
+      <c r="DJ18" s="15">
+        <f t="shared" si="16"/>
+        <v>735.93136445924983</v>
+      </c>
+      <c r="DK18" s="15">
+        <f t="shared" si="16"/>
+        <v>713.85342352547229</v>
+      </c>
+      <c r="DL18" s="15">
+        <f t="shared" si="16"/>
+        <v>692.43782081970812</v>
+      </c>
+      <c r="DM18" s="15">
+        <f t="shared" si="16"/>
+        <v>671.66468619511681</v>
+      </c>
+      <c r="DN18" s="15">
+        <f t="shared" si="16"/>
+        <v>651.51474560926329</v>
+      </c>
+      <c r="DO18" s="15">
+        <f t="shared" si="16"/>
+        <v>631.96930324098537</v>
+      </c>
+      <c r="DP18" s="15">
+        <f t="shared" si="16"/>
+        <v>613.01022414375575</v>
+      </c>
+      <c r="DQ18" s="15">
+        <f t="shared" si="16"/>
+        <v>594.61991741944303</v>
+      </c>
+      <c r="DR18" s="15">
+        <f t="shared" si="16"/>
+        <v>576.78131989685971</v>
+      </c>
+      <c r="DS18" s="15">
+        <f t="shared" si="16"/>
+        <v>559.47788029995388</v>
+      </c>
+      <c r="DT18" s="15">
+        <f t="shared" si="16"/>
+        <v>542.6935438909552</v>
+      </c>
+      <c r="DU18" s="15">
+        <f t="shared" si="16"/>
+        <v>526.41273757422653</v>
+      </c>
+      <c r="DV18" s="15">
+        <f t="shared" si="16"/>
+        <v>510.62035544699972</v>
+      </c>
+      <c r="DW18" s="15">
+        <f t="shared" si="16"/>
+        <v>495.3017447835897</v>
+      </c>
+      <c r="DX18" s="15">
+        <f t="shared" si="16"/>
+        <v>480.442692440082</v>
+      </c>
+      <c r="DY18" s="15">
+        <f t="shared" si="16"/>
+        <v>466.02941166687953</v>
+      </c>
+      <c r="DZ18" s="15">
+        <f t="shared" si="16"/>
+        <v>452.0485293168731</v>
+      </c>
+      <c r="EA18" s="15">
+        <f t="shared" si="16"/>
+        <v>438.48707343736692</v>
+      </c>
+      <c r="EB18" s="15">
+        <f t="shared" si="16"/>
+        <v>425.3324612342459</v>
+      </c>
+      <c r="EC18" s="15">
+        <f t="shared" si="16"/>
+        <v>412.57248739721854</v>
+      </c>
+      <c r="ED18" s="15">
+        <f t="shared" si="16"/>
+        <v>400.19531277530194</v>
+      </c>
+      <c r="EE18" s="15">
+        <f t="shared" si="16"/>
+        <v>388.18945339204288</v>
+      </c>
+      <c r="EF18" s="15">
+        <f t="shared" si="16"/>
+        <v>376.5437697902816</v>
+      </c>
+      <c r="EG18" s="15">
+        <f t="shared" si="16"/>
+        <v>365.24745669657312</v>
+      </c>
+      <c r="EH18" s="15">
+        <f t="shared" si="16"/>
+        <v>354.29003299567592</v>
+      </c>
+      <c r="EI18" s="15">
+        <f t="shared" si="16"/>
+        <v>343.6613320058056</v>
+      </c>
+      <c r="EJ18" s="15">
+        <f t="shared" si="16"/>
+        <v>333.3514920456314</v>
+      </c>
+      <c r="EK18" s="15">
+        <f t="shared" si="16"/>
+        <v>323.35094728426247</v>
+      </c>
+      <c r="EL18" s="15">
+        <f t="shared" si="16"/>
+        <v>313.65041886573459</v>
+      </c>
+      <c r="EM18" s="15">
+        <f t="shared" si="16"/>
+        <v>304.24090629976257</v>
+      </c>
+      <c r="EN18" s="15">
+        <f t="shared" si="16"/>
+        <v>295.11367911076968</v>
+      </c>
+      <c r="EO18" s="15">
+        <f t="shared" si="16"/>
+        <v>286.26026873744661</v>
+      </c>
+      <c r="EP18" s="15">
+        <f t="shared" si="16"/>
+        <v>277.67246067532318</v>
+      </c>
+      <c r="EQ18" s="15">
+        <f t="shared" si="16"/>
+        <v>269.34228685506349</v>
+      </c>
+      <c r="ER18" s="15">
+        <f t="shared" si="16"/>
+        <v>261.2620182494116</v>
+      </c>
+      <c r="ES18" s="15">
+        <f t="shared" si="16"/>
+        <v>253.42415770192923</v>
+      </c>
+      <c r="ET18" s="15">
+        <f t="shared" si="16"/>
+        <v>245.82143297087134</v>
+      </c>
+      <c r="EU18" s="15">
+        <f t="shared" si="16"/>
+        <v>238.44678998174518</v>
+      </c>
+      <c r="EV18" s="15">
+        <f t="shared" si="16"/>
+        <v>231.29338628229283</v>
+      </c>
+      <c r="EW18" s="15">
+        <f t="shared" si="16"/>
+        <v>224.35458469382405</v>
+      </c>
+      <c r="EX18" s="15">
+        <f t="shared" si="16"/>
+        <v>217.62394715300931</v>
+      </c>
+      <c r="EY18" s="15">
+        <f t="shared" si="16"/>
+        <v>211.09522873841902</v>
+      </c>
+      <c r="EZ18" s="15">
+        <f t="shared" si="16"/>
+        <v>204.76237187626646</v>
+      </c>
+      <c r="FA18" s="15">
+        <f t="shared" si="16"/>
+        <v>198.61950071997845</v>
+      </c>
+      <c r="FB18" s="15">
+        <f t="shared" si="16"/>
+        <v>192.66091569837909</v>
+      </c>
+      <c r="FC18" s="15">
+        <f t="shared" si="16"/>
+        <v>186.88108822742771</v>
+      </c>
+      <c r="FD18" s="15">
+        <f t="shared" si="16"/>
+        <v>181.27465558060487</v>
+      </c>
+      <c r="FE18" s="15">
+        <f t="shared" si="16"/>
+        <v>175.83641591318673</v>
+      </c>
+      <c r="FF18" s="15">
+        <f t="shared" si="16"/>
+        <v>170.56132343579111</v>
+      </c>
+      <c r="FG18" s="15">
+        <f t="shared" si="16"/>
+        <v>165.44448373271737</v>
+      </c>
+      <c r="FH18" s="15">
+        <f t="shared" si="16"/>
+        <v>160.48114922073586</v>
+      </c>
+      <c r="FI18" s="15">
+        <f t="shared" si="16"/>
+        <v>155.66671474411379</v>
+      </c>
+      <c r="FJ18" s="15">
+        <f t="shared" si="16"/>
+        <v>150.99671330179038</v>
+      </c>
+      <c r="FK18" s="15">
+        <f t="shared" si="16"/>
+        <v>146.46681190273665</v>
+      </c>
+      <c r="FL18" s="15">
+        <f t="shared" si="16"/>
+        <v>142.07280754565454</v>
+      </c>
+      <c r="FM18" s="15">
+        <f t="shared" si="16"/>
+        <v>137.8106233192849</v>
+      </c>
+      <c r="FN18" s="15">
+        <f t="shared" si="16"/>
+        <v>133.67630461970634</v>
+      </c>
+      <c r="FO18" s="15">
+        <f t="shared" ref="FO18:GN18" si="17">FN18*(1+$AR$23)</f>
+        <v>129.66601548111515</v>
+      </c>
+      <c r="FP18" s="15">
+        <f t="shared" si="17"/>
+        <v>125.77603501668169</v>
+      </c>
+      <c r="FQ18" s="15">
+        <f t="shared" si="17"/>
+        <v>122.00275396618123</v>
+      </c>
+      <c r="FR18" s="15">
+        <f t="shared" si="17"/>
+        <v>118.34267134719579</v>
+      </c>
+      <c r="FS18" s="15">
+        <f t="shared" si="17"/>
+        <v>114.79239120677991</v>
+      </c>
+      <c r="FT18" s="15">
+        <f t="shared" si="17"/>
+        <v>111.34861947057651</v>
+      </c>
+      <c r="FU18" s="15">
+        <f t="shared" si="17"/>
+        <v>108.00816088645921</v>
+      </c>
+      <c r="FV18" s="15">
+        <f t="shared" si="17"/>
+        <v>104.76791605986543</v>
+      </c>
+      <c r="FW18" s="15">
+        <f t="shared" si="17"/>
+        <v>101.62487857806946</v>
+      </c>
+      <c r="FX18" s="15">
+        <f t="shared" si="17"/>
+        <v>98.576132220727374</v>
+      </c>
+      <c r="FY18" s="15">
+        <f t="shared" si="17"/>
+        <v>95.618848254105544</v>
+      </c>
+      <c r="FZ18" s="15">
+        <f t="shared" si="17"/>
+        <v>92.750282806482375</v>
+      </c>
+      <c r="GA18" s="15">
+        <f t="shared" si="17"/>
+        <v>89.967774322287895</v>
+      </c>
+      <c r="GB18" s="15">
+        <f t="shared" si="17"/>
+        <v>87.268741092619251</v>
+      </c>
+      <c r="GC18" s="15">
+        <f t="shared" si="17"/>
+        <v>84.650678859840667</v>
+      </c>
+      <c r="GD18" s="15">
+        <f t="shared" si="17"/>
+        <v>82.111158494045441</v>
+      </c>
+      <c r="GE18" s="15">
+        <f t="shared" si="17"/>
+        <v>79.64782373922408</v>
+      </c>
+      <c r="GF18" s="15">
+        <f t="shared" si="17"/>
+        <v>77.258389027047357</v>
+      </c>
+      <c r="GG18" s="15">
+        <f t="shared" si="17"/>
+        <v>74.940637356235939</v>
+      </c>
+      <c r="GH18" s="15">
+        <f t="shared" si="17"/>
+        <v>72.692418235548857</v>
+      </c>
+      <c r="GI18" s="15">
+        <f t="shared" si="17"/>
+        <v>70.511645688482389</v>
+      </c>
+      <c r="GJ18" s="15">
+        <f t="shared" si="17"/>
+        <v>68.396296317827918</v>
+      </c>
+      <c r="GK18" s="15">
+        <f t="shared" si="17"/>
+        <v>66.344407428293081</v>
+      </c>
+      <c r="GL18" s="15">
+        <f t="shared" si="17"/>
+        <v>64.354075205444289</v>
+      </c>
+      <c r="GM18" s="15">
+        <f t="shared" si="17"/>
+        <v>62.423452949280957</v>
+      </c>
+      <c r="GN18" s="15">
+        <f t="shared" si="17"/>
+        <v>60.550749360802527</v>
+      </c>
+    </row>
+    <row r="19" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="17">
+        <f t="shared" ref="C19:Q19" si="18">(C18/C20)</f>
+        <v>1.0921424385025458</v>
+      </c>
+      <c r="D19" s="17">
         <f t="shared" si="18"/>
-        <v>4120.3117248597109</v>
-      </c>
-      <c r="AD19" s="15">
+        <v>1.6959961640123367</v>
+      </c>
+      <c r="E19" s="17">
         <f t="shared" si="18"/>
-        <v>4326.3837940655949</v>
-      </c>
-      <c r="AE19" s="15">
+        <v>1.2443171435784661</v>
+      </c>
+      <c r="F19" s="17">
         <f t="shared" si="18"/>
-        <v>4535.341096068506</v>
-      </c>
-      <c r="AF19" s="15">
+        <v>1.0411641861052432</v>
+      </c>
+      <c r="G19" s="17">
         <f t="shared" si="18"/>
-        <v>4747.2536976102629</v>
-      </c>
-      <c r="AG19" s="15">
+        <v>1.1807024658857947</v>
+      </c>
+      <c r="H19" s="17">
         <f t="shared" si="18"/>
-        <v>4962.1929431466478</v>
-      </c>
-      <c r="AH19" s="15">
+        <v>1.0562305371560063</v>
+      </c>
+      <c r="I19" s="17">
         <f t="shared" si="18"/>
-        <v>5180.2314816379203</v>
-      </c>
-      <c r="AI19" s="15">
+        <v>1.2921754545097288</v>
+      </c>
+      <c r="J19" s="17">
         <f t="shared" si="18"/>
-        <v>5401.4432938627351</v>
-      </c>
-      <c r="AJ19" s="15">
+        <v>1.1036440646230672</v>
+      </c>
+      <c r="K19" s="18">
         <f t="shared" si="18"/>
-        <v>5625.9037202661266</v>
-      </c>
-      <c r="AK19" s="15">
+        <v>1.3227086664728156</v>
+      </c>
+      <c r="L19" s="18">
         <f t="shared" si="18"/>
-        <v>5853.6894893523231</v>
-      </c>
-      <c r="AL19" s="15">
+        <v>1.093825379204171</v>
+      </c>
+      <c r="M19" s="18">
         <f t="shared" si="18"/>
-        <v>6084.8787466334352</v>
-      </c>
-      <c r="AM19" s="15">
+        <v>1.2672919430067091</v>
+      </c>
+      <c r="N19" s="18">
         <f t="shared" si="18"/>
-        <v>6319.5510841452287</v>
-      </c>
-      <c r="AN19" s="15">
+        <v>1.1835553445946307</v>
+      </c>
+      <c r="O19" s="17">
         <f t="shared" si="18"/>
-        <v>6557.7875705414681</v>
-      </c>
-      <c r="AO19" s="15">
+        <v>1.3070606643730627</v>
+      </c>
+      <c r="P19" s="17">
         <f t="shared" si="18"/>
-        <v>6799.6707817785009</v>
-      </c>
-      <c r="AP19" s="15">
-        <f>AO19*(1+$AR$24)</f>
-        <v>6595.6806583251455</v>
-      </c>
-      <c r="AQ19" s="15">
-        <f t="shared" ref="AQ19:DB19" si="19">AP19*(1+$AR$24)</f>
-        <v>6397.8102385753909</v>
-      </c>
-      <c r="AR19" s="15">
+        <v>2.1169762662150009</v>
+      </c>
+      <c r="Q19" s="17">
+        <f t="shared" si="18"/>
+        <v>1.4385789996831504</v>
+      </c>
+      <c r="U19" s="17">
+        <f>(U18/U20)</f>
+        <v>2.7942422683856862</v>
+      </c>
+      <c r="V19" s="17">
+        <f>(V18/V20)</f>
+        <v>3.5277014274264369</v>
+      </c>
+      <c r="W19" s="17">
+        <f>(W18/W20)</f>
+        <v>3.969665036464233</v>
+      </c>
+      <c r="X19" s="17">
+        <f t="shared" ref="X19:Y19" si="19">(X18/X20)</f>
+        <v>5.0839503009428615</v>
+      </c>
+      <c r="Y19" s="17">
         <f t="shared" si="19"/>
-        <v>6205.8759314181289</v>
-      </c>
-      <c r="AS19" s="15">
-        <f t="shared" si="19"/>
-        <v>6019.6996534755845</v>
-      </c>
-      <c r="AT19" s="15">
-        <f t="shared" si="19"/>
-        <v>5839.1086638713168</v>
-      </c>
-      <c r="AU19" s="15">
-        <f t="shared" si="19"/>
-        <v>5663.9354039551772</v>
-      </c>
-      <c r="AV19" s="15">
-        <f t="shared" si="19"/>
-        <v>5494.0173418365221</v>
-      </c>
-      <c r="AW19" s="15">
-        <f t="shared" si="19"/>
-        <v>5329.1968215814259</v>
-      </c>
-      <c r="AX19" s="15">
-        <f t="shared" si="19"/>
-        <v>5169.3209169339825</v>
-      </c>
-      <c r="AY19" s="15">
-        <f t="shared" si="19"/>
-        <v>5014.2412894259633</v>
-      </c>
-      <c r="AZ19" s="15">
-        <f t="shared" si="19"/>
-        <v>4863.8140507431845</v>
-      </c>
-      <c r="BA19" s="15">
-        <f t="shared" si="19"/>
-        <v>4717.8996292208885</v>
-      </c>
-      <c r="BB19" s="15">
-        <f t="shared" si="19"/>
-        <v>4576.3626403442613</v>
-      </c>
-      <c r="BC19" s="15">
-        <f t="shared" si="19"/>
-        <v>4439.0717611339333</v>
-      </c>
-      <c r="BD19" s="15">
-        <f t="shared" si="19"/>
-        <v>4305.8996082999147</v>
-      </c>
-      <c r="BE19" s="15">
-        <f t="shared" si="19"/>
-        <v>4176.7226200509167</v>
-      </c>
-      <c r="BF19" s="15">
-        <f t="shared" si="19"/>
-        <v>4051.4209414493889</v>
-      </c>
-      <c r="BG19" s="15">
-        <f t="shared" si="19"/>
-        <v>3929.878313205907</v>
-      </c>
-      <c r="BH19" s="15">
-        <f t="shared" si="19"/>
-        <v>3811.9819638097297</v>
-      </c>
-      <c r="BI19" s="15">
-        <f t="shared" si="19"/>
-        <v>3697.6225048954375</v>
-      </c>
-      <c r="BJ19" s="15">
-        <f t="shared" si="19"/>
-        <v>3586.6938297485744</v>
-      </c>
-      <c r="BK19" s="15">
-        <f t="shared" si="19"/>
-        <v>3479.093014856117</v>
-      </c>
-      <c r="BL19" s="15">
-        <f t="shared" si="19"/>
-        <v>3374.7202244104333</v>
-      </c>
-      <c r="BM19" s="15">
-        <f t="shared" si="19"/>
-        <v>3273.4786176781204</v>
-      </c>
-      <c r="BN19" s="15">
-        <f t="shared" si="19"/>
-        <v>3175.2742591477768</v>
-      </c>
-      <c r="BO19" s="15">
-        <f t="shared" si="19"/>
-        <v>3080.0160313733436</v>
-      </c>
-      <c r="BP19" s="15">
-        <f t="shared" si="19"/>
-        <v>2987.6155504321432</v>
-      </c>
-      <c r="BQ19" s="15">
-        <f t="shared" si="19"/>
-        <v>2897.987083919179</v>
-      </c>
-      <c r="BR19" s="15">
-        <f t="shared" si="19"/>
-        <v>2811.0474714016036</v>
-      </c>
-      <c r="BS19" s="15">
-        <f t="shared" si="19"/>
-        <v>2726.7160472595556</v>
-      </c>
-      <c r="BT19" s="15">
-        <f t="shared" si="19"/>
-        <v>2644.9145658417688</v>
-      </c>
-      <c r="BU19" s="15">
-        <f t="shared" si="19"/>
-        <v>2565.5671288665158</v>
-      </c>
-      <c r="BV19" s="15">
-        <f t="shared" si="19"/>
-        <v>2488.6001150005204</v>
-      </c>
-      <c r="BW19" s="15">
-        <f t="shared" si="19"/>
-        <v>2413.9421115505047</v>
-      </c>
-      <c r="BX19" s="15">
-        <f t="shared" si="19"/>
-        <v>2341.5238482039895</v>
-      </c>
-      <c r="BY19" s="15">
-        <f t="shared" si="19"/>
-        <v>2271.2781327578696</v>
-      </c>
-      <c r="BZ19" s="15">
-        <f t="shared" si="19"/>
-        <v>2203.1397887751336</v>
-      </c>
-      <c r="CA19" s="15">
-        <f t="shared" si="19"/>
-        <v>2137.0455951118797</v>
-      </c>
-      <c r="CB19" s="15">
-        <f t="shared" si="19"/>
-        <v>2072.9342272585232</v>
-      </c>
-      <c r="CC19" s="15">
-        <f t="shared" si="19"/>
-        <v>2010.7462004407673</v>
-      </c>
-      <c r="CD19" s="15">
-        <f t="shared" si="19"/>
-        <v>1950.4238144275444</v>
-      </c>
-      <c r="CE19" s="15">
-        <f t="shared" si="19"/>
-        <v>1891.9110999947179</v>
-      </c>
-      <c r="CF19" s="15">
-        <f t="shared" si="19"/>
-        <v>1835.1537669948764</v>
-      </c>
-      <c r="CG19" s="15">
-        <f t="shared" si="19"/>
-        <v>1780.0991539850299</v>
-      </c>
-      <c r="CH19" s="15">
-        <f t="shared" si="19"/>
-        <v>1726.6961793654791</v>
-      </c>
-      <c r="CI19" s="15">
-        <f t="shared" si="19"/>
-        <v>1674.8952939845146</v>
-      </c>
-      <c r="CJ19" s="15">
-        <f t="shared" si="19"/>
-        <v>1624.6484351649792</v>
-      </c>
-      <c r="CK19" s="15">
-        <f t="shared" si="19"/>
-        <v>1575.9089821100299</v>
-      </c>
-      <c r="CL19" s="15">
-        <f t="shared" si="19"/>
-        <v>1528.6317126467291</v>
-      </c>
-      <c r="CM19" s="15">
-        <f t="shared" si="19"/>
-        <v>1482.772761267327</v>
-      </c>
-      <c r="CN19" s="15">
-        <f t="shared" si="19"/>
-        <v>1438.2895784293071</v>
-      </c>
-      <c r="CO19" s="15">
-        <f t="shared" si="19"/>
-        <v>1395.1408910764278</v>
-      </c>
-      <c r="CP19" s="15">
-        <f t="shared" si="19"/>
-        <v>1353.286664344135</v>
-      </c>
-      <c r="CQ19" s="15">
-        <f t="shared" si="19"/>
-        <v>1312.6880644138109</v>
-      </c>
-      <c r="CR19" s="15">
-        <f t="shared" si="19"/>
-        <v>1273.3074224813965</v>
-      </c>
-      <c r="CS19" s="15">
-        <f t="shared" si="19"/>
-        <v>1235.1081998069546</v>
-      </c>
-      <c r="CT19" s="15">
-        <f t="shared" si="19"/>
-        <v>1198.0549538127459</v>
-      </c>
-      <c r="CU19" s="15">
-        <f t="shared" si="19"/>
-        <v>1162.1133051983636</v>
-      </c>
-      <c r="CV19" s="15">
-        <f t="shared" si="19"/>
-        <v>1127.2499060424127</v>
-      </c>
-      <c r="CW19" s="15">
-        <f t="shared" si="19"/>
-        <v>1093.4324088611404</v>
-      </c>
-      <c r="CX19" s="15">
-        <f t="shared" si="19"/>
-        <v>1060.6294365953061</v>
-      </c>
-      <c r="CY19" s="15">
-        <f>CX19*(1+$AR$24)</f>
-        <v>1028.8105534974468</v>
-      </c>
-      <c r="CZ19" s="15">
-        <f t="shared" si="19"/>
-        <v>997.9462368925233</v>
-      </c>
-      <c r="DA19" s="15">
-        <f t="shared" si="19"/>
-        <v>968.00784978574757</v>
-      </c>
-      <c r="DB19" s="15">
-        <f t="shared" si="19"/>
-        <v>938.96761429217509</v>
-      </c>
-      <c r="DC19" s="15">
-        <f t="shared" ref="DC19:FN19" si="20">DB19*(1+$AR$24)</f>
-        <v>910.79858586340981</v>
-      </c>
-      <c r="DD19" s="15">
-        <f t="shared" si="20"/>
-        <v>883.47462828750747</v>
-      </c>
-      <c r="DE19" s="15">
-        <f t="shared" si="20"/>
-        <v>856.97038943888219</v>
-      </c>
-      <c r="DF19" s="15">
-        <f t="shared" si="20"/>
-        <v>831.2612777557157</v>
-      </c>
-      <c r="DG19" s="15">
-        <f t="shared" si="20"/>
-        <v>806.32343942304419</v>
-      </c>
-      <c r="DH19" s="15">
-        <f t="shared" si="20"/>
-        <v>782.13373624035285</v>
-      </c>
-      <c r="DI19" s="15">
-        <f t="shared" si="20"/>
-        <v>758.66972415314228</v>
-      </c>
-      <c r="DJ19" s="15">
-        <f t="shared" si="20"/>
-        <v>735.90963242854798</v>
-      </c>
-      <c r="DK19" s="15">
-        <f t="shared" si="20"/>
-        <v>713.83234345569156</v>
-      </c>
-      <c r="DL19" s="15">
-        <f t="shared" si="20"/>
-        <v>692.41737315202079</v>
-      </c>
-      <c r="DM19" s="15">
-        <f t="shared" si="20"/>
-        <v>671.64485195746011</v>
-      </c>
-      <c r="DN19" s="15">
-        <f t="shared" si="20"/>
-        <v>651.49550639873632</v>
-      </c>
-      <c r="DO19" s="15">
-        <f t="shared" si="20"/>
-        <v>631.95064120677421</v>
-      </c>
-      <c r="DP19" s="15">
-        <f t="shared" si="20"/>
-        <v>612.99212197057102</v>
-      </c>
-      <c r="DQ19" s="15">
-        <f t="shared" si="20"/>
-        <v>594.60235831145383</v>
-      </c>
-      <c r="DR19" s="15">
-        <f t="shared" si="20"/>
-        <v>576.76428756211021</v>
-      </c>
-      <c r="DS19" s="15">
-        <f t="shared" si="20"/>
-        <v>559.46135893524684</v>
-      </c>
-      <c r="DT19" s="15">
-        <f t="shared" si="20"/>
-        <v>542.67751816718942</v>
-      </c>
-      <c r="DU19" s="15">
-        <f t="shared" si="20"/>
-        <v>526.39719262217375</v>
-      </c>
-      <c r="DV19" s="15">
-        <f t="shared" si="20"/>
-        <v>510.60527684350853</v>
-      </c>
-      <c r="DW19" s="15">
-        <f t="shared" si="20"/>
-        <v>495.28711853820329</v>
-      </c>
-      <c r="DX19" s="15">
-        <f t="shared" si="20"/>
-        <v>480.42850498205718</v>
-      </c>
-      <c r="DY19" s="15">
-        <f t="shared" si="20"/>
-        <v>466.01564983259544</v>
-      </c>
-      <c r="DZ19" s="15">
-        <f t="shared" si="20"/>
-        <v>452.03518033761759</v>
-      </c>
-      <c r="EA19" s="15">
-        <f t="shared" si="20"/>
-        <v>438.47412492748907</v>
-      </c>
-      <c r="EB19" s="15">
-        <f t="shared" si="20"/>
-        <v>425.31990117966438</v>
-      </c>
-      <c r="EC19" s="15">
-        <f t="shared" si="20"/>
-        <v>412.56030414427443</v>
-      </c>
-      <c r="ED19" s="15">
-        <f t="shared" si="20"/>
-        <v>400.18349501994618</v>
-      </c>
-      <c r="EE19" s="15">
-        <f t="shared" si="20"/>
-        <v>388.17799016934777</v>
-      </c>
-      <c r="EF19" s="15">
-        <f t="shared" si="20"/>
-        <v>376.53265046426731</v>
-      </c>
-      <c r="EG19" s="15">
-        <f t="shared" si="20"/>
-        <v>365.23667095033926</v>
-      </c>
-      <c r="EH19" s="15">
-        <f t="shared" si="20"/>
-        <v>354.27957082182905</v>
-      </c>
-      <c r="EI19" s="15">
-        <f t="shared" si="20"/>
-        <v>343.65118369717419</v>
-      </c>
-      <c r="EJ19" s="15">
-        <f t="shared" si="20"/>
-        <v>333.34164818625896</v>
-      </c>
-      <c r="EK19" s="15">
-        <f t="shared" si="20"/>
-        <v>323.3413987406712</v>
-      </c>
-      <c r="EL19" s="15">
-        <f t="shared" si="20"/>
-        <v>313.64115677845103</v>
-      </c>
-      <c r="EM19" s="15">
-        <f t="shared" si="20"/>
-        <v>304.23192207509749</v>
-      </c>
-      <c r="EN19" s="15">
-        <f t="shared" si="20"/>
-        <v>295.10496441284454</v>
-      </c>
-      <c r="EO19" s="15">
-        <f t="shared" si="20"/>
-        <v>286.25181548045919</v>
-      </c>
-      <c r="EP19" s="15">
-        <f t="shared" si="20"/>
-        <v>277.66426101604543</v>
-      </c>
-      <c r="EQ19" s="15">
-        <f t="shared" si="20"/>
-        <v>269.33433318556405</v>
-      </c>
-      <c r="ER19" s="15">
-        <f t="shared" si="20"/>
-        <v>261.25430318999713</v>
-      </c>
-      <c r="ES19" s="15">
-        <f t="shared" si="20"/>
-        <v>253.41667409429721</v>
-      </c>
-      <c r="ET19" s="15">
-        <f t="shared" si="20"/>
-        <v>245.81417387146828</v>
-      </c>
-      <c r="EU19" s="15">
-        <f t="shared" si="20"/>
-        <v>238.43974865532422</v>
-      </c>
-      <c r="EV19" s="15">
-        <f t="shared" si="20"/>
-        <v>231.2865561956645</v>
-      </c>
-      <c r="EW19" s="15">
-        <f t="shared" si="20"/>
-        <v>224.34795950979455</v>
-      </c>
-      <c r="EX19" s="15">
-        <f t="shared" si="20"/>
-        <v>217.61752072450071</v>
-      </c>
-      <c r="EY19" s="15">
-        <f t="shared" si="20"/>
-        <v>211.08899510276569</v>
-      </c>
-      <c r="EZ19" s="15">
-        <f t="shared" si="20"/>
-        <v>204.7563252496827</v>
-      </c>
-      <c r="FA19" s="15">
-        <f t="shared" si="20"/>
-        <v>198.61363549219223</v>
-      </c>
-      <c r="FB19" s="15">
-        <f t="shared" si="20"/>
-        <v>192.65522642742647</v>
-      </c>
-      <c r="FC19" s="15">
-        <f t="shared" si="20"/>
-        <v>186.87556963460366</v>
-      </c>
-      <c r="FD19" s="15">
-        <f t="shared" si="20"/>
-        <v>181.26930254556555</v>
-      </c>
-      <c r="FE19" s="15">
-        <f t="shared" si="20"/>
-        <v>175.83122346919859</v>
-      </c>
-      <c r="FF19" s="15">
-        <f t="shared" si="20"/>
-        <v>170.55628676512262</v>
-      </c>
-      <c r="FG19" s="15">
-        <f t="shared" si="20"/>
-        <v>165.43959816216895</v>
-      </c>
-      <c r="FH19" s="15">
-        <f t="shared" si="20"/>
-        <v>160.47641021730388</v>
-      </c>
-      <c r="FI19" s="15">
-        <f t="shared" si="20"/>
-        <v>155.66211791078476</v>
-      </c>
-      <c r="FJ19" s="15">
-        <f t="shared" si="20"/>
-        <v>150.99225437346121</v>
-      </c>
-      <c r="FK19" s="15">
-        <f t="shared" si="20"/>
-        <v>146.46248674225737</v>
-      </c>
-      <c r="FL19" s="15">
-        <f t="shared" si="20"/>
-        <v>142.06861213998965</v>
-      </c>
-      <c r="FM19" s="15">
-        <f t="shared" si="20"/>
-        <v>137.80655377578995</v>
-      </c>
-      <c r="FN19" s="15">
-        <f t="shared" si="20"/>
-        <v>133.67235716251625</v>
-      </c>
-      <c r="FO19" s="15">
-        <f t="shared" ref="FO19:GN19" si="21">FN19*(1+$AR$24)</f>
-        <v>129.66218644764075</v>
-      </c>
-      <c r="FP19" s="15">
-        <f t="shared" si="21"/>
-        <v>125.77232085421153</v>
-      </c>
-      <c r="FQ19" s="15">
-        <f t="shared" si="21"/>
-        <v>121.99915122858518</v>
-      </c>
-      <c r="FR19" s="15">
-        <f t="shared" si="21"/>
-        <v>118.33917669172762</v>
-      </c>
-      <c r="FS19" s="15">
-        <f t="shared" si="21"/>
-        <v>114.78900139097578</v>
-      </c>
-      <c r="FT19" s="15">
-        <f t="shared" si="21"/>
-        <v>111.34533134924651</v>
-      </c>
-      <c r="FU19" s="15">
-        <f t="shared" si="21"/>
-        <v>108.00497140876911</v>
-      </c>
-      <c r="FV19" s="15">
-        <f t="shared" si="21"/>
-        <v>104.76482226650603</v>
-      </c>
-      <c r="FW19" s="15">
-        <f t="shared" si="21"/>
-        <v>101.62187759851085</v>
-      </c>
-      <c r="FX19" s="15">
-        <f t="shared" si="21"/>
-        <v>98.573221270555521</v>
-      </c>
-      <c r="FY19" s="15">
-        <f t="shared" si="21"/>
-        <v>95.616024632438851</v>
-      </c>
-      <c r="FZ19" s="15">
-        <f t="shared" si="21"/>
-        <v>92.747543893465689</v>
-      </c>
-      <c r="GA19" s="15">
-        <f t="shared" si="21"/>
-        <v>89.965117576661711</v>
-      </c>
-      <c r="GB19" s="15">
-        <f t="shared" si="21"/>
-        <v>87.266164049361862</v>
-      </c>
-      <c r="GC19" s="15">
-        <f t="shared" si="21"/>
-        <v>84.648179127881008</v>
-      </c>
-      <c r="GD19" s="15">
-        <f t="shared" si="21"/>
-        <v>82.108733754044579</v>
-      </c>
-      <c r="GE19" s="15">
-        <f t="shared" si="21"/>
-        <v>79.645471741423236</v>
-      </c>
-      <c r="GF19" s="15">
-        <f t="shared" si="21"/>
-        <v>77.25610758918053</v>
-      </c>
-      <c r="GG19" s="15">
-        <f t="shared" si="21"/>
-        <v>74.938424361505113</v>
-      </c>
-      <c r="GH19" s="15">
-        <f t="shared" si="21"/>
-        <v>72.690271630659964</v>
-      </c>
-      <c r="GI19" s="15">
-        <f t="shared" si="21"/>
-        <v>70.509563481740159</v>
-      </c>
-      <c r="GJ19" s="15">
-        <f t="shared" si="21"/>
-        <v>68.394276577287954</v>
-      </c>
-      <c r="GK19" s="15">
-        <f t="shared" si="21"/>
-        <v>66.342448279969318</v>
-      </c>
-      <c r="GL19" s="15">
-        <f t="shared" si="21"/>
-        <v>64.352174831570238</v>
-      </c>
-      <c r="GM19" s="15">
-        <f t="shared" si="21"/>
-        <v>62.421609586623127</v>
-      </c>
-      <c r="GN19" s="15">
-        <f t="shared" si="21"/>
-        <v>60.548961299024434</v>
+        <v>4.6380047814921177</v>
+      </c>
+      <c r="Z19" s="17">
+        <f>(Z18/Z20)</f>
+        <v>4.871702324321574</v>
       </c>
     </row>
     <row r="20" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="17">
-        <f t="shared" ref="C20:Q20" si="22">(C19/C21)</f>
-        <v>1.0924832449617501</v>
-      </c>
-      <c r="D20" s="17">
-        <f t="shared" si="22"/>
-        <v>1.696331796305248</v>
-      </c>
-      <c r="E20" s="17">
-        <f t="shared" si="22"/>
-        <v>1.2453361622932306</v>
-      </c>
-      <c r="F20" s="17">
-        <f t="shared" si="22"/>
-        <v>1.0394617275188067</v>
-      </c>
-      <c r="G20" s="17">
-        <f t="shared" si="22"/>
-        <v>1.1808563856057768</v>
-      </c>
-      <c r="H20" s="17">
-        <f t="shared" si="22"/>
-        <v>1.0556204064875765</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="shared" si="22"/>
-        <v>1.2909482153286449</v>
-      </c>
-      <c r="J20" s="17">
-        <f t="shared" si="22"/>
-        <v>1.1053264560786631</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="22"/>
-        <v>1.3231669446829448</v>
-      </c>
-      <c r="L20" s="18">
-        <f t="shared" si="22"/>
-        <v>1.099292906430654</v>
-      </c>
-      <c r="M20" s="18">
-        <f t="shared" si="22"/>
-        <v>1.2679485246034798</v>
-      </c>
-      <c r="N20" s="18">
-        <f t="shared" si="22"/>
-        <v>1.1769599350054492</v>
-      </c>
-      <c r="O20" s="17">
-        <f t="shared" si="22"/>
-        <v>1.3071787880347576</v>
-      </c>
-      <c r="P20" s="17">
-        <f t="shared" si="22"/>
-        <v>2.1172699501932568</v>
-      </c>
-      <c r="Q20" s="17">
-        <f t="shared" si="22"/>
-        <v>1.4385565539265956</v>
-      </c>
-      <c r="U20" s="17">
-        <f>(U19/U21)</f>
-        <v>2.7946409059654824</v>
-      </c>
-      <c r="V20" s="17">
-        <f>(V19/V21)</f>
-        <v>3.5278299837970968</v>
-      </c>
-      <c r="W20" s="17">
-        <f>(W19/W21)</f>
-        <v>3.970425377332103</v>
-      </c>
-      <c r="X20" s="17">
-        <f t="shared" ref="X20:Y20" si="23">(X19/X21)</f>
-        <v>5.0839503009428615</v>
-      </c>
-      <c r="Y20" s="17">
-        <f t="shared" si="23"/>
-        <v>4.6380047814921177</v>
-      </c>
-      <c r="Z20" s="17">
-        <f>(Z19/Z21)</f>
-        <v>4.8717023243215749</v>
-      </c>
-    </row>
-    <row r="21" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C20" s="12">
         <v>639.65923799999996</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D20" s="12">
         <v>649.52033700000004</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E20" s="12">
         <v>650.62593100000004</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F20" s="12">
         <v>645.53699500000005</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G20" s="12">
         <v>636.69554500000004</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H20" s="12">
         <v>635.929351</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I20" s="12">
         <v>633.12841700000001</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J20" s="12">
         <v>634.21624999999995</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K20" s="14">
         <v>628.43921799999998</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L20" s="14">
         <v>628.25475900000004</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M20" s="14">
         <v>625.96941800000002</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N20" s="14">
         <v>626.79958599999998</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O20" s="12">
         <v>626.46212400000002</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P20" s="12">
         <v>626.52379299999996</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q20" s="12">
         <v>623.72591299999999</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U20" s="12">
         <v>637.17023400000005</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V20" s="12">
         <v>645.63117</v>
       </c>
-      <c r="W21" s="12">
+      <c r="W20" s="12">
         <v>643.13260100000002</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X20" s="12">
         <v>645.53699500000005</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="Y20" s="12">
         <v>634.21624999999995</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="Z20" s="12">
         <v>626.79958599999998</v>
       </c>
     </row>
-    <row r="22" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:196" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+    <row r="21" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:196" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="19">
+        <f>G5/C5-1</f>
+        <v>1.7169976771105322E-2</v>
+      </c>
+      <c r="H22" s="19">
+        <f>H5/D5-1</f>
+        <v>9.8972151195997338E-3</v>
+      </c>
+      <c r="I22" s="19">
+        <f>I5/E5-1</f>
+        <v>6.9051568286447651E-2</v>
+      </c>
+      <c r="J22" s="19">
+        <f>J5/F5-1</f>
+        <v>9.8647919187709432E-2</v>
+      </c>
+      <c r="K22" s="19">
+        <f>K5/G5-1</f>
+        <v>6.9690023816312729E-2</v>
+      </c>
+      <c r="L22" s="19">
+        <f>L5/H5-1</f>
+        <v>4.8114676967229375E-2</v>
+      </c>
+      <c r="M22" s="19">
+        <f>M5/I5-1</f>
+        <v>4.2336453815328134E-3</v>
+      </c>
+      <c r="N22" s="19">
+        <f>N5/J5-1</f>
+        <v>1.1756169079722101E-2</v>
+      </c>
+      <c r="O22" s="19">
+        <f>O5/K5-1</f>
+        <v>1.470960321610626E-2</v>
+      </c>
+      <c r="P22" s="19">
+        <f>P5/L5-1</f>
+        <v>5.8684702562790125E-2</v>
+      </c>
+      <c r="Q22" s="19">
+        <f>Q5/M5-1</f>
+        <v>8.3863741993115415E-2</v>
+      </c>
+      <c r="V22" s="19">
+        <f>V5/U5-1</f>
+        <v>0.18441247145696837</v>
+      </c>
+      <c r="W22" s="19">
+        <f>W5/V5-1</f>
+        <v>8.8658597764026181E-2</v>
+      </c>
+      <c r="X22" s="19">
+        <f>X5/W5-1</f>
+        <v>2.0696497765043675E-2</v>
+      </c>
+      <c r="Y22" s="19">
+        <f>Y5/X5-1</f>
+        <v>4.870629462084719E-2</v>
+      </c>
+      <c r="Z22" s="19">
+        <f>Z5/Y5-1</f>
+        <v>3.2619811877001581E-2</v>
+      </c>
+      <c r="AA22" s="19">
+        <f>AA5/Z5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AB22" s="19">
+        <f>AB5/AA5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AC22" s="19">
+        <f>AC5/AB5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AD22" s="19">
+        <f>AD5/AC5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AE22" s="19">
+        <f>AE5/AD5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AF22" s="19">
+        <f>AF5/AE5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AG22" s="19">
+        <f>AG5/AF5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AH22" s="19">
+        <f>AH5/AG5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AI22" s="19">
+        <f>AI5/AH5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AJ22" s="19">
+        <f>AJ5/AI5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AK22" s="19">
+        <f>AK5/AJ5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AL22" s="19">
+        <f>AL5/AK5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AM22" s="19">
+        <f>AM5/AL5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AN22" s="19">
+        <f>AN5/AM5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AO22" s="19">
+        <f>AO5/AN5-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AQ22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR22" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="19">
-        <f t="shared" ref="G23:Q23" si="24">G5/C5-1</f>
-        <v>1.7169976771105322E-2</v>
-      </c>
-      <c r="H23" s="19">
-        <f t="shared" si="24"/>
-        <v>9.8972151195997338E-3</v>
-      </c>
-      <c r="I23" s="19">
-        <f t="shared" si="24"/>
-        <v>6.9051568286447651E-2</v>
-      </c>
-      <c r="J23" s="19">
-        <f t="shared" si="24"/>
-        <v>9.8647919187709432E-2</v>
-      </c>
-      <c r="K23" s="19">
-        <f t="shared" si="24"/>
-        <v>6.9690023816312729E-2</v>
-      </c>
-      <c r="L23" s="19">
-        <f t="shared" si="24"/>
-        <v>4.8114676967229375E-2</v>
-      </c>
-      <c r="M23" s="19">
-        <f t="shared" si="24"/>
-        <v>4.2336453815328134E-3</v>
-      </c>
-      <c r="N23" s="19">
-        <f t="shared" si="24"/>
-        <v>1.1756169079722101E-2</v>
-      </c>
-      <c r="O23" s="19">
-        <f t="shared" si="24"/>
-        <v>1.470960321610626E-2</v>
-      </c>
-      <c r="P23" s="19">
-        <f t="shared" si="24"/>
-        <v>5.8684702562790125E-2</v>
-      </c>
-      <c r="Q23" s="19">
-        <f t="shared" si="24"/>
-        <v>8.3863741993115415E-2</v>
-      </c>
-      <c r="V23" s="19">
-        <f t="shared" ref="V23:AO23" si="25">V5/U5-1</f>
-        <v>0.18441247145696837</v>
-      </c>
-      <c r="W23" s="19">
-        <f t="shared" si="25"/>
-        <v>8.8658597764026181E-2</v>
-      </c>
-      <c r="X23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0696497765043675E-2</v>
-      </c>
-      <c r="Y23" s="19">
-        <f t="shared" si="25"/>
-        <v>4.870629462084719E-2</v>
-      </c>
-      <c r="Z23" s="19">
-        <f t="shared" si="25"/>
-        <v>3.2619811877001581E-2</v>
-      </c>
-      <c r="AA23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AB23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AC23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AD23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AE23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AF23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AG23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AH23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AI23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AJ23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AK23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AL23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AM23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AN23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AO23" s="19">
-        <f t="shared" si="25"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AQ23" s="20" t="s">
+      <c r="G23" s="21">
+        <f>G18/C18-1</f>
+        <v>7.6079410362740019E-2</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" ref="H23:Q23" si="20">H18/D18-1</f>
+        <v>-0.39025258173684407</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="20"/>
+        <v>1.0533792004545406E-2</v>
+      </c>
+      <c r="J23" s="21">
+        <f t="shared" si="20"/>
+        <v>4.1420303224174448E-2</v>
+      </c>
+      <c r="K23" s="21">
+        <f>K18/G18-1</f>
+        <v>0.10574554238920353</v>
+      </c>
+      <c r="L23" s="21">
+        <f t="shared" si="20"/>
+        <v>2.3095544359880815E-2</v>
+      </c>
+      <c r="M23" s="21">
+        <f t="shared" si="20"/>
+        <v>-3.0346663602706769E-2</v>
+      </c>
+      <c r="N23" s="21">
+        <f t="shared" si="20"/>
+        <v>5.9865790221862891E-2</v>
+      </c>
+      <c r="O23" s="21">
+        <f>O18/K18-1</f>
+        <v>-1.4939091143131744E-2</v>
+      </c>
+      <c r="P23" s="21">
+        <f t="shared" si="20"/>
+        <v>0.9300553986388258</v>
+      </c>
+      <c r="Q23" s="21">
+        <f t="shared" si="20"/>
+        <v>0.13109143486712349</v>
+      </c>
+      <c r="V23" s="20">
+        <f>V18/U18-1</f>
+        <v>0.27925396875323094</v>
+      </c>
+      <c r="W23" s="20">
+        <f>W18/V18-1</f>
+        <v>0.12092892763152752</v>
+      </c>
+      <c r="X23" s="20">
+        <f t="shared" ref="X23:AO23" si="21">X18/W18-1</f>
+        <v>0.28548805513154729</v>
+      </c>
+      <c r="Y23" s="20">
+        <f t="shared" si="21"/>
+        <v>-0.10371500707826453</v>
+      </c>
+      <c r="Z23" s="20">
+        <f t="shared" si="21"/>
+        <v>3.8104054464765946E-2</v>
+      </c>
+      <c r="AA23" s="20">
+        <f t="shared" si="21"/>
+        <v>0.21717748744179377</v>
+      </c>
+      <c r="AB23" s="20">
+        <f t="shared" si="21"/>
+        <v>5.3946814073344118E-2</v>
+      </c>
+      <c r="AC23" s="20">
+        <f t="shared" si="21"/>
+        <v>5.1887241071044254E-2</v>
+      </c>
+      <c r="AD23" s="20">
+        <f t="shared" si="21"/>
+        <v>5.0011271161686244E-2</v>
+      </c>
+      <c r="AE23" s="20">
+        <f t="shared" si="21"/>
+        <v>4.8296132309425088E-2</v>
+      </c>
+      <c r="AF23" s="20">
+        <f t="shared" si="21"/>
+        <v>4.6722664324950092E-2</v>
+      </c>
+      <c r="AG23" s="20">
+        <f t="shared" si="21"/>
+        <v>4.5274629940019295E-2</v>
+      </c>
+      <c r="AH23" s="20">
+        <f t="shared" si="21"/>
+        <v>4.3938177778092502E-2</v>
+      </c>
+      <c r="AI23" s="20">
+        <f t="shared" si="21"/>
+        <v>4.2701419533829776E-2</v>
+      </c>
+      <c r="AJ23" s="20">
+        <f t="shared" si="21"/>
+        <v>4.1554093994904173E-2</v>
+      </c>
+      <c r="AK23" s="20">
+        <f t="shared" si="21"/>
+        <v>4.0487297785825938E-2</v>
+      </c>
+      <c r="AL23" s="20">
+        <f t="shared" si="21"/>
+        <v>3.9493267870363669E-2</v>
+      </c>
+      <c r="AM23" s="20">
+        <f t="shared" si="21"/>
+        <v>3.8565204565259359E-2</v>
+      </c>
+      <c r="AN23" s="20">
+        <f t="shared" si="21"/>
+        <v>3.7697126527058256E-2</v>
+      </c>
+      <c r="AO23" s="20">
+        <f t="shared" si="21"/>
+        <v>3.6883751170339707E-2</v>
+      </c>
+      <c r="AQ23" s="12" t="s">
         <v>49</v>
       </c>
       <c r="AR23" s="20">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="24" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="21">
-        <f>G19/C19-1</f>
-        <v>7.5883958175029909E-2</v>
-      </c>
-      <c r="H24" s="21">
-        <f t="shared" ref="H24:Q24" si="26">H19/D19-1</f>
-        <v>-0.39072537533967033</v>
-      </c>
-      <c r="I24" s="21">
-        <f t="shared" si="26"/>
-        <v>8.7479389026567933E-3</v>
-      </c>
-      <c r="J24" s="21">
-        <f t="shared" si="26"/>
-        <v>4.4716107485570422E-2</v>
-      </c>
-      <c r="K24" s="21">
-        <f t="shared" si="26"/>
-        <v>0.10598447022395385</v>
-      </c>
-      <c r="L24" s="21">
-        <f t="shared" si="26"/>
-        <v>2.8803813496200537E-2</v>
-      </c>
-      <c r="M24" s="21">
-        <f t="shared" si="26"/>
-        <v>-2.892201004238304E-2</v>
-      </c>
-      <c r="N24" s="21">
-        <f t="shared" si="26"/>
-        <v>5.2355438392280851E-2</v>
-      </c>
-      <c r="O24" s="21">
-        <f t="shared" si="26"/>
-        <v>-1.5191273916754677E-2</v>
-      </c>
-      <c r="P24" s="21">
-        <f t="shared" si="26"/>
-        <v>0.92072234867571345</v>
-      </c>
-      <c r="Q24" s="21">
-        <f t="shared" si="26"/>
-        <v>0.13048808298380954</v>
-      </c>
-      <c r="V24" s="20">
-        <f>V19/U19-1</f>
-        <v>0.2791181032672132</v>
-      </c>
-      <c r="W24" s="20">
-        <f>W19/V19-1</f>
-        <v>0.12110277269340708</v>
-      </c>
-      <c r="X24" s="20">
-        <f t="shared" ref="X24:AO24" si="27">X19/W19-1</f>
-        <v>0.28524188274179374</v>
-      </c>
-      <c r="Y24" s="20">
-        <f t="shared" si="27"/>
-        <v>-0.10371500707826453</v>
-      </c>
-      <c r="Z24" s="20">
-        <f t="shared" si="27"/>
-        <v>3.8104054464766168E-2</v>
-      </c>
-      <c r="AA24" s="20">
-        <f t="shared" si="27"/>
-        <v>0.21711172858358707</v>
-      </c>
-      <c r="AB24" s="20">
-        <f t="shared" si="27"/>
-        <v>5.3949728744868475E-2</v>
-      </c>
-      <c r="AC24" s="20">
-        <f t="shared" si="27"/>
-        <v>5.1889900966080926E-2</v>
-      </c>
-      <c r="AD24" s="20">
-        <f t="shared" si="27"/>
-        <v>5.0013708419816227E-2</v>
-      </c>
-      <c r="AE24" s="20">
-        <f t="shared" si="27"/>
-        <v>4.8298373872778688E-2</v>
-      </c>
-      <c r="AF24" s="20">
-        <f t="shared" si="27"/>
-        <v>4.6724732947970526E-2</v>
-      </c>
-      <c r="AG24" s="20">
-        <f t="shared" si="27"/>
-        <v>4.5276544972640442E-2</v>
-      </c>
-      <c r="AH24" s="20">
-        <f t="shared" si="27"/>
-        <v>4.3939955779512374E-2</v>
-      </c>
-      <c r="AI24" s="20">
-        <f t="shared" si="27"/>
-        <v>4.2703074758132287E-2</v>
-      </c>
-      <c r="AJ24" s="20">
-        <f t="shared" si="27"/>
-        <v>4.1555638778699944E-2</v>
-      </c>
-      <c r="AK24" s="20">
-        <f t="shared" si="27"/>
-        <v>4.0488742860217641E-2</v>
-      </c>
-      <c r="AL24" s="20">
-        <f t="shared" si="27"/>
-        <v>3.9494622613932329E-2</v>
-      </c>
-      <c r="AM24" s="20">
-        <f t="shared" si="27"/>
-        <v>3.8566477210680628E-2</v>
-      </c>
-      <c r="AN24" s="20">
-        <f t="shared" si="27"/>
-        <v>3.7698324330969868E-2</v>
-      </c>
-      <c r="AO24" s="20">
-        <f t="shared" si="27"/>
-        <v>3.6884880553863519E-2</v>
-      </c>
       <c r="AQ24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AR24" s="20">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="25" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AQ25" s="12" t="s">
+      <c r="AR24" s="22">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:196" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="20">
+        <f>(C9/C5)</f>
+        <v>0.30857875471633156</v>
+      </c>
+      <c r="D25" s="20">
+        <f>(D9/D5)</f>
+        <v>0.29764683744988873</v>
+      </c>
+      <c r="E25" s="20">
+        <f>(E9/E5)</f>
+        <v>0.31629989095652727</v>
+      </c>
+      <c r="F25" s="20">
+        <f>(F9/F5)</f>
+        <v>0.31223945161949657</v>
+      </c>
+      <c r="G25" s="20">
+        <f>(G9/G5)</f>
+        <v>0.31403108531409424</v>
+      </c>
+      <c r="H25" s="20">
+        <f>(H9/H5)</f>
+        <v>0.29470062899381483</v>
+      </c>
+      <c r="I25" s="20">
+        <f>(I9/I5)</f>
+        <v>0.30780359166911403</v>
+      </c>
+      <c r="J25" s="20">
+        <f>(J9/J5)</f>
+        <v>0.29859982419935643</v>
+      </c>
+      <c r="K25" s="20">
+        <f>(K9/K5)</f>
+        <v>0.30435236502962804</v>
+      </c>
+      <c r="L25" s="20">
+        <f>(L9/L5)</f>
+        <v>0.28249556520193303</v>
+      </c>
+      <c r="M25" s="20">
+        <f>(M9/M5)</f>
+        <v>0.30512203769734275</v>
+      </c>
+      <c r="N25" s="20">
+        <f>(N9/N5)</f>
+        <v>0.29940841730018614</v>
+      </c>
+      <c r="O25" s="20">
+        <f>(O9/O5)</f>
+        <v>0.30268404744020866</v>
+      </c>
+      <c r="P25" s="20">
+        <f>(P9/P5)</f>
+        <v>0.28221996455184928</v>
+      </c>
+      <c r="Q25" s="20">
+        <f>(Q9/Q5)</f>
+        <v>0.29987053246700535</v>
+      </c>
+      <c r="V25" s="20">
+        <f>(V9/V5)</f>
+        <v>0.30661153689146248</v>
+      </c>
+      <c r="W25" s="20">
+        <f>(W9/W5)</f>
+        <v>0.30182367947327532</v>
+      </c>
+      <c r="X25" s="20">
+        <f>(X9/X5)</f>
+        <v>0.30874800969984989</v>
+      </c>
+      <c r="Y25" s="20">
+        <f>(Y9/Y5)</f>
+        <v>0.30382945358695074</v>
+      </c>
+      <c r="Z25" s="20">
+        <f>(Z9/Z5)</f>
+        <v>0.29802250223184823</v>
+      </c>
+      <c r="AA25" s="20">
+        <f>(AA9/AA5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AB25" s="20">
+        <f>(AB9/AB5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AC25" s="20">
+        <f>(AC9/AC5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AD25" s="20">
+        <f>(AD9/AD5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AE25" s="20">
+        <f>(AE9/AE5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AF25" s="20">
+        <f>(AF9/AF5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AG25" s="20">
+        <f>(AG9/AG5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AH25" s="20">
+        <f>(AH9/AH5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AI25" s="20">
+        <f>(AI9/AI5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AJ25" s="20">
+        <f>(AJ9/AJ5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AK25" s="20">
+        <f>(AK9/AK5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AL25" s="20">
+        <f>(AL9/AL5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AM25" s="20">
+        <f>(AM9/AM5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AN25" s="20">
+        <f>(AN9/AN5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AO25" s="20">
+        <f>(AO9/AO5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AQ25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AR25" s="22">
-        <v>4.4999999999999998E-2</v>
+      <c r="AR25" s="23">
+        <f>NPV(AR24,X18:GN18)</f>
+        <v>95678.242599467849</v>
       </c>
     </row>
     <row r="26" spans="2:196" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -4322,322 +4316,186 @@
         <v>47</v>
       </c>
       <c r="C26" s="20">
-        <f t="shared" ref="C26:Q26" si="28">(C9/C5)</f>
-        <v>0.30857875471633156</v>
+        <f>(C17/C16)</f>
+        <v>0.26803174803438601</v>
       </c>
       <c r="D26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.29764683744988873</v>
+        <f t="shared" ref="D26:Q26" si="22">(D17/D16)</f>
+        <v>-4.8673686492014838E-3</v>
       </c>
       <c r="E26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.31629989095652727</v>
+        <f t="shared" si="22"/>
+        <v>0.23782105432179776</v>
       </c>
       <c r="F26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.31223945161949657</v>
+        <f t="shared" si="22"/>
+        <v>0.24603086660749982</v>
       </c>
       <c r="G26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.31403108531409424</v>
+        <f t="shared" si="22"/>
+        <v>0.25097948368173262</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.29470062899381483</v>
+        <f t="shared" si="22"/>
+        <v>0.23965614466247789</v>
       </c>
       <c r="I26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.30780359166911403</v>
+        <f t="shared" si="22"/>
+        <v>0.24995432198960663</v>
       </c>
       <c r="J26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.29859982419935643</v>
+        <f t="shared" si="22"/>
+        <v>0.30130246764965901</v>
       </c>
       <c r="K26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.30435236502962804</v>
+        <f t="shared" si="22"/>
+        <v>0.2515469107935524</v>
       </c>
       <c r="L26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.28249556520193303</v>
+        <f t="shared" si="22"/>
+        <v>0.26139290118679687</v>
       </c>
       <c r="M26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.30512203769734275</v>
+        <f t="shared" si="22"/>
+        <v>0.24906422310193718</v>
       </c>
       <c r="N26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.29940841730018614</v>
+        <f t="shared" si="22"/>
+        <v>0.26548310547246273</v>
       </c>
       <c r="O26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.30268404744020866</v>
+        <f t="shared" si="22"/>
+        <v>0.29283197426010837</v>
       </c>
       <c r="P26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.28221996455184928</v>
+        <f t="shared" si="22"/>
+        <v>0.13728605874724484</v>
       </c>
       <c r="Q26" s="20">
-        <f t="shared" si="28"/>
-        <v>0.29987053246700535</v>
+        <f t="shared" si="22"/>
+        <v>0.26544905606708019</v>
       </c>
       <c r="V26" s="20">
-        <f t="shared" ref="V26:Z26" si="29">(V9/V5)</f>
-        <v>0.30661153689146248</v>
+        <f t="shared" ref="V26:Z26" si="23">(V17/V16)</f>
+        <v>0.2730064502828779</v>
       </c>
       <c r="W26" s="20">
-        <f t="shared" si="29"/>
-        <v>0.30182367947327532</v>
+        <f t="shared" si="23"/>
+        <v>0.2764672354454828</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" si="29"/>
-        <v>0.30874800969984989</v>
+        <f t="shared" si="23"/>
+        <v>0.18082706593669917</v>
       </c>
       <c r="Y26" s="20">
-        <f t="shared" si="29"/>
-        <v>0.30382945358695074</v>
+        <f t="shared" si="23"/>
+        <v>0.26099477146324579</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" si="29"/>
-        <v>0.29802250223184823</v>
+        <f t="shared" si="23"/>
+        <v>0.25271350986996638</v>
       </c>
       <c r="AA26" s="20">
-        <f t="shared" ref="AA26:AI26" si="30">(AA9/AA5)</f>
-        <v>0.29499999999999998</v>
+        <f t="shared" ref="AA26:AI26" si="24">(AA17/AA16)</f>
+        <v>0.2</v>
       </c>
       <c r="AB26" s="20">
-        <f t="shared" si="30"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="24"/>
+        <v>0.2</v>
       </c>
       <c r="AC26" s="20">
-        <f t="shared" si="30"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="24"/>
+        <v>0.2</v>
       </c>
       <c r="AD26" s="20">
-        <f t="shared" si="30"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="24"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="AE26" s="20">
-        <f t="shared" si="30"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="24"/>
+        <v>0.2</v>
       </c>
       <c r="AF26" s="20">
-        <f t="shared" si="30"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="24"/>
+        <v>0.2</v>
       </c>
       <c r="AG26" s="20">
-        <f t="shared" si="30"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="24"/>
+        <v>0.2</v>
       </c>
       <c r="AH26" s="20">
-        <f t="shared" si="30"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="24"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="AI26" s="20">
-        <f t="shared" si="30"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="24"/>
+        <v>0.2</v>
       </c>
       <c r="AJ26" s="20">
-        <f t="shared" ref="AJ26:AO26" si="31">(AJ9/AJ5)</f>
-        <v>0.29499999999999998</v>
+        <f t="shared" ref="AJ26:AO26" si="25">(AJ17/AJ16)</f>
+        <v>0.2</v>
       </c>
       <c r="AK26" s="20">
-        <f t="shared" si="31"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="25"/>
+        <v>0.2</v>
       </c>
       <c r="AL26" s="20">
-        <f t="shared" si="31"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="25"/>
+        <v>0.2</v>
       </c>
       <c r="AM26" s="20">
-        <f t="shared" si="31"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="25"/>
+        <v>0.2</v>
       </c>
       <c r="AN26" s="20">
-        <f t="shared" si="31"/>
-        <v>0.29499999999999998</v>
+        <f t="shared" si="25"/>
+        <v>0.2</v>
       </c>
       <c r="AO26" s="20">
-        <f t="shared" si="31"/>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AQ26" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR26" s="23">
-        <f>NPV(AR25,X19:GN19)</f>
-        <v>95675.17694796274</v>
-      </c>
-    </row>
-    <row r="27" spans="2:196" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="20">
-        <f>(C18/C17)</f>
-        <v>0.26797591107509527</v>
-      </c>
-      <c r="D27" s="20">
-        <f t="shared" ref="D27:Q27" si="32">(D18/D17)</f>
-        <v>-4.8664704503072328E-3</v>
-      </c>
-      <c r="E27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.23768353574777046</v>
-      </c>
-      <c r="F27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.24609228525437127</v>
-      </c>
-      <c r="G27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.25095678479701944</v>
-      </c>
-      <c r="H27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.23975401209100228</v>
-      </c>
-      <c r="I27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.25011947908818322</v>
-      </c>
-      <c r="J27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.30135342049780456</v>
-      </c>
-      <c r="K27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.25148613527648089</v>
-      </c>
-      <c r="L27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.26049936807746271</v>
-      </c>
-      <c r="M27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.24897380157602192</v>
-      </c>
-      <c r="N27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.26557564355485525</v>
-      </c>
-      <c r="O27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.29281433323401407</v>
-      </c>
-      <c r="P27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.13727049067171537</v>
-      </c>
-      <c r="Q27" s="20">
-        <f t="shared" si="32"/>
-        <v>0.26545192862145045</v>
-      </c>
-      <c r="V27" s="20">
-        <f t="shared" ref="V27:Z27" si="33">(V18/V17)</f>
-        <v>0.27299999829158245</v>
-      </c>
-      <c r="W27" s="20">
-        <f t="shared" si="33"/>
-        <v>0.27643260776799383</v>
-      </c>
-      <c r="X27" s="20">
-        <f t="shared" si="33"/>
-        <v>0.18083298270095835</v>
-      </c>
-      <c r="Y27" s="20">
-        <f t="shared" si="33"/>
-        <v>0.26101001442399085</v>
-      </c>
-      <c r="Z27" s="20">
-        <f t="shared" si="33"/>
-        <v>0.25272761228042495</v>
-      </c>
-      <c r="AA27" s="20">
-        <f t="shared" ref="AA27:AI27" si="34">(AA18/AA17)</f>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="AB27" s="20">
-        <f t="shared" si="34"/>
-        <v>0.2</v>
-      </c>
-      <c r="AC27" s="20">
-        <f t="shared" si="34"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="AD27" s="20">
-        <f t="shared" si="34"/>
-        <v>0.2</v>
-      </c>
-      <c r="AE27" s="20">
-        <f t="shared" si="34"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="AF27" s="20">
-        <f t="shared" si="34"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="AG27" s="20">
-        <f t="shared" si="34"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="AH27" s="20">
-        <f t="shared" si="34"/>
-        <v>0.2</v>
-      </c>
-      <c r="AI27" s="20">
-        <f t="shared" si="34"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="AJ27" s="20">
-        <f t="shared" ref="AJ27:AO27" si="35">(AJ18/AJ17)</f>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="AK27" s="20">
-        <f t="shared" si="35"/>
-        <v>0.2</v>
-      </c>
-      <c r="AL27" s="20">
-        <f t="shared" si="35"/>
-        <v>0.2</v>
-      </c>
-      <c r="AM27" s="20">
-        <f t="shared" si="35"/>
-        <v>0.2</v>
-      </c>
-      <c r="AN27" s="20">
-        <f t="shared" si="35"/>
-        <v>0.2</v>
-      </c>
-      <c r="AO27" s="20">
-        <f t="shared" si="35"/>
-        <v>0.2</v>
-      </c>
-      <c r="AQ27" s="20" t="s">
+      <c r="AQ26" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AR27" s="12">
+      <c r="AR26" s="12">
         <f>Main!K5-Main!K6</f>
         <v>3604.3010000000004</v>
       </c>
     </row>
+    <row r="27" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z27" s="20"/>
+      <c r="AQ27" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR27" s="15">
+        <f>AR25+AR26</f>
+        <v>99282.543599467856</v>
+      </c>
+    </row>
     <row r="28" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Z28" s="20"/>
-      <c r="AQ28" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR28" s="15">
-        <f>AR26+AR27</f>
-        <v>99279.477947962747</v>
+      <c r="B28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="12">
+        <f>3497.878+2.869+132.427</f>
+        <v>3633.1740000000004</v>
       </c>
     </row>
     <row r="29" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="12">
-        <f>3497.878+2.869+132.427</f>
-        <v>3633.1740000000004</v>
+        <f>4303.642+2136.836+51.179</f>
+        <v>6491.6569999999992</v>
+      </c>
+      <c r="AQ29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR29" s="15">
+        <f>AR27/Main!K3</f>
+        <v>153.99088548612264</v>
       </c>
     </row>
     <row r="30" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4645,197 +4503,204 @@
         <v>56</v>
       </c>
       <c r="Q30" s="12">
-        <f>4303.642+2136.836+51.179</f>
-        <v>6491.6569999999992</v>
+        <f>891.39+1229.695</f>
+        <v>2121.085</v>
       </c>
       <c r="AQ30" s="15" t="s">
         <v>54</v>
       </c>
       <c r="AR30" s="15">
-        <f>AR28/Main!K3</f>
-        <v>153.98613054761333</v>
+        <f>Main!K2</f>
+        <v>110.53</v>
       </c>
     </row>
     <row r="31" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="12" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="12">
-        <f>891.39+1229.695</f>
-        <v>2121.085</v>
-      </c>
-      <c r="AQ31" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR31" s="15">
-        <f>Main!K2</f>
-        <v>110.53</v>
-      </c>
+        <v>725.46600000000001</v>
+      </c>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
     </row>
     <row r="32" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="Q32" s="12">
-        <v>725.46600000000001</v>
-      </c>
-      <c r="AQ32" s="15"/>
-      <c r="AR32" s="15"/>
-    </row>
-    <row r="33" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>743.39599999999996</v>
+      </c>
+      <c r="AR32" s="20">
+        <f>AR29/AR30-1</f>
+        <v>0.39320442853634874</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
         <v>58</v>
       </c>
       <c r="Q33" s="12">
-        <v>743.39599999999996</v>
-      </c>
-      <c r="AR33" s="12">
-        <f>AR30/AR31-1</f>
-        <v>0.39316140909810304</v>
-      </c>
-    </row>
-    <row r="34" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>883.60900000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
         <v>59</v>
       </c>
       <c r="Q34" s="12">
-        <v>883.60900000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3538.1469999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
         <v>60</v>
       </c>
       <c r="Q35" s="12">
-        <v>3538.1469999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1054.5129999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
         <v>61</v>
       </c>
       <c r="Q36" s="12">
-        <v>1054.5129999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q37" s="12">
-        <f>SUM(Q29:Q36)</f>
+        <f>SUM(Q28:Q35)</f>
         <v>19191.047000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="12" t="s">
+    <row r="37" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q38" s="12">
         <f>2.072+26.801</f>
         <v>28.872999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>1133.43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
         <v>63</v>
       </c>
       <c r="Q40" s="12">
-        <v>1133.43</v>
-      </c>
-    </row>
-    <row r="41" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q41" s="12">
         <f>2349.05+771.973</f>
         <v>3121.0230000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>3410.777</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
         <v>71</v>
       </c>
       <c r="Q42" s="12">
-        <v>3410.777</v>
-      </c>
-    </row>
-    <row r="43" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>364.32400000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="Q43" s="12">
-        <v>364.32400000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q44" s="12">
         <f>50.825+152.882</f>
         <v>203.70699999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>472.07100000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="Q45" s="12">
-        <v>472.07100000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1139.634</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
         <v>65</v>
       </c>
       <c r="Q46" s="12">
-        <v>1139.634</v>
-      </c>
-    </row>
-    <row r="47" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <f>927.952+378.584</f>
+        <v>1306.5360000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
         <v>66</v>
       </c>
       <c r="Q47" s="12">
-        <f>927.952+378.584</f>
-        <v>1306.5360000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="12" t="s">
+        <v>304.11399999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="Q48" s="12">
-        <v>304.11399999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="15" t="s">
+      <c r="Q48" s="15">
+        <v>7706.558</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Q49" s="15">
-        <v>7706.558</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q50" s="12">
-        <f>SUM(Q39:Q49)</f>
+      <c r="Q49" s="12">
+        <f>SUM(Q38:Q48)</f>
         <v>19191.046999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="24" t="s">
+    <row r="51" spans="2:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" s="15">
+        <f>SUM(M18:P18)</f>
+        <v>3680.2980000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="P52" s="15">
-        <f>SUM(M19:P19)</f>
-        <v>3676.8330000000014</v>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20">
+        <f>SUM(N18:Q18)/Q48</f>
+        <v>0.49104814367192218</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
@@ -4857,8 +4722,8 @@
       <c r="O53" s="20"/>
       <c r="P53" s="20"/>
       <c r="Q53" s="20">
-        <f>SUM(N19:Q19)/Q49</f>
-        <v>0.49054337876909532</v>
+        <f>($P$51/Q36)</f>
+        <v>0.19177161100173432</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
@@ -4880,31 +4745,13 @@
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
       <c r="Q54" s="20">
-        <f>($P$52/Q37)</f>
-        <v>0.19159105805952126</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="20" t="s">
+        <f>P51/(Q48-Q34)</f>
+        <v>0.88290190194776874</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20">
-        <f>P52/(Q49-Q35)</f>
-        <v>0.88207064994310813</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
@@ -4929,17 +4776,12 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B63" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/investing spreadsheets/ACN.xlsx
+++ b/investing spreadsheets/ACN.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billymbp/stock-exchange-berkeley/investing spreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="-15" windowWidth="30120" windowHeight="20535" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="33520" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -31,9 +36,6 @@
     <t>% of Revenue</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Competition</t>
   </si>
   <si>
@@ -269,6 +271,42 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Comm., Media, Tech</t>
+  </si>
+  <si>
+    <t>Financial Serv.</t>
+  </si>
+  <si>
+    <t>Health &amp; Public Serv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Business Solutions</t>
+  </si>
+  <si>
+    <t>Banking, Cap. Markets, Insurance</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Outsourcing</t>
+  </si>
+  <si>
+    <t>Infosys,</t>
+  </si>
+  <si>
+    <t>Operating Expenses Y/Y</t>
   </si>
 </sst>
 </file>
@@ -278,7 +316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,6 +359,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,12 +373,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -390,14 +513,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -424,6 +541,27 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -498,7 +636,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>138953</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>155201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -542,7 +680,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>51546</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -901,3897 +1039,4096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11" style="22"/>
+    <col min="2" max="2" width="30.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="22">
+        <v>110.53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30">
+        <f>6349/31048</f>
+        <v>0.20448982221077042</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K2">
-        <v>110.53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-      <c r="J3" t="s">
+      <c r="J3" s="22">
+        <v>644.73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="30">
+        <f>6635/31048</f>
+        <v>0.21370136562741562</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="I4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K3">
-        <v>644.73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
+      <c r="J4" s="23">
+        <f>(J2*J3)</f>
+        <v>71262.006900000008</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="30">
+        <f>5463/31048</f>
+        <v>0.17595336253542901</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="I5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3">
-        <f>(K2*K3)</f>
-        <v>71262.006900000008</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="J5" s="23">
         <f>3497.878+2.869+132.427</f>
         <v>3633.1740000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="30">
+        <f>7596/31048</f>
+        <v>0.24465343983509405</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="23">
         <f>2.072+26.801</f>
         <v>28.872999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="3">
-        <f>(K4-K5+K6)</f>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34">
+        <f>4989/31048</f>
+        <v>0.16068667869105902</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="I7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="23">
+        <f>(J4-J5+J6)</f>
         <v>67657.705900000015</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="22" t="e">
+        <f>SUM</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="24">
+        <f>15738/30002</f>
+        <v>0.52456502899806678</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="24">
+        <f>14265/30002</f>
+        <v>0.47546830211319246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:GN62"/>
+  <dimension ref="B1:GN63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="10"/>
-    <col min="2" max="2" width="39.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="10" customWidth="1"/>
-    <col min="4" max="43" width="11" style="10"/>
-    <col min="44" max="44" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="11" style="6"/>
+    <col min="2" max="2" width="39.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="6" customWidth="1"/>
+    <col min="4" max="43" width="11" style="6"/>
+    <col min="44" max="44" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="5">
+    <row r="1" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="1">
         <v>41243</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="1">
         <v>41333</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="1">
         <v>41425</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="4">
         <v>41517</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="1">
         <v>41607</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="2">
         <v>41698</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="2">
         <v>41790</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="4">
         <v>41882</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="3">
         <v>41973</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="3">
         <v>42086</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="3">
         <v>42155</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="4">
         <v>42247</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="2">
         <v>42338</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="2">
         <v>42453</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="2">
         <v>42521</v>
       </c>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="6">
+        <v>2010</v>
+      </c>
+      <c r="V2" s="6">
+        <v>2011</v>
+      </c>
+      <c r="W2" s="6">
+        <v>2012</v>
+      </c>
+      <c r="X2" s="6">
+        <v>2013</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>2014</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>2015</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>2016</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>2017</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>2018</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>2020</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>2021</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>2023</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>2024</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>2025</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>2026</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>2027</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>2028</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>2029</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="10">
-        <v>2010</v>
-      </c>
-      <c r="V2" s="10">
-        <v>2011</v>
-      </c>
-      <c r="W2" s="10">
-        <v>2012</v>
-      </c>
-      <c r="X2" s="10">
-        <v>2013</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>2014</v>
-      </c>
-      <c r="Z2" s="10">
-        <v>2015</v>
-      </c>
-      <c r="AA2" s="10">
-        <v>2016</v>
-      </c>
-      <c r="AB2" s="10">
-        <v>2017</v>
-      </c>
-      <c r="AC2" s="10">
-        <v>2018</v>
-      </c>
-      <c r="AD2" s="10">
-        <v>2019</v>
-      </c>
-      <c r="AE2" s="10">
-        <v>2020</v>
-      </c>
-      <c r="AF2" s="10">
-        <v>2021</v>
-      </c>
-      <c r="AG2" s="10">
-        <v>2022</v>
-      </c>
-      <c r="AH2" s="10">
-        <v>2023</v>
-      </c>
-      <c r="AI2" s="10">
-        <v>2024</v>
-      </c>
-      <c r="AJ2" s="10">
-        <v>2025</v>
-      </c>
-      <c r="AK2" s="10">
-        <v>2026</v>
-      </c>
-      <c r="AL2" s="10">
-        <v>2027</v>
-      </c>
-      <c r="AM2" s="10">
-        <v>2028</v>
-      </c>
-      <c r="AN2" s="10">
-        <v>2029</v>
-      </c>
-      <c r="AO2" s="10">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="3" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>7219.9610000000002</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>7058.0420000000004</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>7198.14</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <f>28562.81-C3-D3-E3</f>
         <v>7086.6670000000004</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="8">
         <v>7358.7489999999998</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="8">
         <v>7130.6670000000004</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="8">
         <v>7735.6379999999999</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="8">
         <f>30002.394-G3-H3-I3</f>
         <v>7777.3399999999992</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
         <v>7895.7150000000001</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="10">
         <v>7493.3289999999997</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="10">
         <v>7770.3819999999996</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="10">
         <f>31047.931-M3-L3-K3</f>
         <v>7888.5049999999992</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="8">
         <v>8013.1620000000003</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="8">
         <v>7945.5649999999996</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="8">
         <v>8434.7569999999996</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="8">
         <v>21550.567999999999</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="8">
         <v>25507.036</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="8">
         <v>27862.33</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="8">
         <f t="shared" ref="X3:X18" si="0">SUM(C3:F3)</f>
         <v>28562.81</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="8">
         <f t="shared" ref="Y3:Y18" si="1">SUM(G3:J3)</f>
         <v>30002.394</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="8">
         <f>SUM(K3:N3)</f>
         <v>31047.930999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="12">
+    <row r="4" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8">
         <v>448.07499999999999</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>435.27800000000002</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="8">
         <v>509.79500000000002</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="8">
         <f>1831.475-C4-D4-E4</f>
         <v>438.32699999999983</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="8">
         <v>440.947</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="8">
         <v>436.81599999999997</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="8">
         <v>504.54199999999997</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="8">
         <f>1872.284-G4-H4-I4</f>
         <v>489.97899999999998</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <v>447.54199999999997</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="10">
         <v>438.26100000000002</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="10">
         <v>504.68400000000003</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="10">
         <f>1866.493-K4-L4-M4</f>
         <v>476.00600000000003</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="8">
         <v>452.82100000000003</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="8">
         <v>451.488</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="8">
         <v>534.28700000000003</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="8">
         <v>1543.51</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="8">
         <v>1845.8779999999999</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="8">
         <v>1915.655</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="8">
         <f t="shared" si="0"/>
         <v>1831.4749999999999</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="8">
         <f t="shared" si="1"/>
         <v>1872.2839999999999</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="8">
         <f>SUM(K4:N4)</f>
         <v>1866.4930000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:41" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="15">
+    <row r="5" spans="2:41" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="11">
         <f t="shared" ref="C5:Q5" si="2">+C3+C4</f>
         <v>7668.0360000000001</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <f t="shared" si="2"/>
         <v>7493.3200000000006</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <f t="shared" si="2"/>
         <v>7707.9350000000004</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <f t="shared" si="2"/>
         <v>7524.9940000000006</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <f t="shared" si="2"/>
         <v>7799.6959999999999</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <f t="shared" si="2"/>
         <v>7567.4830000000002</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <f t="shared" si="2"/>
         <v>8240.18</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <f t="shared" si="2"/>
         <v>8267.3189999999995</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="12">
         <f t="shared" si="2"/>
         <v>8343.2569999999996</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="12">
         <f t="shared" si="2"/>
         <v>7931.59</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="12">
         <f t="shared" si="2"/>
         <v>8275.0659999999989</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="12">
         <f t="shared" si="2"/>
         <v>8364.5109999999986</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="11">
         <f t="shared" si="2"/>
         <v>8465.9830000000002</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="11">
         <f t="shared" si="2"/>
         <v>8397.0529999999999</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="11">
         <f t="shared" si="2"/>
         <v>8969.0439999999999</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="11">
         <f>+U3+U4</f>
         <v>23094.077999999998</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="11">
         <f>+V3+V4</f>
         <v>27352.914000000001</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="11">
         <f>+W3+W4</f>
         <v>29777.985000000001</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="11">
         <f t="shared" si="0"/>
         <v>30394.285000000003</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="Y5" s="11">
         <f t="shared" si="1"/>
         <v>31874.678</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="11">
         <f>+Z3+Z4</f>
         <v>32914.423999999999</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="11">
         <f>+Z5*1.02</f>
         <v>33572.712480000002</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="11">
         <f t="shared" ref="AB5:AO5" si="3">+AA5*1.02</f>
         <v>34244.166729600001</v>
       </c>
-      <c r="AC5" s="15">
+      <c r="AC5" s="11">
         <f t="shared" si="3"/>
         <v>34929.050064192001</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AD5" s="11">
         <f t="shared" si="3"/>
         <v>35627.631065475842</v>
       </c>
-      <c r="AE5" s="15">
+      <c r="AE5" s="11">
         <f t="shared" si="3"/>
         <v>36340.183686785356</v>
       </c>
-      <c r="AF5" s="15">
+      <c r="AF5" s="11">
         <f t="shared" si="3"/>
         <v>37066.987360521067</v>
       </c>
-      <c r="AG5" s="15">
+      <c r="AG5" s="11">
         <f t="shared" si="3"/>
         <v>37808.327107731486</v>
       </c>
-      <c r="AH5" s="15">
+      <c r="AH5" s="11">
         <f t="shared" si="3"/>
         <v>38564.493649886113</v>
       </c>
-      <c r="AI5" s="15">
+      <c r="AI5" s="11">
         <f t="shared" si="3"/>
         <v>39335.783522883838</v>
       </c>
-      <c r="AJ5" s="15">
+      <c r="AJ5" s="11">
         <f t="shared" si="3"/>
         <v>40122.499193341515</v>
       </c>
-      <c r="AK5" s="15">
+      <c r="AK5" s="11">
         <f t="shared" si="3"/>
         <v>40924.949177208349</v>
       </c>
-      <c r="AL5" s="15">
+      <c r="AL5" s="11">
         <f t="shared" si="3"/>
         <v>41743.448160752516</v>
       </c>
-      <c r="AM5" s="15">
+      <c r="AM5" s="11">
         <f t="shared" si="3"/>
         <v>42578.317123967565</v>
       </c>
-      <c r="AN5" s="15">
+      <c r="AN5" s="11">
         <f t="shared" si="3"/>
         <v>43429.883466446918</v>
       </c>
-      <c r="AO5" s="15">
+      <c r="AO5" s="11">
         <f t="shared" si="3"/>
         <v>44298.481135775859</v>
       </c>
     </row>
-    <row r="6" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="12">
+    <row r="6" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8">
         <v>4853.768</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>4827.6790000000001</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>4760.1210000000001</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <f>19178.635-C6-D6-E6</f>
         <v>4737.0669999999982</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <v>4909.402</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <v>4900.5249999999996</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="8">
         <v>5199.2809999999999</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="8">
         <f>20317.928-G6-H6-I6</f>
         <v>5308.72</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="10">
         <v>5356.4250000000002</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="10">
         <v>5252.69</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="10">
         <v>5245.4769999999999</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="10">
         <f>21238.692-K6-L6-M6</f>
         <v>5384.1000000000013</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="8">
         <v>5450.6440000000002</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="8">
         <v>5575.7489999999998</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="8">
         <v>5745.2049999999999</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="8">
         <v>14299.821</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="8">
         <v>17120.316999999999</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="8">
         <v>18874.629000000001</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="8">
         <f t="shared" si="0"/>
         <v>19178.634999999998</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="8">
         <f t="shared" si="1"/>
         <v>20317.928</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="8">
         <f>SUM(K6:N6)</f>
         <v>21238.692000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12">
+    <row r="7" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8">
         <v>448.07499999999999</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>435.27800000000002</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>509.79500000000002</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <f>1831.475-C7-D7-E7</f>
         <v>438.32699999999983</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="8">
         <v>440.947</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="8">
         <v>436.81599999999997</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
         <v>504.54199999999997</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="8">
         <f>1872.284-G7-H7-I7</f>
         <v>489.97899999999998</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="10">
         <v>447.54199999999997</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="10">
         <v>438.26100000000002</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="10">
         <v>504.68400000000003</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="10">
         <f>1866.493-K7-L7-M7</f>
         <v>476.00600000000003</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="8">
         <v>452.82100000000003</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="8">
         <v>451.488</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="8">
         <v>534.28700000000003</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="8">
         <v>1543.51</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="8">
         <v>1845.8779999999999</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="8">
         <v>1915.655</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="8">
         <f t="shared" si="0"/>
         <v>1831.4749999999999</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="8">
         <f t="shared" si="1"/>
         <v>1872.2839999999999</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="8">
         <f>SUM(K7:N7)</f>
         <v>1866.4930000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="12">
+    <row r="8" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8">
         <f t="shared" ref="C8:Q8" si="4">+C6+C7</f>
         <v>5301.8429999999998</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <f t="shared" si="4"/>
         <v>5262.9570000000003</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <f t="shared" si="4"/>
         <v>5269.9160000000002</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="8">
         <f t="shared" si="4"/>
         <v>5175.3939999999984</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="8">
         <f t="shared" si="4"/>
         <v>5350.3490000000002</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="8">
         <f t="shared" si="4"/>
         <v>5337.3409999999994</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8">
         <f t="shared" si="4"/>
         <v>5703.8230000000003</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="8">
         <f t="shared" si="4"/>
         <v>5798.6990000000005</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="10">
         <f t="shared" si="4"/>
         <v>5803.9670000000006</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="10">
         <f t="shared" si="4"/>
         <v>5690.951</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="10">
         <f t="shared" si="4"/>
         <v>5750.1610000000001</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="10">
         <f t="shared" si="4"/>
         <v>5860.1060000000016</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="8">
         <f t="shared" si="4"/>
         <v>5903.4650000000001</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="8">
         <f t="shared" si="4"/>
         <v>6027.2370000000001</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="8">
         <f t="shared" si="4"/>
         <v>6279.4920000000002</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="8">
         <f>+U6+U7</f>
         <v>15843.331</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="8">
         <f>+V6+V7</f>
         <v>18966.195</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="8">
         <f>+W6+W7</f>
         <v>20790.284</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="8">
         <f t="shared" si="0"/>
         <v>21010.11</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="8">
         <f t="shared" si="1"/>
         <v>22190.212</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z8" s="8">
         <f>+Z6+Z7</f>
         <v>23105.185000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="12">
+    <row r="9" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="8">
         <f t="shared" ref="C9:Q9" si="5">+C5-C8</f>
         <v>2366.1930000000002</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <f t="shared" si="5"/>
         <v>2230.3630000000003</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <f t="shared" si="5"/>
         <v>2438.0190000000002</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="8">
         <f t="shared" si="5"/>
         <v>2349.6000000000022</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="8">
         <f t="shared" si="5"/>
         <v>2449.3469999999998</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="8">
         <f t="shared" si="5"/>
         <v>2230.1420000000007</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="8">
         <f t="shared" si="5"/>
         <v>2536.357</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="8">
         <f t="shared" si="5"/>
         <v>2468.619999999999</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="10">
         <f t="shared" si="5"/>
         <v>2539.2899999999991</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="10">
         <f t="shared" si="5"/>
         <v>2240.6390000000001</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="10">
         <f t="shared" si="5"/>
         <v>2524.9049999999988</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="10">
         <f t="shared" si="5"/>
         <v>2504.404999999997</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="8">
         <f t="shared" si="5"/>
         <v>2562.518</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="8">
         <f t="shared" si="5"/>
         <v>2369.8159999999998</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="8">
         <f t="shared" si="5"/>
         <v>2689.5519999999997</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="8">
         <f>+U5-U8</f>
         <v>7250.7469999999976</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="8">
         <f>+V5-V8</f>
         <v>8386.719000000001</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="8">
         <f>+W5-W8</f>
         <v>8987.7010000000009</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="8">
         <f t="shared" si="0"/>
         <v>9384.1750000000029</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="8">
         <f t="shared" si="1"/>
         <v>9684.4660000000003</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="8">
         <f>+Z5-Z8</f>
         <v>9809.2389999999978</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA9" s="8">
         <f>(AA5*0.295)</f>
         <v>9903.9501815999993</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AB9" s="8">
         <f t="shared" ref="AB9:AO9" si="6">(AB5*0.295)</f>
         <v>10102.029185232001</v>
       </c>
-      <c r="AC9" s="12">
+      <c r="AC9" s="8">
         <f t="shared" si="6"/>
         <v>10304.069768936639</v>
       </c>
-      <c r="AD9" s="12">
+      <c r="AD9" s="8">
         <f t="shared" si="6"/>
         <v>10510.151164315374</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AE9" s="8">
         <f t="shared" si="6"/>
         <v>10720.354187601679</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AF9" s="8">
         <f t="shared" si="6"/>
         <v>10934.761271353715</v>
       </c>
-      <c r="AG9" s="12">
+      <c r="AG9" s="8">
         <f t="shared" si="6"/>
         <v>11153.456496780787</v>
       </c>
-      <c r="AH9" s="12">
+      <c r="AH9" s="8">
         <f t="shared" si="6"/>
         <v>11376.525626716402</v>
       </c>
-      <c r="AI9" s="12">
+      <c r="AI9" s="8">
         <f t="shared" si="6"/>
         <v>11604.056139250732</v>
       </c>
-      <c r="AJ9" s="12">
+      <c r="AJ9" s="8">
         <f t="shared" si="6"/>
         <v>11836.137262035747</v>
       </c>
-      <c r="AK9" s="12">
+      <c r="AK9" s="8">
         <f t="shared" si="6"/>
         <v>12072.860007276462</v>
       </c>
-      <c r="AL9" s="12">
+      <c r="AL9" s="8">
         <f t="shared" si="6"/>
         <v>12314.317207421991</v>
       </c>
-      <c r="AM9" s="12">
+      <c r="AM9" s="8">
         <f t="shared" si="6"/>
         <v>12560.603551570432</v>
       </c>
-      <c r="AN9" s="12">
+      <c r="AN9" s="8">
         <f t="shared" si="6"/>
         <v>12811.81562260184</v>
       </c>
-      <c r="AO9" s="12">
+      <c r="AO9" s="8">
         <f t="shared" si="6"/>
         <v>13068.051935053878</v>
       </c>
     </row>
-    <row r="10" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="12">
+    <row r="10" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8">
         <v>868.202</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>834.04700000000003</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <v>886.64099999999996</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="8">
         <f>3481.891-C10-D10-E10</f>
         <v>893.00100000000032</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="8">
         <v>928.21</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="8">
         <v>837.255</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="8">
         <v>899.25</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="8">
         <f>3582.833-G10-H10-I10</f>
         <v>918.11799999999994</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="10">
         <v>907.57399999999996</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="10">
         <v>798.64400000000001</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="10">
         <v>874.71299999999997</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="10">
         <f>3505.045-K10-L10-M10</f>
         <v>924.11400000000003</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="8">
         <v>875.79300000000001</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="8">
         <v>830.33199999999999</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="8">
         <v>933.77</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="8">
         <v>2658.058</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="8">
         <v>3094.4650000000001</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10" s="8">
         <v>3303.4780000000001</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="8">
         <f t="shared" si="0"/>
         <v>3481.8910000000001</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="8">
         <f t="shared" si="1"/>
         <v>3582.8330000000001</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="Z10" s="8">
         <f>SUM(K10:N10)</f>
         <v>3505.0449999999996</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA10" s="8">
         <f>Z10*0.99</f>
         <v>3469.9945499999994</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AB10" s="8">
         <f t="shared" ref="AB10:AO10" si="7">AA10*0.99</f>
         <v>3435.2946044999994</v>
       </c>
-      <c r="AC10" s="12">
+      <c r="AC10" s="8">
         <f t="shared" si="7"/>
         <v>3400.9416584549995</v>
       </c>
-      <c r="AD10" s="12">
+      <c r="AD10" s="8">
         <f t="shared" si="7"/>
         <v>3366.9322418704496</v>
       </c>
-      <c r="AE10" s="12">
+      <c r="AE10" s="8">
         <f t="shared" si="7"/>
         <v>3333.2629194517449</v>
       </c>
-      <c r="AF10" s="12">
+      <c r="AF10" s="8">
         <f t="shared" si="7"/>
         <v>3299.9302902572276</v>
       </c>
-      <c r="AG10" s="12">
+      <c r="AG10" s="8">
         <f t="shared" si="7"/>
         <v>3266.9309873546554</v>
       </c>
-      <c r="AH10" s="12">
+      <c r="AH10" s="8">
         <f t="shared" si="7"/>
         <v>3234.2616774811086</v>
       </c>
-      <c r="AI10" s="12">
+      <c r="AI10" s="8">
         <f t="shared" si="7"/>
         <v>3201.9190607062974</v>
       </c>
-      <c r="AJ10" s="12">
+      <c r="AJ10" s="8">
         <f t="shared" si="7"/>
         <v>3169.8998700992342</v>
       </c>
-      <c r="AK10" s="12">
+      <c r="AK10" s="8">
         <f t="shared" si="7"/>
         <v>3138.2008713982418</v>
       </c>
-      <c r="AL10" s="12">
+      <c r="AL10" s="8">
         <f t="shared" si="7"/>
         <v>3106.8188626842593</v>
       </c>
-      <c r="AM10" s="12">
+      <c r="AM10" s="8">
         <f t="shared" si="7"/>
         <v>3075.7506740574167</v>
       </c>
-      <c r="AN10" s="12">
+      <c r="AN10" s="8">
         <f t="shared" si="7"/>
         <v>3044.9931673168426</v>
       </c>
-      <c r="AO10" s="12">
+      <c r="AO10" s="8">
         <f t="shared" si="7"/>
         <v>3014.5432356436741</v>
       </c>
     </row>
-    <row r="11" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="12">
+    <row r="11" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8">
         <v>448.85199999999998</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>455.55099999999999</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>458.64100000000002</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <f>1835.646-C11-D11-E11</f>
         <v>472.60199999999992</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="8">
         <v>448.053</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="8">
         <v>441.60500000000002</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="8">
         <v>458.34100000000001</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="8">
         <f>1819.136-G11-H11-I11</f>
         <v>471.13700000000006</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="10">
         <v>444.00700000000001</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="10">
         <v>420.96199999999999</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="10">
         <v>452.291</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="10">
         <f>1803.493-K11-L11-M11</f>
         <v>486.23299999999989</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="8">
         <v>465.46600000000001</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="8">
         <v>451.44</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="8">
         <v>449.839</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="8">
         <v>1668.306</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="8">
         <v>1820.277</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W11" s="8">
         <v>1810.9839999999999</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="8">
         <f t="shared" si="0"/>
         <v>1835.646</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="8">
         <f t="shared" si="1"/>
         <v>1819.136</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="8">
         <f>SUM(K11:N11)</f>
         <v>1803.4929999999999</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA11" s="8">
         <f>Z11*0.99</f>
         <v>1785.4580699999999</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AB11" s="8">
         <f t="shared" ref="AB11:AO11" si="8">AA11*0.99</f>
         <v>1767.6034892999999</v>
       </c>
-      <c r="AC11" s="12">
+      <c r="AC11" s="8">
         <f t="shared" si="8"/>
         <v>1749.9274544069999</v>
       </c>
-      <c r="AD11" s="12">
+      <c r="AD11" s="8">
         <f t="shared" si="8"/>
         <v>1732.4281798629299</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE11" s="8">
         <f t="shared" si="8"/>
         <v>1715.1038980643007</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF11" s="8">
         <f t="shared" si="8"/>
         <v>1697.9528590836576</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AG11" s="8">
         <f t="shared" si="8"/>
         <v>1680.9733304928211</v>
       </c>
-      <c r="AH11" s="12">
+      <c r="AH11" s="8">
         <f t="shared" si="8"/>
         <v>1664.1635971878929</v>
       </c>
-      <c r="AI11" s="12">
+      <c r="AI11" s="8">
         <f t="shared" si="8"/>
         <v>1647.521961216014</v>
       </c>
-      <c r="AJ11" s="12">
+      <c r="AJ11" s="8">
         <f t="shared" si="8"/>
         <v>1631.0467416038539</v>
       </c>
-      <c r="AK11" s="12">
+      <c r="AK11" s="8">
         <f t="shared" si="8"/>
         <v>1614.7362741878153</v>
       </c>
-      <c r="AL11" s="12">
+      <c r="AL11" s="8">
         <f t="shared" si="8"/>
         <v>1598.5889114459371</v>
       </c>
-      <c r="AM11" s="12">
+      <c r="AM11" s="8">
         <f t="shared" si="8"/>
         <v>1582.6030223314776</v>
       </c>
-      <c r="AN11" s="12">
+      <c r="AN11" s="8">
         <f t="shared" si="8"/>
         <v>1566.7769921081629</v>
       </c>
-      <c r="AO11" s="12">
+      <c r="AO11" s="8">
         <f t="shared" si="8"/>
         <v>1551.1092221870813</v>
       </c>
     </row>
-    <row r="12" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="12">
+    <row r="12" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8">
         <f>+C10+C11+0.465</f>
         <v>1317.519</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <f>+D10+D11-223.767</f>
         <v>1065.8309999999999</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <f>+E10+E11-49.224</f>
         <v>1296.058</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="8">
         <f>+F10+F11</f>
         <v>1365.6030000000003</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="8">
         <f>+G10+G11-18.015</f>
         <v>1358.2479999999998</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="8">
         <f>+H10+H11</f>
         <v>1278.8600000000001</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="8">
         <f>+I10+I11</f>
         <v>1357.5909999999999</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="8">
         <f>+J10+J11</f>
         <v>1389.2550000000001</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="10">
         <f>+K10+K11</f>
         <v>1351.5809999999999</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="10">
         <f>+L10+L11</f>
         <v>1219.606</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="10">
         <f>+M10+M11+64.382</f>
         <v>1391.386</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="10">
         <f>+N10+N11</f>
         <v>1410.347</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="8">
         <f>+O10+O11</f>
         <v>1341.259</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="8">
         <f>+P10+P11</f>
         <v>1281.7719999999999</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="8">
         <f>+Q10+Q11</f>
         <v>1383.6089999999999</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="8">
         <f>+U10+U11+9.538</f>
         <v>4335.9019999999991</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="8">
         <f>+V10+V11+1.52</f>
         <v>4916.2620000000006</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W12" s="8">
         <f>+W10+W11+1.691</f>
         <v>5116.1529999999993</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X12" s="8">
         <f t="shared" si="0"/>
         <v>5045.0110000000004</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12" s="8">
         <f t="shared" si="1"/>
         <v>5383.9539999999997</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z12" s="8">
         <f>+Z10+Z11</f>
         <v>5308.5379999999996</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA12" s="8">
         <f>+AA10+AA11</f>
         <v>5255.4526199999991</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AB12" s="8">
         <f t="shared" ref="AB12:AO12" si="9">+AB10+AB11</f>
         <v>5202.8980937999995</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AC12" s="8">
         <f t="shared" si="9"/>
         <v>5150.8691128619994</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AD12" s="8">
         <f t="shared" si="9"/>
         <v>5099.3604217333796</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE12" s="8">
         <f t="shared" si="9"/>
         <v>5048.3668175160456</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF12" s="8">
         <f t="shared" si="9"/>
         <v>4997.8831493408852</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AG12" s="8">
         <f t="shared" si="9"/>
         <v>4947.9043178474767</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH12" s="8">
         <f t="shared" si="9"/>
         <v>4898.4252746690017</v>
       </c>
-      <c r="AI12" s="12">
+      <c r="AI12" s="8">
         <f t="shared" si="9"/>
         <v>4849.4410219223118</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AJ12" s="8">
         <f t="shared" si="9"/>
         <v>4800.9466117030879</v>
       </c>
-      <c r="AK12" s="12">
+      <c r="AK12" s="8">
         <f t="shared" si="9"/>
         <v>4752.9371455860573</v>
       </c>
-      <c r="AL12" s="12">
+      <c r="AL12" s="8">
         <f t="shared" si="9"/>
         <v>4705.4077741301962</v>
       </c>
-      <c r="AM12" s="12">
+      <c r="AM12" s="8">
         <f t="shared" si="9"/>
         <v>4658.3536963888946</v>
       </c>
-      <c r="AN12" s="12">
+      <c r="AN12" s="8">
         <f t="shared" si="9"/>
         <v>4611.7701594250057</v>
       </c>
-      <c r="AO12" s="12">
+      <c r="AO12" s="8">
         <f t="shared" si="9"/>
         <v>4565.6524578307553</v>
       </c>
     </row>
-    <row r="13" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="12">
+    <row r="13" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8">
         <f t="shared" ref="C13:Q13" si="10">(C9-C12)</f>
         <v>1048.6740000000002</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="8">
         <f t="shared" si="10"/>
         <v>1164.5320000000004</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="8">
         <f t="shared" si="10"/>
         <v>1141.9610000000002</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="8">
         <f t="shared" si="10"/>
         <v>983.99700000000189</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="8">
         <f t="shared" si="10"/>
         <v>1091.0989999999999</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="8">
         <f t="shared" si="10"/>
         <v>951.28200000000061</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="8">
         <f t="shared" si="10"/>
         <v>1178.7660000000001</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="8">
         <f t="shared" si="10"/>
         <v>1079.3649999999989</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="10">
         <f t="shared" si="10"/>
         <v>1187.7089999999992</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="10">
         <f t="shared" si="10"/>
         <v>1021.0330000000001</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="10">
         <f t="shared" si="10"/>
         <v>1133.5189999999989</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="10">
         <f t="shared" si="10"/>
         <v>1094.057999999997</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="8">
         <f t="shared" si="10"/>
         <v>1221.259</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="8">
         <f t="shared" si="10"/>
         <v>1088.0439999999999</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="8">
         <f t="shared" si="10"/>
         <v>1305.9429999999998</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="8">
         <f>(U9-U12)</f>
         <v>2914.8449999999984</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="8">
         <f>(V9-V12)</f>
         <v>3470.4570000000003</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="8">
         <f>(W9-W12)</f>
         <v>3871.5480000000016</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="8">
         <f t="shared" si="0"/>
         <v>4339.1640000000025</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="8">
         <f t="shared" si="1"/>
         <v>4300.5119999999997</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="Z13" s="8">
         <f>(Z9-Z12)</f>
         <v>4500.7009999999982</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13" s="8">
         <f>(AA9-AA12)</f>
         <v>4648.4975616000002</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AB13" s="8">
         <f t="shared" ref="AB13:AO13" si="11">(AB9-AB12)</f>
         <v>4899.1310914320011</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AC13" s="8">
         <f t="shared" si="11"/>
         <v>5153.2006560746395</v>
       </c>
-      <c r="AD13" s="12">
+      <c r="AD13" s="8">
         <f t="shared" si="11"/>
         <v>5410.790742581994</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AE13" s="8">
         <f t="shared" si="11"/>
         <v>5671.9873700856333</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="8">
         <f t="shared" si="11"/>
         <v>5936.8781220128294</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG13" s="8">
         <f t="shared" si="11"/>
         <v>6205.5521789333106</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="8">
         <f t="shared" si="11"/>
         <v>6478.1003520474005</v>
       </c>
-      <c r="AI13" s="12">
+      <c r="AI13" s="8">
         <f t="shared" si="11"/>
         <v>6754.6151173284197</v>
       </c>
-      <c r="AJ13" s="12">
+      <c r="AJ13" s="8">
         <f t="shared" si="11"/>
         <v>7035.1906503326591</v>
       </c>
-      <c r="AK13" s="12">
+      <c r="AK13" s="8">
         <f t="shared" si="11"/>
         <v>7319.9228616904047</v>
       </c>
-      <c r="AL13" s="12">
+      <c r="AL13" s="8">
         <f t="shared" si="11"/>
         <v>7608.9094332917948</v>
       </c>
-      <c r="AM13" s="12">
+      <c r="AM13" s="8">
         <f t="shared" si="11"/>
         <v>7902.249855181537</v>
       </c>
-      <c r="AN13" s="12">
+      <c r="AN13" s="8">
         <f t="shared" si="11"/>
         <v>8200.0454631768334</v>
       </c>
-      <c r="AO13" s="12">
+      <c r="AO13" s="8">
         <f t="shared" si="11"/>
         <v>8502.3994772231235</v>
       </c>
     </row>
-    <row r="14" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="12">
+    <row r="14" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8">
         <v>4</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="8">
         <v>6</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="8">
         <v>3</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="8">
         <v>5</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="8">
         <v>3</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="8">
         <v>4</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="8">
         <v>4</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="8">
         <v>3</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="8">
         <v>7</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="8">
         <v>2</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="8">
         <v>2</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="8">
         <v>-2</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="8">
         <v>2</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="8">
         <v>4</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="8">
         <v>15</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="8">
         <v>26</v>
       </c>
-      <c r="W14" s="12">
+      <c r="W14" s="8">
         <v>27</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X14" s="8">
         <v>19</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14" s="8">
         <v>13</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="Z14" s="8">
         <v>13</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14" s="8">
         <v>13</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AB14" s="8">
         <v>13</v>
       </c>
-      <c r="AC14" s="12">
+      <c r="AC14" s="8">
         <v>13</v>
       </c>
-      <c r="AD14" s="12">
+      <c r="AD14" s="8">
         <v>13</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AE14" s="8">
         <v>13</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="8">
         <v>13</v>
       </c>
-      <c r="AG14" s="12">
+      <c r="AG14" s="8">
         <v>13</v>
       </c>
-      <c r="AH14" s="12">
+      <c r="AH14" s="8">
         <v>13</v>
       </c>
-      <c r="AI14" s="12">
+      <c r="AI14" s="8">
         <v>13</v>
       </c>
-      <c r="AJ14" s="12">
+      <c r="AJ14" s="8">
         <v>13</v>
       </c>
-      <c r="AK14" s="12">
+      <c r="AK14" s="8">
         <v>13</v>
       </c>
-      <c r="AL14" s="12">
+      <c r="AL14" s="8">
         <v>13</v>
       </c>
-      <c r="AM14" s="12">
+      <c r="AM14" s="8">
         <v>13</v>
       </c>
-      <c r="AN14" s="12">
+      <c r="AN14" s="8">
         <v>13</v>
       </c>
-      <c r="AO14" s="12">
+      <c r="AO14" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12">
+    <row r="15" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8">
         <v>-6.4359999999999999</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="8">
         <v>10.599</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="8">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="8">
         <f>-18.244-C15-D15-E15</f>
         <v>-23.358000000000001</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="8">
         <v>-10.62</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="8">
         <v>-4.766</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="8">
         <v>-6.0510000000000002</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="8">
         <f>-15.56-G15-H15-I15</f>
         <v>5.8769999999999989</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="10">
         <v>-2.9790000000000001</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="10">
         <v>-21.597999999999999</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="10">
         <v>-3.839</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="10">
         <f>-15.56-K15-L15-M15</f>
         <v>12.856</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="8">
         <v>4.0289999999999999</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="8">
         <v>-21.213000000000001</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="8">
         <v>-16.207000000000001</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="8">
         <v>-15.724</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="8">
         <v>15.481999999999999</v>
       </c>
-      <c r="W15" s="12">
+      <c r="W15" s="8">
         <v>5.1369999999999996</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15" s="8">
         <f t="shared" si="0"/>
         <v>-18.244</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y15" s="8">
         <f t="shared" si="1"/>
         <v>-15.559999999999999</v>
       </c>
-      <c r="Z15" s="12">
+      <c r="Z15" s="8">
         <f>SUM(K15:N15)</f>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA15" s="8">
         <f>Z15</f>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AB15" s="12">
+      <c r="AB15" s="8">
         <f t="shared" ref="AB15:AO15" si="12">AA15</f>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AC15" s="12">
+      <c r="AC15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AD15" s="12">
+      <c r="AD15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AE15" s="12">
+      <c r="AE15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AF15" s="12">
+      <c r="AF15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AG15" s="12">
+      <c r="AG15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AH15" s="12">
+      <c r="AH15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AI15" s="12">
+      <c r="AI15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AJ15" s="12">
+      <c r="AJ15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AK15" s="12">
+      <c r="AK15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AL15" s="12">
+      <c r="AL15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AM15" s="12">
+      <c r="AM15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AN15" s="12">
+      <c r="AN15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
-      <c r="AO15" s="12">
+      <c r="AO15" s="8">
         <f t="shared" si="12"/>
         <v>-15.559999999999997</v>
       </c>
     </row>
-    <row r="16" spans="2:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12">
-        <f>(C13+C14+C15)</f>
+    <row r="16" spans="2:41" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" ref="C16:O16" si="13">(C13+C14+C15)</f>
         <v>1046.2380000000003</v>
       </c>
-      <c r="D16" s="12">
-        <f>(D13+D14+D15)</f>
+      <c r="D16" s="8">
+        <f t="shared" si="13"/>
         <v>1181.1310000000003</v>
       </c>
-      <c r="E16" s="12">
-        <f>(E13+E14+E15)</f>
+      <c r="E16" s="8">
+        <f t="shared" si="13"/>
         <v>1145.9120000000003</v>
       </c>
-      <c r="F16" s="12">
-        <f>(F13+F14+F15)</f>
+      <c r="F16" s="8">
+        <f t="shared" si="13"/>
         <v>965.63900000000194</v>
       </c>
-      <c r="G16" s="12">
-        <f>(G13+G14+G15)</f>
+      <c r="G16" s="8">
+        <f t="shared" si="13"/>
         <v>1083.479</v>
       </c>
-      <c r="H16" s="12">
-        <f>(H13+H14+H15)</f>
+      <c r="H16" s="8">
+        <f t="shared" si="13"/>
         <v>950.51600000000064</v>
       </c>
-      <c r="I16" s="12">
-        <f>(I13+I14+I15)</f>
+      <c r="I16" s="8">
+        <f t="shared" si="13"/>
         <v>1176.7150000000001</v>
       </c>
-      <c r="J16" s="12">
-        <f>(J13+J14+J15)</f>
+      <c r="J16" s="8">
+        <f t="shared" si="13"/>
         <v>1088.2419999999988</v>
       </c>
-      <c r="K16" s="12">
-        <f>(K13+K14+K15)</f>
+      <c r="K16" s="8">
+        <f t="shared" si="13"/>
         <v>1191.7299999999991</v>
       </c>
-      <c r="L16" s="12">
-        <f>(L13+L14+L15)</f>
+      <c r="L16" s="8">
+        <f t="shared" si="13"/>
         <v>1001.4350000000002</v>
       </c>
-      <c r="M16" s="12">
-        <f>(M13+M14+M15)</f>
+      <c r="M16" s="8">
+        <f t="shared" si="13"/>
         <v>1131.6799999999989</v>
       </c>
-      <c r="N16" s="12">
-        <f>(N13+N14+N15)</f>
+      <c r="N16" s="8">
+        <f t="shared" si="13"/>
         <v>1104.913999999997</v>
       </c>
-      <c r="O16" s="12">
-        <f>(O13+O14+O15)</f>
+      <c r="O16" s="8">
+        <f t="shared" si="13"/>
         <v>1228.288</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="8">
         <f>(P13+P14+P15)+553.577</f>
         <v>1622.4079999999999</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="8">
         <f>(Q13+Q14+Q15)</f>
         <v>1293.7359999999996</v>
       </c>
-      <c r="U16" s="12">
-        <f>(U13+U14+U15)</f>
+      <c r="U16" s="8">
+        <f t="shared" ref="U16:AO16" si="14">(U13+U14+U15)</f>
         <v>2914.1209999999983</v>
       </c>
-      <c r="V16" s="12">
-        <f>(V13+V14+V15)</f>
+      <c r="V16" s="8">
+        <f t="shared" si="14"/>
         <v>3511.9390000000003</v>
       </c>
-      <c r="W16" s="12">
-        <f>(W13+W14+W15)</f>
+      <c r="W16" s="8">
+        <f t="shared" si="14"/>
         <v>3903.6850000000018</v>
       </c>
-      <c r="X16" s="12">
-        <f>(X13+X14+X15)</f>
+      <c r="X16" s="8">
+        <f t="shared" si="14"/>
         <v>4339.9200000000028</v>
       </c>
-      <c r="Y16" s="12">
-        <f>(Y13+Y14+Y15)</f>
+      <c r="Y16" s="8">
+        <f t="shared" si="14"/>
         <v>4297.9519999999993</v>
       </c>
-      <c r="Z16" s="12">
-        <f>(Z13+Z14+Z15)</f>
+      <c r="Z16" s="8">
+        <f t="shared" si="14"/>
         <v>4498.1409999999978</v>
       </c>
-      <c r="AA16" s="12">
-        <f>(AA13+AA14+AA15)</f>
+      <c r="AA16" s="8">
+        <f t="shared" si="14"/>
         <v>4645.9375615999998</v>
       </c>
-      <c r="AB16" s="12">
-        <f>(AB13+AB14+AB15)</f>
+      <c r="AB16" s="8">
+        <f t="shared" si="14"/>
         <v>4896.5710914320007</v>
       </c>
-      <c r="AC16" s="12">
-        <f>(AC13+AC14+AC15)</f>
+      <c r="AC16" s="8">
+        <f t="shared" si="14"/>
         <v>5150.6406560746391</v>
       </c>
-      <c r="AD16" s="12">
-        <f>(AD13+AD14+AD15)</f>
+      <c r="AD16" s="8">
+        <f t="shared" si="14"/>
         <v>5408.2307425819936</v>
       </c>
-      <c r="AE16" s="12">
-        <f>(AE13+AE14+AE15)</f>
+      <c r="AE16" s="8">
+        <f t="shared" si="14"/>
         <v>5669.4273700856329</v>
       </c>
-      <c r="AF16" s="12">
-        <f>(AF13+AF14+AF15)</f>
+      <c r="AF16" s="8">
+        <f t="shared" si="14"/>
         <v>5934.318122012829</v>
       </c>
-      <c r="AG16" s="12">
-        <f>(AG13+AG14+AG15)</f>
+      <c r="AG16" s="8">
+        <f t="shared" si="14"/>
         <v>6202.9921789333102</v>
       </c>
-      <c r="AH16" s="12">
-        <f>(AH13+AH14+AH15)</f>
+      <c r="AH16" s="8">
+        <f t="shared" si="14"/>
         <v>6475.5403520474001</v>
       </c>
-      <c r="AI16" s="12">
-        <f>(AI13+AI14+AI15)</f>
+      <c r="AI16" s="8">
+        <f t="shared" si="14"/>
         <v>6752.0551173284193</v>
       </c>
-      <c r="AJ16" s="12">
-        <f>(AJ13+AJ14+AJ15)</f>
+      <c r="AJ16" s="8">
+        <f t="shared" si="14"/>
         <v>7032.6306503326587</v>
       </c>
-      <c r="AK16" s="12">
-        <f>(AK13+AK14+AK15)</f>
+      <c r="AK16" s="8">
+        <f t="shared" si="14"/>
         <v>7317.3628616904043</v>
       </c>
-      <c r="AL16" s="12">
-        <f>(AL13+AL14+AL15)</f>
+      <c r="AL16" s="8">
+        <f t="shared" si="14"/>
         <v>7606.3494332917944</v>
       </c>
-      <c r="AM16" s="12">
-        <f>(AM13+AM14+AM15)</f>
+      <c r="AM16" s="8">
+        <f t="shared" si="14"/>
         <v>7899.6898551815366</v>
       </c>
-      <c r="AN16" s="12">
-        <f>(AN13+AN14+AN15)</f>
+      <c r="AN16" s="8">
+        <f t="shared" si="14"/>
         <v>8197.4854631768339</v>
       </c>
-      <c r="AO16" s="12">
-        <f>(AO13+AO14+AO15)</f>
+      <c r="AO16" s="8">
+        <f t="shared" si="14"/>
         <v>8499.839477223124</v>
       </c>
     </row>
-    <row r="17" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="12">
+    <row r="17" spans="2:196" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8">
         <v>280.42500000000001</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>-5.7489999999999997</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <v>272.52199999999999</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="8">
         <f>784.775-C17-D17-E17</f>
         <v>237.577</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="8">
         <v>271.93099999999998</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="8">
         <v>227.797</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="8">
         <v>294.125</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="8">
         <f>1121.743-G17-H17-I17</f>
         <v>327.88999999999987</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="10">
         <v>299.77600000000001</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="10">
         <v>261.76799999999997</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="10">
         <v>281.86099999999999</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="10">
         <f>1136.741-K17-L17-M17</f>
         <v>293.3359999999999</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="8">
         <v>359.68200000000002</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="8">
         <v>222.73400000000001</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="8">
         <v>343.42099999999999</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="8">
         <v>853.91</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="8">
         <v>958.78200000000004</v>
       </c>
-      <c r="W17" s="12">
+      <c r="W17" s="8">
         <v>1079.241</v>
       </c>
-      <c r="X17" s="12">
+      <c r="X17" s="8">
         <f t="shared" si="0"/>
         <v>784.77499999999998</v>
       </c>
-      <c r="Y17" s="12">
+      <c r="Y17" s="8">
         <f t="shared" si="1"/>
         <v>1121.7429999999999</v>
       </c>
-      <c r="Z17" s="12">
+      <c r="Z17" s="8">
         <f>SUM(K17:N17)</f>
         <v>1136.741</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AA17" s="8">
         <f>AA16*0.2</f>
         <v>929.18751232</v>
       </c>
-      <c r="AB17" s="12">
-        <f t="shared" ref="AB17:AO17" si="13">AB16*0.2</f>
+      <c r="AB17" s="8">
+        <f t="shared" ref="AB17:AO17" si="15">AB16*0.2</f>
         <v>979.31421828640021</v>
       </c>
-      <c r="AC17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AC17" s="8">
+        <f t="shared" si="15"/>
         <v>1030.1281312149279</v>
       </c>
-      <c r="AD17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AD17" s="8">
+        <f t="shared" si="15"/>
         <v>1081.6461485163989</v>
       </c>
-      <c r="AE17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AE17" s="8">
+        <f t="shared" si="15"/>
         <v>1133.8854740171266</v>
       </c>
-      <c r="AF17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AF17" s="8">
+        <f t="shared" si="15"/>
         <v>1186.8636244025658</v>
       </c>
-      <c r="AG17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AG17" s="8">
+        <f t="shared" si="15"/>
         <v>1240.5984357866621</v>
       </c>
-      <c r="AH17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AH17" s="8">
+        <f t="shared" si="15"/>
         <v>1295.1080704094802</v>
       </c>
-      <c r="AI17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AI17" s="8">
+        <f t="shared" si="15"/>
         <v>1350.4110234656839</v>
       </c>
-      <c r="AJ17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AJ17" s="8">
+        <f t="shared" si="15"/>
         <v>1406.5261300665318</v>
       </c>
-      <c r="AK17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AK17" s="8">
+        <f t="shared" si="15"/>
         <v>1463.4725723380809</v>
       </c>
-      <c r="AL17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AL17" s="8">
+        <f t="shared" si="15"/>
         <v>1521.2698866583589</v>
       </c>
-      <c r="AM17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AM17" s="8">
+        <f t="shared" si="15"/>
         <v>1579.9379710363073</v>
       </c>
-      <c r="AN17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AN17" s="8">
+        <f t="shared" si="15"/>
         <v>1639.4970926353669</v>
       </c>
-      <c r="AO17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AO17" s="8">
+        <f t="shared" si="15"/>
         <v>1699.9678954446249</v>
       </c>
     </row>
-    <row r="18" spans="2:196" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="15">
+    <row r="18" spans="2:196" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="11">
         <f>(C16-C17)-58.955-8.259</f>
         <v>698.59900000000027</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="11">
         <f>(D16-D17)-78.363-6.933</f>
         <v>1101.5840000000003</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <f>(E16-E17)-53.177-10.628</f>
         <v>809.58500000000026</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="11">
         <f>3281.878-C18-D18-E18</f>
         <v>672.10999999999945</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="11">
         <f>(G16-G17)-49.098-10.702</f>
         <v>751.74800000000005</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="11">
         <f>(H16-H17)-42.849-8.182</f>
         <v>671.68800000000056</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="11">
         <f>(I16-I17)-51.523-12.954</f>
         <v>818.11300000000017</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="11">
         <f>2941.498-G18-H18-I18</f>
         <v>699.94899999999927</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="12">
         <f>(K16-K17)-50.636-10.076</f>
         <v>831.24199999999905</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="12">
         <f>(L16-L17)-41.053-11.413</f>
         <v>687.20100000000014</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="12">
         <f>(M16-M17)-46.283-10.25</f>
         <v>793.28599999999892</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="12">
         <f>3053.581-K18-L18-M18</f>
         <v>741.85200000000191</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="11">
         <f>(O16-O17)-39.576-10.206</f>
         <v>818.82399999999996</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="11">
         <f>(P16-P17)-63.379-9.959</f>
         <v>1326.336</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="11">
         <f>(Q16-Q17)-42.574-10.462</f>
         <v>897.27899999999966</v>
       </c>
-      <c r="U18" s="15">
+      <c r="U18" s="11">
         <f>(U16-U17)-257.636-22.167</f>
         <v>1780.4079999999985</v>
       </c>
-      <c r="V18" s="15">
+      <c r="V18" s="11">
         <f>(V16-V17)-243.575-31.988</f>
         <v>2277.5940000000005</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W18" s="11">
         <f>(W16-W17)-237.52-33.903</f>
         <v>2553.021000000002</v>
       </c>
-      <c r="X18" s="15">
+      <c r="X18" s="11">
         <f t="shared" si="0"/>
         <v>3281.8780000000006</v>
       </c>
-      <c r="Y18" s="15">
+      <c r="Y18" s="11">
         <f t="shared" si="1"/>
         <v>2941.498</v>
       </c>
-      <c r="Z18" s="15">
+      <c r="Z18" s="11">
         <f>SUM(K18:N18)</f>
         <v>3053.5810000000001</v>
       </c>
-      <c r="AA18" s="15">
+      <c r="AA18" s="11">
         <f>AA16-AA17</f>
         <v>3716.75004928</v>
       </c>
-      <c r="AB18" s="15">
-        <f t="shared" ref="AB18:AO18" si="14">AB16-AB17</f>
+      <c r="AB18" s="11">
+        <f t="shared" ref="AB18:AO18" si="16">AB16-AB17</f>
         <v>3917.2568731456004</v>
       </c>
-      <c r="AC18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AC18" s="11">
+        <f t="shared" si="16"/>
         <v>4120.5125248597114</v>
       </c>
-      <c r="AD18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AD18" s="11">
+        <f t="shared" si="16"/>
         <v>4326.5845940655945</v>
       </c>
-      <c r="AE18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AE18" s="11">
+        <f t="shared" si="16"/>
         <v>4535.5418960685065</v>
       </c>
-      <c r="AF18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AF18" s="11">
+        <f t="shared" si="16"/>
         <v>4747.4544976102634</v>
       </c>
-      <c r="AG18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AG18" s="11">
+        <f t="shared" si="16"/>
         <v>4962.3937431466484</v>
       </c>
-      <c r="AH18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AH18" s="11">
+        <f t="shared" si="16"/>
         <v>5180.4322816379199</v>
       </c>
-      <c r="AI18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AI18" s="11">
+        <f t="shared" si="16"/>
         <v>5401.6440938627356</v>
       </c>
-      <c r="AJ18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AJ18" s="11">
+        <f t="shared" si="16"/>
         <v>5626.1045202661271</v>
       </c>
-      <c r="AK18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AK18" s="11">
+        <f t="shared" si="16"/>
         <v>5853.8902893523236</v>
       </c>
-      <c r="AL18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AL18" s="11">
+        <f t="shared" si="16"/>
         <v>6085.0795466334357</v>
       </c>
-      <c r="AM18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AM18" s="11">
+        <f t="shared" si="16"/>
         <v>6319.7518841452293</v>
       </c>
-      <c r="AN18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AN18" s="11">
+        <f t="shared" si="16"/>
         <v>6557.9883705414668</v>
       </c>
-      <c r="AO18" s="15">
-        <f t="shared" si="14"/>
+      <c r="AO18" s="11">
+        <f t="shared" si="16"/>
         <v>6799.8715817784996</v>
       </c>
-      <c r="AP18" s="15">
-        <f>AO18*(1+$AR$23)</f>
+      <c r="AP18" s="11">
+        <f>AO18*(1+$AR$24)</f>
         <v>6595.8754343251449</v>
       </c>
-      <c r="AQ18" s="15">
-        <f t="shared" ref="AQ18:DB18" si="15">AP18*(1+$AR$23)</f>
+      <c r="AQ18" s="11">
+        <f t="shared" ref="AQ18:DB18" si="17">AP18*(1+$AR$24)</f>
         <v>6397.9991712953906</v>
       </c>
-      <c r="AR18" s="15">
-        <f t="shared" si="15"/>
+      <c r="AR18" s="11">
+        <f t="shared" si="17"/>
         <v>6206.0591961565287</v>
       </c>
-      <c r="AS18" s="15">
-        <f t="shared" si="15"/>
+      <c r="AS18" s="11">
+        <f t="shared" si="17"/>
         <v>6019.8774202718323</v>
       </c>
-      <c r="AT18" s="15">
-        <f t="shared" si="15"/>
+      <c r="AT18" s="11">
+        <f t="shared" si="17"/>
         <v>5839.2810976636774</v>
       </c>
-      <c r="AU18" s="15">
-        <f t="shared" si="15"/>
+      <c r="AU18" s="11">
+        <f t="shared" si="17"/>
         <v>5664.1026647337667</v>
       </c>
-      <c r="AV18" s="15">
-        <f t="shared" si="15"/>
+      <c r="AV18" s="11">
+        <f t="shared" si="17"/>
         <v>5494.1795847917538</v>
       </c>
-      <c r="AW18" s="15">
-        <f t="shared" si="15"/>
+      <c r="AW18" s="11">
+        <f t="shared" si="17"/>
         <v>5329.3541972480007</v>
       </c>
-      <c r="AX18" s="15">
-        <f t="shared" si="15"/>
+      <c r="AX18" s="11">
+        <f t="shared" si="17"/>
         <v>5169.4735713305608</v>
       </c>
-      <c r="AY18" s="15">
-        <f t="shared" si="15"/>
+      <c r="AY18" s="11">
+        <f t="shared" si="17"/>
         <v>5014.3893641906443</v>
       </c>
-      <c r="AZ18" s="15">
-        <f t="shared" si="15"/>
+      <c r="AZ18" s="11">
+        <f t="shared" si="17"/>
         <v>4863.9576832649245</v>
       </c>
-      <c r="BA18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BA18" s="11">
+        <f t="shared" si="17"/>
         <v>4718.0389527669768</v>
       </c>
-      <c r="BB18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BB18" s="11">
+        <f t="shared" si="17"/>
         <v>4576.4977841839673</v>
       </c>
-      <c r="BC18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BC18" s="11">
+        <f t="shared" si="17"/>
         <v>4439.2028506584484</v>
       </c>
-      <c r="BD18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BD18" s="11">
+        <f t="shared" si="17"/>
         <v>4306.0267651386948</v>
       </c>
-      <c r="BE18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BE18" s="11">
+        <f t="shared" si="17"/>
         <v>4176.8459621845341</v>
       </c>
-      <c r="BF18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BF18" s="11">
+        <f t="shared" si="17"/>
         <v>4051.540583318998</v>
       </c>
-      <c r="BG18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BG18" s="11">
+        <f t="shared" si="17"/>
         <v>3929.9943658194279</v>
       </c>
-      <c r="BH18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BH18" s="11">
+        <f t="shared" si="17"/>
         <v>3812.0945348448449</v>
       </c>
-      <c r="BI18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BI18" s="11">
+        <f t="shared" si="17"/>
         <v>3697.7316987994996</v>
       </c>
-      <c r="BJ18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BJ18" s="11">
+        <f t="shared" si="17"/>
         <v>3586.7997478355146</v>
       </c>
-      <c r="BK18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BK18" s="11">
+        <f t="shared" si="17"/>
         <v>3479.1957554004489</v>
       </c>
-      <c r="BL18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BL18" s="11">
+        <f t="shared" si="17"/>
         <v>3374.8198827384354</v>
       </c>
-      <c r="BM18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BM18" s="11">
+        <f t="shared" si="17"/>
         <v>3273.5752862562822</v>
       </c>
-      <c r="BN18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BN18" s="11">
+        <f t="shared" si="17"/>
         <v>3175.3680276685936</v>
       </c>
-      <c r="BO18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BO18" s="11">
+        <f t="shared" si="17"/>
         <v>3080.1069868385357</v>
       </c>
-      <c r="BP18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BP18" s="11">
+        <f t="shared" si="17"/>
         <v>2987.7037772333797</v>
       </c>
-      <c r="BQ18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BQ18" s="11">
+        <f t="shared" si="17"/>
         <v>2898.0726639163781</v>
       </c>
-      <c r="BR18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BR18" s="11">
+        <f t="shared" si="17"/>
         <v>2811.1304839988866</v>
       </c>
-      <c r="BS18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BS18" s="11">
+        <f t="shared" si="17"/>
         <v>2726.79656947892</v>
       </c>
-      <c r="BT18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BT18" s="11">
+        <f t="shared" si="17"/>
         <v>2644.9926723945523</v>
       </c>
-      <c r="BU18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BU18" s="11">
+        <f t="shared" si="17"/>
         <v>2565.6428922227155</v>
       </c>
-      <c r="BV18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BV18" s="11">
+        <f t="shared" si="17"/>
         <v>2488.6736054560338</v>
       </c>
-      <c r="BW18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BW18" s="11">
+        <f t="shared" si="17"/>
         <v>2414.0133972923527</v>
       </c>
-      <c r="BX18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BX18" s="11">
+        <f t="shared" si="17"/>
         <v>2341.5929953735822</v>
       </c>
-      <c r="BY18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BY18" s="11">
+        <f t="shared" si="17"/>
         <v>2271.3452055123748</v>
       </c>
-      <c r="BZ18" s="15">
-        <f t="shared" si="15"/>
+      <c r="BZ18" s="11">
+        <f t="shared" si="17"/>
         <v>2203.2048493470033</v>
       </c>
-      <c r="CA18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CA18" s="11">
+        <f t="shared" si="17"/>
         <v>2137.1087038665933</v>
       </c>
-      <c r="CB18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CB18" s="11">
+        <f t="shared" si="17"/>
         <v>2072.9954427505954</v>
       </c>
-      <c r="CC18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CC18" s="11">
+        <f t="shared" si="17"/>
         <v>2010.8055794680774</v>
       </c>
-      <c r="CD18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CD18" s="11">
+        <f t="shared" si="17"/>
         <v>1950.4814120840351</v>
       </c>
-      <c r="CE18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CE18" s="11">
+        <f t="shared" si="17"/>
         <v>1891.966969721514</v>
       </c>
-      <c r="CF18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CF18" s="11">
+        <f t="shared" si="17"/>
         <v>1835.2079606298685</v>
       </c>
-      <c r="CG18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CG18" s="11">
+        <f t="shared" si="17"/>
         <v>1780.1517218109723</v>
       </c>
-      <c r="CH18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CH18" s="11">
+        <f t="shared" si="17"/>
         <v>1726.7471701566431</v>
       </c>
-      <c r="CI18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CI18" s="11">
+        <f t="shared" si="17"/>
         <v>1674.9447550519437</v>
       </c>
-      <c r="CJ18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CJ18" s="11">
+        <f t="shared" si="17"/>
         <v>1624.6964124003853</v>
       </c>
-      <c r="CK18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CK18" s="11">
+        <f t="shared" si="17"/>
         <v>1575.9555200283737</v>
       </c>
-      <c r="CL18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CL18" s="11">
+        <f t="shared" si="17"/>
         <v>1528.6768544275224</v>
       </c>
-      <c r="CM18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CM18" s="11">
+        <f t="shared" si="17"/>
         <v>1482.8165487946967</v>
       </c>
-      <c r="CN18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CN18" s="11">
+        <f t="shared" si="17"/>
         <v>1438.3320523308557</v>
       </c>
-      <c r="CO18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CO18" s="11">
+        <f t="shared" si="17"/>
         <v>1395.1820907609301</v>
       </c>
-      <c r="CP18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CP18" s="11">
+        <f t="shared" si="17"/>
         <v>1353.3266280381022</v>
       </c>
-      <c r="CQ18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CQ18" s="11">
+        <f t="shared" si="17"/>
         <v>1312.726829196959</v>
       </c>
-      <c r="CR18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CR18" s="11">
+        <f t="shared" si="17"/>
         <v>1273.3450243210502</v>
       </c>
-      <c r="CS18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CS18" s="11">
+        <f t="shared" si="17"/>
         <v>1235.1446735914187</v>
       </c>
-      <c r="CT18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CT18" s="11">
+        <f t="shared" si="17"/>
         <v>1198.0903333836761</v>
       </c>
-      <c r="CU18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CU18" s="11">
+        <f t="shared" si="17"/>
         <v>1162.1476233821659</v>
       </c>
-      <c r="CV18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CV18" s="11">
+        <f t="shared" si="17"/>
         <v>1127.2831946807009</v>
       </c>
-      <c r="CW18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CW18" s="11">
+        <f t="shared" si="17"/>
         <v>1093.4646988402799</v>
       </c>
-      <c r="CX18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CX18" s="11">
+        <f t="shared" si="17"/>
         <v>1060.6607578750716</v>
       </c>
-      <c r="CY18" s="15">
-        <f>CX18*(1+$AR$23)</f>
+      <c r="CY18" s="11">
+        <f>CX18*(1+$AR$24)</f>
         <v>1028.8409351388193</v>
       </c>
-      <c r="CZ18" s="15">
-        <f t="shared" si="15"/>
+      <c r="CZ18" s="11">
+        <f t="shared" si="17"/>
         <v>997.97570708465469</v>
       </c>
-      <c r="DA18" s="15">
-        <f t="shared" si="15"/>
+      <c r="DA18" s="11">
+        <f t="shared" si="17"/>
         <v>968.03643587211502</v>
       </c>
-      <c r="DB18" s="15">
-        <f t="shared" si="15"/>
+      <c r="DB18" s="11">
+        <f t="shared" si="17"/>
         <v>938.9953427959515</v>
       </c>
-      <c r="DC18" s="15">
-        <f t="shared" ref="DC18:FN18" si="16">DB18*(1+$AR$23)</f>
+      <c r="DC18" s="11">
+        <f t="shared" ref="DC18:FN18" si="18">DB18*(1+$AR$24)</f>
         <v>910.82548251207288</v>
       </c>
-      <c r="DD18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DD18" s="11">
+        <f t="shared" si="18"/>
         <v>883.50071803671062</v>
       </c>
-      <c r="DE18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DE18" s="11">
+        <f t="shared" si="18"/>
         <v>856.99569649560931</v>
       </c>
-      <c r="DF18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DF18" s="11">
+        <f t="shared" si="18"/>
         <v>831.28582560074096</v>
       </c>
-      <c r="DG18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DG18" s="11">
+        <f t="shared" si="18"/>
         <v>806.34725083271871</v>
       </c>
-      <c r="DH18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DH18" s="11">
+        <f t="shared" si="18"/>
         <v>782.15683330773709</v>
       </c>
-      <c r="DI18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DI18" s="11">
+        <f t="shared" si="18"/>
         <v>758.69212830850495</v>
       </c>
-      <c r="DJ18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DJ18" s="11">
+        <f t="shared" si="18"/>
         <v>735.93136445924983</v>
       </c>
-      <c r="DK18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DK18" s="11">
+        <f t="shared" si="18"/>
         <v>713.85342352547229</v>
       </c>
-      <c r="DL18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DL18" s="11">
+        <f t="shared" si="18"/>
         <v>692.43782081970812</v>
       </c>
-      <c r="DM18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DM18" s="11">
+        <f t="shared" si="18"/>
         <v>671.66468619511681</v>
       </c>
-      <c r="DN18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DN18" s="11">
+        <f t="shared" si="18"/>
         <v>651.51474560926329</v>
       </c>
-      <c r="DO18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DO18" s="11">
+        <f t="shared" si="18"/>
         <v>631.96930324098537</v>
       </c>
-      <c r="DP18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DP18" s="11">
+        <f t="shared" si="18"/>
         <v>613.01022414375575</v>
       </c>
-      <c r="DQ18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DQ18" s="11">
+        <f t="shared" si="18"/>
         <v>594.61991741944303</v>
       </c>
-      <c r="DR18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DR18" s="11">
+        <f t="shared" si="18"/>
         <v>576.78131989685971</v>
       </c>
-      <c r="DS18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DS18" s="11">
+        <f t="shared" si="18"/>
         <v>559.47788029995388</v>
       </c>
-      <c r="DT18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DT18" s="11">
+        <f t="shared" si="18"/>
         <v>542.6935438909552</v>
       </c>
-      <c r="DU18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DU18" s="11">
+        <f t="shared" si="18"/>
         <v>526.41273757422653</v>
       </c>
-      <c r="DV18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DV18" s="11">
+        <f t="shared" si="18"/>
         <v>510.62035544699972</v>
       </c>
-      <c r="DW18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DW18" s="11">
+        <f t="shared" si="18"/>
         <v>495.3017447835897</v>
       </c>
-      <c r="DX18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DX18" s="11">
+        <f t="shared" si="18"/>
         <v>480.442692440082</v>
       </c>
-      <c r="DY18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DY18" s="11">
+        <f t="shared" si="18"/>
         <v>466.02941166687953</v>
       </c>
-      <c r="DZ18" s="15">
-        <f t="shared" si="16"/>
+      <c r="DZ18" s="11">
+        <f t="shared" si="18"/>
         <v>452.0485293168731</v>
       </c>
-      <c r="EA18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EA18" s="11">
+        <f t="shared" si="18"/>
         <v>438.48707343736692</v>
       </c>
-      <c r="EB18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EB18" s="11">
+        <f t="shared" si="18"/>
         <v>425.3324612342459</v>
       </c>
-      <c r="EC18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EC18" s="11">
+        <f t="shared" si="18"/>
         <v>412.57248739721854</v>
       </c>
-      <c r="ED18" s="15">
-        <f t="shared" si="16"/>
+      <c r="ED18" s="11">
+        <f t="shared" si="18"/>
         <v>400.19531277530194</v>
       </c>
-      <c r="EE18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EE18" s="11">
+        <f t="shared" si="18"/>
         <v>388.18945339204288</v>
       </c>
-      <c r="EF18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EF18" s="11">
+        <f t="shared" si="18"/>
         <v>376.5437697902816</v>
       </c>
-      <c r="EG18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EG18" s="11">
+        <f t="shared" si="18"/>
         <v>365.24745669657312</v>
       </c>
-      <c r="EH18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EH18" s="11">
+        <f t="shared" si="18"/>
         <v>354.29003299567592</v>
       </c>
-      <c r="EI18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EI18" s="11">
+        <f t="shared" si="18"/>
         <v>343.6613320058056</v>
       </c>
-      <c r="EJ18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EJ18" s="11">
+        <f t="shared" si="18"/>
         <v>333.3514920456314</v>
       </c>
-      <c r="EK18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EK18" s="11">
+        <f t="shared" si="18"/>
         <v>323.35094728426247</v>
       </c>
-      <c r="EL18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EL18" s="11">
+        <f t="shared" si="18"/>
         <v>313.65041886573459</v>
       </c>
-      <c r="EM18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EM18" s="11">
+        <f t="shared" si="18"/>
         <v>304.24090629976257</v>
       </c>
-      <c r="EN18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EN18" s="11">
+        <f t="shared" si="18"/>
         <v>295.11367911076968</v>
       </c>
-      <c r="EO18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EO18" s="11">
+        <f t="shared" si="18"/>
         <v>286.26026873744661</v>
       </c>
-      <c r="EP18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EP18" s="11">
+        <f t="shared" si="18"/>
         <v>277.67246067532318</v>
       </c>
-      <c r="EQ18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EQ18" s="11">
+        <f t="shared" si="18"/>
         <v>269.34228685506349</v>
       </c>
-      <c r="ER18" s="15">
-        <f t="shared" si="16"/>
+      <c r="ER18" s="11">
+        <f t="shared" si="18"/>
         <v>261.2620182494116</v>
       </c>
-      <c r="ES18" s="15">
-        <f t="shared" si="16"/>
+      <c r="ES18" s="11">
+        <f t="shared" si="18"/>
         <v>253.42415770192923</v>
       </c>
-      <c r="ET18" s="15">
-        <f t="shared" si="16"/>
+      <c r="ET18" s="11">
+        <f t="shared" si="18"/>
         <v>245.82143297087134</v>
       </c>
-      <c r="EU18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EU18" s="11">
+        <f t="shared" si="18"/>
         <v>238.44678998174518</v>
       </c>
-      <c r="EV18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EV18" s="11">
+        <f t="shared" si="18"/>
         <v>231.29338628229283</v>
       </c>
-      <c r="EW18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EW18" s="11">
+        <f t="shared" si="18"/>
         <v>224.35458469382405</v>
       </c>
-      <c r="EX18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EX18" s="11">
+        <f t="shared" si="18"/>
         <v>217.62394715300931</v>
       </c>
-      <c r="EY18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EY18" s="11">
+        <f t="shared" si="18"/>
         <v>211.09522873841902</v>
       </c>
-      <c r="EZ18" s="15">
-        <f t="shared" si="16"/>
+      <c r="EZ18" s="11">
+        <f t="shared" si="18"/>
         <v>204.76237187626646</v>
       </c>
-      <c r="FA18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FA18" s="11">
+        <f t="shared" si="18"/>
         <v>198.61950071997845</v>
       </c>
-      <c r="FB18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FB18" s="11">
+        <f t="shared" si="18"/>
         <v>192.66091569837909</v>
       </c>
-      <c r="FC18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FC18" s="11">
+        <f t="shared" si="18"/>
         <v>186.88108822742771</v>
       </c>
-      <c r="FD18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FD18" s="11">
+        <f t="shared" si="18"/>
         <v>181.27465558060487</v>
       </c>
-      <c r="FE18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FE18" s="11">
+        <f t="shared" si="18"/>
         <v>175.83641591318673</v>
       </c>
-      <c r="FF18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FF18" s="11">
+        <f t="shared" si="18"/>
         <v>170.56132343579111</v>
       </c>
-      <c r="FG18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FG18" s="11">
+        <f t="shared" si="18"/>
         <v>165.44448373271737</v>
       </c>
-      <c r="FH18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FH18" s="11">
+        <f t="shared" si="18"/>
         <v>160.48114922073586</v>
       </c>
-      <c r="FI18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FI18" s="11">
+        <f t="shared" si="18"/>
         <v>155.66671474411379</v>
       </c>
-      <c r="FJ18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FJ18" s="11">
+        <f t="shared" si="18"/>
         <v>150.99671330179038</v>
       </c>
-      <c r="FK18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FK18" s="11">
+        <f t="shared" si="18"/>
         <v>146.46681190273665</v>
       </c>
-      <c r="FL18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FL18" s="11">
+        <f t="shared" si="18"/>
         <v>142.07280754565454</v>
       </c>
-      <c r="FM18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FM18" s="11">
+        <f t="shared" si="18"/>
         <v>137.8106233192849</v>
       </c>
-      <c r="FN18" s="15">
-        <f t="shared" si="16"/>
+      <c r="FN18" s="11">
+        <f t="shared" si="18"/>
         <v>133.67630461970634</v>
       </c>
-      <c r="FO18" s="15">
-        <f t="shared" ref="FO18:GN18" si="17">FN18*(1+$AR$23)</f>
+      <c r="FO18" s="11">
+        <f t="shared" ref="FO18:GN18" si="19">FN18*(1+$AR$24)</f>
         <v>129.66601548111515</v>
       </c>
-      <c r="FP18" s="15">
-        <f t="shared" si="17"/>
+      <c r="FP18" s="11">
+        <f t="shared" si="19"/>
         <v>125.77603501668169</v>
       </c>
-      <c r="FQ18" s="15">
-        <f t="shared" si="17"/>
+      <c r="FQ18" s="11">
+        <f t="shared" si="19"/>
         <v>122.00275396618123</v>
       </c>
-      <c r="FR18" s="15">
-        <f t="shared" si="17"/>
+      <c r="FR18" s="11">
+        <f t="shared" si="19"/>
         <v>118.34267134719579</v>
       </c>
-      <c r="FS18" s="15">
-        <f t="shared" si="17"/>
+      <c r="FS18" s="11">
+        <f t="shared" si="19"/>
         <v>114.79239120677991</v>
       </c>
-      <c r="FT18" s="15">
-        <f t="shared" si="17"/>
+      <c r="FT18" s="11">
+        <f t="shared" si="19"/>
         <v>111.34861947057651</v>
       </c>
-      <c r="FU18" s="15">
-        <f t="shared" si="17"/>
+      <c r="FU18" s="11">
+        <f t="shared" si="19"/>
         <v>108.00816088645921</v>
       </c>
-      <c r="FV18" s="15">
-        <f t="shared" si="17"/>
+      <c r="FV18" s="11">
+        <f t="shared" si="19"/>
         <v>104.76791605986543</v>
       </c>
-      <c r="FW18" s="15">
-        <f t="shared" si="17"/>
+      <c r="FW18" s="11">
+        <f t="shared" si="19"/>
         <v>101.62487857806946</v>
       </c>
-      <c r="FX18" s="15">
-        <f t="shared" si="17"/>
+      <c r="FX18" s="11">
+        <f t="shared" si="19"/>
         <v>98.576132220727374</v>
       </c>
-      <c r="FY18" s="15">
-        <f t="shared" si="17"/>
+      <c r="FY18" s="11">
+        <f t="shared" si="19"/>
         <v>95.618848254105544</v>
       </c>
-      <c r="FZ18" s="15">
-        <f t="shared" si="17"/>
+      <c r="FZ18" s="11">
+        <f t="shared" si="19"/>
         <v>92.750282806482375</v>
       </c>
-      <c r="GA18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GA18" s="11">
+        <f t="shared" si="19"/>
         <v>89.967774322287895</v>
       </c>
-      <c r="GB18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GB18" s="11">
+        <f t="shared" si="19"/>
         <v>87.268741092619251</v>
       </c>
-      <c r="GC18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GC18" s="11">
+        <f t="shared" si="19"/>
         <v>84.650678859840667</v>
       </c>
-      <c r="GD18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GD18" s="11">
+        <f t="shared" si="19"/>
         <v>82.111158494045441</v>
       </c>
-      <c r="GE18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GE18" s="11">
+        <f t="shared" si="19"/>
         <v>79.64782373922408</v>
       </c>
-      <c r="GF18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GF18" s="11">
+        <f t="shared" si="19"/>
         <v>77.258389027047357</v>
       </c>
-      <c r="GG18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GG18" s="11">
+        <f t="shared" si="19"/>
         <v>74.940637356235939</v>
       </c>
-      <c r="GH18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GH18" s="11">
+        <f t="shared" si="19"/>
         <v>72.692418235548857</v>
       </c>
-      <c r="GI18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GI18" s="11">
+        <f t="shared" si="19"/>
         <v>70.511645688482389</v>
       </c>
-      <c r="GJ18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GJ18" s="11">
+        <f t="shared" si="19"/>
         <v>68.396296317827918</v>
       </c>
-      <c r="GK18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GK18" s="11">
+        <f t="shared" si="19"/>
         <v>66.344407428293081</v>
       </c>
-      <c r="GL18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GL18" s="11">
+        <f t="shared" si="19"/>
         <v>64.354075205444289</v>
       </c>
-      <c r="GM18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GM18" s="11">
+        <f t="shared" si="19"/>
         <v>62.423452949280957</v>
       </c>
-      <c r="GN18" s="15">
-        <f t="shared" si="17"/>
+      <c r="GN18" s="11">
+        <f t="shared" si="19"/>
         <v>60.550749360802527</v>
       </c>
     </row>
-    <row r="19" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="17">
-        <f t="shared" ref="C19:Q19" si="18">(C18/C20)</f>
+    <row r="19" spans="2:196" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" ref="C19:Q19" si="20">(C18/C20)</f>
         <v>1.0921424385025458</v>
       </c>
-      <c r="D19" s="17">
-        <f t="shared" si="18"/>
+      <c r="D19" s="13">
+        <f t="shared" si="20"/>
         <v>1.6959961640123367</v>
       </c>
-      <c r="E19" s="17">
-        <f t="shared" si="18"/>
+      <c r="E19" s="13">
+        <f t="shared" si="20"/>
         <v>1.2443171435784661</v>
       </c>
-      <c r="F19" s="17">
-        <f t="shared" si="18"/>
+      <c r="F19" s="13">
+        <f t="shared" si="20"/>
         <v>1.0411641861052432</v>
       </c>
-      <c r="G19" s="17">
-        <f t="shared" si="18"/>
+      <c r="G19" s="13">
+        <f t="shared" si="20"/>
         <v>1.1807024658857947</v>
       </c>
-      <c r="H19" s="17">
-        <f t="shared" si="18"/>
+      <c r="H19" s="13">
+        <f t="shared" si="20"/>
         <v>1.0562305371560063</v>
       </c>
-      <c r="I19" s="17">
-        <f t="shared" si="18"/>
+      <c r="I19" s="13">
+        <f t="shared" si="20"/>
         <v>1.2921754545097288</v>
       </c>
-      <c r="J19" s="17">
-        <f t="shared" si="18"/>
+      <c r="J19" s="13">
+        <f t="shared" si="20"/>
         <v>1.1036440646230672</v>
       </c>
-      <c r="K19" s="18">
-        <f t="shared" si="18"/>
+      <c r="K19" s="14">
+        <f t="shared" si="20"/>
         <v>1.3227086664728156</v>
       </c>
-      <c r="L19" s="18">
-        <f t="shared" si="18"/>
+      <c r="L19" s="14">
+        <f t="shared" si="20"/>
         <v>1.093825379204171</v>
       </c>
-      <c r="M19" s="18">
-        <f t="shared" si="18"/>
+      <c r="M19" s="14">
+        <f t="shared" si="20"/>
         <v>1.2672919430067091</v>
       </c>
-      <c r="N19" s="18">
-        <f t="shared" si="18"/>
+      <c r="N19" s="14">
+        <f t="shared" si="20"/>
         <v>1.1835553445946307</v>
       </c>
-      <c r="O19" s="17">
-        <f t="shared" si="18"/>
+      <c r="O19" s="13">
+        <f t="shared" si="20"/>
         <v>1.3070606643730627</v>
       </c>
-      <c r="P19" s="17">
-        <f t="shared" si="18"/>
+      <c r="P19" s="13">
+        <f t="shared" si="20"/>
         <v>2.1169762662150009</v>
       </c>
-      <c r="Q19" s="17">
-        <f t="shared" si="18"/>
+      <c r="Q19" s="13">
+        <f t="shared" si="20"/>
         <v>1.4385789996831504</v>
       </c>
-      <c r="U19" s="17">
+      <c r="U19" s="13">
         <f>(U18/U20)</f>
         <v>2.7942422683856862</v>
       </c>
-      <c r="V19" s="17">
+      <c r="V19" s="13">
         <f>(V18/V20)</f>
         <v>3.5277014274264369</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W19" s="13">
         <f>(W18/W20)</f>
         <v>3.969665036464233</v>
       </c>
-      <c r="X19" s="17">
-        <f t="shared" ref="X19:Y19" si="19">(X18/X20)</f>
+      <c r="X19" s="13">
+        <f t="shared" ref="X19:Y19" si="21">(X18/X20)</f>
         <v>5.0839503009428615</v>
       </c>
-      <c r="Y19" s="17">
-        <f t="shared" si="19"/>
+      <c r="Y19" s="13">
+        <f t="shared" si="21"/>
         <v>4.6380047814921177</v>
       </c>
-      <c r="Z19" s="17">
+      <c r="Z19" s="13">
         <f>(Z18/Z20)</f>
         <v>4.871702324321574</v>
       </c>
     </row>
-    <row r="20" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="12">
+    <row r="20" spans="2:196" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8">
         <v>639.65923799999996</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="8">
         <v>649.52033700000004</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="8">
         <v>650.62593100000004</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="8">
         <v>645.53699500000005</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="8">
         <v>636.69554500000004</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="8">
         <v>635.929351</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="8">
         <v>633.12841700000001</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="8">
         <v>634.21624999999995</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="10">
         <v>628.43921799999998</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="10">
         <v>628.25475900000004</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="10">
         <v>625.96941800000002</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="10">
         <v>626.79958599999998</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="8">
         <v>626.46212400000002</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="8">
         <v>626.52379299999996</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="8">
         <v>623.72591299999999</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="8">
         <v>637.17023400000005</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="8">
         <v>645.63117</v>
       </c>
-      <c r="W20" s="12">
+      <c r="W20" s="8">
         <v>643.13260100000002</v>
       </c>
-      <c r="X20" s="12">
+      <c r="X20" s="8">
         <v>645.53699500000005</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="Y20" s="8">
         <v>634.21624999999995</v>
       </c>
-      <c r="Z20" s="12">
+      <c r="Z20" s="8">
         <v>626.79958599999998</v>
       </c>
     </row>
-    <row r="21" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:196" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="19" t="s">
+    <row r="21" spans="2:196" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:196" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" ref="G22:Q22" si="22">G5/C5-1</f>
+        <v>1.7169976771105322E-2</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="22"/>
+        <v>9.8972151195997338E-3</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="22"/>
+        <v>6.9051568286447651E-2</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="22"/>
+        <v>9.8647919187709432E-2</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="22"/>
+        <v>6.9690023816312729E-2</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="22"/>
+        <v>4.8114676967229375E-2</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="22"/>
+        <v>4.2336453815328134E-3</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="22"/>
+        <v>1.1756169079722101E-2</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="22"/>
+        <v>1.470960321610626E-2</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" si="22"/>
+        <v>5.8684702562790125E-2</v>
+      </c>
+      <c r="Q22" s="15">
+        <f t="shared" si="22"/>
+        <v>8.3863741993115415E-2</v>
+      </c>
+      <c r="V22" s="15">
+        <f t="shared" ref="V22:AO22" si="23">V5/U5-1</f>
+        <v>0.18441247145696837</v>
+      </c>
+      <c r="W22" s="15">
+        <f t="shared" si="23"/>
+        <v>8.8658597764026181E-2</v>
+      </c>
+      <c r="X22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0696497765043675E-2</v>
+      </c>
+      <c r="Y22" s="15">
+        <f t="shared" si="23"/>
+        <v>4.870629462084719E-2</v>
+      </c>
+      <c r="Z22" s="15">
+        <f t="shared" si="23"/>
+        <v>3.2619811877001581E-2</v>
+      </c>
+      <c r="AA22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AB22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AC22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AD22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AE22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AF22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AG22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AH22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AI22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AJ22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AK22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AL22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AM22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AN22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AO22" s="15">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AQ22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:196" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" ref="G23:Q23" si="24">G12/F12-1</f>
+        <v>-5.3858991229518427E-3</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="24"/>
+        <v>-5.8448825251352976E-2</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="24"/>
+        <v>6.156342367420975E-2</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="24"/>
+        <v>2.3323666700795886E-2</v>
+      </c>
+      <c r="K23" s="16">
+        <f t="shared" si="24"/>
+        <v>-2.7118131660494482E-2</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="24"/>
+        <v>-9.7644906224636174E-2</v>
+      </c>
+      <c r="M23" s="16">
+        <f t="shared" si="24"/>
+        <v>0.14084876591292605</v>
+      </c>
+      <c r="N23" s="16">
+        <f t="shared" si="24"/>
+        <v>1.3627418990848073E-2</v>
+      </c>
+      <c r="O23" s="16">
+        <f t="shared" si="24"/>
+        <v>-4.8986526010974529E-2</v>
+      </c>
+      <c r="P23" s="16">
+        <f t="shared" si="24"/>
+        <v>-4.4351612924871442E-2</v>
+      </c>
+      <c r="Q23" s="16">
+        <f t="shared" ref="Q23" si="25">Q12/P12-1</f>
+        <v>7.945016742447164E-2</v>
+      </c>
+      <c r="V23" s="16">
+        <f t="shared" ref="V23:Z23" si="26">V12/U12-1</f>
+        <v>0.13384988867368341</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="26"/>
+        <v>4.0659143064384784E-2</v>
+      </c>
+      <c r="X23" s="16">
+        <f t="shared" si="26"/>
+        <v>-1.3905369913682963E-2</v>
+      </c>
+      <c r="Y23" s="16">
+        <f t="shared" si="26"/>
+        <v>6.7183798013522589E-2</v>
+      </c>
+      <c r="Z23" s="16">
+        <f>Z12/Y12-1</f>
+        <v>-1.4007549098673633E-2</v>
+      </c>
+      <c r="AA23" s="16">
+        <f t="shared" ref="AA23:AO23" si="27">AA12/Z12-1</f>
+        <v>-1.000000000000012E-2</v>
+      </c>
+      <c r="AB23" s="16">
+        <f t="shared" si="27"/>
+        <v>-9.9999999999998979E-3</v>
+      </c>
+      <c r="AC23" s="16">
+        <f t="shared" si="27"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AD23" s="16">
+        <f t="shared" si="27"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AE23" s="16">
+        <f t="shared" si="27"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AF23" s="16">
+        <f t="shared" si="27"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AG23" s="16">
+        <f t="shared" si="27"/>
+        <v>-9.9999999999998979E-3</v>
+      </c>
+      <c r="AH23" s="16">
+        <f t="shared" si="27"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AI23" s="16">
+        <f t="shared" si="27"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AJ23" s="16">
+        <f t="shared" si="27"/>
+        <v>-1.000000000000012E-2</v>
+      </c>
+      <c r="AK23" s="16">
+        <f t="shared" si="27"/>
+        <v>-9.9999999999998979E-3</v>
+      </c>
+      <c r="AL23" s="16">
+        <f t="shared" si="27"/>
+        <v>-1.000000000000012E-2</v>
+      </c>
+      <c r="AM23" s="16">
+        <f t="shared" si="27"/>
+        <v>-9.9999999999998979E-3</v>
+      </c>
+      <c r="AN23" s="16">
+        <f t="shared" si="27"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AO23" s="16">
+        <f t="shared" si="27"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:196" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="19">
-        <f>G5/C5-1</f>
-        <v>1.7169976771105322E-2</v>
-      </c>
-      <c r="H22" s="19">
-        <f>H5/D5-1</f>
-        <v>9.8972151195997338E-3</v>
-      </c>
-      <c r="I22" s="19">
-        <f>I5/E5-1</f>
-        <v>6.9051568286447651E-2</v>
-      </c>
-      <c r="J22" s="19">
-        <f>J5/F5-1</f>
-        <v>9.8647919187709432E-2</v>
-      </c>
-      <c r="K22" s="19">
-        <f>K5/G5-1</f>
-        <v>6.9690023816312729E-2</v>
-      </c>
-      <c r="L22" s="19">
-        <f>L5/H5-1</f>
-        <v>4.8114676967229375E-2</v>
-      </c>
-      <c r="M22" s="19">
-        <f>M5/I5-1</f>
-        <v>4.2336453815328134E-3</v>
-      </c>
-      <c r="N22" s="19">
-        <f>N5/J5-1</f>
-        <v>1.1756169079722101E-2</v>
-      </c>
-      <c r="O22" s="19">
-        <f>O5/K5-1</f>
-        <v>1.470960321610626E-2</v>
-      </c>
-      <c r="P22" s="19">
-        <f>P5/L5-1</f>
-        <v>5.8684702562790125E-2</v>
-      </c>
-      <c r="Q22" s="19">
-        <f>Q5/M5-1</f>
-        <v>8.3863741993115415E-2</v>
-      </c>
-      <c r="V22" s="19">
-        <f>V5/U5-1</f>
-        <v>0.18441247145696837</v>
-      </c>
-      <c r="W22" s="19">
-        <f>W5/V5-1</f>
-        <v>8.8658597764026181E-2</v>
-      </c>
-      <c r="X22" s="19">
-        <f>X5/W5-1</f>
-        <v>2.0696497765043675E-2</v>
-      </c>
-      <c r="Y22" s="19">
-        <f>Y5/X5-1</f>
-        <v>4.870629462084719E-2</v>
-      </c>
-      <c r="Z22" s="19">
-        <f>Z5/Y5-1</f>
-        <v>3.2619811877001581E-2</v>
-      </c>
-      <c r="AA22" s="19">
-        <f>AA5/Z5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AB22" s="19">
-        <f>AB5/AA5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AC22" s="19">
-        <f>AC5/AB5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AD22" s="19">
-        <f>AD5/AC5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AE22" s="19">
-        <f>AE5/AD5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AF22" s="19">
-        <f>AF5/AE5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AG22" s="19">
-        <f>AG5/AF5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AH22" s="19">
-        <f>AH5/AG5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AI22" s="19">
-        <f>AI5/AH5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AJ22" s="19">
-        <f>AJ5/AI5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AK22" s="19">
-        <f>AK5/AJ5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AL22" s="19">
-        <f>AL5/AK5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AM22" s="19">
-        <f>AM5/AL5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AN22" s="19">
-        <f>AN5/AM5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AO22" s="19">
-        <f>AO5/AN5-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AQ22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR22" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="21">
+      <c r="G24" s="17">
         <f>G18/C18-1</f>
         <v>7.6079410362740019E-2</v>
       </c>
-      <c r="H23" s="21">
-        <f t="shared" ref="H23:Q23" si="20">H18/D18-1</f>
+      <c r="H24" s="17">
+        <f t="shared" ref="H24:Q24" si="28">H18/D18-1</f>
         <v>-0.39025258173684407</v>
       </c>
-      <c r="I23" s="21">
-        <f t="shared" si="20"/>
+      <c r="I24" s="17">
+        <f t="shared" si="28"/>
         <v>1.0533792004545406E-2</v>
       </c>
-      <c r="J23" s="21">
-        <f t="shared" si="20"/>
+      <c r="J24" s="17">
+        <f t="shared" si="28"/>
         <v>4.1420303224174448E-2</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K24" s="17">
         <f>K18/G18-1</f>
         <v>0.10574554238920353</v>
       </c>
-      <c r="L23" s="21">
-        <f t="shared" si="20"/>
+      <c r="L24" s="17">
+        <f t="shared" si="28"/>
         <v>2.3095544359880815E-2</v>
       </c>
-      <c r="M23" s="21">
-        <f t="shared" si="20"/>
+      <c r="M24" s="17">
+        <f t="shared" si="28"/>
         <v>-3.0346663602706769E-2</v>
       </c>
-      <c r="N23" s="21">
-        <f t="shared" si="20"/>
+      <c r="N24" s="17">
+        <f t="shared" si="28"/>
         <v>5.9865790221862891E-2</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O24" s="17">
         <f>O18/K18-1</f>
         <v>-1.4939091143131744E-2</v>
       </c>
-      <c r="P23" s="21">
-        <f t="shared" si="20"/>
+      <c r="P24" s="17">
+        <f t="shared" si="28"/>
         <v>0.9300553986388258</v>
       </c>
-      <c r="Q23" s="21">
-        <f t="shared" si="20"/>
+      <c r="Q24" s="17">
+        <f t="shared" si="28"/>
         <v>0.13109143486712349</v>
       </c>
-      <c r="V23" s="20">
+      <c r="V24" s="16">
         <f>V18/U18-1</f>
         <v>0.27925396875323094</v>
       </c>
-      <c r="W23" s="20">
+      <c r="W24" s="16">
         <f>W18/V18-1</f>
         <v>0.12092892763152752</v>
       </c>
-      <c r="X23" s="20">
-        <f t="shared" ref="X23:AO23" si="21">X18/W18-1</f>
+      <c r="X24" s="16">
+        <f t="shared" ref="X24:AO24" si="29">X18/W18-1</f>
         <v>0.28548805513154729</v>
       </c>
-      <c r="Y23" s="20">
-        <f t="shared" si="21"/>
+      <c r="Y24" s="16">
+        <f t="shared" si="29"/>
         <v>-0.10371500707826453</v>
       </c>
-      <c r="Z23" s="20">
-        <f t="shared" si="21"/>
+      <c r="Z24" s="16">
+        <f t="shared" si="29"/>
         <v>3.8104054464765946E-2</v>
       </c>
-      <c r="AA23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AA24" s="16">
+        <f t="shared" si="29"/>
         <v>0.21717748744179377</v>
       </c>
-      <c r="AB23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AB24" s="16">
+        <f t="shared" si="29"/>
         <v>5.3946814073344118E-2</v>
       </c>
-      <c r="AC23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AC24" s="16">
+        <f t="shared" si="29"/>
         <v>5.1887241071044254E-2</v>
       </c>
-      <c r="AD23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AD24" s="16">
+        <f t="shared" si="29"/>
         <v>5.0011271161686244E-2</v>
       </c>
-      <c r="AE23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AE24" s="16">
+        <f t="shared" si="29"/>
         <v>4.8296132309425088E-2</v>
       </c>
-      <c r="AF23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AF24" s="16">
+        <f t="shared" si="29"/>
         <v>4.6722664324950092E-2</v>
       </c>
-      <c r="AG23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AG24" s="16">
+        <f t="shared" si="29"/>
         <v>4.5274629940019295E-2</v>
       </c>
-      <c r="AH23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AH24" s="16">
+        <f t="shared" si="29"/>
         <v>4.3938177778092502E-2</v>
       </c>
-      <c r="AI23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AI24" s="16">
+        <f t="shared" si="29"/>
         <v>4.2701419533829776E-2</v>
       </c>
-      <c r="AJ23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AJ24" s="16">
+        <f t="shared" si="29"/>
         <v>4.1554093994904173E-2</v>
       </c>
-      <c r="AK23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AK24" s="16">
+        <f t="shared" si="29"/>
         <v>4.0487297785825938E-2</v>
       </c>
-      <c r="AL23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AL24" s="16">
+        <f t="shared" si="29"/>
         <v>3.9493267870363669E-2</v>
       </c>
-      <c r="AM23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AM24" s="16">
+        <f t="shared" si="29"/>
         <v>3.8565204565259359E-2</v>
       </c>
-      <c r="AN23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AN24" s="16">
+        <f t="shared" si="29"/>
         <v>3.7697126527058256E-2</v>
       </c>
-      <c r="AO23" s="20">
-        <f t="shared" si="21"/>
+      <c r="AO24" s="16">
+        <f t="shared" si="29"/>
         <v>3.6883751170339707E-2</v>
       </c>
-      <c r="AQ23" s="12" t="s">
+      <c r="AQ24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR24" s="16">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="2:196" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AR23" s="20">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="24" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AQ24" s="12" t="s">
+      <c r="AR25" s="18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:196" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" ref="C26:Q26" si="30">(C9/C5)</f>
+        <v>0.30857875471633156</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.29764683744988873</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.31629989095652727</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.31223945161949657</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.31403108531409424</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.29470062899381483</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.30780359166911403</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.29859982419935643</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.30435236502962804</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.28249556520193303</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.30512203769734275</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.29940841730018614</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.30268404744020866</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.28221996455184928</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="30"/>
+        <v>0.29987053246700535</v>
+      </c>
+      <c r="V26" s="16">
+        <f t="shared" ref="V26:AO26" si="31">(V9/V5)</f>
+        <v>0.30661153689146248</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.30182367947327532</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.30874800969984989</v>
+      </c>
+      <c r="Y26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.30382945358695074</v>
+      </c>
+      <c r="Z26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29802250223184823</v>
+      </c>
+      <c r="AA26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AB26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AC26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AD26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AE26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AF26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AG26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AH26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AI26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AJ26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AK26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AL26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AM26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AN26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AO26" s="16">
+        <f t="shared" si="31"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AQ26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AR24" s="22">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:196" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="20" t="s">
+      <c r="AR26" s="19">
+        <f>NPV(AR25,X18:GN18)</f>
+        <v>95678.242599467849</v>
+      </c>
+    </row>
+    <row r="27" spans="2:196" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="20">
-        <f>(C9/C5)</f>
-        <v>0.30857875471633156</v>
-      </c>
-      <c r="D25" s="20">
-        <f>(D9/D5)</f>
-        <v>0.29764683744988873</v>
-      </c>
-      <c r="E25" s="20">
-        <f>(E9/E5)</f>
-        <v>0.31629989095652727</v>
-      </c>
-      <c r="F25" s="20">
-        <f>(F9/F5)</f>
-        <v>0.31223945161949657</v>
-      </c>
-      <c r="G25" s="20">
-        <f>(G9/G5)</f>
-        <v>0.31403108531409424</v>
-      </c>
-      <c r="H25" s="20">
-        <f>(H9/H5)</f>
-        <v>0.29470062899381483</v>
-      </c>
-      <c r="I25" s="20">
-        <f>(I9/I5)</f>
-        <v>0.30780359166911403</v>
-      </c>
-      <c r="J25" s="20">
-        <f>(J9/J5)</f>
-        <v>0.29859982419935643</v>
-      </c>
-      <c r="K25" s="20">
-        <f>(K9/K5)</f>
-        <v>0.30435236502962804</v>
-      </c>
-      <c r="L25" s="20">
-        <f>(L9/L5)</f>
-        <v>0.28249556520193303</v>
-      </c>
-      <c r="M25" s="20">
-        <f>(M9/M5)</f>
-        <v>0.30512203769734275</v>
-      </c>
-      <c r="N25" s="20">
-        <f>(N9/N5)</f>
-        <v>0.29940841730018614</v>
-      </c>
-      <c r="O25" s="20">
-        <f>(O9/O5)</f>
-        <v>0.30268404744020866</v>
-      </c>
-      <c r="P25" s="20">
-        <f>(P9/P5)</f>
-        <v>0.28221996455184928</v>
-      </c>
-      <c r="Q25" s="20">
-        <f>(Q9/Q5)</f>
-        <v>0.29987053246700535</v>
-      </c>
-      <c r="V25" s="20">
-        <f>(V9/V5)</f>
-        <v>0.30661153689146248</v>
-      </c>
-      <c r="W25" s="20">
-        <f>(W9/W5)</f>
-        <v>0.30182367947327532</v>
-      </c>
-      <c r="X25" s="20">
-        <f>(X9/X5)</f>
-        <v>0.30874800969984989</v>
-      </c>
-      <c r="Y25" s="20">
-        <f>(Y9/Y5)</f>
-        <v>0.30382945358695074</v>
-      </c>
-      <c r="Z25" s="20">
-        <f>(Z9/Z5)</f>
-        <v>0.29802250223184823</v>
-      </c>
-      <c r="AA25" s="20">
-        <f>(AA9/AA5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AB25" s="20">
-        <f>(AB9/AB5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AC25" s="20">
-        <f>(AC9/AC5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AD25" s="20">
-        <f>(AD9/AD5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AE25" s="20">
-        <f>(AE9/AE5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AF25" s="20">
-        <f>(AF9/AF5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AG25" s="20">
-        <f>(AG9/AG5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AH25" s="20">
-        <f>(AH9/AH5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AI25" s="20">
-        <f>(AI9/AI5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AJ25" s="20">
-        <f>(AJ9/AJ5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AK25" s="20">
-        <f>(AK9/AK5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AL25" s="20">
-        <f>(AL9/AL5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AM25" s="20">
-        <f>(AM9/AM5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AN25" s="20">
-        <f>(AN9/AN5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AO25" s="20">
-        <f>(AO9/AO5)</f>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AQ25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR25" s="23">
-        <f>NPV(AR24,X18:GN18)</f>
-        <v>95678.242599467849</v>
-      </c>
-    </row>
-    <row r="26" spans="2:196" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="20">
+      <c r="C27" s="16">
         <f>(C17/C16)</f>
         <v>0.26803174803438601</v>
       </c>
-      <c r="D26" s="20">
-        <f t="shared" ref="D26:Q26" si="22">(D17/D16)</f>
+      <c r="D27" s="16">
+        <f t="shared" ref="D27:Q27" si="32">(D17/D16)</f>
         <v>-4.8673686492014838E-3</v>
       </c>
-      <c r="E26" s="20">
-        <f t="shared" si="22"/>
+      <c r="E27" s="16">
+        <f t="shared" si="32"/>
         <v>0.23782105432179776</v>
       </c>
-      <c r="F26" s="20">
-        <f t="shared" si="22"/>
+      <c r="F27" s="16">
+        <f t="shared" si="32"/>
         <v>0.24603086660749982</v>
       </c>
-      <c r="G26" s="20">
-        <f t="shared" si="22"/>
+      <c r="G27" s="16">
+        <f t="shared" si="32"/>
         <v>0.25097948368173262</v>
       </c>
-      <c r="H26" s="20">
-        <f t="shared" si="22"/>
+      <c r="H27" s="16">
+        <f t="shared" si="32"/>
         <v>0.23965614466247789</v>
       </c>
-      <c r="I26" s="20">
-        <f t="shared" si="22"/>
+      <c r="I27" s="16">
+        <f t="shared" si="32"/>
         <v>0.24995432198960663</v>
       </c>
-      <c r="J26" s="20">
-        <f t="shared" si="22"/>
+      <c r="J27" s="16">
+        <f t="shared" si="32"/>
         <v>0.30130246764965901</v>
       </c>
-      <c r="K26" s="20">
-        <f t="shared" si="22"/>
+      <c r="K27" s="16">
+        <f t="shared" si="32"/>
         <v>0.2515469107935524</v>
       </c>
-      <c r="L26" s="20">
-        <f t="shared" si="22"/>
+      <c r="L27" s="16">
+        <f t="shared" si="32"/>
         <v>0.26139290118679687</v>
       </c>
-      <c r="M26" s="20">
-        <f t="shared" si="22"/>
+      <c r="M27" s="16">
+        <f t="shared" si="32"/>
         <v>0.24906422310193718</v>
       </c>
-      <c r="N26" s="20">
-        <f t="shared" si="22"/>
+      <c r="N27" s="16">
+        <f t="shared" si="32"/>
         <v>0.26548310547246273</v>
       </c>
-      <c r="O26" s="20">
-        <f t="shared" si="22"/>
+      <c r="O27" s="16">
+        <f t="shared" si="32"/>
         <v>0.29283197426010837</v>
       </c>
-      <c r="P26" s="20">
-        <f t="shared" si="22"/>
+      <c r="P27" s="16">
+        <f t="shared" si="32"/>
         <v>0.13728605874724484</v>
       </c>
-      <c r="Q26" s="20">
-        <f t="shared" si="22"/>
+      <c r="Q27" s="16">
+        <f t="shared" si="32"/>
         <v>0.26544905606708019</v>
       </c>
-      <c r="V26" s="20">
-        <f t="shared" ref="V26:Z26" si="23">(V17/V16)</f>
+      <c r="V27" s="16">
+        <f t="shared" ref="V27:Z27" si="33">(V17/V16)</f>
         <v>0.2730064502828779</v>
       </c>
-      <c r="W26" s="20">
-        <f t="shared" si="23"/>
+      <c r="W27" s="16">
+        <f t="shared" si="33"/>
         <v>0.2764672354454828</v>
       </c>
-      <c r="X26" s="20">
-        <f t="shared" si="23"/>
+      <c r="X27" s="16">
+        <f t="shared" si="33"/>
         <v>0.18082706593669917</v>
       </c>
-      <c r="Y26" s="20">
-        <f t="shared" si="23"/>
+      <c r="Y27" s="16">
+        <f t="shared" si="33"/>
         <v>0.26099477146324579</v>
       </c>
-      <c r="Z26" s="20">
-        <f t="shared" si="23"/>
+      <c r="Z27" s="16">
+        <f t="shared" si="33"/>
         <v>0.25271350986996638</v>
       </c>
-      <c r="AA26" s="20">
-        <f t="shared" ref="AA26:AI26" si="24">(AA17/AA16)</f>
+      <c r="AA27" s="16">
+        <f t="shared" ref="AA27:AI27" si="34">(AA17/AA16)</f>
         <v>0.2</v>
       </c>
-      <c r="AB26" s="20">
-        <f t="shared" si="24"/>
+      <c r="AB27" s="16">
+        <f t="shared" si="34"/>
         <v>0.2</v>
       </c>
-      <c r="AC26" s="20">
-        <f t="shared" si="24"/>
+      <c r="AC27" s="16">
+        <f t="shared" si="34"/>
         <v>0.2</v>
       </c>
-      <c r="AD26" s="20">
-        <f t="shared" si="24"/>
+      <c r="AD27" s="16">
+        <f t="shared" si="34"/>
         <v>0.20000000000000004</v>
       </c>
-      <c r="AE26" s="20">
-        <f t="shared" si="24"/>
+      <c r="AE27" s="16">
+        <f t="shared" si="34"/>
         <v>0.2</v>
       </c>
-      <c r="AF26" s="20">
-        <f t="shared" si="24"/>
+      <c r="AF27" s="16">
+        <f t="shared" si="34"/>
         <v>0.2</v>
       </c>
-      <c r="AG26" s="20">
-        <f t="shared" si="24"/>
+      <c r="AG27" s="16">
+        <f t="shared" si="34"/>
         <v>0.2</v>
       </c>
-      <c r="AH26" s="20">
-        <f t="shared" si="24"/>
+      <c r="AH27" s="16">
+        <f t="shared" si="34"/>
         <v>0.20000000000000004</v>
       </c>
-      <c r="AI26" s="20">
-        <f t="shared" si="24"/>
+      <c r="AI27" s="16">
+        <f t="shared" si="34"/>
         <v>0.2</v>
       </c>
-      <c r="AJ26" s="20">
-        <f t="shared" ref="AJ26:AO26" si="25">(AJ17/AJ16)</f>
+      <c r="AJ27" s="16">
+        <f t="shared" ref="AJ27:AO27" si="35">(AJ17/AJ16)</f>
         <v>0.2</v>
       </c>
-      <c r="AK26" s="20">
-        <f t="shared" si="25"/>
+      <c r="AK27" s="16">
+        <f t="shared" si="35"/>
         <v>0.2</v>
       </c>
-      <c r="AL26" s="20">
-        <f t="shared" si="25"/>
+      <c r="AL27" s="16">
+        <f t="shared" si="35"/>
         <v>0.2</v>
       </c>
-      <c r="AM26" s="20">
-        <f t="shared" si="25"/>
+      <c r="AM27" s="16">
+        <f t="shared" si="35"/>
         <v>0.2</v>
       </c>
-      <c r="AN26" s="20">
-        <f t="shared" si="25"/>
+      <c r="AN27" s="16">
+        <f t="shared" si="35"/>
         <v>0.2</v>
       </c>
-      <c r="AO26" s="20">
-        <f t="shared" si="25"/>
+      <c r="AO27" s="16">
+        <f t="shared" si="35"/>
         <v>0.2</v>
       </c>
-      <c r="AQ26" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR26" s="12">
-        <f>Main!K5-Main!K6</f>
+      <c r="AQ27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR27" s="8">
+        <f>Main!J5-Main!J6</f>
         <v>3604.3010000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Z27" s="20"/>
-      <c r="AQ27" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR27" s="15">
-        <f>AR25+AR26</f>
+    <row r="28" spans="2:196" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z28" s="16"/>
+      <c r="AQ28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR28" s="11">
+        <f>AR26+AR27</f>
         <v>99282.543599467856</v>
       </c>
     </row>
-    <row r="28" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q28" s="12">
+    <row r="29" spans="2:196" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="8">
         <f>3497.878+2.869+132.427</f>
         <v>3633.1740000000004</v>
       </c>
     </row>
-    <row r="29" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q29" s="12">
+    <row r="30" spans="2:196" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q30" s="8">
         <f>4303.642+2136.836+51.179</f>
         <v>6491.6569999999992</v>
       </c>
-      <c r="AQ29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR29" s="15">
-        <f>AR27/Main!K3</f>
+      <c r="AQ30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR30" s="21">
+        <f>AR28/Main!J3</f>
         <v>153.99088548612264</v>
       </c>
     </row>
-    <row r="30" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q30" s="12">
+    <row r="31" spans="2:196" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="8">
         <f>891.39+1229.695</f>
         <v>2121.085</v>
       </c>
-      <c r="AQ30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR30" s="15">
-        <f>Main!K2</f>
+      <c r="AQ31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR31" s="21">
+        <f>Main!J2</f>
         <v>110.53</v>
       </c>
     </row>
-    <row r="31" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q31" s="12">
+    <row r="32" spans="2:196" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q32" s="8">
         <v>725.46600000000001</v>
       </c>
-      <c r="AQ31" s="15"/>
-      <c r="AR31" s="15"/>
-    </row>
-    <row r="32" spans="2:196" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="12" t="s">
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+    </row>
+    <row r="33" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>743.39599999999996</v>
+      </c>
+      <c r="AR33" s="16">
+        <f>AR30/AR31-1</f>
+        <v>0.39320442853634874</v>
+      </c>
+    </row>
+    <row r="34" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q32" s="12">
-        <v>743.39599999999996</v>
-      </c>
-      <c r="AR32" s="20">
-        <f>AR29/AR30-1</f>
-        <v>0.39320442853634874</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="12" t="s">
+      <c r="Q34" s="8">
+        <v>883.60900000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Q33" s="12">
-        <v>883.60900000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="12" t="s">
+      <c r="Q35" s="8">
+        <v>3538.1469999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Q34" s="12">
-        <v>3538.1469999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="12" t="s">
+      <c r="Q36" s="8">
+        <v>1054.5129999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Q35" s="12">
-        <v>1054.5129999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q36" s="12">
-        <f>SUM(Q28:Q35)</f>
+      <c r="Q37" s="8">
+        <f>SUM(Q29:Q36)</f>
         <v>19191.047000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q38" s="12">
+    <row r="38" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="8">
         <f>2.072+26.801</f>
         <v>28.872999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="12" t="s">
+    <row r="40" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>1133.43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Q39" s="12">
-        <v>1133.43</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q40" s="12">
+      <c r="Q41" s="8">
         <f>2349.05+771.973</f>
         <v>3121.0230000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="12" t="s">
+    <row r="42" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>3410.777</v>
+      </c>
+    </row>
+    <row r="43" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q41" s="12">
-        <v>3410.777</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q42" s="12">
+      <c r="Q43" s="8">
         <v>364.32400000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q43" s="12">
+    <row r="44" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="8">
         <f>50.825+152.882</f>
         <v>203.70699999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q44" s="12">
+    <row r="45" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q45" s="8">
         <v>472.07100000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="12" t="s">
+    <row r="46" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>1139.634</v>
+      </c>
+    </row>
+    <row r="47" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q45" s="12">
-        <v>1139.634</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q46" s="12">
+      <c r="Q47" s="8">
         <f>927.952+378.584</f>
         <v>1306.5360000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="12" t="s">
+    <row r="48" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>304.11399999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q47" s="12">
-        <v>304.11399999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="15" t="s">
+      <c r="Q49" s="11">
+        <v>7706.558</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Q48" s="15">
-        <v>7706.558</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q49" s="12">
-        <f>SUM(Q38:Q48)</f>
+      <c r="Q50" s="8">
+        <f>SUM(Q39:Q49)</f>
         <v>19191.046999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="P51" s="15">
+    <row r="52" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" s="11">
         <f>SUM(M18:P18)</f>
         <v>3680.2980000000007</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B52" s="20" t="s">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16">
+        <f>SUM(N18:Q18)/Q49</f>
+        <v>0.49104814367192218</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20">
-        <f>SUM(N18:Q18)/Q48</f>
-        <v>0.49104814367192218</v>
-      </c>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="20" t="s">
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16">
+        <f>($P$52/Q37)</f>
+        <v>0.19177161100173432</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20">
-        <f>($P$51/Q36)</f>
-        <v>0.19177161100173432</v>
-      </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B54" s="20" t="s">
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16">
+        <f>P52/(Q49-Q35)</f>
+        <v>0.88290190194776874</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20">
-        <f>P51/(Q48-Q34)</f>
-        <v>0.88290190194776874</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B56" s="10" t="s">
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B58" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="10" t="s">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B59" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B58" s="10" t="s">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B60" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B59" s="10" t="s">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B61" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B60" s="10" t="s">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B62" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B63" s="6" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B62" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>